--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\fuels\BFPIaE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\fuels\BFPIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC290A8-4F7E-478E-AE8A-DDAE381592F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C82F89-20EB-416E-AD07-94C23A027037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="900" windowWidth="20265" windowHeight="15810" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8130" yWindow="990" windowWidth="32490" windowHeight="22140" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="GREET1 Fuel_Specs" sheetId="16" r:id="rId7"/>
     <sheet name="Start Year Data" sheetId="9" r:id="rId8"/>
     <sheet name="Time Series Scaling Factors" sheetId="18" r:id="rId9"/>
-    <sheet name="BFPIaE-production" sheetId="12" r:id="rId10"/>
-    <sheet name="BFPIaE-imports" sheetId="19" r:id="rId11"/>
-    <sheet name="BFPIaE-exports" sheetId="13" r:id="rId12"/>
+    <sheet name="BFPIaE-imports" sheetId="19" r:id="rId10"/>
+    <sheet name="BFPIaE-exports" sheetId="13" r:id="rId11"/>
+    <sheet name="BFPIaE-production (not used)" sheetId="12" r:id="rId12"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId13"/>
@@ -3078,9 +3078,6 @@
     <t>This variable contains time series data.</t>
   </si>
   <si>
-    <t>BFPIaE BAU Fuel Production</t>
-  </si>
-  <si>
     <t>BFPIaE BAU Fuel Imports</t>
   </si>
   <si>
@@ -3226,6 +3223,9 @@
   </si>
   <si>
     <t>Energy Modeling System run highogs.d112619a.  Projections:  EIA, AEO2020 National Energy Modeling System run highogs.d112619a.</t>
+  </si>
+  <si>
+    <t>BFPIaE BAU Fuel Production (not used)</t>
   </si>
 </sst>
 </file>
@@ -4395,11 +4395,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="8">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="8" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Body: normal cell" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4791,9 +4791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4811,8 +4809,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>628</v>
+      <c r="A3" s="21" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5073,7 +5071,7 @@
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
@@ -5103,7 +5101,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -5283,2926 +5281,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AI23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="35" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>630</v>
-      </c>
-      <c r="B1" s="234">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="234">
-        <v>2021</v>
-      </c>
-      <c r="E1" s="5">
-        <v>2022</v>
-      </c>
-      <c r="F1" s="234">
-        <v>2023</v>
-      </c>
-      <c r="G1" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H1" s="234">
-        <v>2025</v>
-      </c>
-      <c r="I1" s="5">
-        <v>2026</v>
-      </c>
-      <c r="J1" s="234">
-        <v>2027</v>
-      </c>
-      <c r="K1" s="5">
-        <v>2028</v>
-      </c>
-      <c r="L1" s="234">
-        <v>2029</v>
-      </c>
-      <c r="M1" s="5">
-        <v>2030</v>
-      </c>
-      <c r="N1" s="234">
-        <v>2031</v>
-      </c>
-      <c r="O1" s="5">
-        <v>2032</v>
-      </c>
-      <c r="P1" s="234">
-        <v>2033</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>2034</v>
-      </c>
-      <c r="R1" s="234">
-        <v>2035</v>
-      </c>
-      <c r="S1" s="5">
-        <v>2036</v>
-      </c>
-      <c r="T1" s="234">
-        <v>2037</v>
-      </c>
-      <c r="U1" s="5">
-        <v>2038</v>
-      </c>
-      <c r="V1" s="234">
-        <v>2039</v>
-      </c>
-      <c r="W1" s="5">
-        <v>2040</v>
-      </c>
-      <c r="X1" s="234">
-        <v>2041</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>2042</v>
-      </c>
-      <c r="Z1" s="234">
-        <v>2043</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>2044</v>
-      </c>
-      <c r="AB1" s="234">
-        <v>2045</v>
-      </c>
-      <c r="AC1" s="5">
-        <v>2046</v>
-      </c>
-      <c r="AD1" s="234">
-        <v>2047</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>2048</v>
-      </c>
-      <c r="AF1" s="234">
-        <v>2049</v>
-      </c>
-      <c r="AG1" s="5">
-        <v>2050</v>
-      </c>
-      <c r="AH1" s="234"/>
-      <c r="AI1" s="5"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="29">
-        <f>'Start Year Data'!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>$B2*'Time Series Scaling Factors'!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>$B2*'Time Series Scaling Factors'!D3</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>$B2*'Time Series Scaling Factors'!E3</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>$B2*'Time Series Scaling Factors'!F3</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>$B2*'Time Series Scaling Factors'!G3</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>$B2*'Time Series Scaling Factors'!H3</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>$B2*'Time Series Scaling Factors'!I3</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>$B2*'Time Series Scaling Factors'!J3</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>$B2*'Time Series Scaling Factors'!K3</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>$B2*'Time Series Scaling Factors'!L3</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <f>$B2*'Time Series Scaling Factors'!M3</f>
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>$B2*'Time Series Scaling Factors'!N3</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>$B2*'Time Series Scaling Factors'!O3</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>$B2*'Time Series Scaling Factors'!P3</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>$B2*'Time Series Scaling Factors'!Q3</f>
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f>$B2*'Time Series Scaling Factors'!R3</f>
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f>$B2*'Time Series Scaling Factors'!S3</f>
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <f>$B2*'Time Series Scaling Factors'!T3</f>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f>$B2*'Time Series Scaling Factors'!U3</f>
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <f>$B2*'Time Series Scaling Factors'!V3</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f>$B2*'Time Series Scaling Factors'!W3</f>
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <f>$B2*'Time Series Scaling Factors'!X3</f>
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <f>$B2*'Time Series Scaling Factors'!Y3</f>
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <f>$B2*'Time Series Scaling Factors'!Z3</f>
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <f>$B2*'Time Series Scaling Factors'!AA3</f>
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <f>$B2*'Time Series Scaling Factors'!AB3</f>
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <f>$B2*'Time Series Scaling Factors'!AC3</f>
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <f>$B2*'Time Series Scaling Factors'!AD3</f>
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <f>$B2*'Time Series Scaling Factors'!AE3</f>
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <f>$B2*'Time Series Scaling Factors'!AF3</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>$B2*'Time Series Scaling Factors'!AG3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="29">
-        <f>'Start Year Data'!B27</f>
-        <v>1.372785698375E+16</v>
-      </c>
-      <c r="C3">
-        <f>$B3*'Time Series Scaling Factors'!C4</f>
-        <v>1.2466543748823158E+16</v>
-      </c>
-      <c r="D3">
-        <f>$B3*'Time Series Scaling Factors'!D4</f>
-        <v>1.173118503460332E+16</v>
-      </c>
-      <c r="E3">
-        <f>$B3*'Time Series Scaling Factors'!E4</f>
-        <v>1.1530287424907296E+16</v>
-      </c>
-      <c r="F3">
-        <f>$B3*'Time Series Scaling Factors'!F4</f>
-        <v>1.0910944594268388E+16</v>
-      </c>
-      <c r="G3">
-        <f>$B3*'Time Series Scaling Factors'!G4</f>
-        <v>1.0586652456401128E+16</v>
-      </c>
-      <c r="H3">
-        <f>$B3*'Time Series Scaling Factors'!H4</f>
-        <v>9537595128601070</v>
-      </c>
-      <c r="I3">
-        <f>$B3*'Time Series Scaling Factors'!I4</f>
-        <v>9722714739986834</v>
-      </c>
-      <c r="J3">
-        <f>$B3*'Time Series Scaling Factors'!J4</f>
-        <v>9676370094440396</v>
-      </c>
-      <c r="K3">
-        <f>$B3*'Time Series Scaling Factors'!K4</f>
-        <v>9558062926242374</v>
-      </c>
-      <c r="L3">
-        <f>$B3*'Time Series Scaling Factors'!L4</f>
-        <v>9390328753015236</v>
-      </c>
-      <c r="M3">
-        <f>$B3*'Time Series Scaling Factors'!M4</f>
-        <v>9224370957619270</v>
-      </c>
-      <c r="N3">
-        <f>$B3*'Time Series Scaling Factors'!N4</f>
-        <v>9135649180110596</v>
-      </c>
-      <c r="O3">
-        <f>$B3*'Time Series Scaling Factors'!O4</f>
-        <v>9112761624056898</v>
-      </c>
-      <c r="P3">
-        <f>$B3*'Time Series Scaling Factors'!P4</f>
-        <v>9099607728305902</v>
-      </c>
-      <c r="Q3">
-        <f>$B3*'Time Series Scaling Factors'!Q4</f>
-        <v>9095245688893590</v>
-      </c>
-      <c r="R3">
-        <f>$B3*'Time Series Scaling Factors'!R4</f>
-        <v>8983126506568739</v>
-      </c>
-      <c r="S3">
-        <f>$B3*'Time Series Scaling Factors'!S4</f>
-        <v>8975266338147203</v>
-      </c>
-      <c r="T3">
-        <f>$B3*'Time Series Scaling Factors'!T4</f>
-        <v>8968435983297497</v>
-      </c>
-      <c r="U3">
-        <f>$B3*'Time Series Scaling Factors'!U4</f>
-        <v>8926860042247729</v>
-      </c>
-      <c r="V3">
-        <f>$B3*'Time Series Scaling Factors'!V4</f>
-        <v>8884352413280811</v>
-      </c>
-      <c r="W3">
-        <f>$B3*'Time Series Scaling Factors'!W4</f>
-        <v>8795174402058096</v>
-      </c>
-      <c r="X3">
-        <f>$B3*'Time Series Scaling Factors'!X4</f>
-        <v>8730414504781202</v>
-      </c>
-      <c r="Y3">
-        <f>$B3*'Time Series Scaling Factors'!Y4</f>
-        <v>8697889390870105</v>
-      </c>
-      <c r="Z3">
-        <f>$B3*'Time Series Scaling Factors'!Z4</f>
-        <v>8678841886209989</v>
-      </c>
-      <c r="AA3">
-        <f>$B3*'Time Series Scaling Factors'!AA4</f>
-        <v>8642250121455318</v>
-      </c>
-      <c r="AB3">
-        <f>$B3*'Time Series Scaling Factors'!AB4</f>
-        <v>8601605868322697</v>
-      </c>
-      <c r="AC3">
-        <f>$B3*'Time Series Scaling Factors'!AC4</f>
-        <v>8604719587550687</v>
-      </c>
-      <c r="AD3">
-        <f>$B3*'Time Series Scaling Factors'!AD4</f>
-        <v>8580511887379857</v>
-      </c>
-      <c r="AE3">
-        <f>$B3*'Time Series Scaling Factors'!AE4</f>
-        <v>8551782314256096</v>
-      </c>
-      <c r="AF3">
-        <f>$B3*'Time Series Scaling Factors'!AF4</f>
-        <v>8557318826710544</v>
-      </c>
-      <c r="AG3">
-        <f>$B3*'Time Series Scaling Factors'!AG4</f>
-        <v>8530239180832026</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="29">
-        <f>'Start Year Data'!B28</f>
-        <v>3.5698853E+16</v>
-      </c>
-      <c r="C4">
-        <f>$B4*'Time Series Scaling Factors'!C5</f>
-        <v>3.6461613E+16</v>
-      </c>
-      <c r="D4">
-        <f>$B4*'Time Series Scaling Factors'!D5</f>
-        <v>3.8399319E+16</v>
-      </c>
-      <c r="E4">
-        <f>$B4*'Time Series Scaling Factors'!E5</f>
-        <v>3.9064152E+16</v>
-      </c>
-      <c r="F4">
-        <f>$B4*'Time Series Scaling Factors'!F5</f>
-        <v>3.9540782999999992E+16</v>
-      </c>
-      <c r="G4">
-        <f>$B4*'Time Series Scaling Factors'!G5</f>
-        <v>4.0186932E+16</v>
-      </c>
-      <c r="H4">
-        <f>$B4*'Time Series Scaling Factors'!H5</f>
-        <v>4.1594856E+16</v>
-      </c>
-      <c r="I4">
-        <f>$B4*'Time Series Scaling Factors'!I5</f>
-        <v>4.2991825E+16</v>
-      </c>
-      <c r="J4">
-        <f>$B4*'Time Series Scaling Factors'!J5</f>
-        <v>4.3837154E+16</v>
-      </c>
-      <c r="K4">
-        <f>$B4*'Time Series Scaling Factors'!K5</f>
-        <v>4.4673091999999992E+16</v>
-      </c>
-      <c r="L4">
-        <f>$B4*'Time Series Scaling Factors'!L5</f>
-        <v>4.5265652E+16</v>
-      </c>
-      <c r="M4">
-        <f>$B4*'Time Series Scaling Factors'!M5</f>
-        <v>4.5577869E+16</v>
-      </c>
-      <c r="N4">
-        <f>$B4*'Time Series Scaling Factors'!N5</f>
-        <v>4.6066223E+16</v>
-      </c>
-      <c r="O4">
-        <f>$B4*'Time Series Scaling Factors'!O5</f>
-        <v>4.6707607E+16</v>
-      </c>
-      <c r="P4">
-        <f>$B4*'Time Series Scaling Factors'!P5</f>
-        <v>4.7376926E+16</v>
-      </c>
-      <c r="Q4">
-        <f>$B4*'Time Series Scaling Factors'!Q5</f>
-        <v>4.7925549E+16</v>
-      </c>
-      <c r="R4">
-        <f>$B4*'Time Series Scaling Factors'!R5</f>
-        <v>4.8427116E+16</v>
-      </c>
-      <c r="S4">
-        <f>$B4*'Time Series Scaling Factors'!S5</f>
-        <v>4.9248726E+16</v>
-      </c>
-      <c r="T4">
-        <f>$B4*'Time Series Scaling Factors'!T5</f>
-        <v>4.9617588E+16</v>
-      </c>
-      <c r="U4">
-        <f>$B4*'Time Series Scaling Factors'!U5</f>
-        <v>5.0274464E+16</v>
-      </c>
-      <c r="V4">
-        <f>$B4*'Time Series Scaling Factors'!V5</f>
-        <v>5.0788734E+16</v>
-      </c>
-      <c r="W4">
-        <f>$B4*'Time Series Scaling Factors'!W5</f>
-        <v>5.1329384E+16</v>
-      </c>
-      <c r="X4">
-        <f>$B4*'Time Series Scaling Factors'!X5</f>
-        <v>5.1800266E+16</v>
-      </c>
-      <c r="Y4">
-        <f>$B4*'Time Series Scaling Factors'!Y5</f>
-        <v>5.2295409999999992E+16</v>
-      </c>
-      <c r="Z4">
-        <f>$B4*'Time Series Scaling Factors'!Z5</f>
-        <v>5.2754333E+16</v>
-      </c>
-      <c r="AA4">
-        <f>$B4*'Time Series Scaling Factors'!AA5</f>
-        <v>5.3282814E+16</v>
-      </c>
-      <c r="AB4">
-        <f>$B4*'Time Series Scaling Factors'!AB5</f>
-        <v>5.371896E+16</v>
-      </c>
-      <c r="AC4">
-        <f>$B4*'Time Series Scaling Factors'!AC5</f>
-        <v>5.4344379E+16</v>
-      </c>
-      <c r="AD4">
-        <f>$B4*'Time Series Scaling Factors'!AD5</f>
-        <v>5.4812981000000008E+16</v>
-      </c>
-      <c r="AE4">
-        <f>$B4*'Time Series Scaling Factors'!AE5</f>
-        <v>5.5301308E+16</v>
-      </c>
-      <c r="AF4">
-        <f>$B4*'Time Series Scaling Factors'!AF5</f>
-        <v>5.5799816E+16</v>
-      </c>
-      <c r="AG4">
-        <f>$B4*'Time Series Scaling Factors'!AG5</f>
-        <v>5.6345497000000008E+16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="29">
-        <f>'Start Year Data'!B29</f>
-        <v>540000000000000</v>
-      </c>
-      <c r="C5">
-        <f>$B5*'Time Series Scaling Factors'!C6</f>
-        <v>530350229609255.75</v>
-      </c>
-      <c r="D5">
-        <f>$B5*'Time Series Scaling Factors'!D6</f>
-        <v>521586332440665.06</v>
-      </c>
-      <c r="E5">
-        <f>$B5*'Time Series Scaling Factors'!E6</f>
-        <v>511861167223607.38</v>
-      </c>
-      <c r="F5">
-        <f>$B5*'Time Series Scaling Factors'!F6</f>
-        <v>513379807033013.56</v>
-      </c>
-      <c r="G5">
-        <f>$B5*'Time Series Scaling Factors'!G6</f>
-        <v>515362006720236.25</v>
-      </c>
-      <c r="H5">
-        <f>$B5*'Time Series Scaling Factors'!H6</f>
-        <v>505881379090814.13</v>
-      </c>
-      <c r="I5">
-        <f>$B5*'Time Series Scaling Factors'!I6</f>
-        <v>420681196625529.13</v>
-      </c>
-      <c r="J5">
-        <f>$B5*'Time Series Scaling Factors'!J6</f>
-        <v>390752456140475.56</v>
-      </c>
-      <c r="K5">
-        <f>$B5*'Time Series Scaling Factors'!K6</f>
-        <v>391031653605856.5</v>
-      </c>
-      <c r="L5">
-        <f>$B5*'Time Series Scaling Factors'!L6</f>
-        <v>391305415481554.19</v>
-      </c>
-      <c r="M5">
-        <f>$B5*'Time Series Scaling Factors'!M6</f>
-        <v>379508011632872.5</v>
-      </c>
-      <c r="N5">
-        <f>$B5*'Time Series Scaling Factors'!N6</f>
-        <v>373627279128543.5</v>
-      </c>
-      <c r="O5">
-        <f>$B5*'Time Series Scaling Factors'!O6</f>
-        <v>369358870420515.75</v>
-      </c>
-      <c r="P5">
-        <f>$B5*'Time Series Scaling Factors'!P6</f>
-        <v>359207810764741.31</v>
-      </c>
-      <c r="Q5">
-        <f>$B5*'Time Series Scaling Factors'!Q6</f>
-        <v>342949642281356.13</v>
-      </c>
-      <c r="R5">
-        <f>$B5*'Time Series Scaling Factors'!R6</f>
-        <v>343889551659773.31</v>
-      </c>
-      <c r="S5">
-        <f>$B5*'Time Series Scaling Factors'!S6</f>
-        <v>312263564283131</v>
-      </c>
-      <c r="T5">
-        <f>$B5*'Time Series Scaling Factors'!T6</f>
-        <v>312404825666783.44</v>
-      </c>
-      <c r="U5">
-        <f>$B5*'Time Series Scaling Factors'!U6</f>
-        <v>288459646253244.5</v>
-      </c>
-      <c r="V5">
-        <f>$B5*'Time Series Scaling Factors'!V6</f>
-        <v>276956915313512.72</v>
-      </c>
-      <c r="W5">
-        <f>$B5*'Time Series Scaling Factors'!W6</f>
-        <v>277187576160427.38</v>
-      </c>
-      <c r="X5">
-        <f>$B5*'Time Series Scaling Factors'!X6</f>
-        <v>278025168556570.28</v>
-      </c>
-      <c r="Y5">
-        <f>$B5*'Time Series Scaling Factors'!Y6</f>
-        <v>273312000716218.88</v>
-      </c>
-      <c r="Z5">
-        <f>$B5*'Time Series Scaling Factors'!Z6</f>
-        <v>268599280512664.91</v>
-      </c>
-      <c r="AA5">
-        <f>$B5*'Time Series Scaling Factors'!AA6</f>
-        <v>258883963305151.19</v>
-      </c>
-      <c r="AB5">
-        <f>$B5*'Time Series Scaling Factors'!AB6</f>
-        <v>254831187637266.41</v>
-      </c>
-      <c r="AC5">
-        <f>$B5*'Time Series Scaling Factors'!AC6</f>
-        <v>250575760396364.66</v>
-      </c>
-      <c r="AD5">
-        <f>$B5*'Time Series Scaling Factors'!AD6</f>
-        <v>250860841088226.38</v>
-      </c>
-      <c r="AE5">
-        <f>$B5*'Time Series Scaling Factors'!AE6</f>
-        <v>251038297104358.38</v>
-      </c>
-      <c r="AF5">
-        <f>$B5*'Time Series Scaling Factors'!AF6</f>
-        <v>251252715130336.94</v>
-      </c>
-      <c r="AG5">
-        <f>$B5*'Time Series Scaling Factors'!AG6</f>
-        <v>251562735586628.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="29">
-        <f>'Start Year Data'!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f>$B6*'Time Series Scaling Factors'!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f>$B6*'Time Series Scaling Factors'!D7</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>$B6*'Time Series Scaling Factors'!E7</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>$B6*'Time Series Scaling Factors'!F7</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f>$B6*'Time Series Scaling Factors'!G7</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>$B6*'Time Series Scaling Factors'!H7</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f>$B6*'Time Series Scaling Factors'!I7</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>$B6*'Time Series Scaling Factors'!J7</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f>$B6*'Time Series Scaling Factors'!K7</f>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f>$B6*'Time Series Scaling Factors'!L7</f>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f>$B6*'Time Series Scaling Factors'!M7</f>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f>$B6*'Time Series Scaling Factors'!N7</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f>$B6*'Time Series Scaling Factors'!O7</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f>$B6*'Time Series Scaling Factors'!P7</f>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f>$B6*'Time Series Scaling Factors'!Q7</f>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f>$B6*'Time Series Scaling Factors'!R7</f>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f>$B6*'Time Series Scaling Factors'!S7</f>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f>$B6*'Time Series Scaling Factors'!T7</f>
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f>$B6*'Time Series Scaling Factors'!U7</f>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f>$B6*'Time Series Scaling Factors'!V7</f>
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <f>$B6*'Time Series Scaling Factors'!W7</f>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f>$B6*'Time Series Scaling Factors'!X7</f>
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f>$B6*'Time Series Scaling Factors'!Y7</f>
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <f>$B6*'Time Series Scaling Factors'!Z7</f>
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <f>$B6*'Time Series Scaling Factors'!AA7</f>
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <f>$B6*'Time Series Scaling Factors'!AB7</f>
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <f>$B6*'Time Series Scaling Factors'!AC7</f>
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <f>$B6*'Time Series Scaling Factors'!AD7</f>
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <f>$B6*'Time Series Scaling Factors'!AE7</f>
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <f>$B6*'Time Series Scaling Factors'!AF7</f>
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <f>$B6*'Time Series Scaling Factors'!AG7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="29">
-        <f>'Start Year Data'!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f>$B7*'Time Series Scaling Factors'!C8</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f>$B7*'Time Series Scaling Factors'!D8</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f>$B7*'Time Series Scaling Factors'!E8</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>$B7*'Time Series Scaling Factors'!F8</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>$B7*'Time Series Scaling Factors'!G8</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f>$B7*'Time Series Scaling Factors'!H8</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f>$B7*'Time Series Scaling Factors'!I8</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>$B7*'Time Series Scaling Factors'!J8</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f>$B7*'Time Series Scaling Factors'!K8</f>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f>$B7*'Time Series Scaling Factors'!L8</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>$B7*'Time Series Scaling Factors'!M8</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f>$B7*'Time Series Scaling Factors'!N8</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>$B7*'Time Series Scaling Factors'!O8</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f>$B7*'Time Series Scaling Factors'!P8</f>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f>$B7*'Time Series Scaling Factors'!Q8</f>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f>$B7*'Time Series Scaling Factors'!R8</f>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f>$B7*'Time Series Scaling Factors'!S8</f>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f>$B7*'Time Series Scaling Factors'!T8</f>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f>$B7*'Time Series Scaling Factors'!U8</f>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f>$B7*'Time Series Scaling Factors'!V8</f>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f>$B7*'Time Series Scaling Factors'!W8</f>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f>$B7*'Time Series Scaling Factors'!X8</f>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f>$B7*'Time Series Scaling Factors'!Y8</f>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f>$B7*'Time Series Scaling Factors'!Z8</f>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f>$B7*'Time Series Scaling Factors'!AA8</f>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f>$B7*'Time Series Scaling Factors'!AB8</f>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f>$B7*'Time Series Scaling Factors'!AC8</f>
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <f>$B7*'Time Series Scaling Factors'!AD8</f>
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <f>$B7*'Time Series Scaling Factors'!AE8</f>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f>$B7*'Time Series Scaling Factors'!AF8</f>
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <f>$B7*'Time Series Scaling Factors'!AG8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="29">
-        <f>'Start Year Data'!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f>$B8*'Time Series Scaling Factors'!C9</f>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f>$B8*'Time Series Scaling Factors'!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f>$B8*'Time Series Scaling Factors'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>$B8*'Time Series Scaling Factors'!F9</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>$B8*'Time Series Scaling Factors'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f>$B8*'Time Series Scaling Factors'!H9</f>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f>$B8*'Time Series Scaling Factors'!I9</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>$B8*'Time Series Scaling Factors'!J9</f>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f>$B8*'Time Series Scaling Factors'!K9</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>$B8*'Time Series Scaling Factors'!L9</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>$B8*'Time Series Scaling Factors'!M9</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f>$B8*'Time Series Scaling Factors'!N9</f>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f>$B8*'Time Series Scaling Factors'!O9</f>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f>$B8*'Time Series Scaling Factors'!P9</f>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f>$B8*'Time Series Scaling Factors'!Q9</f>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f>$B8*'Time Series Scaling Factors'!R9</f>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f>$B8*'Time Series Scaling Factors'!S9</f>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f>$B8*'Time Series Scaling Factors'!T9</f>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f>$B8*'Time Series Scaling Factors'!U9</f>
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f>$B8*'Time Series Scaling Factors'!V9</f>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f>$B8*'Time Series Scaling Factors'!W9</f>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f>$B8*'Time Series Scaling Factors'!X9</f>
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <f>$B8*'Time Series Scaling Factors'!Y9</f>
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <f>$B8*'Time Series Scaling Factors'!Z9</f>
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <f>$B8*'Time Series Scaling Factors'!AA9</f>
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <f>$B8*'Time Series Scaling Factors'!AB9</f>
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f>$B8*'Time Series Scaling Factors'!AC9</f>
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <f>$B8*'Time Series Scaling Factors'!AD9</f>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f>$B8*'Time Series Scaling Factors'!AE9</f>
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <f>$B8*'Time Series Scaling Factors'!AF9</f>
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <f>$B8*'Time Series Scaling Factors'!AG9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" s="29">
-        <f>'Start Year Data'!B33</f>
-        <v>123408653368000</v>
-      </c>
-      <c r="C9">
-        <f>$B9*'Time Series Scaling Factors'!C10</f>
-        <v>121916730377165.38</v>
-      </c>
-      <c r="D9">
-        <f>$B9*'Time Series Scaling Factors'!D10</f>
-        <v>123445738522830.2</v>
-      </c>
-      <c r="E9">
-        <f>$B9*'Time Series Scaling Factors'!E10</f>
-        <v>125097792654624.8</v>
-      </c>
-      <c r="F9">
-        <f>$B9*'Time Series Scaling Factors'!F10</f>
-        <v>125801055070049.69</v>
-      </c>
-      <c r="G9">
-        <f>$B9*'Time Series Scaling Factors'!G10</f>
-        <v>126604166067858.83</v>
-      </c>
-      <c r="H9">
-        <f>$B9*'Time Series Scaling Factors'!H10</f>
-        <v>127372186836407.89</v>
-      </c>
-      <c r="I9">
-        <f>$B9*'Time Series Scaling Factors'!I10</f>
-        <v>128070717697595.84</v>
-      </c>
-      <c r="J9">
-        <f>$B9*'Time Series Scaling Factors'!J10</f>
-        <v>129006082030320.11</v>
-      </c>
-      <c r="K9">
-        <f>$B9*'Time Series Scaling Factors'!K10</f>
-        <v>129940909267698.56</v>
-      </c>
-      <c r="L9">
-        <f>$B9*'Time Series Scaling Factors'!L10</f>
-        <v>130600283320579.55</v>
-      </c>
-      <c r="M9">
-        <f>$B9*'Time Series Scaling Factors'!M10</f>
-        <v>131166407391039.25</v>
-      </c>
-      <c r="N9">
-        <f>$B9*'Time Series Scaling Factors'!N10</f>
-        <v>131582553980171.83</v>
-      </c>
-      <c r="O9">
-        <f>$B9*'Time Series Scaling Factors'!O10</f>
-        <v>131770639655083.09</v>
-      </c>
-      <c r="P9">
-        <f>$B9*'Time Series Scaling Factors'!P10</f>
-        <v>132151286799454.08</v>
-      </c>
-      <c r="Q9">
-        <f>$B9*'Time Series Scaling Factors'!Q10</f>
-        <v>132331316044178.06</v>
-      </c>
-      <c r="R9">
-        <f>$B9*'Time Series Scaling Factors'!R10</f>
-        <v>132723574678406.22</v>
-      </c>
-      <c r="S9">
-        <f>$B9*'Time Series Scaling Factors'!S10</f>
-        <v>133099106629007.5</v>
-      </c>
-      <c r="T9">
-        <f>$B9*'Time Series Scaling Factors'!T10</f>
-        <v>133349444212095.8</v>
-      </c>
-      <c r="U9">
-        <f>$B9*'Time Series Scaling Factors'!U10</f>
-        <v>133710858227892.77</v>
-      </c>
-      <c r="V9">
-        <f>$B9*'Time Series Scaling Factors'!V10</f>
-        <v>134015749352534.73</v>
-      </c>
-      <c r="W9">
-        <f>$B9*'Time Series Scaling Factors'!W10</f>
-        <v>134472203668572.41</v>
-      </c>
-      <c r="X9">
-        <f>$B9*'Time Series Scaling Factors'!X10</f>
-        <v>135120426599035.55</v>
-      </c>
-      <c r="Y9">
-        <f>$B9*'Time Series Scaling Factors'!Y10</f>
-        <v>135444192788687.59</v>
-      </c>
-      <c r="Z9">
-        <f>$B9*'Time Series Scaling Factors'!Z10</f>
-        <v>136046532431036.67</v>
-      </c>
-      <c r="AA9">
-        <f>$B9*'Time Series Scaling Factors'!AA10</f>
-        <v>136854119223394.25</v>
-      </c>
-      <c r="AB9">
-        <f>$B9*'Time Series Scaling Factors'!AB10</f>
-        <v>137562010889180.72</v>
-      </c>
-      <c r="AC9">
-        <f>$B9*'Time Series Scaling Factors'!AC10</f>
-        <v>138728249492699.64</v>
-      </c>
-      <c r="AD9">
-        <f>$B9*'Time Series Scaling Factors'!AD10</f>
-        <v>139699727093437.86</v>
-      </c>
-      <c r="AE9">
-        <f>$B9*'Time Series Scaling Factors'!AE10</f>
-        <v>140693379059167.67</v>
-      </c>
-      <c r="AF9">
-        <f>$B9*'Time Series Scaling Factors'!AF10</f>
-        <v>141846241430978.88</v>
-      </c>
-      <c r="AG9">
-        <f>$B9*'Time Series Scaling Factors'!AG10</f>
-        <v>143192406975346.41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" s="29">
-        <f>'Start Year Data'!B34</f>
-        <v>1.8365288407359E+16</v>
-      </c>
-      <c r="C10">
-        <f>$B10*'Time Series Scaling Factors'!C11</f>
-        <v>2.081311701707924E+16</v>
-      </c>
-      <c r="D10">
-        <f>$B10*'Time Series Scaling Factors'!D11</f>
-        <v>2.3057666630590116E+16</v>
-      </c>
-      <c r="E10">
-        <f>$B10*'Time Series Scaling Factors'!E11</f>
-        <v>2.4431765838112752E+16</v>
-      </c>
-      <c r="F10">
-        <f>$B10*'Time Series Scaling Factors'!F11</f>
-        <v>2.5060870393468948E+16</v>
-      </c>
-      <c r="G10">
-        <f>$B10*'Time Series Scaling Factors'!G11</f>
-        <v>2.566304567735818E+16</v>
-      </c>
-      <c r="H10">
-        <f>$B10*'Time Series Scaling Factors'!H11</f>
-        <v>2.6003268681780608E+16</v>
-      </c>
-      <c r="I10">
-        <f>$B10*'Time Series Scaling Factors'!I11</f>
-        <v>2.6381043648824656E+16</v>
-      </c>
-      <c r="J10">
-        <f>$B10*'Time Series Scaling Factors'!J11</f>
-        <v>2.6568281398936748E+16</v>
-      </c>
-      <c r="K10">
-        <f>$B10*'Time Series Scaling Factors'!K11</f>
-        <v>2.6745211273354708E+16</v>
-      </c>
-      <c r="L10">
-        <f>$B10*'Time Series Scaling Factors'!L11</f>
-        <v>2.687636382448514E+16</v>
-      </c>
-      <c r="M10">
-        <f>$B10*'Time Series Scaling Factors'!M11</f>
-        <v>2.7055599955215348E+16</v>
-      </c>
-      <c r="N10">
-        <f>$B10*'Time Series Scaling Factors'!N11</f>
-        <v>2.7366543687569052E+16</v>
-      </c>
-      <c r="O10">
-        <f>$B10*'Time Series Scaling Factors'!O11</f>
-        <v>2.756264790318012E+16</v>
-      </c>
-      <c r="P10">
-        <f>$B10*'Time Series Scaling Factors'!P11</f>
-        <v>2.7830648368510596E+16</v>
-      </c>
-      <c r="Q10">
-        <f>$B10*'Time Series Scaling Factors'!Q11</f>
-        <v>2.7566748392481572E+16</v>
-      </c>
-      <c r="R10">
-        <f>$B10*'Time Series Scaling Factors'!R11</f>
-        <v>2.7685243067316104E+16</v>
-      </c>
-      <c r="S10">
-        <f>$B10*'Time Series Scaling Factors'!S11</f>
-        <v>2.7659662697628788E+16</v>
-      </c>
-      <c r="T10">
-        <f>$B10*'Time Series Scaling Factors'!T11</f>
-        <v>2.7616183025219508E+16</v>
-      </c>
-      <c r="U10">
-        <f>$B10*'Time Series Scaling Factors'!U11</f>
-        <v>2.7457860967589596E+16</v>
-      </c>
-      <c r="V10">
-        <f>$B10*'Time Series Scaling Factors'!V11</f>
-        <v>2.742120397010406E+16</v>
-      </c>
-      <c r="W10">
-        <f>$B10*'Time Series Scaling Factors'!W11</f>
-        <v>2.7423094297106272E+16</v>
-      </c>
-      <c r="X10">
-        <f>$B10*'Time Series Scaling Factors'!X11</f>
-        <v>2.7420358486213468E+16</v>
-      </c>
-      <c r="Y10">
-        <f>$B10*'Time Series Scaling Factors'!Y11</f>
-        <v>2.7446666732193364E+16</v>
-      </c>
-      <c r="Z10">
-        <f>$B10*'Time Series Scaling Factors'!Z11</f>
-        <v>2.72505904842428E+16</v>
-      </c>
-      <c r="AA10">
-        <f>$B10*'Time Series Scaling Factors'!AA11</f>
-        <v>2.7236258133914224E+16</v>
-      </c>
-      <c r="AB10">
-        <f>$B10*'Time Series Scaling Factors'!AB11</f>
-        <v>2.7285641134048152E+16</v>
-      </c>
-      <c r="AC10">
-        <f>$B10*'Time Series Scaling Factors'!AC11</f>
-        <v>2.7339893375587624E+16</v>
-      </c>
-      <c r="AD10">
-        <f>$B10*'Time Series Scaling Factors'!AD11</f>
-        <v>2.7517893192299696E+16</v>
-      </c>
-      <c r="AE10">
-        <f>$B10*'Time Series Scaling Factors'!AE11</f>
-        <v>2.7792415859483392E+16</v>
-      </c>
-      <c r="AF10">
-        <f>$B10*'Time Series Scaling Factors'!AF11</f>
-        <v>2.8141849546764828E+16</v>
-      </c>
-      <c r="AG10">
-        <f>$B10*'Time Series Scaling Factors'!AG11</f>
-        <v>2.8371133447405544E+16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="B11" s="29">
-        <f>'Start Year Data'!B35</f>
-        <v>1.0682345175E+16</v>
-      </c>
-      <c r="C11">
-        <f>$B11*'Time Series Scaling Factors'!C12</f>
-        <v>1.210614803386467E+16</v>
-      </c>
-      <c r="D11">
-        <f>$B11*'Time Series Scaling Factors'!D12</f>
-        <v>1.3411711725656648E+16</v>
-      </c>
-      <c r="E11">
-        <f>$B11*'Time Series Scaling Factors'!E12</f>
-        <v>1.4210969636224992E+16</v>
-      </c>
-      <c r="F11">
-        <f>$B11*'Time Series Scaling Factors'!F12</f>
-        <v>1.4576894301409502E+16</v>
-      </c>
-      <c r="G11">
-        <f>$B11*'Time Series Scaling Factors'!G12</f>
-        <v>1.492715529898691E+16</v>
-      </c>
-      <c r="H11">
-        <f>$B11*'Time Series Scaling Factors'!H12</f>
-        <v>1.5125049254644018E+16</v>
-      </c>
-      <c r="I11">
-        <f>$B11*'Time Series Scaling Factors'!I12</f>
-        <v>1.5344785667540302E+16</v>
-      </c>
-      <c r="J11">
-        <f>$B11*'Time Series Scaling Factors'!J12</f>
-        <v>1.5453694290814976E+16</v>
-      </c>
-      <c r="K11">
-        <f>$B11*'Time Series Scaling Factors'!K12</f>
-        <v>1.5556607239872978E+16</v>
-      </c>
-      <c r="L11">
-        <f>$B11*'Time Series Scaling Factors'!L12</f>
-        <v>1.5632893372204866E+16</v>
-      </c>
-      <c r="M11">
-        <f>$B11*'Time Series Scaling Factors'!M12</f>
-        <v>1.5737147777244556E+16</v>
-      </c>
-      <c r="N11">
-        <f>$B11*'Time Series Scaling Factors'!N12</f>
-        <v>1.591801116502964E+16</v>
-      </c>
-      <c r="O11">
-        <f>$B11*'Time Series Scaling Factors'!O12</f>
-        <v>1.6032077052532428E+16</v>
-      </c>
-      <c r="P11">
-        <f>$B11*'Time Series Scaling Factors'!P12</f>
-        <v>1.6187962079449488E+16</v>
-      </c>
-      <c r="Q11">
-        <f>$B11*'Time Series Scaling Factors'!Q12</f>
-        <v>1.6034462141246142E+16</v>
-      </c>
-      <c r="R11">
-        <f>$B11*'Time Series Scaling Factors'!R12</f>
-        <v>1.6103385699096432E+16</v>
-      </c>
-      <c r="S11">
-        <f>$B11*'Time Series Scaling Factors'!S12</f>
-        <v>1.6088506633075638E+16</v>
-      </c>
-      <c r="T11">
-        <f>$B11*'Time Series Scaling Factors'!T12</f>
-        <v>1.6063216266898444E+16</v>
-      </c>
-      <c r="U11">
-        <f>$B11*'Time Series Scaling Factors'!U12</f>
-        <v>1.5971126731961368E+16</v>
-      </c>
-      <c r="V11">
-        <f>$B11*'Time Series Scaling Factors'!V12</f>
-        <v>1.5949804839730006E+16</v>
-      </c>
-      <c r="W11">
-        <f>$B11*'Time Series Scaling Factors'!W12</f>
-        <v>1.5950904366461268E+16</v>
-      </c>
-      <c r="X11">
-        <f>$B11*'Time Series Scaling Factors'!X12</f>
-        <v>1.5949313055960598E+16</v>
-      </c>
-      <c r="Y11">
-        <f>$B11*'Time Series Scaling Factors'!Y12</f>
-        <v>1.5964615498169646E+16</v>
-      </c>
-      <c r="Z11">
-        <f>$B11*'Time Series Scaling Factors'!Z12</f>
-        <v>1.5850565878323352E+16</v>
-      </c>
-      <c r="AA11">
-        <f>$B11*'Time Series Scaling Factors'!AA12</f>
-        <v>1.584222933004908E+16</v>
-      </c>
-      <c r="AB11">
-        <f>$B11*'Time Series Scaling Factors'!AB12</f>
-        <v>1.5870953423104776E+16</v>
-      </c>
-      <c r="AC11">
-        <f>$B11*'Time Series Scaling Factors'!AC12</f>
-        <v>1.590250975686809E+16</v>
-      </c>
-      <c r="AD11">
-        <f>$B11*'Time Series Scaling Factors'!AD12</f>
-        <v>1.6006045048066848E+16</v>
-      </c>
-      <c r="AE11">
-        <f>$B11*'Time Series Scaling Factors'!AE12</f>
-        <v>1.616572377590228E+16</v>
-      </c>
-      <c r="AF11">
-        <f>$B11*'Time Series Scaling Factors'!AF12</f>
-        <v>1.6368975213098202E+16</v>
-      </c>
-      <c r="AG11">
-        <f>$B11*'Time Series Scaling Factors'!AG12</f>
-        <v>1.650234038087488E+16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="29">
-        <f>'Start Year Data'!B36</f>
-        <v>1515620096655000</v>
-      </c>
-      <c r="C12">
-        <f>$B12*'Time Series Scaling Factors'!C13</f>
-        <v>1497297325877915</v>
-      </c>
-      <c r="D12">
-        <f>$B12*'Time Series Scaling Factors'!D13</f>
-        <v>1516075550988340.8</v>
-      </c>
-      <c r="E12">
-        <f>$B12*'Time Series Scaling Factors'!E13</f>
-        <v>1536364942166148.5</v>
-      </c>
-      <c r="F12">
-        <f>$B12*'Time Series Scaling Factors'!F13</f>
-        <v>1545001926858475.5</v>
-      </c>
-      <c r="G12">
-        <f>$B12*'Time Series Scaling Factors'!G13</f>
-        <v>1554865183080018.5</v>
-      </c>
-      <c r="H12">
-        <f>$B12*'Time Series Scaling Factors'!H13</f>
-        <v>1564297485270289.5</v>
-      </c>
-      <c r="I12">
-        <f>$B12*'Time Series Scaling Factors'!I13</f>
-        <v>1572876360271811.3</v>
-      </c>
-      <c r="J12">
-        <f>$B12*'Time Series Scaling Factors'!J13</f>
-        <v>1584363860877978.5</v>
-      </c>
-      <c r="K12">
-        <f>$B12*'Time Series Scaling Factors'!K13</f>
-        <v>1595844765248973.3</v>
-      </c>
-      <c r="L12">
-        <f>$B12*'Time Series Scaling Factors'!L13</f>
-        <v>1603942743295773.8</v>
-      </c>
-      <c r="M12">
-        <f>$B12*'Time Series Scaling Factors'!M13</f>
-        <v>1610895489274050</v>
-      </c>
-      <c r="N12">
-        <f>$B12*'Time Series Scaling Factors'!N13</f>
-        <v>1616006315107008.5</v>
-      </c>
-      <c r="O12">
-        <f>$B12*'Time Series Scaling Factors'!O13</f>
-        <v>1618316253843138.8</v>
-      </c>
-      <c r="P12">
-        <f>$B12*'Time Series Scaling Factors'!P13</f>
-        <v>1622991099941837</v>
-      </c>
-      <c r="Q12">
-        <f>$B12*'Time Series Scaling Factors'!Q13</f>
-        <v>1625202095150379.3</v>
-      </c>
-      <c r="R12">
-        <f>$B12*'Time Series Scaling Factors'!R13</f>
-        <v>1630019545571378.5</v>
-      </c>
-      <c r="S12">
-        <f>$B12*'Time Series Scaling Factors'!S13</f>
-        <v>1634631570382719.3</v>
-      </c>
-      <c r="T12">
-        <f>$B12*'Time Series Scaling Factors'!T13</f>
-        <v>1637706044185988.8</v>
-      </c>
-      <c r="U12">
-        <f>$B12*'Time Series Scaling Factors'!U13</f>
-        <v>1642144682244223</v>
-      </c>
-      <c r="V12">
-        <f>$B12*'Time Series Scaling Factors'!V13</f>
-        <v>1645889145077158.8</v>
-      </c>
-      <c r="W12">
-        <f>$B12*'Time Series Scaling Factors'!W13</f>
-        <v>1651495002654493</v>
-      </c>
-      <c r="X12">
-        <f>$B12*'Time Series Scaling Factors'!X13</f>
-        <v>1659456030294855</v>
-      </c>
-      <c r="Y12">
-        <f>$B12*'Time Series Scaling Factors'!Y13</f>
-        <v>1663432303678138.8</v>
-      </c>
-      <c r="Z12">
-        <f>$B12*'Time Series Scaling Factors'!Z13</f>
-        <v>1670829824370905.5</v>
-      </c>
-      <c r="AA12">
-        <f>$B12*'Time Series Scaling Factors'!AA13</f>
-        <v>1680748049218885.8</v>
-      </c>
-      <c r="AB12">
-        <f>$B12*'Time Series Scaling Factors'!AB13</f>
-        <v>1689441887176271.5</v>
-      </c>
-      <c r="AC12">
-        <f>$B12*'Time Series Scaling Factors'!AC13</f>
-        <v>1703764826587313.3</v>
-      </c>
-      <c r="AD12">
-        <f>$B12*'Time Series Scaling Factors'!AD13</f>
-        <v>1715695845482223.5</v>
-      </c>
-      <c r="AE12">
-        <f>$B12*'Time Series Scaling Factors'!AE13</f>
-        <v>1727899194657828</v>
-      </c>
-      <c r="AF12">
-        <f>$B12*'Time Series Scaling Factors'!AF13</f>
-        <v>1742057856402430.8</v>
-      </c>
-      <c r="AG12">
-        <f>$B12*'Time Series Scaling Factors'!AG13</f>
-        <v>1758590534596268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="29">
-        <f>'Start Year Data'!B37</f>
-        <v>203604487000000</v>
-      </c>
-      <c r="C13">
-        <f>$B13*'Time Series Scaling Factors'!C14</f>
-        <v>201143053324951.44</v>
-      </c>
-      <c r="D13">
-        <f>$B13*'Time Series Scaling Factors'!D14</f>
-        <v>203665671558120.09</v>
-      </c>
-      <c r="E13">
-        <f>$B13*'Time Series Scaling Factors'!E14</f>
-        <v>206391295935506.66</v>
-      </c>
-      <c r="F13">
-        <f>$B13*'Time Series Scaling Factors'!F14</f>
-        <v>207551566138698.88</v>
-      </c>
-      <c r="G13">
-        <f>$B13*'Time Series Scaling Factors'!G14</f>
-        <v>208876570490098.66</v>
-      </c>
-      <c r="H13">
-        <f>$B13*'Time Series Scaling Factors'!H14</f>
-        <v>210143681590642.63</v>
-      </c>
-      <c r="I13">
-        <f>$B13*'Time Series Scaling Factors'!I14</f>
-        <v>211296145488143.72</v>
-      </c>
-      <c r="J13">
-        <f>$B13*'Time Series Scaling Factors'!J14</f>
-        <v>212839346632673.84</v>
-      </c>
-      <c r="K13">
-        <f>$B13*'Time Series Scaling Factors'!K14</f>
-        <v>214381661656017.41</v>
-      </c>
-      <c r="L13">
-        <f>$B13*'Time Series Scaling Factors'!L14</f>
-        <v>215469523099392.97</v>
-      </c>
-      <c r="M13">
-        <f>$B13*'Time Series Scaling Factors'!M14</f>
-        <v>216403537026281.72</v>
-      </c>
-      <c r="N13">
-        <f>$B13*'Time Series Scaling Factors'!N14</f>
-        <v>217090112160883.34</v>
-      </c>
-      <c r="O13">
-        <f>$B13*'Time Series Scaling Factors'!O14</f>
-        <v>217400423361169.78</v>
-      </c>
-      <c r="P13">
-        <f>$B13*'Time Series Scaling Factors'!P14</f>
-        <v>218028430104964</v>
-      </c>
-      <c r="Q13">
-        <f>$B13*'Time Series Scaling Factors'!Q14</f>
-        <v>218325449487451.91</v>
-      </c>
-      <c r="R13">
-        <f>$B13*'Time Series Scaling Factors'!R14</f>
-        <v>218972613327374.75</v>
-      </c>
-      <c r="S13">
-        <f>$B13*'Time Series Scaling Factors'!S14</f>
-        <v>219592180821773.09</v>
-      </c>
-      <c r="T13">
-        <f>$B13*'Time Series Scaling Factors'!T14</f>
-        <v>220005197687207.34</v>
-      </c>
-      <c r="U13">
-        <f>$B13*'Time Series Scaling Factors'!U14</f>
-        <v>220601472853273.03</v>
-      </c>
-      <c r="V13">
-        <f>$B13*'Time Series Scaling Factors'!V14</f>
-        <v>221104494313514.34</v>
-      </c>
-      <c r="W13">
-        <f>$B13*'Time Series Scaling Factors'!W14</f>
-        <v>221857570733355.44</v>
-      </c>
-      <c r="X13">
-        <f>$B13*'Time Series Scaling Factors'!X14</f>
-        <v>222927034613048.06</v>
-      </c>
-      <c r="Y13">
-        <f>$B13*'Time Series Scaling Factors'!Y14</f>
-        <v>223461196903560.06</v>
-      </c>
-      <c r="Z13">
-        <f>$B13*'Time Series Scaling Factors'!Z14</f>
-        <v>224454960716171.66</v>
-      </c>
-      <c r="AA13">
-        <f>$B13*'Time Series Scaling Factors'!AA14</f>
-        <v>225787349410792.75</v>
-      </c>
-      <c r="AB13">
-        <f>$B13*'Time Series Scaling Factors'!AB14</f>
-        <v>226955257134688.28</v>
-      </c>
-      <c r="AC13">
-        <f>$B13*'Time Series Scaling Factors'!AC14</f>
-        <v>228879363800701.34</v>
-      </c>
-      <c r="AD13">
-        <f>$B13*'Time Series Scaling Factors'!AD14</f>
-        <v>230482146045966.38</v>
-      </c>
-      <c r="AE13">
-        <f>$B13*'Time Series Scaling Factors'!AE14</f>
-        <v>232121512437362.56</v>
-      </c>
-      <c r="AF13">
-        <f>$B13*'Time Series Scaling Factors'!AF14</f>
-        <v>234023550466205.44</v>
-      </c>
-      <c r="AG13">
-        <f>$B13*'Time Series Scaling Factors'!AG14</f>
-        <v>236244507729718.53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="29">
-        <f>'Start Year Data'!B38</f>
-        <v>3537592380000000</v>
-      </c>
-      <c r="C14">
-        <f>$B14*'Time Series Scaling Factors'!C15</f>
-        <v>4009102527034906.5</v>
-      </c>
-      <c r="D14">
-        <f>$B14*'Time Series Scaling Factors'!D15</f>
-        <v>4441456293181390.5</v>
-      </c>
-      <c r="E14">
-        <f>$B14*'Time Series Scaling Factors'!E15</f>
-        <v>4706140559394618</v>
-      </c>
-      <c r="F14">
-        <f>$B14*'Time Series Scaling Factors'!F15</f>
-        <v>4827321094754989</v>
-      </c>
-      <c r="G14">
-        <f>$B14*'Time Series Scaling Factors'!G15</f>
-        <v>4943314410430733</v>
-      </c>
-      <c r="H14">
-        <f>$B14*'Time Series Scaling Factors'!H15</f>
-        <v>5008849472077966</v>
-      </c>
-      <c r="I14">
-        <f>$B14*'Time Series Scaling Factors'!I15</f>
-        <v>5081617936973637</v>
-      </c>
-      <c r="J14">
-        <f>$B14*'Time Series Scaling Factors'!J15</f>
-        <v>5117684391436692</v>
-      </c>
-      <c r="K14">
-        <f>$B14*'Time Series Scaling Factors'!K15</f>
-        <v>5151765303298906</v>
-      </c>
-      <c r="L14">
-        <f>$B14*'Time Series Scaling Factors'!L15</f>
-        <v>5177028411353918</v>
-      </c>
-      <c r="M14">
-        <f>$B14*'Time Series Scaling Factors'!M15</f>
-        <v>5211553563163557</v>
-      </c>
-      <c r="N14">
-        <f>$B14*'Time Series Scaling Factors'!N15</f>
-        <v>5271448738985705</v>
-      </c>
-      <c r="O14">
-        <f>$B14*'Time Series Scaling Factors'!O15</f>
-        <v>5309223086082460</v>
-      </c>
-      <c r="P14">
-        <f>$B14*'Time Series Scaling Factors'!P15</f>
-        <v>5360846364898470</v>
-      </c>
-      <c r="Q14">
-        <f>$B14*'Time Series Scaling Factors'!Q15</f>
-        <v>5310012938078537</v>
-      </c>
-      <c r="R14">
-        <f>$B14*'Time Series Scaling Factors'!R15</f>
-        <v>5332837837392247</v>
-      </c>
-      <c r="S14">
-        <f>$B14*'Time Series Scaling Factors'!S15</f>
-        <v>5327910448348514</v>
-      </c>
-      <c r="T14">
-        <f>$B14*'Time Series Scaling Factors'!T15</f>
-        <v>5319535226876994</v>
-      </c>
-      <c r="U14">
-        <f>$B14*'Time Series Scaling Factors'!U15</f>
-        <v>5289038624142834</v>
-      </c>
-      <c r="V14">
-        <f>$B14*'Time Series Scaling Factors'!V15</f>
-        <v>5281977612515783</v>
-      </c>
-      <c r="W14">
-        <f>$B14*'Time Series Scaling Factors'!W15</f>
-        <v>5282341734562243</v>
-      </c>
-      <c r="X14">
-        <f>$B14*'Time Series Scaling Factors'!X15</f>
-        <v>5281814752161922</v>
-      </c>
-      <c r="Y14">
-        <f>$B14*'Time Series Scaling Factors'!Y15</f>
-        <v>5286882347532347</v>
-      </c>
-      <c r="Z14">
-        <f>$B14*'Time Series Scaling Factors'!Z15</f>
-        <v>5249113387673760</v>
-      </c>
-      <c r="AA14">
-        <f>$B14*'Time Series Scaling Factors'!AA15</f>
-        <v>5246352635313915</v>
-      </c>
-      <c r="AB14">
-        <f>$B14*'Time Series Scaling Factors'!AB15</f>
-        <v>5255864978441906</v>
-      </c>
-      <c r="AC14">
-        <f>$B14*'Time Series Scaling Factors'!AC15</f>
-        <v>5266315253548452</v>
-      </c>
-      <c r="AD14">
-        <f>$B14*'Time Series Scaling Factors'!AD15</f>
-        <v>5300602261804184</v>
-      </c>
-      <c r="AE14">
-        <f>$B14*'Time Series Scaling Factors'!AE15</f>
-        <v>5353481872187933</v>
-      </c>
-      <c r="AF14">
-        <f>$B14*'Time Series Scaling Factors'!AF15</f>
-        <v>5420791130938631</v>
-      </c>
-      <c r="AG14">
-        <f>$B14*'Time Series Scaling Factors'!AG15</f>
-        <v>5464956676383496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="29">
-        <f>'Start Year Data'!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f>$B15*'Time Series Scaling Factors'!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f>$B15*'Time Series Scaling Factors'!D16</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>$B15*'Time Series Scaling Factors'!E16</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>$B15*'Time Series Scaling Factors'!F16</f>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f>$B15*'Time Series Scaling Factors'!G16</f>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f>$B15*'Time Series Scaling Factors'!H16</f>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f>$B15*'Time Series Scaling Factors'!I16</f>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f>$B15*'Time Series Scaling Factors'!J16</f>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f>$B15*'Time Series Scaling Factors'!K16</f>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f>$B15*'Time Series Scaling Factors'!L16</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>$B15*'Time Series Scaling Factors'!M16</f>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f>$B15*'Time Series Scaling Factors'!N16</f>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f>$B15*'Time Series Scaling Factors'!O16</f>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f>$B15*'Time Series Scaling Factors'!P16</f>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f>$B15*'Time Series Scaling Factors'!Q16</f>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f>$B15*'Time Series Scaling Factors'!R16</f>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f>$B15*'Time Series Scaling Factors'!S16</f>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f>$B15*'Time Series Scaling Factors'!T16</f>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f>$B15*'Time Series Scaling Factors'!U16</f>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f>$B15*'Time Series Scaling Factors'!V16</f>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f>$B15*'Time Series Scaling Factors'!W16</f>
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <f>$B15*'Time Series Scaling Factors'!X16</f>
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <f>$B15*'Time Series Scaling Factors'!Y16</f>
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <f>$B15*'Time Series Scaling Factors'!Z16</f>
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <f>$B15*'Time Series Scaling Factors'!AA16</f>
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <f>$B15*'Time Series Scaling Factors'!AB16</f>
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <f>$B15*'Time Series Scaling Factors'!AC16</f>
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <f>$B15*'Time Series Scaling Factors'!AD16</f>
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <f>$B15*'Time Series Scaling Factors'!AE16</f>
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <f>$B15*'Time Series Scaling Factors'!AF16</f>
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <f>$B15*'Time Series Scaling Factors'!AG16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="B16" s="29">
-        <f>'Start Year Data'!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f>$B16*'Time Series Scaling Factors'!C17</f>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>$B16*'Time Series Scaling Factors'!D17</f>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f>$B16*'Time Series Scaling Factors'!E17</f>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f>$B16*'Time Series Scaling Factors'!F17</f>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f>$B16*'Time Series Scaling Factors'!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f>$B16*'Time Series Scaling Factors'!H17</f>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f>$B16*'Time Series Scaling Factors'!I17</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>$B16*'Time Series Scaling Factors'!J17</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>$B16*'Time Series Scaling Factors'!K17</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>$B16*'Time Series Scaling Factors'!L17</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>$B16*'Time Series Scaling Factors'!M17</f>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f>$B16*'Time Series Scaling Factors'!N17</f>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f>$B16*'Time Series Scaling Factors'!O17</f>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f>$B16*'Time Series Scaling Factors'!P17</f>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f>$B16*'Time Series Scaling Factors'!Q17</f>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f>$B16*'Time Series Scaling Factors'!R17</f>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f>$B16*'Time Series Scaling Factors'!S17</f>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f>$B16*'Time Series Scaling Factors'!T17</f>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f>$B16*'Time Series Scaling Factors'!U17</f>
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <f>$B16*'Time Series Scaling Factors'!V17</f>
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <f>$B16*'Time Series Scaling Factors'!W17</f>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <f>$B16*'Time Series Scaling Factors'!X17</f>
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <f>$B16*'Time Series Scaling Factors'!Y17</f>
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <f>$B16*'Time Series Scaling Factors'!Z17</f>
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <f>$B16*'Time Series Scaling Factors'!AA17</f>
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <f>$B16*'Time Series Scaling Factors'!AB17</f>
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <f>$B16*'Time Series Scaling Factors'!AC17</f>
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <f>$B16*'Time Series Scaling Factors'!AD17</f>
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <f>$B16*'Time Series Scaling Factors'!AE17</f>
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <f>$B16*'Time Series Scaling Factors'!AF17</f>
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <f>$B16*'Time Series Scaling Factors'!AG17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" s="29">
-        <f>'Start Year Data'!B41</f>
-        <v>906213062527442.13</v>
-      </c>
-      <c r="C17">
-        <f>$B17*'Time Series Scaling Factors'!C18</f>
-        <v>822950355844056.13</v>
-      </c>
-      <c r="D17">
-        <f>$B17*'Time Series Scaling Factors'!D18</f>
-        <v>774407333196149.25</v>
-      </c>
-      <c r="E17">
-        <f>$B17*'Time Series Scaling Factors'!E18</f>
-        <v>761145537247038</v>
-      </c>
-      <c r="F17">
-        <f>$B17*'Time Series Scaling Factors'!F18</f>
-        <v>720261037650919.38</v>
-      </c>
-      <c r="G17">
-        <f>$B17*'Time Series Scaling Factors'!G18</f>
-        <v>698853634313447.88</v>
-      </c>
-      <c r="H17">
-        <f>$B17*'Time Series Scaling Factors'!H18</f>
-        <v>629602515590556.5</v>
-      </c>
-      <c r="I17">
-        <f>$B17*'Time Series Scaling Factors'!I18</f>
-        <v>641822763089227.38</v>
-      </c>
-      <c r="J17">
-        <f>$B17*'Time Series Scaling Factors'!J18</f>
-        <v>638763427373383.25</v>
-      </c>
-      <c r="K17">
-        <f>$B17*'Time Series Scaling Factors'!K18</f>
-        <v>630953650411211.63</v>
-      </c>
-      <c r="L17">
-        <f>$B17*'Time Series Scaling Factors'!L18</f>
-        <v>619881062825938.63</v>
-      </c>
-      <c r="M17">
-        <f>$B17*'Time Series Scaling Factors'!M18</f>
-        <v>608925738757942.75</v>
-      </c>
-      <c r="N17">
-        <f>$B17*'Time Series Scaling Factors'!N18</f>
-        <v>603068973655845.13</v>
-      </c>
-      <c r="O17">
-        <f>$B17*'Time Series Scaling Factors'!O18</f>
-        <v>601558104021222.5</v>
-      </c>
-      <c r="P17">
-        <f>$B17*'Time Series Scaling Factors'!P18</f>
-        <v>600689779695962.75</v>
-      </c>
-      <c r="Q17">
-        <f>$B17*'Time Series Scaling Factors'!Q18</f>
-        <v>600401829646703.38</v>
-      </c>
-      <c r="R17">
-        <f>$B17*'Time Series Scaling Factors'!R18</f>
-        <v>593000538410719</v>
-      </c>
-      <c r="S17">
-        <f>$B17*'Time Series Scaling Factors'!S18</f>
-        <v>592481667380397.75</v>
-      </c>
-      <c r="T17">
-        <f>$B17*'Time Series Scaling Factors'!T18</f>
-        <v>592030777136288.38</v>
-      </c>
-      <c r="U17">
-        <f>$B17*'Time Series Scaling Factors'!U18</f>
-        <v>589286236534593</v>
-      </c>
-      <c r="V17">
-        <f>$B17*'Time Series Scaling Factors'!V18</f>
-        <v>586480192687218.25</v>
-      </c>
-      <c r="W17">
-        <f>$B17*'Time Series Scaling Factors'!W18</f>
-        <v>580593310360580.88</v>
-      </c>
-      <c r="X17">
-        <f>$B17*'Time Series Scaling Factors'!X18</f>
-        <v>576318333945126.88</v>
-      </c>
-      <c r="Y17">
-        <f>$B17*'Time Series Scaling Factors'!Y18</f>
-        <v>574171262984137.13</v>
-      </c>
-      <c r="Z17">
-        <f>$B17*'Time Series Scaling Factors'!Z18</f>
-        <v>572913885554289.13</v>
-      </c>
-      <c r="AA17">
-        <f>$B17*'Time Series Scaling Factors'!AA18</f>
-        <v>570498363944407.38</v>
-      </c>
-      <c r="AB17">
-        <f>$B17*'Time Series Scaling Factors'!AB18</f>
-        <v>567815326588390.88</v>
-      </c>
-      <c r="AC17">
-        <f>$B17*'Time Series Scaling Factors'!AC18</f>
-        <v>568020871637468</v>
-      </c>
-      <c r="AD17">
-        <f>$B17*'Time Series Scaling Factors'!AD18</f>
-        <v>566422855710107.88</v>
-      </c>
-      <c r="AE17">
-        <f>$B17*'Time Series Scaling Factors'!AE18</f>
-        <v>564526338688084.13</v>
-      </c>
-      <c r="AF17">
-        <f>$B17*'Time Series Scaling Factors'!AF18</f>
-        <v>564891818887434</v>
-      </c>
-      <c r="AG17">
-        <f>$B17*'Time Series Scaling Factors'!AG18</f>
-        <v>563104218036639.88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="B18" s="29">
-        <f>'Start Year Data'!B42</f>
-        <v>1.9460537227008E+16</v>
-      </c>
-      <c r="C18">
-        <f>$B18*'Time Series Scaling Factors'!C19</f>
-        <v>2.2054346740269336E+16</v>
-      </c>
-      <c r="D18">
-        <f>$B18*'Time Series Scaling Factors'!D19</f>
-        <v>2.44327543286899E+16</v>
-      </c>
-      <c r="E18">
-        <f>$B18*'Time Series Scaling Factors'!E19</f>
-        <v>2.5888800549607476E+16</v>
-      </c>
-      <c r="F18">
-        <f>$B18*'Time Series Scaling Factors'!F19</f>
-        <v>2.6555422948757164E+16</v>
-      </c>
-      <c r="G18">
-        <f>$B18*'Time Series Scaling Factors'!G19</f>
-        <v>2.7193510098241556E+16</v>
-      </c>
-      <c r="H18">
-        <f>$B18*'Time Series Scaling Factors'!H19</f>
-        <v>2.7554022947056616E+16</v>
-      </c>
-      <c r="I18">
-        <f>$B18*'Time Series Scaling Factors'!I19</f>
-        <v>2.7954327241033648E+16</v>
-      </c>
-      <c r="J18">
-        <f>$B18*'Time Series Scaling Factors'!J19</f>
-        <v>2.8152731269630204E+16</v>
-      </c>
-      <c r="K18">
-        <f>$B18*'Time Series Scaling Factors'!K19</f>
-        <v>2.83402126928079E+16</v>
-      </c>
-      <c r="L18">
-        <f>$B18*'Time Series Scaling Factors'!L19</f>
-        <v>2.8479186775167976E+16</v>
-      </c>
-      <c r="M18">
-        <f>$B18*'Time Series Scaling Factors'!M19</f>
-        <v>2.8669111992628892E+16</v>
-      </c>
-      <c r="N18">
-        <f>$B18*'Time Series Scaling Factors'!N19</f>
-        <v>2.8998599444432228E+16</v>
-      </c>
-      <c r="O18">
-        <f>$B18*'Time Series Scaling Factors'!O19</f>
-        <v>2.9206398707020624E+16</v>
-      </c>
-      <c r="P18">
-        <f>$B18*'Time Series Scaling Factors'!P19</f>
-        <v>2.9490381888593168E+16</v>
-      </c>
-      <c r="Q18">
-        <f>$B18*'Time Series Scaling Factors'!Q19</f>
-        <v>2.9210743736781652E+16</v>
-      </c>
-      <c r="R18">
-        <f>$B18*'Time Series Scaling Factors'!R19</f>
-        <v>2.9336305066376432E+16</v>
-      </c>
-      <c r="S18">
-        <f>$B18*'Time Series Scaling Factors'!S19</f>
-        <v>2.9309199162807768E+16</v>
-      </c>
-      <c r="T18">
-        <f>$B18*'Time Series Scaling Factors'!T19</f>
-        <v>2.9263126497637972E+16</v>
-      </c>
-      <c r="U18">
-        <f>$B18*'Time Series Scaling Factors'!U19</f>
-        <v>2.9095362603708116E+16</v>
-      </c>
-      <c r="V18">
-        <f>$B18*'Time Series Scaling Factors'!V19</f>
-        <v>2.9056519496626184E+16</v>
-      </c>
-      <c r="W18">
-        <f>$B18*'Time Series Scaling Factors'!W19</f>
-        <v>2.9058522556865792E+16</v>
-      </c>
-      <c r="X18">
-        <f>$B18*'Time Series Scaling Factors'!X19</f>
-        <v>2.9055623590699592E+16</v>
-      </c>
-      <c r="Y18">
-        <f>$B18*'Time Series Scaling Factors'!Y19</f>
-        <v>2.9083500778844588E+16</v>
-      </c>
-      <c r="Z18">
-        <f>$B18*'Time Series Scaling Factors'!Z19</f>
-        <v>2.8875731151821196E+16</v>
-      </c>
-      <c r="AA18">
-        <f>$B18*'Time Series Scaling Factors'!AA19</f>
-        <v>2.8860544064587216E+16</v>
-      </c>
-      <c r="AB18">
-        <f>$B18*'Time Series Scaling Factors'!AB19</f>
-        <v>2.8912872113631224E+16</v>
-      </c>
-      <c r="AC18">
-        <f>$B18*'Time Series Scaling Factors'!AC19</f>
-        <v>2.8970359790530676E+16</v>
-      </c>
-      <c r="AD18">
-        <f>$B18*'Time Series Scaling Factors'!AD19</f>
-        <v>2.915897496404126E+16</v>
-      </c>
-      <c r="AE18">
-        <f>$B18*'Time Series Scaling Factors'!AE19</f>
-        <v>2.9449869311349476E+16</v>
-      </c>
-      <c r="AF18">
-        <f>$B18*'Time Series Scaling Factors'!AF19</f>
-        <v>2.982014213957178E+16</v>
-      </c>
-      <c r="AG18">
-        <f>$B18*'Time Series Scaling Factors'!AG19</f>
-        <v>3.0063099820660212E+16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="B19" s="29">
-        <f>'Start Year Data'!B43</f>
-        <v>979835237000000</v>
-      </c>
-      <c r="C19">
-        <f>$B19*'Time Series Scaling Factors'!C20</f>
-        <v>1110433171142953</v>
-      </c>
-      <c r="D19">
-        <f>$B19*'Time Series Scaling Factors'!D20</f>
-        <v>1230185649499428.5</v>
-      </c>
-      <c r="E19">
-        <f>$B19*'Time Series Scaling Factors'!E20</f>
-        <v>1303497366299092.5</v>
-      </c>
-      <c r="F19">
-        <f>$B19*'Time Series Scaling Factors'!F20</f>
-        <v>1337061707757962.3</v>
-      </c>
-      <c r="G19">
-        <f>$B19*'Time Series Scaling Factors'!G20</f>
-        <v>1369189303520015</v>
-      </c>
-      <c r="H19">
-        <f>$B19*'Time Series Scaling Factors'!H20</f>
-        <v>1387341073357592</v>
-      </c>
-      <c r="I19">
-        <f>$B19*'Time Series Scaling Factors'!I20</f>
-        <v>1407496336708531.5</v>
-      </c>
-      <c r="J19">
-        <f>$B19*'Time Series Scaling Factors'!J20</f>
-        <v>1417485950875598.8</v>
-      </c>
-      <c r="K19">
-        <f>$B19*'Time Series Scaling Factors'!K20</f>
-        <v>1426925613438329.5</v>
-      </c>
-      <c r="L19">
-        <f>$B19*'Time Series Scaling Factors'!L20</f>
-        <v>1433922938401031.8</v>
-      </c>
-      <c r="M19">
-        <f>$B19*'Time Series Scaling Factors'!M20</f>
-        <v>1443485645652752.8</v>
-      </c>
-      <c r="N19">
-        <f>$B19*'Time Series Scaling Factors'!N20</f>
-        <v>1460075291234489</v>
-      </c>
-      <c r="O19">
-        <f>$B19*'Time Series Scaling Factors'!O20</f>
-        <v>1470537954075273.8</v>
-      </c>
-      <c r="P19">
-        <f>$B19*'Time Series Scaling Factors'!P20</f>
-        <v>1484836466227033.5</v>
-      </c>
-      <c r="Q19">
-        <f>$B19*'Time Series Scaling Factors'!Q20</f>
-        <v>1470756725695810.5</v>
-      </c>
-      <c r="R19">
-        <f>$B19*'Time Series Scaling Factors'!R20</f>
-        <v>1477078720495152.3</v>
-      </c>
-      <c r="S19">
-        <f>$B19*'Time Series Scaling Factors'!S20</f>
-        <v>1475713942167735.5</v>
-      </c>
-      <c r="T19">
-        <f>$B19*'Time Series Scaling Factors'!T20</f>
-        <v>1473394190134723.3</v>
-      </c>
-      <c r="U19">
-        <f>$B19*'Time Series Scaling Factors'!U20</f>
-        <v>1464947302320101.5</v>
-      </c>
-      <c r="V19">
-        <f>$B19*'Time Series Scaling Factors'!V20</f>
-        <v>1462991557492018.3</v>
-      </c>
-      <c r="W19">
-        <f>$B19*'Time Series Scaling Factors'!W20</f>
-        <v>1463092411285606.3</v>
-      </c>
-      <c r="X19">
-        <f>$B19*'Time Series Scaling Factors'!X20</f>
-        <v>1462946448758088</v>
-      </c>
-      <c r="Y19">
-        <f>$B19*'Time Series Scaling Factors'!Y20</f>
-        <v>1464350061152459.3</v>
-      </c>
-      <c r="Z19">
-        <f>$B19*'Time Series Scaling Factors'!Z20</f>
-        <v>1453888890458089.5</v>
-      </c>
-      <c r="AA19">
-        <f>$B19*'Time Series Scaling Factors'!AA20</f>
-        <v>1453124222810651.8</v>
-      </c>
-      <c r="AB19">
-        <f>$B19*'Time Series Scaling Factors'!AB20</f>
-        <v>1455758932517721.3</v>
-      </c>
-      <c r="AC19">
-        <f>$B19*'Time Series Scaling Factors'!AC20</f>
-        <v>1458653428741658</v>
-      </c>
-      <c r="AD19">
-        <f>$B19*'Time Series Scaling Factors'!AD20</f>
-        <v>1468150175469803.3</v>
-      </c>
-      <c r="AE19">
-        <f>$B19*'Time Series Scaling Factors'!AE20</f>
-        <v>1482796663817572.8</v>
-      </c>
-      <c r="AF19">
-        <f>$B19*'Time Series Scaling Factors'!AF20</f>
-        <v>1501439847207820.8</v>
-      </c>
-      <c r="AG19">
-        <f>$B19*'Time Series Scaling Factors'!AG20</f>
-        <v>1513672731339090.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="B20" s="29">
-        <f>'Start Year Data'!B44</f>
-        <v>3148621106400000</v>
-      </c>
-      <c r="C20">
-        <f>$B20*'Time Series Scaling Factors'!C21</f>
-        <v>3666235964583507</v>
-      </c>
-      <c r="D20">
-        <f>$B20*'Time Series Scaling Factors'!D21</f>
-        <v>3943606321556241</v>
-      </c>
-      <c r="E20">
-        <f>$B20*'Time Series Scaling Factors'!E21</f>
-        <v>4333178851495609</v>
-      </c>
-      <c r="F20">
-        <f>$B20*'Time Series Scaling Factors'!F21</f>
-        <v>4365784399193854</v>
-      </c>
-      <c r="G20">
-        <f>$B20*'Time Series Scaling Factors'!G21</f>
-        <v>4426106045522060.5</v>
-      </c>
-      <c r="H20">
-        <f>$B20*'Time Series Scaling Factors'!H21</f>
-        <v>4474999105425828.5</v>
-      </c>
-      <c r="I20">
-        <f>$B20*'Time Series Scaling Factors'!I21</f>
-        <v>4594208280510221</v>
-      </c>
-      <c r="J20">
-        <f>$B20*'Time Series Scaling Factors'!J21</f>
-        <v>4716183628497076</v>
-      </c>
-      <c r="K20">
-        <f>$B20*'Time Series Scaling Factors'!K21</f>
-        <v>4778032393037987</v>
-      </c>
-      <c r="L20">
-        <f>$B20*'Time Series Scaling Factors'!L21</f>
-        <v>4821148920839232</v>
-      </c>
-      <c r="M20">
-        <f>$B20*'Time Series Scaling Factors'!M21</f>
-        <v>4802790117441398</v>
-      </c>
-      <c r="N20">
-        <f>$B20*'Time Series Scaling Factors'!N21</f>
-        <v>4811756333056280</v>
-      </c>
-      <c r="O20">
-        <f>$B20*'Time Series Scaling Factors'!O21</f>
-        <v>4828755419394643</v>
-      </c>
-      <c r="P20">
-        <f>$B20*'Time Series Scaling Factors'!P21</f>
-        <v>4854861891551188</v>
-      </c>
-      <c r="Q20">
-        <f>$B20*'Time Series Scaling Factors'!Q21</f>
-        <v>4849004758893402</v>
-      </c>
-      <c r="R20">
-        <f>$B20*'Time Series Scaling Factors'!R21</f>
-        <v>4865139654662927</v>
-      </c>
-      <c r="S20">
-        <f>$B20*'Time Series Scaling Factors'!S21</f>
-        <v>4867478978470958</v>
-      </c>
-      <c r="T20">
-        <f>$B20*'Time Series Scaling Factors'!T21</f>
-        <v>4853805499658263</v>
-      </c>
-      <c r="U20">
-        <f>$B20*'Time Series Scaling Factors'!U21</f>
-        <v>4879220905515554</v>
-      </c>
-      <c r="V20">
-        <f>$B20*'Time Series Scaling Factors'!V21</f>
-        <v>4878925211170808</v>
-      </c>
-      <c r="W20">
-        <f>$B20*'Time Series Scaling Factors'!W21</f>
-        <v>4876122791864795</v>
-      </c>
-      <c r="X20">
-        <f>$B20*'Time Series Scaling Factors'!X21</f>
-        <v>4856359440329418</v>
-      </c>
-      <c r="Y20">
-        <f>$B20*'Time Series Scaling Factors'!Y21</f>
-        <v>4867240992216074</v>
-      </c>
-      <c r="Z20">
-        <f>$B20*'Time Series Scaling Factors'!Z21</f>
-        <v>4865482564717560</v>
-      </c>
-      <c r="AA20">
-        <f>$B20*'Time Series Scaling Factors'!AA21</f>
-        <v>4848455339723809</v>
-      </c>
-      <c r="AB20">
-        <f>$B20*'Time Series Scaling Factors'!AB21</f>
-        <v>4862421174396712</v>
-      </c>
-      <c r="AC20">
-        <f>$B20*'Time Series Scaling Factors'!AC21</f>
-        <v>4880430390770838</v>
-      </c>
-      <c r="AD20">
-        <f>$B20*'Time Series Scaling Factors'!AD21</f>
-        <v>4906993758382650</v>
-      </c>
-      <c r="AE20">
-        <f>$B20*'Time Series Scaling Factors'!AE21</f>
-        <v>4945705394299903</v>
-      </c>
-      <c r="AF20">
-        <f>$B20*'Time Series Scaling Factors'!AF21</f>
-        <v>4995956740484053</v>
-      </c>
-      <c r="AG20">
-        <f>$B20*'Time Series Scaling Factors'!AG21</f>
-        <v>5033287674581887</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="B21" s="29">
-        <f>'Start Year Data'!B45</f>
-        <v>3564295858911020.5</v>
-      </c>
-      <c r="C21">
-        <f>$B21*'Time Series Scaling Factors'!C22</f>
-        <v>1936597953138398.8</v>
-      </c>
-      <c r="D21">
-        <f>$B21*'Time Series Scaling Factors'!D22</f>
-        <v>1849843067598722</v>
-      </c>
-      <c r="E21">
-        <f>$B21*'Time Series Scaling Factors'!E22</f>
-        <v>1941973972570115.5</v>
-      </c>
-      <c r="F21">
-        <f>$B21*'Time Series Scaling Factors'!F22</f>
-        <v>2147551448343798.8</v>
-      </c>
-      <c r="G21">
-        <f>$B21*'Time Series Scaling Factors'!G22</f>
-        <v>2214364818813864.3</v>
-      </c>
-      <c r="H21">
-        <f>$B21*'Time Series Scaling Factors'!H22</f>
-        <v>2049135122522799.8</v>
-      </c>
-      <c r="I21">
-        <f>$B21*'Time Series Scaling Factors'!I22</f>
-        <v>1670987422991006.8</v>
-      </c>
-      <c r="J21">
-        <f>$B21*'Time Series Scaling Factors'!J22</f>
-        <v>1563924247224228</v>
-      </c>
-      <c r="K21">
-        <f>$B21*'Time Series Scaling Factors'!K22</f>
-        <v>1601028829937525.8</v>
-      </c>
-      <c r="L21">
-        <f>$B21*'Time Series Scaling Factors'!L22</f>
-        <v>1578316403917828.8</v>
-      </c>
-      <c r="M21">
-        <f>$B21*'Time Series Scaling Factors'!M22</f>
-        <v>1469137990598944.3</v>
-      </c>
-      <c r="N21">
-        <f>$B21*'Time Series Scaling Factors'!N22</f>
-        <v>1452866739262855.5</v>
-      </c>
-      <c r="O21">
-        <f>$B21*'Time Series Scaling Factors'!O22</f>
-        <v>1478925360555004.5</v>
-      </c>
-      <c r="P21">
-        <f>$B21*'Time Series Scaling Factors'!P22</f>
-        <v>1424577321122405.8</v>
-      </c>
-      <c r="Q21">
-        <f>$B21*'Time Series Scaling Factors'!Q22</f>
-        <v>1458054346798601</v>
-      </c>
-      <c r="R21">
-        <f>$B21*'Time Series Scaling Factors'!R22</f>
-        <v>1452972249924599.8</v>
-      </c>
-      <c r="S21">
-        <f>$B21*'Time Series Scaling Factors'!S22</f>
-        <v>1438057564239505</v>
-      </c>
-      <c r="T21">
-        <f>$B21*'Time Series Scaling Factors'!T22</f>
-        <v>1495163953829124.8</v>
-      </c>
-      <c r="U21">
-        <f>$B21*'Time Series Scaling Factors'!U22</f>
-        <v>1494995639202057</v>
-      </c>
-      <c r="V21">
-        <f>$B21*'Time Series Scaling Factors'!V22</f>
-        <v>1496495397893989.3</v>
-      </c>
-      <c r="W21">
-        <f>$B21*'Time Series Scaling Factors'!W22</f>
-        <v>1483118153280021</v>
-      </c>
-      <c r="X21">
-        <f>$B21*'Time Series Scaling Factors'!X22</f>
-        <v>1509573695633016</v>
-      </c>
-      <c r="Y21">
-        <f>$B21*'Time Series Scaling Factors'!Y22</f>
-        <v>1501102696790142.8</v>
-      </c>
-      <c r="Z21">
-        <f>$B21*'Time Series Scaling Factors'!Z22</f>
-        <v>1510292172996320.5</v>
-      </c>
-      <c r="AA21">
-        <f>$B21*'Time Series Scaling Factors'!AA22</f>
-        <v>1515768678772555.3</v>
-      </c>
-      <c r="AB21">
-        <f>$B21*'Time Series Scaling Factors'!AB22</f>
-        <v>1526799567242026.5</v>
-      </c>
-      <c r="AC21">
-        <f>$B21*'Time Series Scaling Factors'!AC22</f>
-        <v>1527967720997049.3</v>
-      </c>
-      <c r="AD21">
-        <f>$B21*'Time Series Scaling Factors'!AD22</f>
-        <v>1538875513694485.8</v>
-      </c>
-      <c r="AE21">
-        <f>$B21*'Time Series Scaling Factors'!AE22</f>
-        <v>1543045696991985.5</v>
-      </c>
-      <c r="AF21">
-        <f>$B21*'Time Series Scaling Factors'!AF22</f>
-        <v>1551280552925241.5</v>
-      </c>
-      <c r="AG21">
-        <f>$B21*'Time Series Scaling Factors'!AG22</f>
-        <v>1539352823830946.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="B22" s="29">
-        <f>'Start Year Data'!B46</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="C22">
-        <f>$B22*'Time Series Scaling Factors'!C23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="D22">
-        <f>$B22*'Time Series Scaling Factors'!D23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="E22">
-        <f>$B22*'Time Series Scaling Factors'!E23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="F22">
-        <f>$B22*'Time Series Scaling Factors'!F23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="G22">
-        <f>$B22*'Time Series Scaling Factors'!G23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="H22">
-        <f>$B22*'Time Series Scaling Factors'!H23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="I22">
-        <f>$B22*'Time Series Scaling Factors'!I23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="J22">
-        <f>$B22*'Time Series Scaling Factors'!J23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="K22">
-        <f>$B22*'Time Series Scaling Factors'!K23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="L22">
-        <f>$B22*'Time Series Scaling Factors'!L23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="M22">
-        <f>$B22*'Time Series Scaling Factors'!M23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="N22">
-        <f>$B22*'Time Series Scaling Factors'!N23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="O22">
-        <f>$B22*'Time Series Scaling Factors'!O23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="P22">
-        <f>$B22*'Time Series Scaling Factors'!P23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="Q22">
-        <f>$B22*'Time Series Scaling Factors'!Q23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="R22">
-        <f>$B22*'Time Series Scaling Factors'!R23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="S22">
-        <f>$B22*'Time Series Scaling Factors'!S23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="T22">
-        <f>$B22*'Time Series Scaling Factors'!T23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="U22">
-        <f>$B22*'Time Series Scaling Factors'!U23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="V22">
-        <f>$B22*'Time Series Scaling Factors'!V23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="W22">
-        <f>$B22*'Time Series Scaling Factors'!W23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="X22">
-        <f>$B22*'Time Series Scaling Factors'!X23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="Y22">
-        <f>$B22*'Time Series Scaling Factors'!Y23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="Z22">
-        <f>$B22*'Time Series Scaling Factors'!Z23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AA22">
-        <f>$B22*'Time Series Scaling Factors'!AA23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AB22">
-        <f>$B22*'Time Series Scaling Factors'!AB23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AC22">
-        <f>$B22*'Time Series Scaling Factors'!AC23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AD22">
-        <f>$B22*'Time Series Scaling Factors'!AD23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AE22">
-        <f>$B22*'Time Series Scaling Factors'!AE23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AF22">
-        <f>$B22*'Time Series Scaling Factors'!AF23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AG22">
-        <f>$B22*'Time Series Scaling Factors'!AG23</f>
-        <v>8746500000000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -8220,7 +5298,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B1" s="235">
         <v>2019</v>
@@ -11123,7 +8201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -11143,7 +8221,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B1" s="235">
         <v>2019</v>
@@ -14035,6 +11113,2928 @@
       <c r="AG22">
         <f>$B22*'Time Series Scaling Factors'!AG73</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AI23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="35" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1" s="234">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="234">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="234">
+        <v>2023</v>
+      </c>
+      <c r="G1" s="5">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="234">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="234">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="5">
+        <v>2028</v>
+      </c>
+      <c r="L1" s="234">
+        <v>2029</v>
+      </c>
+      <c r="M1" s="5">
+        <v>2030</v>
+      </c>
+      <c r="N1" s="234">
+        <v>2031</v>
+      </c>
+      <c r="O1" s="5">
+        <v>2032</v>
+      </c>
+      <c r="P1" s="234">
+        <v>2033</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>2034</v>
+      </c>
+      <c r="R1" s="234">
+        <v>2035</v>
+      </c>
+      <c r="S1" s="5">
+        <v>2036</v>
+      </c>
+      <c r="T1" s="234">
+        <v>2037</v>
+      </c>
+      <c r="U1" s="5">
+        <v>2038</v>
+      </c>
+      <c r="V1" s="234">
+        <v>2039</v>
+      </c>
+      <c r="W1" s="5">
+        <v>2040</v>
+      </c>
+      <c r="X1" s="234">
+        <v>2041</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>2042</v>
+      </c>
+      <c r="Z1" s="234">
+        <v>2043</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>2044</v>
+      </c>
+      <c r="AB1" s="234">
+        <v>2045</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>2046</v>
+      </c>
+      <c r="AD1" s="234">
+        <v>2047</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>2048</v>
+      </c>
+      <c r="AF1" s="234">
+        <v>2049</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>2050</v>
+      </c>
+      <c r="AH1" s="234"/>
+      <c r="AI1" s="5"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="29">
+        <f>'Start Year Data'!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>$B2*'Time Series Scaling Factors'!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>$B2*'Time Series Scaling Factors'!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>$B2*'Time Series Scaling Factors'!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>$B2*'Time Series Scaling Factors'!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>$B2*'Time Series Scaling Factors'!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>$B2*'Time Series Scaling Factors'!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>$B2*'Time Series Scaling Factors'!I3</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>$B2*'Time Series Scaling Factors'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>$B2*'Time Series Scaling Factors'!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>$B2*'Time Series Scaling Factors'!L3</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>$B2*'Time Series Scaling Factors'!M3</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>$B2*'Time Series Scaling Factors'!N3</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>$B2*'Time Series Scaling Factors'!O3</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>$B2*'Time Series Scaling Factors'!P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>$B2*'Time Series Scaling Factors'!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>$B2*'Time Series Scaling Factors'!R3</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>$B2*'Time Series Scaling Factors'!S3</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>$B2*'Time Series Scaling Factors'!T3</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>$B2*'Time Series Scaling Factors'!U3</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>$B2*'Time Series Scaling Factors'!V3</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>$B2*'Time Series Scaling Factors'!W3</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>$B2*'Time Series Scaling Factors'!X3</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>$B2*'Time Series Scaling Factors'!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>$B2*'Time Series Scaling Factors'!Z3</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>$B2*'Time Series Scaling Factors'!AA3</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>$B2*'Time Series Scaling Factors'!AB3</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>$B2*'Time Series Scaling Factors'!AC3</f>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>$B2*'Time Series Scaling Factors'!AD3</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>$B2*'Time Series Scaling Factors'!AE3</f>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f>$B2*'Time Series Scaling Factors'!AF3</f>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f>$B2*'Time Series Scaling Factors'!AG3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="29">
+        <f>'Start Year Data'!B27</f>
+        <v>1.372785698375E+16</v>
+      </c>
+      <c r="C3">
+        <f>$B3*'Time Series Scaling Factors'!C4</f>
+        <v>1.2466543748823158E+16</v>
+      </c>
+      <c r="D3">
+        <f>$B3*'Time Series Scaling Factors'!D4</f>
+        <v>1.173118503460332E+16</v>
+      </c>
+      <c r="E3">
+        <f>$B3*'Time Series Scaling Factors'!E4</f>
+        <v>1.1530287424907296E+16</v>
+      </c>
+      <c r="F3">
+        <f>$B3*'Time Series Scaling Factors'!F4</f>
+        <v>1.0910944594268388E+16</v>
+      </c>
+      <c r="G3">
+        <f>$B3*'Time Series Scaling Factors'!G4</f>
+        <v>1.0586652456401128E+16</v>
+      </c>
+      <c r="H3">
+        <f>$B3*'Time Series Scaling Factors'!H4</f>
+        <v>9537595128601070</v>
+      </c>
+      <c r="I3">
+        <f>$B3*'Time Series Scaling Factors'!I4</f>
+        <v>9722714739986834</v>
+      </c>
+      <c r="J3">
+        <f>$B3*'Time Series Scaling Factors'!J4</f>
+        <v>9676370094440396</v>
+      </c>
+      <c r="K3">
+        <f>$B3*'Time Series Scaling Factors'!K4</f>
+        <v>9558062926242374</v>
+      </c>
+      <c r="L3">
+        <f>$B3*'Time Series Scaling Factors'!L4</f>
+        <v>9390328753015236</v>
+      </c>
+      <c r="M3">
+        <f>$B3*'Time Series Scaling Factors'!M4</f>
+        <v>9224370957619270</v>
+      </c>
+      <c r="N3">
+        <f>$B3*'Time Series Scaling Factors'!N4</f>
+        <v>9135649180110596</v>
+      </c>
+      <c r="O3">
+        <f>$B3*'Time Series Scaling Factors'!O4</f>
+        <v>9112761624056898</v>
+      </c>
+      <c r="P3">
+        <f>$B3*'Time Series Scaling Factors'!P4</f>
+        <v>9099607728305902</v>
+      </c>
+      <c r="Q3">
+        <f>$B3*'Time Series Scaling Factors'!Q4</f>
+        <v>9095245688893590</v>
+      </c>
+      <c r="R3">
+        <f>$B3*'Time Series Scaling Factors'!R4</f>
+        <v>8983126506568739</v>
+      </c>
+      <c r="S3">
+        <f>$B3*'Time Series Scaling Factors'!S4</f>
+        <v>8975266338147203</v>
+      </c>
+      <c r="T3">
+        <f>$B3*'Time Series Scaling Factors'!T4</f>
+        <v>8968435983297497</v>
+      </c>
+      <c r="U3">
+        <f>$B3*'Time Series Scaling Factors'!U4</f>
+        <v>8926860042247729</v>
+      </c>
+      <c r="V3">
+        <f>$B3*'Time Series Scaling Factors'!V4</f>
+        <v>8884352413280811</v>
+      </c>
+      <c r="W3">
+        <f>$B3*'Time Series Scaling Factors'!W4</f>
+        <v>8795174402058096</v>
+      </c>
+      <c r="X3">
+        <f>$B3*'Time Series Scaling Factors'!X4</f>
+        <v>8730414504781202</v>
+      </c>
+      <c r="Y3">
+        <f>$B3*'Time Series Scaling Factors'!Y4</f>
+        <v>8697889390870105</v>
+      </c>
+      <c r="Z3">
+        <f>$B3*'Time Series Scaling Factors'!Z4</f>
+        <v>8678841886209989</v>
+      </c>
+      <c r="AA3">
+        <f>$B3*'Time Series Scaling Factors'!AA4</f>
+        <v>8642250121455318</v>
+      </c>
+      <c r="AB3">
+        <f>$B3*'Time Series Scaling Factors'!AB4</f>
+        <v>8601605868322697</v>
+      </c>
+      <c r="AC3">
+        <f>$B3*'Time Series Scaling Factors'!AC4</f>
+        <v>8604719587550687</v>
+      </c>
+      <c r="AD3">
+        <f>$B3*'Time Series Scaling Factors'!AD4</f>
+        <v>8580511887379857</v>
+      </c>
+      <c r="AE3">
+        <f>$B3*'Time Series Scaling Factors'!AE4</f>
+        <v>8551782314256096</v>
+      </c>
+      <c r="AF3">
+        <f>$B3*'Time Series Scaling Factors'!AF4</f>
+        <v>8557318826710544</v>
+      </c>
+      <c r="AG3">
+        <f>$B3*'Time Series Scaling Factors'!AG4</f>
+        <v>8530239180832026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="29">
+        <f>'Start Year Data'!B28</f>
+        <v>3.5698853E+16</v>
+      </c>
+      <c r="C4">
+        <f>$B4*'Time Series Scaling Factors'!C5</f>
+        <v>3.6461613E+16</v>
+      </c>
+      <c r="D4">
+        <f>$B4*'Time Series Scaling Factors'!D5</f>
+        <v>3.8399319E+16</v>
+      </c>
+      <c r="E4">
+        <f>$B4*'Time Series Scaling Factors'!E5</f>
+        <v>3.9064152E+16</v>
+      </c>
+      <c r="F4">
+        <f>$B4*'Time Series Scaling Factors'!F5</f>
+        <v>3.9540782999999992E+16</v>
+      </c>
+      <c r="G4">
+        <f>$B4*'Time Series Scaling Factors'!G5</f>
+        <v>4.0186932E+16</v>
+      </c>
+      <c r="H4">
+        <f>$B4*'Time Series Scaling Factors'!H5</f>
+        <v>4.1594856E+16</v>
+      </c>
+      <c r="I4">
+        <f>$B4*'Time Series Scaling Factors'!I5</f>
+        <v>4.2991825E+16</v>
+      </c>
+      <c r="J4">
+        <f>$B4*'Time Series Scaling Factors'!J5</f>
+        <v>4.3837154E+16</v>
+      </c>
+      <c r="K4">
+        <f>$B4*'Time Series Scaling Factors'!K5</f>
+        <v>4.4673091999999992E+16</v>
+      </c>
+      <c r="L4">
+        <f>$B4*'Time Series Scaling Factors'!L5</f>
+        <v>4.5265652E+16</v>
+      </c>
+      <c r="M4">
+        <f>$B4*'Time Series Scaling Factors'!M5</f>
+        <v>4.5577869E+16</v>
+      </c>
+      <c r="N4">
+        <f>$B4*'Time Series Scaling Factors'!N5</f>
+        <v>4.6066223E+16</v>
+      </c>
+      <c r="O4">
+        <f>$B4*'Time Series Scaling Factors'!O5</f>
+        <v>4.6707607E+16</v>
+      </c>
+      <c r="P4">
+        <f>$B4*'Time Series Scaling Factors'!P5</f>
+        <v>4.7376926E+16</v>
+      </c>
+      <c r="Q4">
+        <f>$B4*'Time Series Scaling Factors'!Q5</f>
+        <v>4.7925549E+16</v>
+      </c>
+      <c r="R4">
+        <f>$B4*'Time Series Scaling Factors'!R5</f>
+        <v>4.8427116E+16</v>
+      </c>
+      <c r="S4">
+        <f>$B4*'Time Series Scaling Factors'!S5</f>
+        <v>4.9248726E+16</v>
+      </c>
+      <c r="T4">
+        <f>$B4*'Time Series Scaling Factors'!T5</f>
+        <v>4.9617588E+16</v>
+      </c>
+      <c r="U4">
+        <f>$B4*'Time Series Scaling Factors'!U5</f>
+        <v>5.0274464E+16</v>
+      </c>
+      <c r="V4">
+        <f>$B4*'Time Series Scaling Factors'!V5</f>
+        <v>5.0788734E+16</v>
+      </c>
+      <c r="W4">
+        <f>$B4*'Time Series Scaling Factors'!W5</f>
+        <v>5.1329384E+16</v>
+      </c>
+      <c r="X4">
+        <f>$B4*'Time Series Scaling Factors'!X5</f>
+        <v>5.1800266E+16</v>
+      </c>
+      <c r="Y4">
+        <f>$B4*'Time Series Scaling Factors'!Y5</f>
+        <v>5.2295409999999992E+16</v>
+      </c>
+      <c r="Z4">
+        <f>$B4*'Time Series Scaling Factors'!Z5</f>
+        <v>5.2754333E+16</v>
+      </c>
+      <c r="AA4">
+        <f>$B4*'Time Series Scaling Factors'!AA5</f>
+        <v>5.3282814E+16</v>
+      </c>
+      <c r="AB4">
+        <f>$B4*'Time Series Scaling Factors'!AB5</f>
+        <v>5.371896E+16</v>
+      </c>
+      <c r="AC4">
+        <f>$B4*'Time Series Scaling Factors'!AC5</f>
+        <v>5.4344379E+16</v>
+      </c>
+      <c r="AD4">
+        <f>$B4*'Time Series Scaling Factors'!AD5</f>
+        <v>5.4812981000000008E+16</v>
+      </c>
+      <c r="AE4">
+        <f>$B4*'Time Series Scaling Factors'!AE5</f>
+        <v>5.5301308E+16</v>
+      </c>
+      <c r="AF4">
+        <f>$B4*'Time Series Scaling Factors'!AF5</f>
+        <v>5.5799816E+16</v>
+      </c>
+      <c r="AG4">
+        <f>$B4*'Time Series Scaling Factors'!AG5</f>
+        <v>5.6345497000000008E+16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="29">
+        <f>'Start Year Data'!B29</f>
+        <v>540000000000000</v>
+      </c>
+      <c r="C5">
+        <f>$B5*'Time Series Scaling Factors'!C6</f>
+        <v>530350229609255.75</v>
+      </c>
+      <c r="D5">
+        <f>$B5*'Time Series Scaling Factors'!D6</f>
+        <v>521586332440665.06</v>
+      </c>
+      <c r="E5">
+        <f>$B5*'Time Series Scaling Factors'!E6</f>
+        <v>511861167223607.38</v>
+      </c>
+      <c r="F5">
+        <f>$B5*'Time Series Scaling Factors'!F6</f>
+        <v>513379807033013.56</v>
+      </c>
+      <c r="G5">
+        <f>$B5*'Time Series Scaling Factors'!G6</f>
+        <v>515362006720236.25</v>
+      </c>
+      <c r="H5">
+        <f>$B5*'Time Series Scaling Factors'!H6</f>
+        <v>505881379090814.13</v>
+      </c>
+      <c r="I5">
+        <f>$B5*'Time Series Scaling Factors'!I6</f>
+        <v>420681196625529.13</v>
+      </c>
+      <c r="J5">
+        <f>$B5*'Time Series Scaling Factors'!J6</f>
+        <v>390752456140475.56</v>
+      </c>
+      <c r="K5">
+        <f>$B5*'Time Series Scaling Factors'!K6</f>
+        <v>391031653605856.5</v>
+      </c>
+      <c r="L5">
+        <f>$B5*'Time Series Scaling Factors'!L6</f>
+        <v>391305415481554.19</v>
+      </c>
+      <c r="M5">
+        <f>$B5*'Time Series Scaling Factors'!M6</f>
+        <v>379508011632872.5</v>
+      </c>
+      <c r="N5">
+        <f>$B5*'Time Series Scaling Factors'!N6</f>
+        <v>373627279128543.5</v>
+      </c>
+      <c r="O5">
+        <f>$B5*'Time Series Scaling Factors'!O6</f>
+        <v>369358870420515.75</v>
+      </c>
+      <c r="P5">
+        <f>$B5*'Time Series Scaling Factors'!P6</f>
+        <v>359207810764741.31</v>
+      </c>
+      <c r="Q5">
+        <f>$B5*'Time Series Scaling Factors'!Q6</f>
+        <v>342949642281356.13</v>
+      </c>
+      <c r="R5">
+        <f>$B5*'Time Series Scaling Factors'!R6</f>
+        <v>343889551659773.31</v>
+      </c>
+      <c r="S5">
+        <f>$B5*'Time Series Scaling Factors'!S6</f>
+        <v>312263564283131</v>
+      </c>
+      <c r="T5">
+        <f>$B5*'Time Series Scaling Factors'!T6</f>
+        <v>312404825666783.44</v>
+      </c>
+      <c r="U5">
+        <f>$B5*'Time Series Scaling Factors'!U6</f>
+        <v>288459646253244.5</v>
+      </c>
+      <c r="V5">
+        <f>$B5*'Time Series Scaling Factors'!V6</f>
+        <v>276956915313512.72</v>
+      </c>
+      <c r="W5">
+        <f>$B5*'Time Series Scaling Factors'!W6</f>
+        <v>277187576160427.38</v>
+      </c>
+      <c r="X5">
+        <f>$B5*'Time Series Scaling Factors'!X6</f>
+        <v>278025168556570.28</v>
+      </c>
+      <c r="Y5">
+        <f>$B5*'Time Series Scaling Factors'!Y6</f>
+        <v>273312000716218.88</v>
+      </c>
+      <c r="Z5">
+        <f>$B5*'Time Series Scaling Factors'!Z6</f>
+        <v>268599280512664.91</v>
+      </c>
+      <c r="AA5">
+        <f>$B5*'Time Series Scaling Factors'!AA6</f>
+        <v>258883963305151.19</v>
+      </c>
+      <c r="AB5">
+        <f>$B5*'Time Series Scaling Factors'!AB6</f>
+        <v>254831187637266.41</v>
+      </c>
+      <c r="AC5">
+        <f>$B5*'Time Series Scaling Factors'!AC6</f>
+        <v>250575760396364.66</v>
+      </c>
+      <c r="AD5">
+        <f>$B5*'Time Series Scaling Factors'!AD6</f>
+        <v>250860841088226.38</v>
+      </c>
+      <c r="AE5">
+        <f>$B5*'Time Series Scaling Factors'!AE6</f>
+        <v>251038297104358.38</v>
+      </c>
+      <c r="AF5">
+        <f>$B5*'Time Series Scaling Factors'!AF6</f>
+        <v>251252715130336.94</v>
+      </c>
+      <c r="AG5">
+        <f>$B5*'Time Series Scaling Factors'!AG6</f>
+        <v>251562735586628.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="29">
+        <f>'Start Year Data'!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>$B6*'Time Series Scaling Factors'!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>$B6*'Time Series Scaling Factors'!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>$B6*'Time Series Scaling Factors'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>$B6*'Time Series Scaling Factors'!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>$B6*'Time Series Scaling Factors'!G7</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>$B6*'Time Series Scaling Factors'!H7</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>$B6*'Time Series Scaling Factors'!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>$B6*'Time Series Scaling Factors'!J7</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>$B6*'Time Series Scaling Factors'!K7</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>$B6*'Time Series Scaling Factors'!L7</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>$B6*'Time Series Scaling Factors'!M7</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>$B6*'Time Series Scaling Factors'!N7</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>$B6*'Time Series Scaling Factors'!O7</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>$B6*'Time Series Scaling Factors'!P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>$B6*'Time Series Scaling Factors'!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>$B6*'Time Series Scaling Factors'!R7</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>$B6*'Time Series Scaling Factors'!S7</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>$B6*'Time Series Scaling Factors'!T7</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>$B6*'Time Series Scaling Factors'!U7</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>$B6*'Time Series Scaling Factors'!V7</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>$B6*'Time Series Scaling Factors'!W7</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>$B6*'Time Series Scaling Factors'!X7</f>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f>$B6*'Time Series Scaling Factors'!Y7</f>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f>$B6*'Time Series Scaling Factors'!Z7</f>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f>$B6*'Time Series Scaling Factors'!AA7</f>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f>$B6*'Time Series Scaling Factors'!AB7</f>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f>$B6*'Time Series Scaling Factors'!AC7</f>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f>$B6*'Time Series Scaling Factors'!AD7</f>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f>$B6*'Time Series Scaling Factors'!AE7</f>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f>$B6*'Time Series Scaling Factors'!AF7</f>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f>$B6*'Time Series Scaling Factors'!AG7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="29">
+        <f>'Start Year Data'!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>$B7*'Time Series Scaling Factors'!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>$B7*'Time Series Scaling Factors'!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>$B7*'Time Series Scaling Factors'!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>$B7*'Time Series Scaling Factors'!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>$B7*'Time Series Scaling Factors'!G8</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>$B7*'Time Series Scaling Factors'!H8</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>$B7*'Time Series Scaling Factors'!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>$B7*'Time Series Scaling Factors'!J8</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>$B7*'Time Series Scaling Factors'!K8</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>$B7*'Time Series Scaling Factors'!L8</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>$B7*'Time Series Scaling Factors'!M8</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>$B7*'Time Series Scaling Factors'!N8</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>$B7*'Time Series Scaling Factors'!O8</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>$B7*'Time Series Scaling Factors'!P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>$B7*'Time Series Scaling Factors'!Q8</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>$B7*'Time Series Scaling Factors'!R8</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>$B7*'Time Series Scaling Factors'!S8</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>$B7*'Time Series Scaling Factors'!T8</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>$B7*'Time Series Scaling Factors'!U8</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>$B7*'Time Series Scaling Factors'!V8</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>$B7*'Time Series Scaling Factors'!W8</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>$B7*'Time Series Scaling Factors'!X8</f>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>$B7*'Time Series Scaling Factors'!Y8</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>$B7*'Time Series Scaling Factors'!Z8</f>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f>$B7*'Time Series Scaling Factors'!AA8</f>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f>$B7*'Time Series Scaling Factors'!AB8</f>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f>$B7*'Time Series Scaling Factors'!AC8</f>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f>$B7*'Time Series Scaling Factors'!AD8</f>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f>$B7*'Time Series Scaling Factors'!AE8</f>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f>$B7*'Time Series Scaling Factors'!AF8</f>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f>$B7*'Time Series Scaling Factors'!AG8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="29">
+        <f>'Start Year Data'!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>$B8*'Time Series Scaling Factors'!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>$B8*'Time Series Scaling Factors'!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>$B8*'Time Series Scaling Factors'!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>$B8*'Time Series Scaling Factors'!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>$B8*'Time Series Scaling Factors'!G9</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>$B8*'Time Series Scaling Factors'!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>$B8*'Time Series Scaling Factors'!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>$B8*'Time Series Scaling Factors'!J9</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>$B8*'Time Series Scaling Factors'!K9</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>$B8*'Time Series Scaling Factors'!L9</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>$B8*'Time Series Scaling Factors'!M9</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>$B8*'Time Series Scaling Factors'!N9</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>$B8*'Time Series Scaling Factors'!O9</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>$B8*'Time Series Scaling Factors'!P9</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>$B8*'Time Series Scaling Factors'!Q9</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>$B8*'Time Series Scaling Factors'!R9</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>$B8*'Time Series Scaling Factors'!S9</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>$B8*'Time Series Scaling Factors'!T9</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>$B8*'Time Series Scaling Factors'!U9</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>$B8*'Time Series Scaling Factors'!V9</f>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f>$B8*'Time Series Scaling Factors'!W9</f>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f>$B8*'Time Series Scaling Factors'!X9</f>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f>$B8*'Time Series Scaling Factors'!Y9</f>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f>$B8*'Time Series Scaling Factors'!Z9</f>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f>$B8*'Time Series Scaling Factors'!AA9</f>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f>$B8*'Time Series Scaling Factors'!AB9</f>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f>$B8*'Time Series Scaling Factors'!AC9</f>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f>$B8*'Time Series Scaling Factors'!AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f>$B8*'Time Series Scaling Factors'!AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f>$B8*'Time Series Scaling Factors'!AF9</f>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f>$B8*'Time Series Scaling Factors'!AG9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="29">
+        <f>'Start Year Data'!B33</f>
+        <v>123408653368000</v>
+      </c>
+      <c r="C9">
+        <f>$B9*'Time Series Scaling Factors'!C10</f>
+        <v>121916730377165.38</v>
+      </c>
+      <c r="D9">
+        <f>$B9*'Time Series Scaling Factors'!D10</f>
+        <v>123445738522830.2</v>
+      </c>
+      <c r="E9">
+        <f>$B9*'Time Series Scaling Factors'!E10</f>
+        <v>125097792654624.8</v>
+      </c>
+      <c r="F9">
+        <f>$B9*'Time Series Scaling Factors'!F10</f>
+        <v>125801055070049.69</v>
+      </c>
+      <c r="G9">
+        <f>$B9*'Time Series Scaling Factors'!G10</f>
+        <v>126604166067858.83</v>
+      </c>
+      <c r="H9">
+        <f>$B9*'Time Series Scaling Factors'!H10</f>
+        <v>127372186836407.89</v>
+      </c>
+      <c r="I9">
+        <f>$B9*'Time Series Scaling Factors'!I10</f>
+        <v>128070717697595.84</v>
+      </c>
+      <c r="J9">
+        <f>$B9*'Time Series Scaling Factors'!J10</f>
+        <v>129006082030320.11</v>
+      </c>
+      <c r="K9">
+        <f>$B9*'Time Series Scaling Factors'!K10</f>
+        <v>129940909267698.56</v>
+      </c>
+      <c r="L9">
+        <f>$B9*'Time Series Scaling Factors'!L10</f>
+        <v>130600283320579.55</v>
+      </c>
+      <c r="M9">
+        <f>$B9*'Time Series Scaling Factors'!M10</f>
+        <v>131166407391039.25</v>
+      </c>
+      <c r="N9">
+        <f>$B9*'Time Series Scaling Factors'!N10</f>
+        <v>131582553980171.83</v>
+      </c>
+      <c r="O9">
+        <f>$B9*'Time Series Scaling Factors'!O10</f>
+        <v>131770639655083.09</v>
+      </c>
+      <c r="P9">
+        <f>$B9*'Time Series Scaling Factors'!P10</f>
+        <v>132151286799454.08</v>
+      </c>
+      <c r="Q9">
+        <f>$B9*'Time Series Scaling Factors'!Q10</f>
+        <v>132331316044178.06</v>
+      </c>
+      <c r="R9">
+        <f>$B9*'Time Series Scaling Factors'!R10</f>
+        <v>132723574678406.22</v>
+      </c>
+      <c r="S9">
+        <f>$B9*'Time Series Scaling Factors'!S10</f>
+        <v>133099106629007.5</v>
+      </c>
+      <c r="T9">
+        <f>$B9*'Time Series Scaling Factors'!T10</f>
+        <v>133349444212095.8</v>
+      </c>
+      <c r="U9">
+        <f>$B9*'Time Series Scaling Factors'!U10</f>
+        <v>133710858227892.77</v>
+      </c>
+      <c r="V9">
+        <f>$B9*'Time Series Scaling Factors'!V10</f>
+        <v>134015749352534.73</v>
+      </c>
+      <c r="W9">
+        <f>$B9*'Time Series Scaling Factors'!W10</f>
+        <v>134472203668572.41</v>
+      </c>
+      <c r="X9">
+        <f>$B9*'Time Series Scaling Factors'!X10</f>
+        <v>135120426599035.55</v>
+      </c>
+      <c r="Y9">
+        <f>$B9*'Time Series Scaling Factors'!Y10</f>
+        <v>135444192788687.59</v>
+      </c>
+      <c r="Z9">
+        <f>$B9*'Time Series Scaling Factors'!Z10</f>
+        <v>136046532431036.67</v>
+      </c>
+      <c r="AA9">
+        <f>$B9*'Time Series Scaling Factors'!AA10</f>
+        <v>136854119223394.25</v>
+      </c>
+      <c r="AB9">
+        <f>$B9*'Time Series Scaling Factors'!AB10</f>
+        <v>137562010889180.72</v>
+      </c>
+      <c r="AC9">
+        <f>$B9*'Time Series Scaling Factors'!AC10</f>
+        <v>138728249492699.64</v>
+      </c>
+      <c r="AD9">
+        <f>$B9*'Time Series Scaling Factors'!AD10</f>
+        <v>139699727093437.86</v>
+      </c>
+      <c r="AE9">
+        <f>$B9*'Time Series Scaling Factors'!AE10</f>
+        <v>140693379059167.67</v>
+      </c>
+      <c r="AF9">
+        <f>$B9*'Time Series Scaling Factors'!AF10</f>
+        <v>141846241430978.88</v>
+      </c>
+      <c r="AG9">
+        <f>$B9*'Time Series Scaling Factors'!AG10</f>
+        <v>143192406975346.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="29">
+        <f>'Start Year Data'!B34</f>
+        <v>1.8365288407359E+16</v>
+      </c>
+      <c r="C10">
+        <f>$B10*'Time Series Scaling Factors'!C11</f>
+        <v>2.081311701707924E+16</v>
+      </c>
+      <c r="D10">
+        <f>$B10*'Time Series Scaling Factors'!D11</f>
+        <v>2.3057666630590116E+16</v>
+      </c>
+      <c r="E10">
+        <f>$B10*'Time Series Scaling Factors'!E11</f>
+        <v>2.4431765838112752E+16</v>
+      </c>
+      <c r="F10">
+        <f>$B10*'Time Series Scaling Factors'!F11</f>
+        <v>2.5060870393468948E+16</v>
+      </c>
+      <c r="G10">
+        <f>$B10*'Time Series Scaling Factors'!G11</f>
+        <v>2.566304567735818E+16</v>
+      </c>
+      <c r="H10">
+        <f>$B10*'Time Series Scaling Factors'!H11</f>
+        <v>2.6003268681780608E+16</v>
+      </c>
+      <c r="I10">
+        <f>$B10*'Time Series Scaling Factors'!I11</f>
+        <v>2.6381043648824656E+16</v>
+      </c>
+      <c r="J10">
+        <f>$B10*'Time Series Scaling Factors'!J11</f>
+        <v>2.6568281398936748E+16</v>
+      </c>
+      <c r="K10">
+        <f>$B10*'Time Series Scaling Factors'!K11</f>
+        <v>2.6745211273354708E+16</v>
+      </c>
+      <c r="L10">
+        <f>$B10*'Time Series Scaling Factors'!L11</f>
+        <v>2.687636382448514E+16</v>
+      </c>
+      <c r="M10">
+        <f>$B10*'Time Series Scaling Factors'!M11</f>
+        <v>2.7055599955215348E+16</v>
+      </c>
+      <c r="N10">
+        <f>$B10*'Time Series Scaling Factors'!N11</f>
+        <v>2.7366543687569052E+16</v>
+      </c>
+      <c r="O10">
+        <f>$B10*'Time Series Scaling Factors'!O11</f>
+        <v>2.756264790318012E+16</v>
+      </c>
+      <c r="P10">
+        <f>$B10*'Time Series Scaling Factors'!P11</f>
+        <v>2.7830648368510596E+16</v>
+      </c>
+      <c r="Q10">
+        <f>$B10*'Time Series Scaling Factors'!Q11</f>
+        <v>2.7566748392481572E+16</v>
+      </c>
+      <c r="R10">
+        <f>$B10*'Time Series Scaling Factors'!R11</f>
+        <v>2.7685243067316104E+16</v>
+      </c>
+      <c r="S10">
+        <f>$B10*'Time Series Scaling Factors'!S11</f>
+        <v>2.7659662697628788E+16</v>
+      </c>
+      <c r="T10">
+        <f>$B10*'Time Series Scaling Factors'!T11</f>
+        <v>2.7616183025219508E+16</v>
+      </c>
+      <c r="U10">
+        <f>$B10*'Time Series Scaling Factors'!U11</f>
+        <v>2.7457860967589596E+16</v>
+      </c>
+      <c r="V10">
+        <f>$B10*'Time Series Scaling Factors'!V11</f>
+        <v>2.742120397010406E+16</v>
+      </c>
+      <c r="W10">
+        <f>$B10*'Time Series Scaling Factors'!W11</f>
+        <v>2.7423094297106272E+16</v>
+      </c>
+      <c r="X10">
+        <f>$B10*'Time Series Scaling Factors'!X11</f>
+        <v>2.7420358486213468E+16</v>
+      </c>
+      <c r="Y10">
+        <f>$B10*'Time Series Scaling Factors'!Y11</f>
+        <v>2.7446666732193364E+16</v>
+      </c>
+      <c r="Z10">
+        <f>$B10*'Time Series Scaling Factors'!Z11</f>
+        <v>2.72505904842428E+16</v>
+      </c>
+      <c r="AA10">
+        <f>$B10*'Time Series Scaling Factors'!AA11</f>
+        <v>2.7236258133914224E+16</v>
+      </c>
+      <c r="AB10">
+        <f>$B10*'Time Series Scaling Factors'!AB11</f>
+        <v>2.7285641134048152E+16</v>
+      </c>
+      <c r="AC10">
+        <f>$B10*'Time Series Scaling Factors'!AC11</f>
+        <v>2.7339893375587624E+16</v>
+      </c>
+      <c r="AD10">
+        <f>$B10*'Time Series Scaling Factors'!AD11</f>
+        <v>2.7517893192299696E+16</v>
+      </c>
+      <c r="AE10">
+        <f>$B10*'Time Series Scaling Factors'!AE11</f>
+        <v>2.7792415859483392E+16</v>
+      </c>
+      <c r="AF10">
+        <f>$B10*'Time Series Scaling Factors'!AF11</f>
+        <v>2.8141849546764828E+16</v>
+      </c>
+      <c r="AG10">
+        <f>$B10*'Time Series Scaling Factors'!AG11</f>
+        <v>2.8371133447405544E+16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="29">
+        <f>'Start Year Data'!B35</f>
+        <v>1.0682345175E+16</v>
+      </c>
+      <c r="C11">
+        <f>$B11*'Time Series Scaling Factors'!C12</f>
+        <v>1.210614803386467E+16</v>
+      </c>
+      <c r="D11">
+        <f>$B11*'Time Series Scaling Factors'!D12</f>
+        <v>1.3411711725656648E+16</v>
+      </c>
+      <c r="E11">
+        <f>$B11*'Time Series Scaling Factors'!E12</f>
+        <v>1.4210969636224992E+16</v>
+      </c>
+      <c r="F11">
+        <f>$B11*'Time Series Scaling Factors'!F12</f>
+        <v>1.4576894301409502E+16</v>
+      </c>
+      <c r="G11">
+        <f>$B11*'Time Series Scaling Factors'!G12</f>
+        <v>1.492715529898691E+16</v>
+      </c>
+      <c r="H11">
+        <f>$B11*'Time Series Scaling Factors'!H12</f>
+        <v>1.5125049254644018E+16</v>
+      </c>
+      <c r="I11">
+        <f>$B11*'Time Series Scaling Factors'!I12</f>
+        <v>1.5344785667540302E+16</v>
+      </c>
+      <c r="J11">
+        <f>$B11*'Time Series Scaling Factors'!J12</f>
+        <v>1.5453694290814976E+16</v>
+      </c>
+      <c r="K11">
+        <f>$B11*'Time Series Scaling Factors'!K12</f>
+        <v>1.5556607239872978E+16</v>
+      </c>
+      <c r="L11">
+        <f>$B11*'Time Series Scaling Factors'!L12</f>
+        <v>1.5632893372204866E+16</v>
+      </c>
+      <c r="M11">
+        <f>$B11*'Time Series Scaling Factors'!M12</f>
+        <v>1.5737147777244556E+16</v>
+      </c>
+      <c r="N11">
+        <f>$B11*'Time Series Scaling Factors'!N12</f>
+        <v>1.591801116502964E+16</v>
+      </c>
+      <c r="O11">
+        <f>$B11*'Time Series Scaling Factors'!O12</f>
+        <v>1.6032077052532428E+16</v>
+      </c>
+      <c r="P11">
+        <f>$B11*'Time Series Scaling Factors'!P12</f>
+        <v>1.6187962079449488E+16</v>
+      </c>
+      <c r="Q11">
+        <f>$B11*'Time Series Scaling Factors'!Q12</f>
+        <v>1.6034462141246142E+16</v>
+      </c>
+      <c r="R11">
+        <f>$B11*'Time Series Scaling Factors'!R12</f>
+        <v>1.6103385699096432E+16</v>
+      </c>
+      <c r="S11">
+        <f>$B11*'Time Series Scaling Factors'!S12</f>
+        <v>1.6088506633075638E+16</v>
+      </c>
+      <c r="T11">
+        <f>$B11*'Time Series Scaling Factors'!T12</f>
+        <v>1.6063216266898444E+16</v>
+      </c>
+      <c r="U11">
+        <f>$B11*'Time Series Scaling Factors'!U12</f>
+        <v>1.5971126731961368E+16</v>
+      </c>
+      <c r="V11">
+        <f>$B11*'Time Series Scaling Factors'!V12</f>
+        <v>1.5949804839730006E+16</v>
+      </c>
+      <c r="W11">
+        <f>$B11*'Time Series Scaling Factors'!W12</f>
+        <v>1.5950904366461268E+16</v>
+      </c>
+      <c r="X11">
+        <f>$B11*'Time Series Scaling Factors'!X12</f>
+        <v>1.5949313055960598E+16</v>
+      </c>
+      <c r="Y11">
+        <f>$B11*'Time Series Scaling Factors'!Y12</f>
+        <v>1.5964615498169646E+16</v>
+      </c>
+      <c r="Z11">
+        <f>$B11*'Time Series Scaling Factors'!Z12</f>
+        <v>1.5850565878323352E+16</v>
+      </c>
+      <c r="AA11">
+        <f>$B11*'Time Series Scaling Factors'!AA12</f>
+        <v>1.584222933004908E+16</v>
+      </c>
+      <c r="AB11">
+        <f>$B11*'Time Series Scaling Factors'!AB12</f>
+        <v>1.5870953423104776E+16</v>
+      </c>
+      <c r="AC11">
+        <f>$B11*'Time Series Scaling Factors'!AC12</f>
+        <v>1.590250975686809E+16</v>
+      </c>
+      <c r="AD11">
+        <f>$B11*'Time Series Scaling Factors'!AD12</f>
+        <v>1.6006045048066848E+16</v>
+      </c>
+      <c r="AE11">
+        <f>$B11*'Time Series Scaling Factors'!AE12</f>
+        <v>1.616572377590228E+16</v>
+      </c>
+      <c r="AF11">
+        <f>$B11*'Time Series Scaling Factors'!AF12</f>
+        <v>1.6368975213098202E+16</v>
+      </c>
+      <c r="AG11">
+        <f>$B11*'Time Series Scaling Factors'!AG12</f>
+        <v>1.650234038087488E+16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="29">
+        <f>'Start Year Data'!B36</f>
+        <v>1515620096655000</v>
+      </c>
+      <c r="C12">
+        <f>$B12*'Time Series Scaling Factors'!C13</f>
+        <v>1497297325877915</v>
+      </c>
+      <c r="D12">
+        <f>$B12*'Time Series Scaling Factors'!D13</f>
+        <v>1516075550988340.8</v>
+      </c>
+      <c r="E12">
+        <f>$B12*'Time Series Scaling Factors'!E13</f>
+        <v>1536364942166148.5</v>
+      </c>
+      <c r="F12">
+        <f>$B12*'Time Series Scaling Factors'!F13</f>
+        <v>1545001926858475.5</v>
+      </c>
+      <c r="G12">
+        <f>$B12*'Time Series Scaling Factors'!G13</f>
+        <v>1554865183080018.5</v>
+      </c>
+      <c r="H12">
+        <f>$B12*'Time Series Scaling Factors'!H13</f>
+        <v>1564297485270289.5</v>
+      </c>
+      <c r="I12">
+        <f>$B12*'Time Series Scaling Factors'!I13</f>
+        <v>1572876360271811.3</v>
+      </c>
+      <c r="J12">
+        <f>$B12*'Time Series Scaling Factors'!J13</f>
+        <v>1584363860877978.5</v>
+      </c>
+      <c r="K12">
+        <f>$B12*'Time Series Scaling Factors'!K13</f>
+        <v>1595844765248973.3</v>
+      </c>
+      <c r="L12">
+        <f>$B12*'Time Series Scaling Factors'!L13</f>
+        <v>1603942743295773.8</v>
+      </c>
+      <c r="M12">
+        <f>$B12*'Time Series Scaling Factors'!M13</f>
+        <v>1610895489274050</v>
+      </c>
+      <c r="N12">
+        <f>$B12*'Time Series Scaling Factors'!N13</f>
+        <v>1616006315107008.5</v>
+      </c>
+      <c r="O12">
+        <f>$B12*'Time Series Scaling Factors'!O13</f>
+        <v>1618316253843138.8</v>
+      </c>
+      <c r="P12">
+        <f>$B12*'Time Series Scaling Factors'!P13</f>
+        <v>1622991099941837</v>
+      </c>
+      <c r="Q12">
+        <f>$B12*'Time Series Scaling Factors'!Q13</f>
+        <v>1625202095150379.3</v>
+      </c>
+      <c r="R12">
+        <f>$B12*'Time Series Scaling Factors'!R13</f>
+        <v>1630019545571378.5</v>
+      </c>
+      <c r="S12">
+        <f>$B12*'Time Series Scaling Factors'!S13</f>
+        <v>1634631570382719.3</v>
+      </c>
+      <c r="T12">
+        <f>$B12*'Time Series Scaling Factors'!T13</f>
+        <v>1637706044185988.8</v>
+      </c>
+      <c r="U12">
+        <f>$B12*'Time Series Scaling Factors'!U13</f>
+        <v>1642144682244223</v>
+      </c>
+      <c r="V12">
+        <f>$B12*'Time Series Scaling Factors'!V13</f>
+        <v>1645889145077158.8</v>
+      </c>
+      <c r="W12">
+        <f>$B12*'Time Series Scaling Factors'!W13</f>
+        <v>1651495002654493</v>
+      </c>
+      <c r="X12">
+        <f>$B12*'Time Series Scaling Factors'!X13</f>
+        <v>1659456030294855</v>
+      </c>
+      <c r="Y12">
+        <f>$B12*'Time Series Scaling Factors'!Y13</f>
+        <v>1663432303678138.8</v>
+      </c>
+      <c r="Z12">
+        <f>$B12*'Time Series Scaling Factors'!Z13</f>
+        <v>1670829824370905.5</v>
+      </c>
+      <c r="AA12">
+        <f>$B12*'Time Series Scaling Factors'!AA13</f>
+        <v>1680748049218885.8</v>
+      </c>
+      <c r="AB12">
+        <f>$B12*'Time Series Scaling Factors'!AB13</f>
+        <v>1689441887176271.5</v>
+      </c>
+      <c r="AC12">
+        <f>$B12*'Time Series Scaling Factors'!AC13</f>
+        <v>1703764826587313.3</v>
+      </c>
+      <c r="AD12">
+        <f>$B12*'Time Series Scaling Factors'!AD13</f>
+        <v>1715695845482223.5</v>
+      </c>
+      <c r="AE12">
+        <f>$B12*'Time Series Scaling Factors'!AE13</f>
+        <v>1727899194657828</v>
+      </c>
+      <c r="AF12">
+        <f>$B12*'Time Series Scaling Factors'!AF13</f>
+        <v>1742057856402430.8</v>
+      </c>
+      <c r="AG12">
+        <f>$B12*'Time Series Scaling Factors'!AG13</f>
+        <v>1758590534596268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="29">
+        <f>'Start Year Data'!B37</f>
+        <v>203604487000000</v>
+      </c>
+      <c r="C13">
+        <f>$B13*'Time Series Scaling Factors'!C14</f>
+        <v>201143053324951.44</v>
+      </c>
+      <c r="D13">
+        <f>$B13*'Time Series Scaling Factors'!D14</f>
+        <v>203665671558120.09</v>
+      </c>
+      <c r="E13">
+        <f>$B13*'Time Series Scaling Factors'!E14</f>
+        <v>206391295935506.66</v>
+      </c>
+      <c r="F13">
+        <f>$B13*'Time Series Scaling Factors'!F14</f>
+        <v>207551566138698.88</v>
+      </c>
+      <c r="G13">
+        <f>$B13*'Time Series Scaling Factors'!G14</f>
+        <v>208876570490098.66</v>
+      </c>
+      <c r="H13">
+        <f>$B13*'Time Series Scaling Factors'!H14</f>
+        <v>210143681590642.63</v>
+      </c>
+      <c r="I13">
+        <f>$B13*'Time Series Scaling Factors'!I14</f>
+        <v>211296145488143.72</v>
+      </c>
+      <c r="J13">
+        <f>$B13*'Time Series Scaling Factors'!J14</f>
+        <v>212839346632673.84</v>
+      </c>
+      <c r="K13">
+        <f>$B13*'Time Series Scaling Factors'!K14</f>
+        <v>214381661656017.41</v>
+      </c>
+      <c r="L13">
+        <f>$B13*'Time Series Scaling Factors'!L14</f>
+        <v>215469523099392.97</v>
+      </c>
+      <c r="M13">
+        <f>$B13*'Time Series Scaling Factors'!M14</f>
+        <v>216403537026281.72</v>
+      </c>
+      <c r="N13">
+        <f>$B13*'Time Series Scaling Factors'!N14</f>
+        <v>217090112160883.34</v>
+      </c>
+      <c r="O13">
+        <f>$B13*'Time Series Scaling Factors'!O14</f>
+        <v>217400423361169.78</v>
+      </c>
+      <c r="P13">
+        <f>$B13*'Time Series Scaling Factors'!P14</f>
+        <v>218028430104964</v>
+      </c>
+      <c r="Q13">
+        <f>$B13*'Time Series Scaling Factors'!Q14</f>
+        <v>218325449487451.91</v>
+      </c>
+      <c r="R13">
+        <f>$B13*'Time Series Scaling Factors'!R14</f>
+        <v>218972613327374.75</v>
+      </c>
+      <c r="S13">
+        <f>$B13*'Time Series Scaling Factors'!S14</f>
+        <v>219592180821773.09</v>
+      </c>
+      <c r="T13">
+        <f>$B13*'Time Series Scaling Factors'!T14</f>
+        <v>220005197687207.34</v>
+      </c>
+      <c r="U13">
+        <f>$B13*'Time Series Scaling Factors'!U14</f>
+        <v>220601472853273.03</v>
+      </c>
+      <c r="V13">
+        <f>$B13*'Time Series Scaling Factors'!V14</f>
+        <v>221104494313514.34</v>
+      </c>
+      <c r="W13">
+        <f>$B13*'Time Series Scaling Factors'!W14</f>
+        <v>221857570733355.44</v>
+      </c>
+      <c r="X13">
+        <f>$B13*'Time Series Scaling Factors'!X14</f>
+        <v>222927034613048.06</v>
+      </c>
+      <c r="Y13">
+        <f>$B13*'Time Series Scaling Factors'!Y14</f>
+        <v>223461196903560.06</v>
+      </c>
+      <c r="Z13">
+        <f>$B13*'Time Series Scaling Factors'!Z14</f>
+        <v>224454960716171.66</v>
+      </c>
+      <c r="AA13">
+        <f>$B13*'Time Series Scaling Factors'!AA14</f>
+        <v>225787349410792.75</v>
+      </c>
+      <c r="AB13">
+        <f>$B13*'Time Series Scaling Factors'!AB14</f>
+        <v>226955257134688.28</v>
+      </c>
+      <c r="AC13">
+        <f>$B13*'Time Series Scaling Factors'!AC14</f>
+        <v>228879363800701.34</v>
+      </c>
+      <c r="AD13">
+        <f>$B13*'Time Series Scaling Factors'!AD14</f>
+        <v>230482146045966.38</v>
+      </c>
+      <c r="AE13">
+        <f>$B13*'Time Series Scaling Factors'!AE14</f>
+        <v>232121512437362.56</v>
+      </c>
+      <c r="AF13">
+        <f>$B13*'Time Series Scaling Factors'!AF14</f>
+        <v>234023550466205.44</v>
+      </c>
+      <c r="AG13">
+        <f>$B13*'Time Series Scaling Factors'!AG14</f>
+        <v>236244507729718.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="29">
+        <f>'Start Year Data'!B38</f>
+        <v>3537592380000000</v>
+      </c>
+      <c r="C14">
+        <f>$B14*'Time Series Scaling Factors'!C15</f>
+        <v>4009102527034906.5</v>
+      </c>
+      <c r="D14">
+        <f>$B14*'Time Series Scaling Factors'!D15</f>
+        <v>4441456293181390.5</v>
+      </c>
+      <c r="E14">
+        <f>$B14*'Time Series Scaling Factors'!E15</f>
+        <v>4706140559394618</v>
+      </c>
+      <c r="F14">
+        <f>$B14*'Time Series Scaling Factors'!F15</f>
+        <v>4827321094754989</v>
+      </c>
+      <c r="G14">
+        <f>$B14*'Time Series Scaling Factors'!G15</f>
+        <v>4943314410430733</v>
+      </c>
+      <c r="H14">
+        <f>$B14*'Time Series Scaling Factors'!H15</f>
+        <v>5008849472077966</v>
+      </c>
+      <c r="I14">
+        <f>$B14*'Time Series Scaling Factors'!I15</f>
+        <v>5081617936973637</v>
+      </c>
+      <c r="J14">
+        <f>$B14*'Time Series Scaling Factors'!J15</f>
+        <v>5117684391436692</v>
+      </c>
+      <c r="K14">
+        <f>$B14*'Time Series Scaling Factors'!K15</f>
+        <v>5151765303298906</v>
+      </c>
+      <c r="L14">
+        <f>$B14*'Time Series Scaling Factors'!L15</f>
+        <v>5177028411353918</v>
+      </c>
+      <c r="M14">
+        <f>$B14*'Time Series Scaling Factors'!M15</f>
+        <v>5211553563163557</v>
+      </c>
+      <c r="N14">
+        <f>$B14*'Time Series Scaling Factors'!N15</f>
+        <v>5271448738985705</v>
+      </c>
+      <c r="O14">
+        <f>$B14*'Time Series Scaling Factors'!O15</f>
+        <v>5309223086082460</v>
+      </c>
+      <c r="P14">
+        <f>$B14*'Time Series Scaling Factors'!P15</f>
+        <v>5360846364898470</v>
+      </c>
+      <c r="Q14">
+        <f>$B14*'Time Series Scaling Factors'!Q15</f>
+        <v>5310012938078537</v>
+      </c>
+      <c r="R14">
+        <f>$B14*'Time Series Scaling Factors'!R15</f>
+        <v>5332837837392247</v>
+      </c>
+      <c r="S14">
+        <f>$B14*'Time Series Scaling Factors'!S15</f>
+        <v>5327910448348514</v>
+      </c>
+      <c r="T14">
+        <f>$B14*'Time Series Scaling Factors'!T15</f>
+        <v>5319535226876994</v>
+      </c>
+      <c r="U14">
+        <f>$B14*'Time Series Scaling Factors'!U15</f>
+        <v>5289038624142834</v>
+      </c>
+      <c r="V14">
+        <f>$B14*'Time Series Scaling Factors'!V15</f>
+        <v>5281977612515783</v>
+      </c>
+      <c r="W14">
+        <f>$B14*'Time Series Scaling Factors'!W15</f>
+        <v>5282341734562243</v>
+      </c>
+      <c r="X14">
+        <f>$B14*'Time Series Scaling Factors'!X15</f>
+        <v>5281814752161922</v>
+      </c>
+      <c r="Y14">
+        <f>$B14*'Time Series Scaling Factors'!Y15</f>
+        <v>5286882347532347</v>
+      </c>
+      <c r="Z14">
+        <f>$B14*'Time Series Scaling Factors'!Z15</f>
+        <v>5249113387673760</v>
+      </c>
+      <c r="AA14">
+        <f>$B14*'Time Series Scaling Factors'!AA15</f>
+        <v>5246352635313915</v>
+      </c>
+      <c r="AB14">
+        <f>$B14*'Time Series Scaling Factors'!AB15</f>
+        <v>5255864978441906</v>
+      </c>
+      <c r="AC14">
+        <f>$B14*'Time Series Scaling Factors'!AC15</f>
+        <v>5266315253548452</v>
+      </c>
+      <c r="AD14">
+        <f>$B14*'Time Series Scaling Factors'!AD15</f>
+        <v>5300602261804184</v>
+      </c>
+      <c r="AE14">
+        <f>$B14*'Time Series Scaling Factors'!AE15</f>
+        <v>5353481872187933</v>
+      </c>
+      <c r="AF14">
+        <f>$B14*'Time Series Scaling Factors'!AF15</f>
+        <v>5420791130938631</v>
+      </c>
+      <c r="AG14">
+        <f>$B14*'Time Series Scaling Factors'!AG15</f>
+        <v>5464956676383496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="29">
+        <f>'Start Year Data'!B39</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>$B15*'Time Series Scaling Factors'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>$B15*'Time Series Scaling Factors'!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>$B15*'Time Series Scaling Factors'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>$B15*'Time Series Scaling Factors'!F16</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>$B15*'Time Series Scaling Factors'!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>$B15*'Time Series Scaling Factors'!H16</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>$B15*'Time Series Scaling Factors'!I16</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>$B15*'Time Series Scaling Factors'!J16</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>$B15*'Time Series Scaling Factors'!K16</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>$B15*'Time Series Scaling Factors'!L16</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>$B15*'Time Series Scaling Factors'!M16</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>$B15*'Time Series Scaling Factors'!N16</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>$B15*'Time Series Scaling Factors'!O16</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>$B15*'Time Series Scaling Factors'!P16</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>$B15*'Time Series Scaling Factors'!Q16</f>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f>$B15*'Time Series Scaling Factors'!R16</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>$B15*'Time Series Scaling Factors'!S16</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>$B15*'Time Series Scaling Factors'!T16</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>$B15*'Time Series Scaling Factors'!U16</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>$B15*'Time Series Scaling Factors'!V16</f>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f>$B15*'Time Series Scaling Factors'!W16</f>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f>$B15*'Time Series Scaling Factors'!X16</f>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f>$B15*'Time Series Scaling Factors'!Y16</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>$B15*'Time Series Scaling Factors'!Z16</f>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f>$B15*'Time Series Scaling Factors'!AA16</f>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f>$B15*'Time Series Scaling Factors'!AB16</f>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f>$B15*'Time Series Scaling Factors'!AC16</f>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f>$B15*'Time Series Scaling Factors'!AD16</f>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f>$B15*'Time Series Scaling Factors'!AE16</f>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f>$B15*'Time Series Scaling Factors'!AF16</f>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f>$B15*'Time Series Scaling Factors'!AG16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="29">
+        <f>'Start Year Data'!B40</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>$B16*'Time Series Scaling Factors'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>$B16*'Time Series Scaling Factors'!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>$B16*'Time Series Scaling Factors'!E17</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>$B16*'Time Series Scaling Factors'!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>$B16*'Time Series Scaling Factors'!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>$B16*'Time Series Scaling Factors'!H17</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>$B16*'Time Series Scaling Factors'!I17</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>$B16*'Time Series Scaling Factors'!J17</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>$B16*'Time Series Scaling Factors'!K17</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>$B16*'Time Series Scaling Factors'!L17</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>$B16*'Time Series Scaling Factors'!M17</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>$B16*'Time Series Scaling Factors'!N17</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>$B16*'Time Series Scaling Factors'!O17</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>$B16*'Time Series Scaling Factors'!P17</f>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>$B16*'Time Series Scaling Factors'!Q17</f>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f>$B16*'Time Series Scaling Factors'!R17</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f>$B16*'Time Series Scaling Factors'!S17</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>$B16*'Time Series Scaling Factors'!T17</f>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>$B16*'Time Series Scaling Factors'!U17</f>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>$B16*'Time Series Scaling Factors'!V17</f>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f>$B16*'Time Series Scaling Factors'!W17</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f>$B16*'Time Series Scaling Factors'!X17</f>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f>$B16*'Time Series Scaling Factors'!Y17</f>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f>$B16*'Time Series Scaling Factors'!Z17</f>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f>$B16*'Time Series Scaling Factors'!AA17</f>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f>$B16*'Time Series Scaling Factors'!AB17</f>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f>$B16*'Time Series Scaling Factors'!AC17</f>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f>$B16*'Time Series Scaling Factors'!AD17</f>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f>$B16*'Time Series Scaling Factors'!AE17</f>
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <f>$B16*'Time Series Scaling Factors'!AF17</f>
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f>$B16*'Time Series Scaling Factors'!AG17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="29">
+        <f>'Start Year Data'!B41</f>
+        <v>906213062527442.13</v>
+      </c>
+      <c r="C17">
+        <f>$B17*'Time Series Scaling Factors'!C18</f>
+        <v>822950355844056.13</v>
+      </c>
+      <c r="D17">
+        <f>$B17*'Time Series Scaling Factors'!D18</f>
+        <v>774407333196149.25</v>
+      </c>
+      <c r="E17">
+        <f>$B17*'Time Series Scaling Factors'!E18</f>
+        <v>761145537247038</v>
+      </c>
+      <c r="F17">
+        <f>$B17*'Time Series Scaling Factors'!F18</f>
+        <v>720261037650919.38</v>
+      </c>
+      <c r="G17">
+        <f>$B17*'Time Series Scaling Factors'!G18</f>
+        <v>698853634313447.88</v>
+      </c>
+      <c r="H17">
+        <f>$B17*'Time Series Scaling Factors'!H18</f>
+        <v>629602515590556.5</v>
+      </c>
+      <c r="I17">
+        <f>$B17*'Time Series Scaling Factors'!I18</f>
+        <v>641822763089227.38</v>
+      </c>
+      <c r="J17">
+        <f>$B17*'Time Series Scaling Factors'!J18</f>
+        <v>638763427373383.25</v>
+      </c>
+      <c r="K17">
+        <f>$B17*'Time Series Scaling Factors'!K18</f>
+        <v>630953650411211.63</v>
+      </c>
+      <c r="L17">
+        <f>$B17*'Time Series Scaling Factors'!L18</f>
+        <v>619881062825938.63</v>
+      </c>
+      <c r="M17">
+        <f>$B17*'Time Series Scaling Factors'!M18</f>
+        <v>608925738757942.75</v>
+      </c>
+      <c r="N17">
+        <f>$B17*'Time Series Scaling Factors'!N18</f>
+        <v>603068973655845.13</v>
+      </c>
+      <c r="O17">
+        <f>$B17*'Time Series Scaling Factors'!O18</f>
+        <v>601558104021222.5</v>
+      </c>
+      <c r="P17">
+        <f>$B17*'Time Series Scaling Factors'!P18</f>
+        <v>600689779695962.75</v>
+      </c>
+      <c r="Q17">
+        <f>$B17*'Time Series Scaling Factors'!Q18</f>
+        <v>600401829646703.38</v>
+      </c>
+      <c r="R17">
+        <f>$B17*'Time Series Scaling Factors'!R18</f>
+        <v>593000538410719</v>
+      </c>
+      <c r="S17">
+        <f>$B17*'Time Series Scaling Factors'!S18</f>
+        <v>592481667380397.75</v>
+      </c>
+      <c r="T17">
+        <f>$B17*'Time Series Scaling Factors'!T18</f>
+        <v>592030777136288.38</v>
+      </c>
+      <c r="U17">
+        <f>$B17*'Time Series Scaling Factors'!U18</f>
+        <v>589286236534593</v>
+      </c>
+      <c r="V17">
+        <f>$B17*'Time Series Scaling Factors'!V18</f>
+        <v>586480192687218.25</v>
+      </c>
+      <c r="W17">
+        <f>$B17*'Time Series Scaling Factors'!W18</f>
+        <v>580593310360580.88</v>
+      </c>
+      <c r="X17">
+        <f>$B17*'Time Series Scaling Factors'!X18</f>
+        <v>576318333945126.88</v>
+      </c>
+      <c r="Y17">
+        <f>$B17*'Time Series Scaling Factors'!Y18</f>
+        <v>574171262984137.13</v>
+      </c>
+      <c r="Z17">
+        <f>$B17*'Time Series Scaling Factors'!Z18</f>
+        <v>572913885554289.13</v>
+      </c>
+      <c r="AA17">
+        <f>$B17*'Time Series Scaling Factors'!AA18</f>
+        <v>570498363944407.38</v>
+      </c>
+      <c r="AB17">
+        <f>$B17*'Time Series Scaling Factors'!AB18</f>
+        <v>567815326588390.88</v>
+      </c>
+      <c r="AC17">
+        <f>$B17*'Time Series Scaling Factors'!AC18</f>
+        <v>568020871637468</v>
+      </c>
+      <c r="AD17">
+        <f>$B17*'Time Series Scaling Factors'!AD18</f>
+        <v>566422855710107.88</v>
+      </c>
+      <c r="AE17">
+        <f>$B17*'Time Series Scaling Factors'!AE18</f>
+        <v>564526338688084.13</v>
+      </c>
+      <c r="AF17">
+        <f>$B17*'Time Series Scaling Factors'!AF18</f>
+        <v>564891818887434</v>
+      </c>
+      <c r="AG17">
+        <f>$B17*'Time Series Scaling Factors'!AG18</f>
+        <v>563104218036639.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="29">
+        <f>'Start Year Data'!B42</f>
+        <v>1.9460537227008E+16</v>
+      </c>
+      <c r="C18">
+        <f>$B18*'Time Series Scaling Factors'!C19</f>
+        <v>2.2054346740269336E+16</v>
+      </c>
+      <c r="D18">
+        <f>$B18*'Time Series Scaling Factors'!D19</f>
+        <v>2.44327543286899E+16</v>
+      </c>
+      <c r="E18">
+        <f>$B18*'Time Series Scaling Factors'!E19</f>
+        <v>2.5888800549607476E+16</v>
+      </c>
+      <c r="F18">
+        <f>$B18*'Time Series Scaling Factors'!F19</f>
+        <v>2.6555422948757164E+16</v>
+      </c>
+      <c r="G18">
+        <f>$B18*'Time Series Scaling Factors'!G19</f>
+        <v>2.7193510098241556E+16</v>
+      </c>
+      <c r="H18">
+        <f>$B18*'Time Series Scaling Factors'!H19</f>
+        <v>2.7554022947056616E+16</v>
+      </c>
+      <c r="I18">
+        <f>$B18*'Time Series Scaling Factors'!I19</f>
+        <v>2.7954327241033648E+16</v>
+      </c>
+      <c r="J18">
+        <f>$B18*'Time Series Scaling Factors'!J19</f>
+        <v>2.8152731269630204E+16</v>
+      </c>
+      <c r="K18">
+        <f>$B18*'Time Series Scaling Factors'!K19</f>
+        <v>2.83402126928079E+16</v>
+      </c>
+      <c r="L18">
+        <f>$B18*'Time Series Scaling Factors'!L19</f>
+        <v>2.8479186775167976E+16</v>
+      </c>
+      <c r="M18">
+        <f>$B18*'Time Series Scaling Factors'!M19</f>
+        <v>2.8669111992628892E+16</v>
+      </c>
+      <c r="N18">
+        <f>$B18*'Time Series Scaling Factors'!N19</f>
+        <v>2.8998599444432228E+16</v>
+      </c>
+      <c r="O18">
+        <f>$B18*'Time Series Scaling Factors'!O19</f>
+        <v>2.9206398707020624E+16</v>
+      </c>
+      <c r="P18">
+        <f>$B18*'Time Series Scaling Factors'!P19</f>
+        <v>2.9490381888593168E+16</v>
+      </c>
+      <c r="Q18">
+        <f>$B18*'Time Series Scaling Factors'!Q19</f>
+        <v>2.9210743736781652E+16</v>
+      </c>
+      <c r="R18">
+        <f>$B18*'Time Series Scaling Factors'!R19</f>
+        <v>2.9336305066376432E+16</v>
+      </c>
+      <c r="S18">
+        <f>$B18*'Time Series Scaling Factors'!S19</f>
+        <v>2.9309199162807768E+16</v>
+      </c>
+      <c r="T18">
+        <f>$B18*'Time Series Scaling Factors'!T19</f>
+        <v>2.9263126497637972E+16</v>
+      </c>
+      <c r="U18">
+        <f>$B18*'Time Series Scaling Factors'!U19</f>
+        <v>2.9095362603708116E+16</v>
+      </c>
+      <c r="V18">
+        <f>$B18*'Time Series Scaling Factors'!V19</f>
+        <v>2.9056519496626184E+16</v>
+      </c>
+      <c r="W18">
+        <f>$B18*'Time Series Scaling Factors'!W19</f>
+        <v>2.9058522556865792E+16</v>
+      </c>
+      <c r="X18">
+        <f>$B18*'Time Series Scaling Factors'!X19</f>
+        <v>2.9055623590699592E+16</v>
+      </c>
+      <c r="Y18">
+        <f>$B18*'Time Series Scaling Factors'!Y19</f>
+        <v>2.9083500778844588E+16</v>
+      </c>
+      <c r="Z18">
+        <f>$B18*'Time Series Scaling Factors'!Z19</f>
+        <v>2.8875731151821196E+16</v>
+      </c>
+      <c r="AA18">
+        <f>$B18*'Time Series Scaling Factors'!AA19</f>
+        <v>2.8860544064587216E+16</v>
+      </c>
+      <c r="AB18">
+        <f>$B18*'Time Series Scaling Factors'!AB19</f>
+        <v>2.8912872113631224E+16</v>
+      </c>
+      <c r="AC18">
+        <f>$B18*'Time Series Scaling Factors'!AC19</f>
+        <v>2.8970359790530676E+16</v>
+      </c>
+      <c r="AD18">
+        <f>$B18*'Time Series Scaling Factors'!AD19</f>
+        <v>2.915897496404126E+16</v>
+      </c>
+      <c r="AE18">
+        <f>$B18*'Time Series Scaling Factors'!AE19</f>
+        <v>2.9449869311349476E+16</v>
+      </c>
+      <c r="AF18">
+        <f>$B18*'Time Series Scaling Factors'!AF19</f>
+        <v>2.982014213957178E+16</v>
+      </c>
+      <c r="AG18">
+        <f>$B18*'Time Series Scaling Factors'!AG19</f>
+        <v>3.0063099820660212E+16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="29">
+        <f>'Start Year Data'!B43</f>
+        <v>979835237000000</v>
+      </c>
+      <c r="C19">
+        <f>$B19*'Time Series Scaling Factors'!C20</f>
+        <v>1110433171142953</v>
+      </c>
+      <c r="D19">
+        <f>$B19*'Time Series Scaling Factors'!D20</f>
+        <v>1230185649499428.5</v>
+      </c>
+      <c r="E19">
+        <f>$B19*'Time Series Scaling Factors'!E20</f>
+        <v>1303497366299092.5</v>
+      </c>
+      <c r="F19">
+        <f>$B19*'Time Series Scaling Factors'!F20</f>
+        <v>1337061707757962.3</v>
+      </c>
+      <c r="G19">
+        <f>$B19*'Time Series Scaling Factors'!G20</f>
+        <v>1369189303520015</v>
+      </c>
+      <c r="H19">
+        <f>$B19*'Time Series Scaling Factors'!H20</f>
+        <v>1387341073357592</v>
+      </c>
+      <c r="I19">
+        <f>$B19*'Time Series Scaling Factors'!I20</f>
+        <v>1407496336708531.5</v>
+      </c>
+      <c r="J19">
+        <f>$B19*'Time Series Scaling Factors'!J20</f>
+        <v>1417485950875598.8</v>
+      </c>
+      <c r="K19">
+        <f>$B19*'Time Series Scaling Factors'!K20</f>
+        <v>1426925613438329.5</v>
+      </c>
+      <c r="L19">
+        <f>$B19*'Time Series Scaling Factors'!L20</f>
+        <v>1433922938401031.8</v>
+      </c>
+      <c r="M19">
+        <f>$B19*'Time Series Scaling Factors'!M20</f>
+        <v>1443485645652752.8</v>
+      </c>
+      <c r="N19">
+        <f>$B19*'Time Series Scaling Factors'!N20</f>
+        <v>1460075291234489</v>
+      </c>
+      <c r="O19">
+        <f>$B19*'Time Series Scaling Factors'!O20</f>
+        <v>1470537954075273.8</v>
+      </c>
+      <c r="P19">
+        <f>$B19*'Time Series Scaling Factors'!P20</f>
+        <v>1484836466227033.5</v>
+      </c>
+      <c r="Q19">
+        <f>$B19*'Time Series Scaling Factors'!Q20</f>
+        <v>1470756725695810.5</v>
+      </c>
+      <c r="R19">
+        <f>$B19*'Time Series Scaling Factors'!R20</f>
+        <v>1477078720495152.3</v>
+      </c>
+      <c r="S19">
+        <f>$B19*'Time Series Scaling Factors'!S20</f>
+        <v>1475713942167735.5</v>
+      </c>
+      <c r="T19">
+        <f>$B19*'Time Series Scaling Factors'!T20</f>
+        <v>1473394190134723.3</v>
+      </c>
+      <c r="U19">
+        <f>$B19*'Time Series Scaling Factors'!U20</f>
+        <v>1464947302320101.5</v>
+      </c>
+      <c r="V19">
+        <f>$B19*'Time Series Scaling Factors'!V20</f>
+        <v>1462991557492018.3</v>
+      </c>
+      <c r="W19">
+        <f>$B19*'Time Series Scaling Factors'!W20</f>
+        <v>1463092411285606.3</v>
+      </c>
+      <c r="X19">
+        <f>$B19*'Time Series Scaling Factors'!X20</f>
+        <v>1462946448758088</v>
+      </c>
+      <c r="Y19">
+        <f>$B19*'Time Series Scaling Factors'!Y20</f>
+        <v>1464350061152459.3</v>
+      </c>
+      <c r="Z19">
+        <f>$B19*'Time Series Scaling Factors'!Z20</f>
+        <v>1453888890458089.5</v>
+      </c>
+      <c r="AA19">
+        <f>$B19*'Time Series Scaling Factors'!AA20</f>
+        <v>1453124222810651.8</v>
+      </c>
+      <c r="AB19">
+        <f>$B19*'Time Series Scaling Factors'!AB20</f>
+        <v>1455758932517721.3</v>
+      </c>
+      <c r="AC19">
+        <f>$B19*'Time Series Scaling Factors'!AC20</f>
+        <v>1458653428741658</v>
+      </c>
+      <c r="AD19">
+        <f>$B19*'Time Series Scaling Factors'!AD20</f>
+        <v>1468150175469803.3</v>
+      </c>
+      <c r="AE19">
+        <f>$B19*'Time Series Scaling Factors'!AE20</f>
+        <v>1482796663817572.8</v>
+      </c>
+      <c r="AF19">
+        <f>$B19*'Time Series Scaling Factors'!AF20</f>
+        <v>1501439847207820.8</v>
+      </c>
+      <c r="AG19">
+        <f>$B19*'Time Series Scaling Factors'!AG20</f>
+        <v>1513672731339090.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="29">
+        <f>'Start Year Data'!B44</f>
+        <v>3148621106400000</v>
+      </c>
+      <c r="C20">
+        <f>$B20*'Time Series Scaling Factors'!C21</f>
+        <v>3666235964583507</v>
+      </c>
+      <c r="D20">
+        <f>$B20*'Time Series Scaling Factors'!D21</f>
+        <v>3943606321556241</v>
+      </c>
+      <c r="E20">
+        <f>$B20*'Time Series Scaling Factors'!E21</f>
+        <v>4333178851495609</v>
+      </c>
+      <c r="F20">
+        <f>$B20*'Time Series Scaling Factors'!F21</f>
+        <v>4365784399193854</v>
+      </c>
+      <c r="G20">
+        <f>$B20*'Time Series Scaling Factors'!G21</f>
+        <v>4426106045522060.5</v>
+      </c>
+      <c r="H20">
+        <f>$B20*'Time Series Scaling Factors'!H21</f>
+        <v>4474999105425828.5</v>
+      </c>
+      <c r="I20">
+        <f>$B20*'Time Series Scaling Factors'!I21</f>
+        <v>4594208280510221</v>
+      </c>
+      <c r="J20">
+        <f>$B20*'Time Series Scaling Factors'!J21</f>
+        <v>4716183628497076</v>
+      </c>
+      <c r="K20">
+        <f>$B20*'Time Series Scaling Factors'!K21</f>
+        <v>4778032393037987</v>
+      </c>
+      <c r="L20">
+        <f>$B20*'Time Series Scaling Factors'!L21</f>
+        <v>4821148920839232</v>
+      </c>
+      <c r="M20">
+        <f>$B20*'Time Series Scaling Factors'!M21</f>
+        <v>4802790117441398</v>
+      </c>
+      <c r="N20">
+        <f>$B20*'Time Series Scaling Factors'!N21</f>
+        <v>4811756333056280</v>
+      </c>
+      <c r="O20">
+        <f>$B20*'Time Series Scaling Factors'!O21</f>
+        <v>4828755419394643</v>
+      </c>
+      <c r="P20">
+        <f>$B20*'Time Series Scaling Factors'!P21</f>
+        <v>4854861891551188</v>
+      </c>
+      <c r="Q20">
+        <f>$B20*'Time Series Scaling Factors'!Q21</f>
+        <v>4849004758893402</v>
+      </c>
+      <c r="R20">
+        <f>$B20*'Time Series Scaling Factors'!R21</f>
+        <v>4865139654662927</v>
+      </c>
+      <c r="S20">
+        <f>$B20*'Time Series Scaling Factors'!S21</f>
+        <v>4867478978470958</v>
+      </c>
+      <c r="T20">
+        <f>$B20*'Time Series Scaling Factors'!T21</f>
+        <v>4853805499658263</v>
+      </c>
+      <c r="U20">
+        <f>$B20*'Time Series Scaling Factors'!U21</f>
+        <v>4879220905515554</v>
+      </c>
+      <c r="V20">
+        <f>$B20*'Time Series Scaling Factors'!V21</f>
+        <v>4878925211170808</v>
+      </c>
+      <c r="W20">
+        <f>$B20*'Time Series Scaling Factors'!W21</f>
+        <v>4876122791864795</v>
+      </c>
+      <c r="X20">
+        <f>$B20*'Time Series Scaling Factors'!X21</f>
+        <v>4856359440329418</v>
+      </c>
+      <c r="Y20">
+        <f>$B20*'Time Series Scaling Factors'!Y21</f>
+        <v>4867240992216074</v>
+      </c>
+      <c r="Z20">
+        <f>$B20*'Time Series Scaling Factors'!Z21</f>
+        <v>4865482564717560</v>
+      </c>
+      <c r="AA20">
+        <f>$B20*'Time Series Scaling Factors'!AA21</f>
+        <v>4848455339723809</v>
+      </c>
+      <c r="AB20">
+        <f>$B20*'Time Series Scaling Factors'!AB21</f>
+        <v>4862421174396712</v>
+      </c>
+      <c r="AC20">
+        <f>$B20*'Time Series Scaling Factors'!AC21</f>
+        <v>4880430390770838</v>
+      </c>
+      <c r="AD20">
+        <f>$B20*'Time Series Scaling Factors'!AD21</f>
+        <v>4906993758382650</v>
+      </c>
+      <c r="AE20">
+        <f>$B20*'Time Series Scaling Factors'!AE21</f>
+        <v>4945705394299903</v>
+      </c>
+      <c r="AF20">
+        <f>$B20*'Time Series Scaling Factors'!AF21</f>
+        <v>4995956740484053</v>
+      </c>
+      <c r="AG20">
+        <f>$B20*'Time Series Scaling Factors'!AG21</f>
+        <v>5033287674581887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="29">
+        <f>'Start Year Data'!B45</f>
+        <v>3564295858911020.5</v>
+      </c>
+      <c r="C21">
+        <f>$B21*'Time Series Scaling Factors'!C22</f>
+        <v>1936597953138398.8</v>
+      </c>
+      <c r="D21">
+        <f>$B21*'Time Series Scaling Factors'!D22</f>
+        <v>1849843067598722</v>
+      </c>
+      <c r="E21">
+        <f>$B21*'Time Series Scaling Factors'!E22</f>
+        <v>1941973972570115.5</v>
+      </c>
+      <c r="F21">
+        <f>$B21*'Time Series Scaling Factors'!F22</f>
+        <v>2147551448343798.8</v>
+      </c>
+      <c r="G21">
+        <f>$B21*'Time Series Scaling Factors'!G22</f>
+        <v>2214364818813864.3</v>
+      </c>
+      <c r="H21">
+        <f>$B21*'Time Series Scaling Factors'!H22</f>
+        <v>2049135122522799.8</v>
+      </c>
+      <c r="I21">
+        <f>$B21*'Time Series Scaling Factors'!I22</f>
+        <v>1670987422991006.8</v>
+      </c>
+      <c r="J21">
+        <f>$B21*'Time Series Scaling Factors'!J22</f>
+        <v>1563924247224228</v>
+      </c>
+      <c r="K21">
+        <f>$B21*'Time Series Scaling Factors'!K22</f>
+        <v>1601028829937525.8</v>
+      </c>
+      <c r="L21">
+        <f>$B21*'Time Series Scaling Factors'!L22</f>
+        <v>1578316403917828.8</v>
+      </c>
+      <c r="M21">
+        <f>$B21*'Time Series Scaling Factors'!M22</f>
+        <v>1469137990598944.3</v>
+      </c>
+      <c r="N21">
+        <f>$B21*'Time Series Scaling Factors'!N22</f>
+        <v>1452866739262855.5</v>
+      </c>
+      <c r="O21">
+        <f>$B21*'Time Series Scaling Factors'!O22</f>
+        <v>1478925360555004.5</v>
+      </c>
+      <c r="P21">
+        <f>$B21*'Time Series Scaling Factors'!P22</f>
+        <v>1424577321122405.8</v>
+      </c>
+      <c r="Q21">
+        <f>$B21*'Time Series Scaling Factors'!Q22</f>
+        <v>1458054346798601</v>
+      </c>
+      <c r="R21">
+        <f>$B21*'Time Series Scaling Factors'!R22</f>
+        <v>1452972249924599.8</v>
+      </c>
+      <c r="S21">
+        <f>$B21*'Time Series Scaling Factors'!S22</f>
+        <v>1438057564239505</v>
+      </c>
+      <c r="T21">
+        <f>$B21*'Time Series Scaling Factors'!T22</f>
+        <v>1495163953829124.8</v>
+      </c>
+      <c r="U21">
+        <f>$B21*'Time Series Scaling Factors'!U22</f>
+        <v>1494995639202057</v>
+      </c>
+      <c r="V21">
+        <f>$B21*'Time Series Scaling Factors'!V22</f>
+        <v>1496495397893989.3</v>
+      </c>
+      <c r="W21">
+        <f>$B21*'Time Series Scaling Factors'!W22</f>
+        <v>1483118153280021</v>
+      </c>
+      <c r="X21">
+        <f>$B21*'Time Series Scaling Factors'!X22</f>
+        <v>1509573695633016</v>
+      </c>
+      <c r="Y21">
+        <f>$B21*'Time Series Scaling Factors'!Y22</f>
+        <v>1501102696790142.8</v>
+      </c>
+      <c r="Z21">
+        <f>$B21*'Time Series Scaling Factors'!Z22</f>
+        <v>1510292172996320.5</v>
+      </c>
+      <c r="AA21">
+        <f>$B21*'Time Series Scaling Factors'!AA22</f>
+        <v>1515768678772555.3</v>
+      </c>
+      <c r="AB21">
+        <f>$B21*'Time Series Scaling Factors'!AB22</f>
+        <v>1526799567242026.5</v>
+      </c>
+      <c r="AC21">
+        <f>$B21*'Time Series Scaling Factors'!AC22</f>
+        <v>1527967720997049.3</v>
+      </c>
+      <c r="AD21">
+        <f>$B21*'Time Series Scaling Factors'!AD22</f>
+        <v>1538875513694485.8</v>
+      </c>
+      <c r="AE21">
+        <f>$B21*'Time Series Scaling Factors'!AE22</f>
+        <v>1543045696991985.5</v>
+      </c>
+      <c r="AF21">
+        <f>$B21*'Time Series Scaling Factors'!AF22</f>
+        <v>1551280552925241.5</v>
+      </c>
+      <c r="AG21">
+        <f>$B21*'Time Series Scaling Factors'!AG22</f>
+        <v>1539352823830946.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="29">
+        <f>'Start Year Data'!B46</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="C22">
+        <f>$B22*'Time Series Scaling Factors'!C23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="D22">
+        <f>$B22*'Time Series Scaling Factors'!D23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="E22">
+        <f>$B22*'Time Series Scaling Factors'!E23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="F22">
+        <f>$B22*'Time Series Scaling Factors'!F23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="G22">
+        <f>$B22*'Time Series Scaling Factors'!G23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="H22">
+        <f>$B22*'Time Series Scaling Factors'!H23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="I22">
+        <f>$B22*'Time Series Scaling Factors'!I23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="J22">
+        <f>$B22*'Time Series Scaling Factors'!J23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="K22">
+        <f>$B22*'Time Series Scaling Factors'!K23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="L22">
+        <f>$B22*'Time Series Scaling Factors'!L23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="M22">
+        <f>$B22*'Time Series Scaling Factors'!M23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="N22">
+        <f>$B22*'Time Series Scaling Factors'!N23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="O22">
+        <f>$B22*'Time Series Scaling Factors'!O23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="P22">
+        <f>$B22*'Time Series Scaling Factors'!P23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="Q22">
+        <f>$B22*'Time Series Scaling Factors'!Q23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="R22">
+        <f>$B22*'Time Series Scaling Factors'!R23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="S22">
+        <f>$B22*'Time Series Scaling Factors'!S23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="T22">
+        <f>$B22*'Time Series Scaling Factors'!T23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="U22">
+        <f>$B22*'Time Series Scaling Factors'!U23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="V22">
+        <f>$B22*'Time Series Scaling Factors'!V23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="W22">
+        <f>$B22*'Time Series Scaling Factors'!W23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="X22">
+        <f>$B22*'Time Series Scaling Factors'!X23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="Y22">
+        <f>$B22*'Time Series Scaling Factors'!Y23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="Z22">
+        <f>$B22*'Time Series Scaling Factors'!Z23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AA22">
+        <f>$B22*'Time Series Scaling Factors'!AA23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AB22">
+        <f>$B22*'Time Series Scaling Factors'!AB23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AC22">
+        <f>$B22*'Time Series Scaling Factors'!AC23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AD22">
+        <f>$B22*'Time Series Scaling Factors'!AD23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AE22">
+        <f>$B22*'Time Series Scaling Factors'!AE23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AF22">
+        <f>$B22*'Time Series Scaling Factors'!AF23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AG22">
+        <f>$B22*'Time Series Scaling Factors'!AG23</f>
+        <v>8746500000000000</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -16877,7 +16877,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="237" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C1" s="238">
         <v>2019</v>
@@ -16982,7 +16982,7 @@
         <v>124</v>
       </c>
       <c r="D3" s="256" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E3" s="256"/>
       <c r="F3" s="256"/>
@@ -16993,12 +16993,12 @@
         <v>125</v>
       </c>
       <c r="D4" s="256" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E4" s="256"/>
       <c r="F4" s="256"/>
       <c r="G4" s="256" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17006,7 +17006,7 @@
         <v>127</v>
       </c>
       <c r="D5" s="256" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E5" s="256"/>
       <c r="F5" s="256"/>
@@ -17018,7 +17018,7 @@
       </c>
       <c r="D6" s="256"/>
       <c r="E6" s="256" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F6" s="256"/>
       <c r="G6" s="256"/>
@@ -17137,7 +17137,7 @@
         <v>132</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20370,7 +20370,7 @@
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="245" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22042,17 +22042,17 @@
     </row>
     <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="254" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="254" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="254" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -22084,7 +22084,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="237" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C1" s="238">
         <v>2020</v>
@@ -22186,7 +22186,7 @@
         <v>124</v>
       </c>
       <c r="D3" s="239" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E3" s="240"/>
       <c r="F3" s="240"/>
@@ -22198,7 +22198,7 @@
         <v>125</v>
       </c>
       <c r="D4" s="239" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E4" s="240"/>
       <c r="F4" s="240"/>
@@ -22212,7 +22212,7 @@
         <v>127</v>
       </c>
       <c r="D5" s="239" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E5" s="240"/>
       <c r="F5" s="240"/>
@@ -22225,7 +22225,7 @@
       </c>
       <c r="D6" s="240"/>
       <c r="E6" s="239" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F6" s="240"/>
       <c r="G6" s="240"/>
@@ -22236,10 +22236,10 @@
         <v>301</v>
       </c>
       <c r="B10" s="242" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH10" s="243" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22247,7 +22247,7 @@
         <v>302</v>
       </c>
       <c r="AH11" s="243" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22284,7 +22284,7 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="243" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22383,7 +22383,7 @@
         <v>2050</v>
       </c>
       <c r="AH13" s="244" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -28029,12 +28029,12 @@
     </row>
     <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="245" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="245" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
@@ -28042,7 +28042,7 @@
         <v>412</v>
       </c>
       <c r="B78" s="246" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C78" s="251">
         <v>3412</v>
@@ -28143,10 +28143,10 @@
     </row>
     <row r="79" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="241" t="s">
+        <v>657</v>
+      </c>
+      <c r="B79" s="246" t="s">
         <v>658</v>
-      </c>
-      <c r="B79" s="246" t="s">
-        <v>659</v>
       </c>
       <c r="C79" s="251">
         <v>8813.9736329999996</v>
@@ -28246,924 +28246,909 @@
       </c>
     </row>
     <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="262" t="s">
-        <v>664</v>
-      </c>
-      <c r="C80" s="263"/>
-      <c r="D80" s="263"/>
-      <c r="E80" s="263"/>
-      <c r="F80" s="263"/>
-      <c r="G80" s="263"/>
-      <c r="H80" s="263"/>
-      <c r="I80" s="263"/>
-      <c r="J80" s="263"/>
-      <c r="K80" s="263"/>
-      <c r="L80" s="263"/>
-      <c r="M80" s="263"/>
-      <c r="N80" s="263"/>
-      <c r="O80" s="263"/>
-      <c r="P80" s="263"/>
-      <c r="Q80" s="263"/>
-      <c r="R80" s="263"/>
-      <c r="S80" s="263"/>
-      <c r="T80" s="263"/>
-      <c r="U80" s="263"/>
-      <c r="V80" s="263"/>
-      <c r="W80" s="263"/>
-      <c r="X80" s="263"/>
-      <c r="Y80" s="263"/>
-      <c r="Z80" s="263"/>
-      <c r="AA80" s="263"/>
-      <c r="AB80" s="263"/>
-      <c r="AC80" s="263"/>
-      <c r="AD80" s="263"/>
-      <c r="AE80" s="263"/>
-      <c r="AF80" s="263"/>
-      <c r="AG80" s="263"/>
+      <c r="B80" s="261" t="s">
+        <v>663</v>
+      </c>
+      <c r="C80" s="262"/>
+      <c r="D80" s="262"/>
+      <c r="E80" s="262"/>
+      <c r="F80" s="262"/>
+      <c r="G80" s="262"/>
+      <c r="H80" s="262"/>
+      <c r="I80" s="262"/>
+      <c r="J80" s="262"/>
+      <c r="K80" s="262"/>
+      <c r="L80" s="262"/>
+      <c r="M80" s="262"/>
+      <c r="N80" s="262"/>
+      <c r="O80" s="262"/>
+      <c r="P80" s="262"/>
+      <c r="Q80" s="262"/>
+      <c r="R80" s="262"/>
+      <c r="S80" s="262"/>
+      <c r="T80" s="262"/>
+      <c r="U80" s="262"/>
+      <c r="V80" s="262"/>
+      <c r="W80" s="262"/>
+      <c r="X80" s="262"/>
+      <c r="Y80" s="262"/>
+      <c r="Z80" s="262"/>
+      <c r="AA80" s="262"/>
+      <c r="AB80" s="262"/>
+      <c r="AC80" s="262"/>
+      <c r="AD80" s="262"/>
+      <c r="AE80" s="262"/>
+      <c r="AF80" s="262"/>
+      <c r="AG80" s="262"/>
       <c r="AH80" s="253"/>
     </row>
     <row r="81" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="254" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="82" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="254" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="83" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="254" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="84" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B84" s="254" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="85" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="254" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="88" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="261"/>
-      <c r="C88" s="261"/>
-      <c r="D88" s="261"/>
-      <c r="E88" s="261"/>
-      <c r="F88" s="261"/>
-      <c r="G88" s="261"/>
-      <c r="H88" s="261"/>
-      <c r="I88" s="261"/>
-      <c r="J88" s="261"/>
-      <c r="K88" s="261"/>
-      <c r="L88" s="261"/>
-      <c r="M88" s="261"/>
-      <c r="N88" s="261"/>
-      <c r="O88" s="261"/>
-      <c r="P88" s="261"/>
-      <c r="Q88" s="261"/>
-      <c r="R88" s="261"/>
-      <c r="S88" s="261"/>
-      <c r="T88" s="261"/>
-      <c r="U88" s="261"/>
-      <c r="V88" s="261"/>
-      <c r="W88" s="261"/>
-      <c r="X88" s="261"/>
-      <c r="Y88" s="261"/>
-      <c r="Z88" s="261"/>
-      <c r="AA88" s="261"/>
-      <c r="AB88" s="261"/>
-      <c r="AC88" s="261"/>
-      <c r="AD88" s="261"/>
-      <c r="AE88" s="261"/>
-      <c r="AF88" s="261"/>
-      <c r="AG88" s="261"/>
-      <c r="AH88" s="261"/>
+      <c r="B88" s="263"/>
+      <c r="C88" s="263"/>
+      <c r="D88" s="263"/>
+      <c r="E88" s="263"/>
+      <c r="F88" s="263"/>
+      <c r="G88" s="263"/>
+      <c r="H88" s="263"/>
+      <c r="I88" s="263"/>
+      <c r="J88" s="263"/>
+      <c r="K88" s="263"/>
+      <c r="L88" s="263"/>
+      <c r="M88" s="263"/>
+      <c r="N88" s="263"/>
+      <c r="O88" s="263"/>
+      <c r="P88" s="263"/>
+      <c r="Q88" s="263"/>
+      <c r="R88" s="263"/>
+      <c r="S88" s="263"/>
+      <c r="T88" s="263"/>
+      <c r="U88" s="263"/>
+      <c r="V88" s="263"/>
+      <c r="W88" s="263"/>
+      <c r="X88" s="263"/>
+      <c r="Y88" s="263"/>
+      <c r="Z88" s="263"/>
+      <c r="AA88" s="263"/>
+      <c r="AB88" s="263"/>
+      <c r="AC88" s="263"/>
+      <c r="AD88" s="263"/>
+      <c r="AE88" s="263"/>
+      <c r="AF88" s="263"/>
+      <c r="AG88" s="263"/>
+      <c r="AH88" s="263"/>
     </row>
     <row r="213" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="261"/>
-      <c r="C213" s="261"/>
-      <c r="D213" s="261"/>
-      <c r="E213" s="261"/>
-      <c r="F213" s="261"/>
-      <c r="G213" s="261"/>
-      <c r="H213" s="261"/>
-      <c r="I213" s="261"/>
-      <c r="J213" s="261"/>
-      <c r="K213" s="261"/>
-      <c r="L213" s="261"/>
-      <c r="M213" s="261"/>
-      <c r="N213" s="261"/>
-      <c r="O213" s="261"/>
-      <c r="P213" s="261"/>
-      <c r="Q213" s="261"/>
-      <c r="R213" s="261"/>
-      <c r="S213" s="261"/>
-      <c r="T213" s="261"/>
-      <c r="U213" s="261"/>
-      <c r="V213" s="261"/>
-      <c r="W213" s="261"/>
-      <c r="X213" s="261"/>
-      <c r="Y213" s="261"/>
-      <c r="Z213" s="261"/>
-      <c r="AA213" s="261"/>
-      <c r="AB213" s="261"/>
-      <c r="AC213" s="261"/>
-      <c r="AD213" s="261"/>
-      <c r="AE213" s="261"/>
-      <c r="AF213" s="261"/>
-      <c r="AG213" s="261"/>
-      <c r="AH213" s="261"/>
+      <c r="B213" s="263"/>
+      <c r="C213" s="263"/>
+      <c r="D213" s="263"/>
+      <c r="E213" s="263"/>
+      <c r="F213" s="263"/>
+      <c r="G213" s="263"/>
+      <c r="H213" s="263"/>
+      <c r="I213" s="263"/>
+      <c r="J213" s="263"/>
+      <c r="K213" s="263"/>
+      <c r="L213" s="263"/>
+      <c r="M213" s="263"/>
+      <c r="N213" s="263"/>
+      <c r="O213" s="263"/>
+      <c r="P213" s="263"/>
+      <c r="Q213" s="263"/>
+      <c r="R213" s="263"/>
+      <c r="S213" s="263"/>
+      <c r="T213" s="263"/>
+      <c r="U213" s="263"/>
+      <c r="V213" s="263"/>
+      <c r="W213" s="263"/>
+      <c r="X213" s="263"/>
+      <c r="Y213" s="263"/>
+      <c r="Z213" s="263"/>
+      <c r="AA213" s="263"/>
+      <c r="AB213" s="263"/>
+      <c r="AC213" s="263"/>
+      <c r="AD213" s="263"/>
+      <c r="AE213" s="263"/>
+      <c r="AF213" s="263"/>
+      <c r="AG213" s="263"/>
+      <c r="AH213" s="263"/>
     </row>
     <row r="379" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="261"/>
-      <c r="C379" s="261"/>
-      <c r="D379" s="261"/>
-      <c r="E379" s="261"/>
-      <c r="F379" s="261"/>
-      <c r="G379" s="261"/>
-      <c r="H379" s="261"/>
-      <c r="I379" s="261"/>
-      <c r="J379" s="261"/>
-      <c r="K379" s="261"/>
-      <c r="L379" s="261"/>
-      <c r="M379" s="261"/>
-      <c r="N379" s="261"/>
-      <c r="O379" s="261"/>
-      <c r="P379" s="261"/>
-      <c r="Q379" s="261"/>
-      <c r="R379" s="261"/>
-      <c r="S379" s="261"/>
-      <c r="T379" s="261"/>
-      <c r="U379" s="261"/>
-      <c r="V379" s="261"/>
-      <c r="W379" s="261"/>
-      <c r="X379" s="261"/>
-      <c r="Y379" s="261"/>
-      <c r="Z379" s="261"/>
-      <c r="AA379" s="261"/>
-      <c r="AB379" s="261"/>
-      <c r="AC379" s="261"/>
-      <c r="AD379" s="261"/>
-      <c r="AE379" s="261"/>
-      <c r="AF379" s="261"/>
-      <c r="AG379" s="261"/>
-      <c r="AH379" s="261"/>
+      <c r="B379" s="263"/>
+      <c r="C379" s="263"/>
+      <c r="D379" s="263"/>
+      <c r="E379" s="263"/>
+      <c r="F379" s="263"/>
+      <c r="G379" s="263"/>
+      <c r="H379" s="263"/>
+      <c r="I379" s="263"/>
+      <c r="J379" s="263"/>
+      <c r="K379" s="263"/>
+      <c r="L379" s="263"/>
+      <c r="M379" s="263"/>
+      <c r="N379" s="263"/>
+      <c r="O379" s="263"/>
+      <c r="P379" s="263"/>
+      <c r="Q379" s="263"/>
+      <c r="R379" s="263"/>
+      <c r="S379" s="263"/>
+      <c r="T379" s="263"/>
+      <c r="U379" s="263"/>
+      <c r="V379" s="263"/>
+      <c r="W379" s="263"/>
+      <c r="X379" s="263"/>
+      <c r="Y379" s="263"/>
+      <c r="Z379" s="263"/>
+      <c r="AA379" s="263"/>
+      <c r="AB379" s="263"/>
+      <c r="AC379" s="263"/>
+      <c r="AD379" s="263"/>
+      <c r="AE379" s="263"/>
+      <c r="AF379" s="263"/>
+      <c r="AG379" s="263"/>
+      <c r="AH379" s="263"/>
     </row>
     <row r="496" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B496" s="261"/>
-      <c r="C496" s="261"/>
-      <c r="D496" s="261"/>
-      <c r="E496" s="261"/>
-      <c r="F496" s="261"/>
-      <c r="G496" s="261"/>
-      <c r="H496" s="261"/>
-      <c r="I496" s="261"/>
-      <c r="J496" s="261"/>
-      <c r="K496" s="261"/>
-      <c r="L496" s="261"/>
-      <c r="M496" s="261"/>
-      <c r="N496" s="261"/>
-      <c r="O496" s="261"/>
-      <c r="P496" s="261"/>
-      <c r="Q496" s="261"/>
-      <c r="R496" s="261"/>
-      <c r="S496" s="261"/>
-      <c r="T496" s="261"/>
-      <c r="U496" s="261"/>
-      <c r="V496" s="261"/>
-      <c r="W496" s="261"/>
-      <c r="X496" s="261"/>
-      <c r="Y496" s="261"/>
-      <c r="Z496" s="261"/>
-      <c r="AA496" s="261"/>
-      <c r="AB496" s="261"/>
-      <c r="AC496" s="261"/>
-      <c r="AD496" s="261"/>
-      <c r="AE496" s="261"/>
-      <c r="AF496" s="261"/>
-      <c r="AG496" s="261"/>
-      <c r="AH496" s="261"/>
+      <c r="B496" s="263"/>
+      <c r="C496" s="263"/>
+      <c r="D496" s="263"/>
+      <c r="E496" s="263"/>
+      <c r="F496" s="263"/>
+      <c r="G496" s="263"/>
+      <c r="H496" s="263"/>
+      <c r="I496" s="263"/>
+      <c r="J496" s="263"/>
+      <c r="K496" s="263"/>
+      <c r="L496" s="263"/>
+      <c r="M496" s="263"/>
+      <c r="N496" s="263"/>
+      <c r="O496" s="263"/>
+      <c r="P496" s="263"/>
+      <c r="Q496" s="263"/>
+      <c r="R496" s="263"/>
+      <c r="S496" s="263"/>
+      <c r="T496" s="263"/>
+      <c r="U496" s="263"/>
+      <c r="V496" s="263"/>
+      <c r="W496" s="263"/>
+      <c r="X496" s="263"/>
+      <c r="Y496" s="263"/>
+      <c r="Z496" s="263"/>
+      <c r="AA496" s="263"/>
+      <c r="AB496" s="263"/>
+      <c r="AC496" s="263"/>
+      <c r="AD496" s="263"/>
+      <c r="AE496" s="263"/>
+      <c r="AF496" s="263"/>
+      <c r="AG496" s="263"/>
+      <c r="AH496" s="263"/>
     </row>
     <row r="648" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B648" s="261"/>
-      <c r="C648" s="261"/>
-      <c r="D648" s="261"/>
-      <c r="E648" s="261"/>
-      <c r="F648" s="261"/>
-      <c r="G648" s="261"/>
-      <c r="H648" s="261"/>
-      <c r="I648" s="261"/>
-      <c r="J648" s="261"/>
-      <c r="K648" s="261"/>
-      <c r="L648" s="261"/>
-      <c r="M648" s="261"/>
-      <c r="N648" s="261"/>
-      <c r="O648" s="261"/>
-      <c r="P648" s="261"/>
-      <c r="Q648" s="261"/>
-      <c r="R648" s="261"/>
-      <c r="S648" s="261"/>
-      <c r="T648" s="261"/>
-      <c r="U648" s="261"/>
-      <c r="V648" s="261"/>
-      <c r="W648" s="261"/>
-      <c r="X648" s="261"/>
-      <c r="Y648" s="261"/>
-      <c r="Z648" s="261"/>
-      <c r="AA648" s="261"/>
-      <c r="AB648" s="261"/>
-      <c r="AC648" s="261"/>
-      <c r="AD648" s="261"/>
-      <c r="AE648" s="261"/>
-      <c r="AF648" s="261"/>
-      <c r="AG648" s="261"/>
-      <c r="AH648" s="261"/>
+      <c r="B648" s="263"/>
+      <c r="C648" s="263"/>
+      <c r="D648" s="263"/>
+      <c r="E648" s="263"/>
+      <c r="F648" s="263"/>
+      <c r="G648" s="263"/>
+      <c r="H648" s="263"/>
+      <c r="I648" s="263"/>
+      <c r="J648" s="263"/>
+      <c r="K648" s="263"/>
+      <c r="L648" s="263"/>
+      <c r="M648" s="263"/>
+      <c r="N648" s="263"/>
+      <c r="O648" s="263"/>
+      <c r="P648" s="263"/>
+      <c r="Q648" s="263"/>
+      <c r="R648" s="263"/>
+      <c r="S648" s="263"/>
+      <c r="T648" s="263"/>
+      <c r="U648" s="263"/>
+      <c r="V648" s="263"/>
+      <c r="W648" s="263"/>
+      <c r="X648" s="263"/>
+      <c r="Y648" s="263"/>
+      <c r="Z648" s="263"/>
+      <c r="AA648" s="263"/>
+      <c r="AB648" s="263"/>
+      <c r="AC648" s="263"/>
+      <c r="AD648" s="263"/>
+      <c r="AE648" s="263"/>
+      <c r="AF648" s="263"/>
+      <c r="AG648" s="263"/>
+      <c r="AH648" s="263"/>
     </row>
     <row r="748" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B748" s="261"/>
-      <c r="C748" s="261"/>
-      <c r="D748" s="261"/>
-      <c r="E748" s="261"/>
-      <c r="F748" s="261"/>
-      <c r="G748" s="261"/>
-      <c r="H748" s="261"/>
-      <c r="I748" s="261"/>
-      <c r="J748" s="261"/>
-      <c r="K748" s="261"/>
-      <c r="L748" s="261"/>
-      <c r="M748" s="261"/>
-      <c r="N748" s="261"/>
-      <c r="O748" s="261"/>
-      <c r="P748" s="261"/>
-      <c r="Q748" s="261"/>
-      <c r="R748" s="261"/>
-      <c r="S748" s="261"/>
-      <c r="T748" s="261"/>
-      <c r="U748" s="261"/>
-      <c r="V748" s="261"/>
-      <c r="W748" s="261"/>
-      <c r="X748" s="261"/>
-      <c r="Y748" s="261"/>
-      <c r="Z748" s="261"/>
-      <c r="AA748" s="261"/>
-      <c r="AB748" s="261"/>
-      <c r="AC748" s="261"/>
-      <c r="AD748" s="261"/>
-      <c r="AE748" s="261"/>
-      <c r="AF748" s="261"/>
-      <c r="AG748" s="261"/>
-      <c r="AH748" s="261"/>
+      <c r="B748" s="263"/>
+      <c r="C748" s="263"/>
+      <c r="D748" s="263"/>
+      <c r="E748" s="263"/>
+      <c r="F748" s="263"/>
+      <c r="G748" s="263"/>
+      <c r="H748" s="263"/>
+      <c r="I748" s="263"/>
+      <c r="J748" s="263"/>
+      <c r="K748" s="263"/>
+      <c r="L748" s="263"/>
+      <c r="M748" s="263"/>
+      <c r="N748" s="263"/>
+      <c r="O748" s="263"/>
+      <c r="P748" s="263"/>
+      <c r="Q748" s="263"/>
+      <c r="R748" s="263"/>
+      <c r="S748" s="263"/>
+      <c r="T748" s="263"/>
+      <c r="U748" s="263"/>
+      <c r="V748" s="263"/>
+      <c r="W748" s="263"/>
+      <c r="X748" s="263"/>
+      <c r="Y748" s="263"/>
+      <c r="Z748" s="263"/>
+      <c r="AA748" s="263"/>
+      <c r="AB748" s="263"/>
+      <c r="AC748" s="263"/>
+      <c r="AD748" s="263"/>
+      <c r="AE748" s="263"/>
+      <c r="AF748" s="263"/>
+      <c r="AG748" s="263"/>
+      <c r="AH748" s="263"/>
     </row>
     <row r="839" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B839" s="261"/>
-      <c r="C839" s="261"/>
-      <c r="D839" s="261"/>
-      <c r="E839" s="261"/>
-      <c r="F839" s="261"/>
-      <c r="G839" s="261"/>
-      <c r="H839" s="261"/>
-      <c r="I839" s="261"/>
-      <c r="J839" s="261"/>
-      <c r="K839" s="261"/>
-      <c r="L839" s="261"/>
-      <c r="M839" s="261"/>
-      <c r="N839" s="261"/>
-      <c r="O839" s="261"/>
-      <c r="P839" s="261"/>
-      <c r="Q839" s="261"/>
-      <c r="R839" s="261"/>
-      <c r="S839" s="261"/>
-      <c r="T839" s="261"/>
-      <c r="U839" s="261"/>
-      <c r="V839" s="261"/>
-      <c r="W839" s="261"/>
-      <c r="X839" s="261"/>
-      <c r="Y839" s="261"/>
-      <c r="Z839" s="261"/>
-      <c r="AA839" s="261"/>
-      <c r="AB839" s="261"/>
-      <c r="AC839" s="261"/>
-      <c r="AD839" s="261"/>
-      <c r="AE839" s="261"/>
-      <c r="AF839" s="261"/>
-      <c r="AG839" s="261"/>
-      <c r="AH839" s="261"/>
+      <c r="B839" s="263"/>
+      <c r="C839" s="263"/>
+      <c r="D839" s="263"/>
+      <c r="E839" s="263"/>
+      <c r="F839" s="263"/>
+      <c r="G839" s="263"/>
+      <c r="H839" s="263"/>
+      <c r="I839" s="263"/>
+      <c r="J839" s="263"/>
+      <c r="K839" s="263"/>
+      <c r="L839" s="263"/>
+      <c r="M839" s="263"/>
+      <c r="N839" s="263"/>
+      <c r="O839" s="263"/>
+      <c r="P839" s="263"/>
+      <c r="Q839" s="263"/>
+      <c r="R839" s="263"/>
+      <c r="S839" s="263"/>
+      <c r="T839" s="263"/>
+      <c r="U839" s="263"/>
+      <c r="V839" s="263"/>
+      <c r="W839" s="263"/>
+      <c r="X839" s="263"/>
+      <c r="Y839" s="263"/>
+      <c r="Z839" s="263"/>
+      <c r="AA839" s="263"/>
+      <c r="AB839" s="263"/>
+      <c r="AC839" s="263"/>
+      <c r="AD839" s="263"/>
+      <c r="AE839" s="263"/>
+      <c r="AF839" s="263"/>
+      <c r="AG839" s="263"/>
+      <c r="AH839" s="263"/>
     </row>
     <row r="910" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B910" s="261"/>
-      <c r="C910" s="261"/>
-      <c r="D910" s="261"/>
-      <c r="E910" s="261"/>
-      <c r="F910" s="261"/>
-      <c r="G910" s="261"/>
-      <c r="H910" s="261"/>
-      <c r="I910" s="261"/>
-      <c r="J910" s="261"/>
-      <c r="K910" s="261"/>
-      <c r="L910" s="261"/>
-      <c r="M910" s="261"/>
-      <c r="N910" s="261"/>
-      <c r="O910" s="261"/>
-      <c r="P910" s="261"/>
-      <c r="Q910" s="261"/>
-      <c r="R910" s="261"/>
-      <c r="S910" s="261"/>
-      <c r="T910" s="261"/>
-      <c r="U910" s="261"/>
-      <c r="V910" s="261"/>
-      <c r="W910" s="261"/>
-      <c r="X910" s="261"/>
-      <c r="Y910" s="261"/>
-      <c r="Z910" s="261"/>
-      <c r="AA910" s="261"/>
-      <c r="AB910" s="261"/>
-      <c r="AC910" s="261"/>
-      <c r="AD910" s="261"/>
-      <c r="AE910" s="261"/>
-      <c r="AF910" s="261"/>
-      <c r="AG910" s="261"/>
-      <c r="AH910" s="261"/>
+      <c r="B910" s="263"/>
+      <c r="C910" s="263"/>
+      <c r="D910" s="263"/>
+      <c r="E910" s="263"/>
+      <c r="F910" s="263"/>
+      <c r="G910" s="263"/>
+      <c r="H910" s="263"/>
+      <c r="I910" s="263"/>
+      <c r="J910" s="263"/>
+      <c r="K910" s="263"/>
+      <c r="L910" s="263"/>
+      <c r="M910" s="263"/>
+      <c r="N910" s="263"/>
+      <c r="O910" s="263"/>
+      <c r="P910" s="263"/>
+      <c r="Q910" s="263"/>
+      <c r="R910" s="263"/>
+      <c r="S910" s="263"/>
+      <c r="T910" s="263"/>
+      <c r="U910" s="263"/>
+      <c r="V910" s="263"/>
+      <c r="W910" s="263"/>
+      <c r="X910" s="263"/>
+      <c r="Y910" s="263"/>
+      <c r="Z910" s="263"/>
+      <c r="AA910" s="263"/>
+      <c r="AB910" s="263"/>
+      <c r="AC910" s="263"/>
+      <c r="AD910" s="263"/>
+      <c r="AE910" s="263"/>
+      <c r="AF910" s="263"/>
+      <c r="AG910" s="263"/>
+      <c r="AH910" s="263"/>
     </row>
     <row r="1005" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1005" s="261"/>
-      <c r="C1005" s="261"/>
-      <c r="D1005" s="261"/>
-      <c r="E1005" s="261"/>
-      <c r="F1005" s="261"/>
-      <c r="G1005" s="261"/>
-      <c r="H1005" s="261"/>
-      <c r="I1005" s="261"/>
-      <c r="J1005" s="261"/>
-      <c r="K1005" s="261"/>
-      <c r="L1005" s="261"/>
-      <c r="M1005" s="261"/>
-      <c r="N1005" s="261"/>
-      <c r="O1005" s="261"/>
-      <c r="P1005" s="261"/>
-      <c r="Q1005" s="261"/>
-      <c r="R1005" s="261"/>
-      <c r="S1005" s="261"/>
-      <c r="T1005" s="261"/>
-      <c r="U1005" s="261"/>
-      <c r="V1005" s="261"/>
-      <c r="W1005" s="261"/>
-      <c r="X1005" s="261"/>
-      <c r="Y1005" s="261"/>
-      <c r="Z1005" s="261"/>
-      <c r="AA1005" s="261"/>
-      <c r="AB1005" s="261"/>
-      <c r="AC1005" s="261"/>
-      <c r="AD1005" s="261"/>
-      <c r="AE1005" s="261"/>
-      <c r="AF1005" s="261"/>
-      <c r="AG1005" s="261"/>
-      <c r="AH1005" s="261"/>
+      <c r="B1005" s="263"/>
+      <c r="C1005" s="263"/>
+      <c r="D1005" s="263"/>
+      <c r="E1005" s="263"/>
+      <c r="F1005" s="263"/>
+      <c r="G1005" s="263"/>
+      <c r="H1005" s="263"/>
+      <c r="I1005" s="263"/>
+      <c r="J1005" s="263"/>
+      <c r="K1005" s="263"/>
+      <c r="L1005" s="263"/>
+      <c r="M1005" s="263"/>
+      <c r="N1005" s="263"/>
+      <c r="O1005" s="263"/>
+      <c r="P1005" s="263"/>
+      <c r="Q1005" s="263"/>
+      <c r="R1005" s="263"/>
+      <c r="S1005" s="263"/>
+      <c r="T1005" s="263"/>
+      <c r="U1005" s="263"/>
+      <c r="V1005" s="263"/>
+      <c r="W1005" s="263"/>
+      <c r="X1005" s="263"/>
+      <c r="Y1005" s="263"/>
+      <c r="Z1005" s="263"/>
+      <c r="AA1005" s="263"/>
+      <c r="AB1005" s="263"/>
+      <c r="AC1005" s="263"/>
+      <c r="AD1005" s="263"/>
+      <c r="AE1005" s="263"/>
+      <c r="AF1005" s="263"/>
+      <c r="AG1005" s="263"/>
+      <c r="AH1005" s="263"/>
     </row>
     <row r="1105" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1105" s="261"/>
-      <c r="C1105" s="261"/>
-      <c r="D1105" s="261"/>
-      <c r="E1105" s="261"/>
-      <c r="F1105" s="261"/>
-      <c r="G1105" s="261"/>
-      <c r="H1105" s="261"/>
-      <c r="I1105" s="261"/>
-      <c r="J1105" s="261"/>
-      <c r="K1105" s="261"/>
-      <c r="L1105" s="261"/>
-      <c r="M1105" s="261"/>
-      <c r="N1105" s="261"/>
-      <c r="O1105" s="261"/>
-      <c r="P1105" s="261"/>
-      <c r="Q1105" s="261"/>
-      <c r="R1105" s="261"/>
-      <c r="S1105" s="261"/>
-      <c r="T1105" s="261"/>
-      <c r="U1105" s="261"/>
-      <c r="V1105" s="261"/>
-      <c r="W1105" s="261"/>
-      <c r="X1105" s="261"/>
-      <c r="Y1105" s="261"/>
-      <c r="Z1105" s="261"/>
-      <c r="AA1105" s="261"/>
-      <c r="AB1105" s="261"/>
-      <c r="AC1105" s="261"/>
-      <c r="AD1105" s="261"/>
-      <c r="AE1105" s="261"/>
-      <c r="AF1105" s="261"/>
-      <c r="AG1105" s="261"/>
-      <c r="AH1105" s="261"/>
+      <c r="B1105" s="263"/>
+      <c r="C1105" s="263"/>
+      <c r="D1105" s="263"/>
+      <c r="E1105" s="263"/>
+      <c r="F1105" s="263"/>
+      <c r="G1105" s="263"/>
+      <c r="H1105" s="263"/>
+      <c r="I1105" s="263"/>
+      <c r="J1105" s="263"/>
+      <c r="K1105" s="263"/>
+      <c r="L1105" s="263"/>
+      <c r="M1105" s="263"/>
+      <c r="N1105" s="263"/>
+      <c r="O1105" s="263"/>
+      <c r="P1105" s="263"/>
+      <c r="Q1105" s="263"/>
+      <c r="R1105" s="263"/>
+      <c r="S1105" s="263"/>
+      <c r="T1105" s="263"/>
+      <c r="U1105" s="263"/>
+      <c r="V1105" s="263"/>
+      <c r="W1105" s="263"/>
+      <c r="X1105" s="263"/>
+      <c r="Y1105" s="263"/>
+      <c r="Z1105" s="263"/>
+      <c r="AA1105" s="263"/>
+      <c r="AB1105" s="263"/>
+      <c r="AC1105" s="263"/>
+      <c r="AD1105" s="263"/>
+      <c r="AE1105" s="263"/>
+      <c r="AF1105" s="263"/>
+      <c r="AG1105" s="263"/>
+      <c r="AH1105" s="263"/>
     </row>
     <row r="1180" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1180" s="261"/>
-      <c r="C1180" s="261"/>
-      <c r="D1180" s="261"/>
-      <c r="E1180" s="261"/>
-      <c r="F1180" s="261"/>
-      <c r="G1180" s="261"/>
-      <c r="H1180" s="261"/>
-      <c r="I1180" s="261"/>
-      <c r="J1180" s="261"/>
-      <c r="K1180" s="261"/>
-      <c r="L1180" s="261"/>
-      <c r="M1180" s="261"/>
-      <c r="N1180" s="261"/>
-      <c r="O1180" s="261"/>
-      <c r="P1180" s="261"/>
-      <c r="Q1180" s="261"/>
-      <c r="R1180" s="261"/>
-      <c r="S1180" s="261"/>
-      <c r="T1180" s="261"/>
-      <c r="U1180" s="261"/>
-      <c r="V1180" s="261"/>
-      <c r="W1180" s="261"/>
-      <c r="X1180" s="261"/>
-      <c r="Y1180" s="261"/>
-      <c r="Z1180" s="261"/>
-      <c r="AA1180" s="261"/>
-      <c r="AB1180" s="261"/>
-      <c r="AC1180" s="261"/>
-      <c r="AD1180" s="261"/>
-      <c r="AE1180" s="261"/>
-      <c r="AF1180" s="261"/>
-      <c r="AG1180" s="261"/>
-      <c r="AH1180" s="261"/>
+      <c r="B1180" s="263"/>
+      <c r="C1180" s="263"/>
+      <c r="D1180" s="263"/>
+      <c r="E1180" s="263"/>
+      <c r="F1180" s="263"/>
+      <c r="G1180" s="263"/>
+      <c r="H1180" s="263"/>
+      <c r="I1180" s="263"/>
+      <c r="J1180" s="263"/>
+      <c r="K1180" s="263"/>
+      <c r="L1180" s="263"/>
+      <c r="M1180" s="263"/>
+      <c r="N1180" s="263"/>
+      <c r="O1180" s="263"/>
+      <c r="P1180" s="263"/>
+      <c r="Q1180" s="263"/>
+      <c r="R1180" s="263"/>
+      <c r="S1180" s="263"/>
+      <c r="T1180" s="263"/>
+      <c r="U1180" s="263"/>
+      <c r="V1180" s="263"/>
+      <c r="W1180" s="263"/>
+      <c r="X1180" s="263"/>
+      <c r="Y1180" s="263"/>
+      <c r="Z1180" s="263"/>
+      <c r="AA1180" s="263"/>
+      <c r="AB1180" s="263"/>
+      <c r="AC1180" s="263"/>
+      <c r="AD1180" s="263"/>
+      <c r="AE1180" s="263"/>
+      <c r="AF1180" s="263"/>
+      <c r="AG1180" s="263"/>
+      <c r="AH1180" s="263"/>
     </row>
     <row r="1255" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1255" s="261"/>
-      <c r="C1255" s="261"/>
-      <c r="D1255" s="261"/>
-      <c r="E1255" s="261"/>
-      <c r="F1255" s="261"/>
-      <c r="G1255" s="261"/>
-      <c r="H1255" s="261"/>
-      <c r="I1255" s="261"/>
-      <c r="J1255" s="261"/>
-      <c r="K1255" s="261"/>
-      <c r="L1255" s="261"/>
-      <c r="M1255" s="261"/>
-      <c r="N1255" s="261"/>
-      <c r="O1255" s="261"/>
-      <c r="P1255" s="261"/>
-      <c r="Q1255" s="261"/>
-      <c r="R1255" s="261"/>
-      <c r="S1255" s="261"/>
-      <c r="T1255" s="261"/>
-      <c r="U1255" s="261"/>
-      <c r="V1255" s="261"/>
-      <c r="W1255" s="261"/>
-      <c r="X1255" s="261"/>
-      <c r="Y1255" s="261"/>
-      <c r="Z1255" s="261"/>
-      <c r="AA1255" s="261"/>
-      <c r="AB1255" s="261"/>
-      <c r="AC1255" s="261"/>
-      <c r="AD1255" s="261"/>
-      <c r="AE1255" s="261"/>
-      <c r="AF1255" s="261"/>
-      <c r="AG1255" s="261"/>
-      <c r="AH1255" s="261"/>
+      <c r="B1255" s="263"/>
+      <c r="C1255" s="263"/>
+      <c r="D1255" s="263"/>
+      <c r="E1255" s="263"/>
+      <c r="F1255" s="263"/>
+      <c r="G1255" s="263"/>
+      <c r="H1255" s="263"/>
+      <c r="I1255" s="263"/>
+      <c r="J1255" s="263"/>
+      <c r="K1255" s="263"/>
+      <c r="L1255" s="263"/>
+      <c r="M1255" s="263"/>
+      <c r="N1255" s="263"/>
+      <c r="O1255" s="263"/>
+      <c r="P1255" s="263"/>
+      <c r="Q1255" s="263"/>
+      <c r="R1255" s="263"/>
+      <c r="S1255" s="263"/>
+      <c r="T1255" s="263"/>
+      <c r="U1255" s="263"/>
+      <c r="V1255" s="263"/>
+      <c r="W1255" s="263"/>
+      <c r="X1255" s="263"/>
+      <c r="Y1255" s="263"/>
+      <c r="Z1255" s="263"/>
+      <c r="AA1255" s="263"/>
+      <c r="AB1255" s="263"/>
+      <c r="AC1255" s="263"/>
+      <c r="AD1255" s="263"/>
+      <c r="AE1255" s="263"/>
+      <c r="AF1255" s="263"/>
+      <c r="AG1255" s="263"/>
+      <c r="AH1255" s="263"/>
     </row>
     <row r="1355" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1355" s="261"/>
-      <c r="C1355" s="261"/>
-      <c r="D1355" s="261"/>
-      <c r="E1355" s="261"/>
-      <c r="F1355" s="261"/>
-      <c r="G1355" s="261"/>
-      <c r="H1355" s="261"/>
-      <c r="I1355" s="261"/>
-      <c r="J1355" s="261"/>
-      <c r="K1355" s="261"/>
-      <c r="L1355" s="261"/>
-      <c r="M1355" s="261"/>
-      <c r="N1355" s="261"/>
-      <c r="O1355" s="261"/>
-      <c r="P1355" s="261"/>
-      <c r="Q1355" s="261"/>
-      <c r="R1355" s="261"/>
-      <c r="S1355" s="261"/>
-      <c r="T1355" s="261"/>
-      <c r="U1355" s="261"/>
-      <c r="V1355" s="261"/>
-      <c r="W1355" s="261"/>
-      <c r="X1355" s="261"/>
-      <c r="Y1355" s="261"/>
-      <c r="Z1355" s="261"/>
-      <c r="AA1355" s="261"/>
-      <c r="AB1355" s="261"/>
-      <c r="AC1355" s="261"/>
-      <c r="AD1355" s="261"/>
-      <c r="AE1355" s="261"/>
-      <c r="AF1355" s="261"/>
-      <c r="AG1355" s="261"/>
-      <c r="AH1355" s="261"/>
+      <c r="B1355" s="263"/>
+      <c r="C1355" s="263"/>
+      <c r="D1355" s="263"/>
+      <c r="E1355" s="263"/>
+      <c r="F1355" s="263"/>
+      <c r="G1355" s="263"/>
+      <c r="H1355" s="263"/>
+      <c r="I1355" s="263"/>
+      <c r="J1355" s="263"/>
+      <c r="K1355" s="263"/>
+      <c r="L1355" s="263"/>
+      <c r="M1355" s="263"/>
+      <c r="N1355" s="263"/>
+      <c r="O1355" s="263"/>
+      <c r="P1355" s="263"/>
+      <c r="Q1355" s="263"/>
+      <c r="R1355" s="263"/>
+      <c r="S1355" s="263"/>
+      <c r="T1355" s="263"/>
+      <c r="U1355" s="263"/>
+      <c r="V1355" s="263"/>
+      <c r="W1355" s="263"/>
+      <c r="X1355" s="263"/>
+      <c r="Y1355" s="263"/>
+      <c r="Z1355" s="263"/>
+      <c r="AA1355" s="263"/>
+      <c r="AB1355" s="263"/>
+      <c r="AC1355" s="263"/>
+      <c r="AD1355" s="263"/>
+      <c r="AE1355" s="263"/>
+      <c r="AF1355" s="263"/>
+      <c r="AG1355" s="263"/>
+      <c r="AH1355" s="263"/>
     </row>
     <row r="1527" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1527" s="261"/>
-      <c r="C1527" s="261"/>
-      <c r="D1527" s="261"/>
-      <c r="E1527" s="261"/>
-      <c r="F1527" s="261"/>
-      <c r="G1527" s="261"/>
-      <c r="H1527" s="261"/>
-      <c r="I1527" s="261"/>
-      <c r="J1527" s="261"/>
-      <c r="K1527" s="261"/>
-      <c r="L1527" s="261"/>
-      <c r="M1527" s="261"/>
-      <c r="N1527" s="261"/>
-      <c r="O1527" s="261"/>
-      <c r="P1527" s="261"/>
-      <c r="Q1527" s="261"/>
-      <c r="R1527" s="261"/>
-      <c r="S1527" s="261"/>
-      <c r="T1527" s="261"/>
-      <c r="U1527" s="261"/>
-      <c r="V1527" s="261"/>
-      <c r="W1527" s="261"/>
-      <c r="X1527" s="261"/>
-      <c r="Y1527" s="261"/>
-      <c r="Z1527" s="261"/>
-      <c r="AA1527" s="261"/>
-      <c r="AB1527" s="261"/>
-      <c r="AC1527" s="261"/>
-      <c r="AD1527" s="261"/>
-      <c r="AE1527" s="261"/>
-      <c r="AF1527" s="261"/>
-      <c r="AG1527" s="261"/>
-      <c r="AH1527" s="261"/>
+      <c r="B1527" s="263"/>
+      <c r="C1527" s="263"/>
+      <c r="D1527" s="263"/>
+      <c r="E1527" s="263"/>
+      <c r="F1527" s="263"/>
+      <c r="G1527" s="263"/>
+      <c r="H1527" s="263"/>
+      <c r="I1527" s="263"/>
+      <c r="J1527" s="263"/>
+      <c r="K1527" s="263"/>
+      <c r="L1527" s="263"/>
+      <c r="M1527" s="263"/>
+      <c r="N1527" s="263"/>
+      <c r="O1527" s="263"/>
+      <c r="P1527" s="263"/>
+      <c r="Q1527" s="263"/>
+      <c r="R1527" s="263"/>
+      <c r="S1527" s="263"/>
+      <c r="T1527" s="263"/>
+      <c r="U1527" s="263"/>
+      <c r="V1527" s="263"/>
+      <c r="W1527" s="263"/>
+      <c r="X1527" s="263"/>
+      <c r="Y1527" s="263"/>
+      <c r="Z1527" s="263"/>
+      <c r="AA1527" s="263"/>
+      <c r="AB1527" s="263"/>
+      <c r="AC1527" s="263"/>
+      <c r="AD1527" s="263"/>
+      <c r="AE1527" s="263"/>
+      <c r="AF1527" s="263"/>
+      <c r="AG1527" s="263"/>
+      <c r="AH1527" s="263"/>
     </row>
     <row r="1622" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1622" s="261"/>
-      <c r="C1622" s="261"/>
-      <c r="D1622" s="261"/>
-      <c r="E1622" s="261"/>
-      <c r="F1622" s="261"/>
-      <c r="G1622" s="261"/>
-      <c r="H1622" s="261"/>
-      <c r="I1622" s="261"/>
-      <c r="J1622" s="261"/>
-      <c r="K1622" s="261"/>
-      <c r="L1622" s="261"/>
-      <c r="M1622" s="261"/>
-      <c r="N1622" s="261"/>
-      <c r="O1622" s="261"/>
-      <c r="P1622" s="261"/>
-      <c r="Q1622" s="261"/>
-      <c r="R1622" s="261"/>
-      <c r="S1622" s="261"/>
-      <c r="T1622" s="261"/>
-      <c r="U1622" s="261"/>
-      <c r="V1622" s="261"/>
-      <c r="W1622" s="261"/>
-      <c r="X1622" s="261"/>
-      <c r="Y1622" s="261"/>
-      <c r="Z1622" s="261"/>
-      <c r="AA1622" s="261"/>
-      <c r="AB1622" s="261"/>
-      <c r="AC1622" s="261"/>
-      <c r="AD1622" s="261"/>
-      <c r="AE1622" s="261"/>
-      <c r="AF1622" s="261"/>
-      <c r="AG1622" s="261"/>
-      <c r="AH1622" s="261"/>
+      <c r="B1622" s="263"/>
+      <c r="C1622" s="263"/>
+      <c r="D1622" s="263"/>
+      <c r="E1622" s="263"/>
+      <c r="F1622" s="263"/>
+      <c r="G1622" s="263"/>
+      <c r="H1622" s="263"/>
+      <c r="I1622" s="263"/>
+      <c r="J1622" s="263"/>
+      <c r="K1622" s="263"/>
+      <c r="L1622" s="263"/>
+      <c r="M1622" s="263"/>
+      <c r="N1622" s="263"/>
+      <c r="O1622" s="263"/>
+      <c r="P1622" s="263"/>
+      <c r="Q1622" s="263"/>
+      <c r="R1622" s="263"/>
+      <c r="S1622" s="263"/>
+      <c r="T1622" s="263"/>
+      <c r="U1622" s="263"/>
+      <c r="V1622" s="263"/>
+      <c r="W1622" s="263"/>
+      <c r="X1622" s="263"/>
+      <c r="Y1622" s="263"/>
+      <c r="Z1622" s="263"/>
+      <c r="AA1622" s="263"/>
+      <c r="AB1622" s="263"/>
+      <c r="AC1622" s="263"/>
+      <c r="AD1622" s="263"/>
+      <c r="AE1622" s="263"/>
+      <c r="AF1622" s="263"/>
+      <c r="AG1622" s="263"/>
+      <c r="AH1622" s="263"/>
     </row>
     <row r="1740" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1740" s="261"/>
-      <c r="C1740" s="261"/>
-      <c r="D1740" s="261"/>
-      <c r="E1740" s="261"/>
-      <c r="F1740" s="261"/>
-      <c r="G1740" s="261"/>
-      <c r="H1740" s="261"/>
-      <c r="I1740" s="261"/>
-      <c r="J1740" s="261"/>
-      <c r="K1740" s="261"/>
-      <c r="L1740" s="261"/>
-      <c r="M1740" s="261"/>
-      <c r="N1740" s="261"/>
-      <c r="O1740" s="261"/>
-      <c r="P1740" s="261"/>
-      <c r="Q1740" s="261"/>
-      <c r="R1740" s="261"/>
-      <c r="S1740" s="261"/>
-      <c r="T1740" s="261"/>
-      <c r="U1740" s="261"/>
-      <c r="V1740" s="261"/>
-      <c r="W1740" s="261"/>
-      <c r="X1740" s="261"/>
-      <c r="Y1740" s="261"/>
-      <c r="Z1740" s="261"/>
-      <c r="AA1740" s="261"/>
-      <c r="AB1740" s="261"/>
-      <c r="AC1740" s="261"/>
-      <c r="AD1740" s="261"/>
-      <c r="AE1740" s="261"/>
-      <c r="AF1740" s="261"/>
-      <c r="AG1740" s="261"/>
-      <c r="AH1740" s="261"/>
+      <c r="B1740" s="263"/>
+      <c r="C1740" s="263"/>
+      <c r="D1740" s="263"/>
+      <c r="E1740" s="263"/>
+      <c r="F1740" s="263"/>
+      <c r="G1740" s="263"/>
+      <c r="H1740" s="263"/>
+      <c r="I1740" s="263"/>
+      <c r="J1740" s="263"/>
+      <c r="K1740" s="263"/>
+      <c r="L1740" s="263"/>
+      <c r="M1740" s="263"/>
+      <c r="N1740" s="263"/>
+      <c r="O1740" s="263"/>
+      <c r="P1740" s="263"/>
+      <c r="Q1740" s="263"/>
+      <c r="R1740" s="263"/>
+      <c r="S1740" s="263"/>
+      <c r="T1740" s="263"/>
+      <c r="U1740" s="263"/>
+      <c r="V1740" s="263"/>
+      <c r="W1740" s="263"/>
+      <c r="X1740" s="263"/>
+      <c r="Y1740" s="263"/>
+      <c r="Z1740" s="263"/>
+      <c r="AA1740" s="263"/>
+      <c r="AB1740" s="263"/>
+      <c r="AC1740" s="263"/>
+      <c r="AD1740" s="263"/>
+      <c r="AE1740" s="263"/>
+      <c r="AF1740" s="263"/>
+      <c r="AG1740" s="263"/>
+      <c r="AH1740" s="263"/>
     </row>
     <row r="1840" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1840" s="261"/>
-      <c r="C1840" s="261"/>
-      <c r="D1840" s="261"/>
-      <c r="E1840" s="261"/>
-      <c r="F1840" s="261"/>
-      <c r="G1840" s="261"/>
-      <c r="H1840" s="261"/>
-      <c r="I1840" s="261"/>
-      <c r="J1840" s="261"/>
-      <c r="K1840" s="261"/>
-      <c r="L1840" s="261"/>
-      <c r="M1840" s="261"/>
-      <c r="N1840" s="261"/>
-      <c r="O1840" s="261"/>
-      <c r="P1840" s="261"/>
-      <c r="Q1840" s="261"/>
-      <c r="R1840" s="261"/>
-      <c r="S1840" s="261"/>
-      <c r="T1840" s="261"/>
-      <c r="U1840" s="261"/>
-      <c r="V1840" s="261"/>
-      <c r="W1840" s="261"/>
-      <c r="X1840" s="261"/>
-      <c r="Y1840" s="261"/>
-      <c r="Z1840" s="261"/>
-      <c r="AA1840" s="261"/>
-      <c r="AB1840" s="261"/>
-      <c r="AC1840" s="261"/>
-      <c r="AD1840" s="261"/>
-      <c r="AE1840" s="261"/>
-      <c r="AF1840" s="261"/>
-      <c r="AG1840" s="261"/>
-      <c r="AH1840" s="261"/>
+      <c r="B1840" s="263"/>
+      <c r="C1840" s="263"/>
+      <c r="D1840" s="263"/>
+      <c r="E1840" s="263"/>
+      <c r="F1840" s="263"/>
+      <c r="G1840" s="263"/>
+      <c r="H1840" s="263"/>
+      <c r="I1840" s="263"/>
+      <c r="J1840" s="263"/>
+      <c r="K1840" s="263"/>
+      <c r="L1840" s="263"/>
+      <c r="M1840" s="263"/>
+      <c r="N1840" s="263"/>
+      <c r="O1840" s="263"/>
+      <c r="P1840" s="263"/>
+      <c r="Q1840" s="263"/>
+      <c r="R1840" s="263"/>
+      <c r="S1840" s="263"/>
+      <c r="T1840" s="263"/>
+      <c r="U1840" s="263"/>
+      <c r="V1840" s="263"/>
+      <c r="W1840" s="263"/>
+      <c r="X1840" s="263"/>
+      <c r="Y1840" s="263"/>
+      <c r="Z1840" s="263"/>
+      <c r="AA1840" s="263"/>
+      <c r="AB1840" s="263"/>
+      <c r="AC1840" s="263"/>
+      <c r="AD1840" s="263"/>
+      <c r="AE1840" s="263"/>
+      <c r="AF1840" s="263"/>
+      <c r="AG1840" s="263"/>
+      <c r="AH1840" s="263"/>
     </row>
     <row r="1940" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1940" s="261"/>
-      <c r="C1940" s="261"/>
-      <c r="D1940" s="261"/>
-      <c r="E1940" s="261"/>
-      <c r="F1940" s="261"/>
-      <c r="G1940" s="261"/>
-      <c r="H1940" s="261"/>
-      <c r="I1940" s="261"/>
-      <c r="J1940" s="261"/>
-      <c r="K1940" s="261"/>
-      <c r="L1940" s="261"/>
-      <c r="M1940" s="261"/>
-      <c r="N1940" s="261"/>
-      <c r="O1940" s="261"/>
-      <c r="P1940" s="261"/>
-      <c r="Q1940" s="261"/>
-      <c r="R1940" s="261"/>
-      <c r="S1940" s="261"/>
-      <c r="T1940" s="261"/>
-      <c r="U1940" s="261"/>
-      <c r="V1940" s="261"/>
-      <c r="W1940" s="261"/>
-      <c r="X1940" s="261"/>
-      <c r="Y1940" s="261"/>
-      <c r="Z1940" s="261"/>
-      <c r="AA1940" s="261"/>
-      <c r="AB1940" s="261"/>
-      <c r="AC1940" s="261"/>
-      <c r="AD1940" s="261"/>
-      <c r="AE1940" s="261"/>
-      <c r="AF1940" s="261"/>
-      <c r="AG1940" s="261"/>
-      <c r="AH1940" s="261"/>
+      <c r="B1940" s="263"/>
+      <c r="C1940" s="263"/>
+      <c r="D1940" s="263"/>
+      <c r="E1940" s="263"/>
+      <c r="F1940" s="263"/>
+      <c r="G1940" s="263"/>
+      <c r="H1940" s="263"/>
+      <c r="I1940" s="263"/>
+      <c r="J1940" s="263"/>
+      <c r="K1940" s="263"/>
+      <c r="L1940" s="263"/>
+      <c r="M1940" s="263"/>
+      <c r="N1940" s="263"/>
+      <c r="O1940" s="263"/>
+      <c r="P1940" s="263"/>
+      <c r="Q1940" s="263"/>
+      <c r="R1940" s="263"/>
+      <c r="S1940" s="263"/>
+      <c r="T1940" s="263"/>
+      <c r="U1940" s="263"/>
+      <c r="V1940" s="263"/>
+      <c r="W1940" s="263"/>
+      <c r="X1940" s="263"/>
+      <c r="Y1940" s="263"/>
+      <c r="Z1940" s="263"/>
+      <c r="AA1940" s="263"/>
+      <c r="AB1940" s="263"/>
+      <c r="AC1940" s="263"/>
+      <c r="AD1940" s="263"/>
+      <c r="AE1940" s="263"/>
+      <c r="AF1940" s="263"/>
+      <c r="AG1940" s="263"/>
+      <c r="AH1940" s="263"/>
     </row>
     <row r="2040" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2040" s="261"/>
-      <c r="C2040" s="261"/>
-      <c r="D2040" s="261"/>
-      <c r="E2040" s="261"/>
-      <c r="F2040" s="261"/>
-      <c r="G2040" s="261"/>
-      <c r="H2040" s="261"/>
-      <c r="I2040" s="261"/>
-      <c r="J2040" s="261"/>
-      <c r="K2040" s="261"/>
-      <c r="L2040" s="261"/>
-      <c r="M2040" s="261"/>
-      <c r="N2040" s="261"/>
-      <c r="O2040" s="261"/>
-      <c r="P2040" s="261"/>
-      <c r="Q2040" s="261"/>
-      <c r="R2040" s="261"/>
-      <c r="S2040" s="261"/>
-      <c r="T2040" s="261"/>
-      <c r="U2040" s="261"/>
-      <c r="V2040" s="261"/>
-      <c r="W2040" s="261"/>
-      <c r="X2040" s="261"/>
-      <c r="Y2040" s="261"/>
-      <c r="Z2040" s="261"/>
-      <c r="AA2040" s="261"/>
-      <c r="AB2040" s="261"/>
-      <c r="AC2040" s="261"/>
-      <c r="AD2040" s="261"/>
-      <c r="AE2040" s="261"/>
-      <c r="AF2040" s="261"/>
-      <c r="AG2040" s="261"/>
-      <c r="AH2040" s="261"/>
+      <c r="B2040" s="263"/>
+      <c r="C2040" s="263"/>
+      <c r="D2040" s="263"/>
+      <c r="E2040" s="263"/>
+      <c r="F2040" s="263"/>
+      <c r="G2040" s="263"/>
+      <c r="H2040" s="263"/>
+      <c r="I2040" s="263"/>
+      <c r="J2040" s="263"/>
+      <c r="K2040" s="263"/>
+      <c r="L2040" s="263"/>
+      <c r="M2040" s="263"/>
+      <c r="N2040" s="263"/>
+      <c r="O2040" s="263"/>
+      <c r="P2040" s="263"/>
+      <c r="Q2040" s="263"/>
+      <c r="R2040" s="263"/>
+      <c r="S2040" s="263"/>
+      <c r="T2040" s="263"/>
+      <c r="U2040" s="263"/>
+      <c r="V2040" s="263"/>
+      <c r="W2040" s="263"/>
+      <c r="X2040" s="263"/>
+      <c r="Y2040" s="263"/>
+      <c r="Z2040" s="263"/>
+      <c r="AA2040" s="263"/>
+      <c r="AB2040" s="263"/>
+      <c r="AC2040" s="263"/>
+      <c r="AD2040" s="263"/>
+      <c r="AE2040" s="263"/>
+      <c r="AF2040" s="263"/>
+      <c r="AG2040" s="263"/>
+      <c r="AH2040" s="263"/>
     </row>
     <row r="2140" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2140" s="261"/>
-      <c r="C2140" s="261"/>
-      <c r="D2140" s="261"/>
-      <c r="E2140" s="261"/>
-      <c r="F2140" s="261"/>
-      <c r="G2140" s="261"/>
-      <c r="H2140" s="261"/>
-      <c r="I2140" s="261"/>
-      <c r="J2140" s="261"/>
-      <c r="K2140" s="261"/>
-      <c r="L2140" s="261"/>
-      <c r="M2140" s="261"/>
-      <c r="N2140" s="261"/>
-      <c r="O2140" s="261"/>
-      <c r="P2140" s="261"/>
-      <c r="Q2140" s="261"/>
-      <c r="R2140" s="261"/>
-      <c r="S2140" s="261"/>
-      <c r="T2140" s="261"/>
-      <c r="U2140" s="261"/>
-      <c r="V2140" s="261"/>
-      <c r="W2140" s="261"/>
-      <c r="X2140" s="261"/>
-      <c r="Y2140" s="261"/>
-      <c r="Z2140" s="261"/>
-      <c r="AA2140" s="261"/>
-      <c r="AB2140" s="261"/>
-      <c r="AC2140" s="261"/>
-      <c r="AD2140" s="261"/>
-      <c r="AE2140" s="261"/>
-      <c r="AF2140" s="261"/>
-      <c r="AG2140" s="261"/>
-      <c r="AH2140" s="261"/>
+      <c r="B2140" s="263"/>
+      <c r="C2140" s="263"/>
+      <c r="D2140" s="263"/>
+      <c r="E2140" s="263"/>
+      <c r="F2140" s="263"/>
+      <c r="G2140" s="263"/>
+      <c r="H2140" s="263"/>
+      <c r="I2140" s="263"/>
+      <c r="J2140" s="263"/>
+      <c r="K2140" s="263"/>
+      <c r="L2140" s="263"/>
+      <c r="M2140" s="263"/>
+      <c r="N2140" s="263"/>
+      <c r="O2140" s="263"/>
+      <c r="P2140" s="263"/>
+      <c r="Q2140" s="263"/>
+      <c r="R2140" s="263"/>
+      <c r="S2140" s="263"/>
+      <c r="T2140" s="263"/>
+      <c r="U2140" s="263"/>
+      <c r="V2140" s="263"/>
+      <c r="W2140" s="263"/>
+      <c r="X2140" s="263"/>
+      <c r="Y2140" s="263"/>
+      <c r="Z2140" s="263"/>
+      <c r="AA2140" s="263"/>
+      <c r="AB2140" s="263"/>
+      <c r="AC2140" s="263"/>
+      <c r="AD2140" s="263"/>
+      <c r="AE2140" s="263"/>
+      <c r="AF2140" s="263"/>
+      <c r="AG2140" s="263"/>
+      <c r="AH2140" s="263"/>
     </row>
     <row r="2240" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2240" s="261"/>
-      <c r="C2240" s="261"/>
-      <c r="D2240" s="261"/>
-      <c r="E2240" s="261"/>
-      <c r="F2240" s="261"/>
-      <c r="G2240" s="261"/>
-      <c r="H2240" s="261"/>
-      <c r="I2240" s="261"/>
-      <c r="J2240" s="261"/>
-      <c r="K2240" s="261"/>
-      <c r="L2240" s="261"/>
-      <c r="M2240" s="261"/>
-      <c r="N2240" s="261"/>
-      <c r="O2240" s="261"/>
-      <c r="P2240" s="261"/>
-      <c r="Q2240" s="261"/>
-      <c r="R2240" s="261"/>
-      <c r="S2240" s="261"/>
-      <c r="T2240" s="261"/>
-      <c r="U2240" s="261"/>
-      <c r="V2240" s="261"/>
-      <c r="W2240" s="261"/>
-      <c r="X2240" s="261"/>
-      <c r="Y2240" s="261"/>
-      <c r="Z2240" s="261"/>
-      <c r="AA2240" s="261"/>
-      <c r="AB2240" s="261"/>
-      <c r="AC2240" s="261"/>
-      <c r="AD2240" s="261"/>
-      <c r="AE2240" s="261"/>
-      <c r="AF2240" s="261"/>
-      <c r="AG2240" s="261"/>
-      <c r="AH2240" s="261"/>
+      <c r="B2240" s="263"/>
+      <c r="C2240" s="263"/>
+      <c r="D2240" s="263"/>
+      <c r="E2240" s="263"/>
+      <c r="F2240" s="263"/>
+      <c r="G2240" s="263"/>
+      <c r="H2240" s="263"/>
+      <c r="I2240" s="263"/>
+      <c r="J2240" s="263"/>
+      <c r="K2240" s="263"/>
+      <c r="L2240" s="263"/>
+      <c r="M2240" s="263"/>
+      <c r="N2240" s="263"/>
+      <c r="O2240" s="263"/>
+      <c r="P2240" s="263"/>
+      <c r="Q2240" s="263"/>
+      <c r="R2240" s="263"/>
+      <c r="S2240" s="263"/>
+      <c r="T2240" s="263"/>
+      <c r="U2240" s="263"/>
+      <c r="V2240" s="263"/>
+      <c r="W2240" s="263"/>
+      <c r="X2240" s="263"/>
+      <c r="Y2240" s="263"/>
+      <c r="Z2240" s="263"/>
+      <c r="AA2240" s="263"/>
+      <c r="AB2240" s="263"/>
+      <c r="AC2240" s="263"/>
+      <c r="AD2240" s="263"/>
+      <c r="AE2240" s="263"/>
+      <c r="AF2240" s="263"/>
+      <c r="AG2240" s="263"/>
+      <c r="AH2240" s="263"/>
     </row>
     <row r="2340" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2340" s="261"/>
-      <c r="C2340" s="261"/>
-      <c r="D2340" s="261"/>
-      <c r="E2340" s="261"/>
-      <c r="F2340" s="261"/>
-      <c r="G2340" s="261"/>
-      <c r="H2340" s="261"/>
-      <c r="I2340" s="261"/>
-      <c r="J2340" s="261"/>
-      <c r="K2340" s="261"/>
-      <c r="L2340" s="261"/>
-      <c r="M2340" s="261"/>
-      <c r="N2340" s="261"/>
-      <c r="O2340" s="261"/>
-      <c r="P2340" s="261"/>
-      <c r="Q2340" s="261"/>
-      <c r="R2340" s="261"/>
-      <c r="S2340" s="261"/>
-      <c r="T2340" s="261"/>
-      <c r="U2340" s="261"/>
-      <c r="V2340" s="261"/>
-      <c r="W2340" s="261"/>
-      <c r="X2340" s="261"/>
-      <c r="Y2340" s="261"/>
-      <c r="Z2340" s="261"/>
-      <c r="AA2340" s="261"/>
-      <c r="AB2340" s="261"/>
-      <c r="AC2340" s="261"/>
-      <c r="AD2340" s="261"/>
-      <c r="AE2340" s="261"/>
-      <c r="AF2340" s="261"/>
-      <c r="AG2340" s="261"/>
-      <c r="AH2340" s="261"/>
+      <c r="B2340" s="263"/>
+      <c r="C2340" s="263"/>
+      <c r="D2340" s="263"/>
+      <c r="E2340" s="263"/>
+      <c r="F2340" s="263"/>
+      <c r="G2340" s="263"/>
+      <c r="H2340" s="263"/>
+      <c r="I2340" s="263"/>
+      <c r="J2340" s="263"/>
+      <c r="K2340" s="263"/>
+      <c r="L2340" s="263"/>
+      <c r="M2340" s="263"/>
+      <c r="N2340" s="263"/>
+      <c r="O2340" s="263"/>
+      <c r="P2340" s="263"/>
+      <c r="Q2340" s="263"/>
+      <c r="R2340" s="263"/>
+      <c r="S2340" s="263"/>
+      <c r="T2340" s="263"/>
+      <c r="U2340" s="263"/>
+      <c r="V2340" s="263"/>
+      <c r="W2340" s="263"/>
+      <c r="X2340" s="263"/>
+      <c r="Y2340" s="263"/>
+      <c r="Z2340" s="263"/>
+      <c r="AA2340" s="263"/>
+      <c r="AB2340" s="263"/>
+      <c r="AC2340" s="263"/>
+      <c r="AD2340" s="263"/>
+      <c r="AE2340" s="263"/>
+      <c r="AF2340" s="263"/>
+      <c r="AG2340" s="263"/>
+      <c r="AH2340" s="263"/>
     </row>
     <row r="2440" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2440" s="261"/>
-      <c r="C2440" s="261"/>
-      <c r="D2440" s="261"/>
-      <c r="E2440" s="261"/>
-      <c r="F2440" s="261"/>
-      <c r="G2440" s="261"/>
-      <c r="H2440" s="261"/>
-      <c r="I2440" s="261"/>
-      <c r="J2440" s="261"/>
-      <c r="K2440" s="261"/>
-      <c r="L2440" s="261"/>
-      <c r="M2440" s="261"/>
-      <c r="N2440" s="261"/>
-      <c r="O2440" s="261"/>
-      <c r="P2440" s="261"/>
-      <c r="Q2440" s="261"/>
-      <c r="R2440" s="261"/>
-      <c r="S2440" s="261"/>
-      <c r="T2440" s="261"/>
-      <c r="U2440" s="261"/>
-      <c r="V2440" s="261"/>
-      <c r="W2440" s="261"/>
-      <c r="X2440" s="261"/>
-      <c r="Y2440" s="261"/>
-      <c r="Z2440" s="261"/>
-      <c r="AA2440" s="261"/>
-      <c r="AB2440" s="261"/>
-      <c r="AC2440" s="261"/>
-      <c r="AD2440" s="261"/>
-      <c r="AE2440" s="261"/>
-      <c r="AF2440" s="261"/>
-      <c r="AG2440" s="261"/>
-      <c r="AH2440" s="261"/>
+      <c r="B2440" s="263"/>
+      <c r="C2440" s="263"/>
+      <c r="D2440" s="263"/>
+      <c r="E2440" s="263"/>
+      <c r="F2440" s="263"/>
+      <c r="G2440" s="263"/>
+      <c r="H2440" s="263"/>
+      <c r="I2440" s="263"/>
+      <c r="J2440" s="263"/>
+      <c r="K2440" s="263"/>
+      <c r="L2440" s="263"/>
+      <c r="M2440" s="263"/>
+      <c r="N2440" s="263"/>
+      <c r="O2440" s="263"/>
+      <c r="P2440" s="263"/>
+      <c r="Q2440" s="263"/>
+      <c r="R2440" s="263"/>
+      <c r="S2440" s="263"/>
+      <c r="T2440" s="263"/>
+      <c r="U2440" s="263"/>
+      <c r="V2440" s="263"/>
+      <c r="W2440" s="263"/>
+      <c r="X2440" s="263"/>
+      <c r="Y2440" s="263"/>
+      <c r="Z2440" s="263"/>
+      <c r="AA2440" s="263"/>
+      <c r="AB2440" s="263"/>
+      <c r="AC2440" s="263"/>
+      <c r="AD2440" s="263"/>
+      <c r="AE2440" s="263"/>
+      <c r="AF2440" s="263"/>
+      <c r="AG2440" s="263"/>
+      <c r="AH2440" s="263"/>
     </row>
     <row r="2540" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2540" s="261"/>
-      <c r="C2540" s="261"/>
-      <c r="D2540" s="261"/>
-      <c r="E2540" s="261"/>
-      <c r="F2540" s="261"/>
-      <c r="G2540" s="261"/>
-      <c r="H2540" s="261"/>
-      <c r="I2540" s="261"/>
-      <c r="J2540" s="261"/>
-      <c r="K2540" s="261"/>
-      <c r="L2540" s="261"/>
-      <c r="M2540" s="261"/>
-      <c r="N2540" s="261"/>
-      <c r="O2540" s="261"/>
-      <c r="P2540" s="261"/>
-      <c r="Q2540" s="261"/>
-      <c r="R2540" s="261"/>
-      <c r="S2540" s="261"/>
-      <c r="T2540" s="261"/>
-      <c r="U2540" s="261"/>
-      <c r="V2540" s="261"/>
-      <c r="W2540" s="261"/>
-      <c r="X2540" s="261"/>
-      <c r="Y2540" s="261"/>
-      <c r="Z2540" s="261"/>
-      <c r="AA2540" s="261"/>
-      <c r="AB2540" s="261"/>
-      <c r="AC2540" s="261"/>
-      <c r="AD2540" s="261"/>
-      <c r="AE2540" s="261"/>
-      <c r="AF2540" s="261"/>
-      <c r="AG2540" s="261"/>
-      <c r="AH2540" s="261"/>
+      <c r="B2540" s="263"/>
+      <c r="C2540" s="263"/>
+      <c r="D2540" s="263"/>
+      <c r="E2540" s="263"/>
+      <c r="F2540" s="263"/>
+      <c r="G2540" s="263"/>
+      <c r="H2540" s="263"/>
+      <c r="I2540" s="263"/>
+      <c r="J2540" s="263"/>
+      <c r="K2540" s="263"/>
+      <c r="L2540" s="263"/>
+      <c r="M2540" s="263"/>
+      <c r="N2540" s="263"/>
+      <c r="O2540" s="263"/>
+      <c r="P2540" s="263"/>
+      <c r="Q2540" s="263"/>
+      <c r="R2540" s="263"/>
+      <c r="S2540" s="263"/>
+      <c r="T2540" s="263"/>
+      <c r="U2540" s="263"/>
+      <c r="V2540" s="263"/>
+      <c r="W2540" s="263"/>
+      <c r="X2540" s="263"/>
+      <c r="Y2540" s="263"/>
+      <c r="Z2540" s="263"/>
+      <c r="AA2540" s="263"/>
+      <c r="AB2540" s="263"/>
+      <c r="AC2540" s="263"/>
+      <c r="AD2540" s="263"/>
+      <c r="AE2540" s="263"/>
+      <c r="AF2540" s="263"/>
+      <c r="AG2540" s="263"/>
+      <c r="AH2540" s="263"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B80:AG80"/>
-    <mergeCell ref="B88:AH88"/>
-    <mergeCell ref="B213:AH213"/>
-    <mergeCell ref="B379:AH379"/>
-    <mergeCell ref="B496:AH496"/>
-    <mergeCell ref="B648:AH648"/>
-    <mergeCell ref="B748:AH748"/>
-    <mergeCell ref="B839:AH839"/>
-    <mergeCell ref="B910:AH910"/>
-    <mergeCell ref="B1005:AH1005"/>
-    <mergeCell ref="B1105:AH1105"/>
-    <mergeCell ref="B1180:AH1180"/>
-    <mergeCell ref="B1255:AH1255"/>
-    <mergeCell ref="B1355:AH1355"/>
-    <mergeCell ref="B1527:AH1527"/>
     <mergeCell ref="B1622:AH1622"/>
     <mergeCell ref="B1740:AH1740"/>
     <mergeCell ref="B1840:AH1840"/>
@@ -29174,6 +29159,21 @@
     <mergeCell ref="B2240:AH2240"/>
     <mergeCell ref="B2340:AH2340"/>
     <mergeCell ref="B2440:AH2440"/>
+    <mergeCell ref="B1105:AH1105"/>
+    <mergeCell ref="B1180:AH1180"/>
+    <mergeCell ref="B1255:AH1255"/>
+    <mergeCell ref="B1355:AH1355"/>
+    <mergeCell ref="B1527:AH1527"/>
+    <mergeCell ref="B648:AH648"/>
+    <mergeCell ref="B748:AH748"/>
+    <mergeCell ref="B839:AH839"/>
+    <mergeCell ref="B910:AH910"/>
+    <mergeCell ref="B1005:AH1005"/>
+    <mergeCell ref="B80:AG80"/>
+    <mergeCell ref="B88:AH88"/>
+    <mergeCell ref="B213:AH213"/>
+    <mergeCell ref="B379:AH379"/>
+    <mergeCell ref="B496:AH496"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29800,7 +29800,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B21" s="76">
         <v>129487.84757606639</v>
@@ -29914,7 +29914,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B25" s="76">
         <v>118237.434842673</v>
@@ -30568,7 +30568,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="75" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B47" s="76">
         <v>112060.7</v>
@@ -31355,7 +31355,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="75" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B75" s="76">
         <v>28385750.368920002</v>
@@ -31548,7 +31548,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="98" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B82" s="76">
         <v>15929000</v>
@@ -31806,7 +31806,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="145" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B92" s="146">
         <v>152370.90134048002</v>
@@ -33528,27 +33528,27 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="49" t="s">
+        <v>637</v>
+      </c>
+      <c r="B158" s="49" t="s">
         <v>638</v>
       </c>
-      <c r="B158" s="49" t="s">
+      <c r="C158" s="49" t="s">
         <v>639</v>
       </c>
-      <c r="C158" s="49" t="s">
+      <c r="D158" s="49" t="s">
         <v>640</v>
       </c>
-      <c r="D158" s="49" t="s">
+      <c r="E158" s="49" t="s">
         <v>641</v>
       </c>
-      <c r="E158" s="49" t="s">
+      <c r="F158" s="49" t="s">
         <v>642</v>
-      </c>
-      <c r="F158" s="49" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="49" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B159" s="49">
         <v>1</v>
@@ -33568,7 +33568,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="49" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B160" s="49">
         <v>1E-3</v>
@@ -33588,7 +33588,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="49" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B161" s="49">
         <v>9.9999999999999995E-7</v>
@@ -33608,7 +33608,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B162" s="49">
         <v>3.2808398950131233E-3</v>
@@ -33628,7 +33628,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="49" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B163" s="49">
         <v>6.2137273664980671E-7</v>
@@ -34750,7 +34750,7 @@
   <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37482,7 +37482,7 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="232" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B26" s="232"/>
       <c r="C26" s="233"/>

--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\fuels\BFPIaE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\fuels\BFPIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C82F89-20EB-416E-AD07-94C23A027037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC290A8-4F7E-478E-AE8A-DDAE381592F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="990" windowWidth="32490" windowHeight="22140" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="900" windowWidth="20265" windowHeight="15810" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="GREET1 Fuel_Specs" sheetId="16" r:id="rId7"/>
     <sheet name="Start Year Data" sheetId="9" r:id="rId8"/>
     <sheet name="Time Series Scaling Factors" sheetId="18" r:id="rId9"/>
-    <sheet name="BFPIaE-imports" sheetId="19" r:id="rId10"/>
-    <sheet name="BFPIaE-exports" sheetId="13" r:id="rId11"/>
-    <sheet name="BFPIaE-production (not used)" sheetId="12" r:id="rId12"/>
+    <sheet name="BFPIaE-production" sheetId="12" r:id="rId10"/>
+    <sheet name="BFPIaE-imports" sheetId="19" r:id="rId11"/>
+    <sheet name="BFPIaE-exports" sheetId="13" r:id="rId12"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId13"/>
@@ -3078,6 +3078,9 @@
     <t>This variable contains time series data.</t>
   </si>
   <si>
+    <t>BFPIaE BAU Fuel Production</t>
+  </si>
+  <si>
     <t>BFPIaE BAU Fuel Imports</t>
   </si>
   <si>
@@ -3223,9 +3226,6 @@
   </si>
   <si>
     <t>Energy Modeling System run highogs.d112619a.  Projections:  EIA, AEO2020 National Energy Modeling System run highogs.d112619a.</t>
-  </si>
-  <si>
-    <t>BFPIaE BAU Fuel Production (not used)</t>
   </si>
 </sst>
 </file>
@@ -4395,11 +4395,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="8">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="8" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Body: normal cell" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4791,7 +4791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4809,8 +4811,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>675</v>
+      <c r="A3" s="1" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5071,7 +5073,7 @@
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
@@ -5101,7 +5103,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -5281,6 +5283,2926 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AI23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="35" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>630</v>
+      </c>
+      <c r="B1" s="234">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="234">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="234">
+        <v>2023</v>
+      </c>
+      <c r="G1" s="5">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="234">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="234">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="5">
+        <v>2028</v>
+      </c>
+      <c r="L1" s="234">
+        <v>2029</v>
+      </c>
+      <c r="M1" s="5">
+        <v>2030</v>
+      </c>
+      <c r="N1" s="234">
+        <v>2031</v>
+      </c>
+      <c r="O1" s="5">
+        <v>2032</v>
+      </c>
+      <c r="P1" s="234">
+        <v>2033</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>2034</v>
+      </c>
+      <c r="R1" s="234">
+        <v>2035</v>
+      </c>
+      <c r="S1" s="5">
+        <v>2036</v>
+      </c>
+      <c r="T1" s="234">
+        <v>2037</v>
+      </c>
+      <c r="U1" s="5">
+        <v>2038</v>
+      </c>
+      <c r="V1" s="234">
+        <v>2039</v>
+      </c>
+      <c r="W1" s="5">
+        <v>2040</v>
+      </c>
+      <c r="X1" s="234">
+        <v>2041</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>2042</v>
+      </c>
+      <c r="Z1" s="234">
+        <v>2043</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>2044</v>
+      </c>
+      <c r="AB1" s="234">
+        <v>2045</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>2046</v>
+      </c>
+      <c r="AD1" s="234">
+        <v>2047</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>2048</v>
+      </c>
+      <c r="AF1" s="234">
+        <v>2049</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>2050</v>
+      </c>
+      <c r="AH1" s="234"/>
+      <c r="AI1" s="5"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="29">
+        <f>'Start Year Data'!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>$B2*'Time Series Scaling Factors'!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>$B2*'Time Series Scaling Factors'!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>$B2*'Time Series Scaling Factors'!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>$B2*'Time Series Scaling Factors'!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>$B2*'Time Series Scaling Factors'!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>$B2*'Time Series Scaling Factors'!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>$B2*'Time Series Scaling Factors'!I3</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>$B2*'Time Series Scaling Factors'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>$B2*'Time Series Scaling Factors'!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>$B2*'Time Series Scaling Factors'!L3</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>$B2*'Time Series Scaling Factors'!M3</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>$B2*'Time Series Scaling Factors'!N3</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>$B2*'Time Series Scaling Factors'!O3</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>$B2*'Time Series Scaling Factors'!P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>$B2*'Time Series Scaling Factors'!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>$B2*'Time Series Scaling Factors'!R3</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>$B2*'Time Series Scaling Factors'!S3</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>$B2*'Time Series Scaling Factors'!T3</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>$B2*'Time Series Scaling Factors'!U3</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>$B2*'Time Series Scaling Factors'!V3</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>$B2*'Time Series Scaling Factors'!W3</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>$B2*'Time Series Scaling Factors'!X3</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>$B2*'Time Series Scaling Factors'!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>$B2*'Time Series Scaling Factors'!Z3</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>$B2*'Time Series Scaling Factors'!AA3</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>$B2*'Time Series Scaling Factors'!AB3</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>$B2*'Time Series Scaling Factors'!AC3</f>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>$B2*'Time Series Scaling Factors'!AD3</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>$B2*'Time Series Scaling Factors'!AE3</f>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f>$B2*'Time Series Scaling Factors'!AF3</f>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f>$B2*'Time Series Scaling Factors'!AG3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="29">
+        <f>'Start Year Data'!B27</f>
+        <v>1.372785698375E+16</v>
+      </c>
+      <c r="C3">
+        <f>$B3*'Time Series Scaling Factors'!C4</f>
+        <v>1.2466543748823158E+16</v>
+      </c>
+      <c r="D3">
+        <f>$B3*'Time Series Scaling Factors'!D4</f>
+        <v>1.173118503460332E+16</v>
+      </c>
+      <c r="E3">
+        <f>$B3*'Time Series Scaling Factors'!E4</f>
+        <v>1.1530287424907296E+16</v>
+      </c>
+      <c r="F3">
+        <f>$B3*'Time Series Scaling Factors'!F4</f>
+        <v>1.0910944594268388E+16</v>
+      </c>
+      <c r="G3">
+        <f>$B3*'Time Series Scaling Factors'!G4</f>
+        <v>1.0586652456401128E+16</v>
+      </c>
+      <c r="H3">
+        <f>$B3*'Time Series Scaling Factors'!H4</f>
+        <v>9537595128601070</v>
+      </c>
+      <c r="I3">
+        <f>$B3*'Time Series Scaling Factors'!I4</f>
+        <v>9722714739986834</v>
+      </c>
+      <c r="J3">
+        <f>$B3*'Time Series Scaling Factors'!J4</f>
+        <v>9676370094440396</v>
+      </c>
+      <c r="K3">
+        <f>$B3*'Time Series Scaling Factors'!K4</f>
+        <v>9558062926242374</v>
+      </c>
+      <c r="L3">
+        <f>$B3*'Time Series Scaling Factors'!L4</f>
+        <v>9390328753015236</v>
+      </c>
+      <c r="M3">
+        <f>$B3*'Time Series Scaling Factors'!M4</f>
+        <v>9224370957619270</v>
+      </c>
+      <c r="N3">
+        <f>$B3*'Time Series Scaling Factors'!N4</f>
+        <v>9135649180110596</v>
+      </c>
+      <c r="O3">
+        <f>$B3*'Time Series Scaling Factors'!O4</f>
+        <v>9112761624056898</v>
+      </c>
+      <c r="P3">
+        <f>$B3*'Time Series Scaling Factors'!P4</f>
+        <v>9099607728305902</v>
+      </c>
+      <c r="Q3">
+        <f>$B3*'Time Series Scaling Factors'!Q4</f>
+        <v>9095245688893590</v>
+      </c>
+      <c r="R3">
+        <f>$B3*'Time Series Scaling Factors'!R4</f>
+        <v>8983126506568739</v>
+      </c>
+      <c r="S3">
+        <f>$B3*'Time Series Scaling Factors'!S4</f>
+        <v>8975266338147203</v>
+      </c>
+      <c r="T3">
+        <f>$B3*'Time Series Scaling Factors'!T4</f>
+        <v>8968435983297497</v>
+      </c>
+      <c r="U3">
+        <f>$B3*'Time Series Scaling Factors'!U4</f>
+        <v>8926860042247729</v>
+      </c>
+      <c r="V3">
+        <f>$B3*'Time Series Scaling Factors'!V4</f>
+        <v>8884352413280811</v>
+      </c>
+      <c r="W3">
+        <f>$B3*'Time Series Scaling Factors'!W4</f>
+        <v>8795174402058096</v>
+      </c>
+      <c r="X3">
+        <f>$B3*'Time Series Scaling Factors'!X4</f>
+        <v>8730414504781202</v>
+      </c>
+      <c r="Y3">
+        <f>$B3*'Time Series Scaling Factors'!Y4</f>
+        <v>8697889390870105</v>
+      </c>
+      <c r="Z3">
+        <f>$B3*'Time Series Scaling Factors'!Z4</f>
+        <v>8678841886209989</v>
+      </c>
+      <c r="AA3">
+        <f>$B3*'Time Series Scaling Factors'!AA4</f>
+        <v>8642250121455318</v>
+      </c>
+      <c r="AB3">
+        <f>$B3*'Time Series Scaling Factors'!AB4</f>
+        <v>8601605868322697</v>
+      </c>
+      <c r="AC3">
+        <f>$B3*'Time Series Scaling Factors'!AC4</f>
+        <v>8604719587550687</v>
+      </c>
+      <c r="AD3">
+        <f>$B3*'Time Series Scaling Factors'!AD4</f>
+        <v>8580511887379857</v>
+      </c>
+      <c r="AE3">
+        <f>$B3*'Time Series Scaling Factors'!AE4</f>
+        <v>8551782314256096</v>
+      </c>
+      <c r="AF3">
+        <f>$B3*'Time Series Scaling Factors'!AF4</f>
+        <v>8557318826710544</v>
+      </c>
+      <c r="AG3">
+        <f>$B3*'Time Series Scaling Factors'!AG4</f>
+        <v>8530239180832026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="29">
+        <f>'Start Year Data'!B28</f>
+        <v>3.5698853E+16</v>
+      </c>
+      <c r="C4">
+        <f>$B4*'Time Series Scaling Factors'!C5</f>
+        <v>3.6461613E+16</v>
+      </c>
+      <c r="D4">
+        <f>$B4*'Time Series Scaling Factors'!D5</f>
+        <v>3.8399319E+16</v>
+      </c>
+      <c r="E4">
+        <f>$B4*'Time Series Scaling Factors'!E5</f>
+        <v>3.9064152E+16</v>
+      </c>
+      <c r="F4">
+        <f>$B4*'Time Series Scaling Factors'!F5</f>
+        <v>3.9540782999999992E+16</v>
+      </c>
+      <c r="G4">
+        <f>$B4*'Time Series Scaling Factors'!G5</f>
+        <v>4.0186932E+16</v>
+      </c>
+      <c r="H4">
+        <f>$B4*'Time Series Scaling Factors'!H5</f>
+        <v>4.1594856E+16</v>
+      </c>
+      <c r="I4">
+        <f>$B4*'Time Series Scaling Factors'!I5</f>
+        <v>4.2991825E+16</v>
+      </c>
+      <c r="J4">
+        <f>$B4*'Time Series Scaling Factors'!J5</f>
+        <v>4.3837154E+16</v>
+      </c>
+      <c r="K4">
+        <f>$B4*'Time Series Scaling Factors'!K5</f>
+        <v>4.4673091999999992E+16</v>
+      </c>
+      <c r="L4">
+        <f>$B4*'Time Series Scaling Factors'!L5</f>
+        <v>4.5265652E+16</v>
+      </c>
+      <c r="M4">
+        <f>$B4*'Time Series Scaling Factors'!M5</f>
+        <v>4.5577869E+16</v>
+      </c>
+      <c r="N4">
+        <f>$B4*'Time Series Scaling Factors'!N5</f>
+        <v>4.6066223E+16</v>
+      </c>
+      <c r="O4">
+        <f>$B4*'Time Series Scaling Factors'!O5</f>
+        <v>4.6707607E+16</v>
+      </c>
+      <c r="P4">
+        <f>$B4*'Time Series Scaling Factors'!P5</f>
+        <v>4.7376926E+16</v>
+      </c>
+      <c r="Q4">
+        <f>$B4*'Time Series Scaling Factors'!Q5</f>
+        <v>4.7925549E+16</v>
+      </c>
+      <c r="R4">
+        <f>$B4*'Time Series Scaling Factors'!R5</f>
+        <v>4.8427116E+16</v>
+      </c>
+      <c r="S4">
+        <f>$B4*'Time Series Scaling Factors'!S5</f>
+        <v>4.9248726E+16</v>
+      </c>
+      <c r="T4">
+        <f>$B4*'Time Series Scaling Factors'!T5</f>
+        <v>4.9617588E+16</v>
+      </c>
+      <c r="U4">
+        <f>$B4*'Time Series Scaling Factors'!U5</f>
+        <v>5.0274464E+16</v>
+      </c>
+      <c r="V4">
+        <f>$B4*'Time Series Scaling Factors'!V5</f>
+        <v>5.0788734E+16</v>
+      </c>
+      <c r="W4">
+        <f>$B4*'Time Series Scaling Factors'!W5</f>
+        <v>5.1329384E+16</v>
+      </c>
+      <c r="X4">
+        <f>$B4*'Time Series Scaling Factors'!X5</f>
+        <v>5.1800266E+16</v>
+      </c>
+      <c r="Y4">
+        <f>$B4*'Time Series Scaling Factors'!Y5</f>
+        <v>5.2295409999999992E+16</v>
+      </c>
+      <c r="Z4">
+        <f>$B4*'Time Series Scaling Factors'!Z5</f>
+        <v>5.2754333E+16</v>
+      </c>
+      <c r="AA4">
+        <f>$B4*'Time Series Scaling Factors'!AA5</f>
+        <v>5.3282814E+16</v>
+      </c>
+      <c r="AB4">
+        <f>$B4*'Time Series Scaling Factors'!AB5</f>
+        <v>5.371896E+16</v>
+      </c>
+      <c r="AC4">
+        <f>$B4*'Time Series Scaling Factors'!AC5</f>
+        <v>5.4344379E+16</v>
+      </c>
+      <c r="AD4">
+        <f>$B4*'Time Series Scaling Factors'!AD5</f>
+        <v>5.4812981000000008E+16</v>
+      </c>
+      <c r="AE4">
+        <f>$B4*'Time Series Scaling Factors'!AE5</f>
+        <v>5.5301308E+16</v>
+      </c>
+      <c r="AF4">
+        <f>$B4*'Time Series Scaling Factors'!AF5</f>
+        <v>5.5799816E+16</v>
+      </c>
+      <c r="AG4">
+        <f>$B4*'Time Series Scaling Factors'!AG5</f>
+        <v>5.6345497000000008E+16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="29">
+        <f>'Start Year Data'!B29</f>
+        <v>540000000000000</v>
+      </c>
+      <c r="C5">
+        <f>$B5*'Time Series Scaling Factors'!C6</f>
+        <v>530350229609255.75</v>
+      </c>
+      <c r="D5">
+        <f>$B5*'Time Series Scaling Factors'!D6</f>
+        <v>521586332440665.06</v>
+      </c>
+      <c r="E5">
+        <f>$B5*'Time Series Scaling Factors'!E6</f>
+        <v>511861167223607.38</v>
+      </c>
+      <c r="F5">
+        <f>$B5*'Time Series Scaling Factors'!F6</f>
+        <v>513379807033013.56</v>
+      </c>
+      <c r="G5">
+        <f>$B5*'Time Series Scaling Factors'!G6</f>
+        <v>515362006720236.25</v>
+      </c>
+      <c r="H5">
+        <f>$B5*'Time Series Scaling Factors'!H6</f>
+        <v>505881379090814.13</v>
+      </c>
+      <c r="I5">
+        <f>$B5*'Time Series Scaling Factors'!I6</f>
+        <v>420681196625529.13</v>
+      </c>
+      <c r="J5">
+        <f>$B5*'Time Series Scaling Factors'!J6</f>
+        <v>390752456140475.56</v>
+      </c>
+      <c r="K5">
+        <f>$B5*'Time Series Scaling Factors'!K6</f>
+        <v>391031653605856.5</v>
+      </c>
+      <c r="L5">
+        <f>$B5*'Time Series Scaling Factors'!L6</f>
+        <v>391305415481554.19</v>
+      </c>
+      <c r="M5">
+        <f>$B5*'Time Series Scaling Factors'!M6</f>
+        <v>379508011632872.5</v>
+      </c>
+      <c r="N5">
+        <f>$B5*'Time Series Scaling Factors'!N6</f>
+        <v>373627279128543.5</v>
+      </c>
+      <c r="O5">
+        <f>$B5*'Time Series Scaling Factors'!O6</f>
+        <v>369358870420515.75</v>
+      </c>
+      <c r="P5">
+        <f>$B5*'Time Series Scaling Factors'!P6</f>
+        <v>359207810764741.31</v>
+      </c>
+      <c r="Q5">
+        <f>$B5*'Time Series Scaling Factors'!Q6</f>
+        <v>342949642281356.13</v>
+      </c>
+      <c r="R5">
+        <f>$B5*'Time Series Scaling Factors'!R6</f>
+        <v>343889551659773.31</v>
+      </c>
+      <c r="S5">
+        <f>$B5*'Time Series Scaling Factors'!S6</f>
+        <v>312263564283131</v>
+      </c>
+      <c r="T5">
+        <f>$B5*'Time Series Scaling Factors'!T6</f>
+        <v>312404825666783.44</v>
+      </c>
+      <c r="U5">
+        <f>$B5*'Time Series Scaling Factors'!U6</f>
+        <v>288459646253244.5</v>
+      </c>
+      <c r="V5">
+        <f>$B5*'Time Series Scaling Factors'!V6</f>
+        <v>276956915313512.72</v>
+      </c>
+      <c r="W5">
+        <f>$B5*'Time Series Scaling Factors'!W6</f>
+        <v>277187576160427.38</v>
+      </c>
+      <c r="X5">
+        <f>$B5*'Time Series Scaling Factors'!X6</f>
+        <v>278025168556570.28</v>
+      </c>
+      <c r="Y5">
+        <f>$B5*'Time Series Scaling Factors'!Y6</f>
+        <v>273312000716218.88</v>
+      </c>
+      <c r="Z5">
+        <f>$B5*'Time Series Scaling Factors'!Z6</f>
+        <v>268599280512664.91</v>
+      </c>
+      <c r="AA5">
+        <f>$B5*'Time Series Scaling Factors'!AA6</f>
+        <v>258883963305151.19</v>
+      </c>
+      <c r="AB5">
+        <f>$B5*'Time Series Scaling Factors'!AB6</f>
+        <v>254831187637266.41</v>
+      </c>
+      <c r="AC5">
+        <f>$B5*'Time Series Scaling Factors'!AC6</f>
+        <v>250575760396364.66</v>
+      </c>
+      <c r="AD5">
+        <f>$B5*'Time Series Scaling Factors'!AD6</f>
+        <v>250860841088226.38</v>
+      </c>
+      <c r="AE5">
+        <f>$B5*'Time Series Scaling Factors'!AE6</f>
+        <v>251038297104358.38</v>
+      </c>
+      <c r="AF5">
+        <f>$B5*'Time Series Scaling Factors'!AF6</f>
+        <v>251252715130336.94</v>
+      </c>
+      <c r="AG5">
+        <f>$B5*'Time Series Scaling Factors'!AG6</f>
+        <v>251562735586628.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="29">
+        <f>'Start Year Data'!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>$B6*'Time Series Scaling Factors'!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>$B6*'Time Series Scaling Factors'!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>$B6*'Time Series Scaling Factors'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>$B6*'Time Series Scaling Factors'!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>$B6*'Time Series Scaling Factors'!G7</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>$B6*'Time Series Scaling Factors'!H7</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>$B6*'Time Series Scaling Factors'!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>$B6*'Time Series Scaling Factors'!J7</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>$B6*'Time Series Scaling Factors'!K7</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>$B6*'Time Series Scaling Factors'!L7</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>$B6*'Time Series Scaling Factors'!M7</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>$B6*'Time Series Scaling Factors'!N7</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>$B6*'Time Series Scaling Factors'!O7</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>$B6*'Time Series Scaling Factors'!P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>$B6*'Time Series Scaling Factors'!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>$B6*'Time Series Scaling Factors'!R7</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>$B6*'Time Series Scaling Factors'!S7</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>$B6*'Time Series Scaling Factors'!T7</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>$B6*'Time Series Scaling Factors'!U7</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>$B6*'Time Series Scaling Factors'!V7</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>$B6*'Time Series Scaling Factors'!W7</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>$B6*'Time Series Scaling Factors'!X7</f>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f>$B6*'Time Series Scaling Factors'!Y7</f>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f>$B6*'Time Series Scaling Factors'!Z7</f>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f>$B6*'Time Series Scaling Factors'!AA7</f>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f>$B6*'Time Series Scaling Factors'!AB7</f>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f>$B6*'Time Series Scaling Factors'!AC7</f>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f>$B6*'Time Series Scaling Factors'!AD7</f>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f>$B6*'Time Series Scaling Factors'!AE7</f>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f>$B6*'Time Series Scaling Factors'!AF7</f>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f>$B6*'Time Series Scaling Factors'!AG7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="29">
+        <f>'Start Year Data'!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>$B7*'Time Series Scaling Factors'!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>$B7*'Time Series Scaling Factors'!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>$B7*'Time Series Scaling Factors'!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>$B7*'Time Series Scaling Factors'!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>$B7*'Time Series Scaling Factors'!G8</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>$B7*'Time Series Scaling Factors'!H8</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>$B7*'Time Series Scaling Factors'!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>$B7*'Time Series Scaling Factors'!J8</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>$B7*'Time Series Scaling Factors'!K8</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>$B7*'Time Series Scaling Factors'!L8</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>$B7*'Time Series Scaling Factors'!M8</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>$B7*'Time Series Scaling Factors'!N8</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>$B7*'Time Series Scaling Factors'!O8</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>$B7*'Time Series Scaling Factors'!P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>$B7*'Time Series Scaling Factors'!Q8</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>$B7*'Time Series Scaling Factors'!R8</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>$B7*'Time Series Scaling Factors'!S8</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>$B7*'Time Series Scaling Factors'!T8</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>$B7*'Time Series Scaling Factors'!U8</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>$B7*'Time Series Scaling Factors'!V8</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>$B7*'Time Series Scaling Factors'!W8</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>$B7*'Time Series Scaling Factors'!X8</f>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>$B7*'Time Series Scaling Factors'!Y8</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>$B7*'Time Series Scaling Factors'!Z8</f>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f>$B7*'Time Series Scaling Factors'!AA8</f>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f>$B7*'Time Series Scaling Factors'!AB8</f>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f>$B7*'Time Series Scaling Factors'!AC8</f>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f>$B7*'Time Series Scaling Factors'!AD8</f>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f>$B7*'Time Series Scaling Factors'!AE8</f>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f>$B7*'Time Series Scaling Factors'!AF8</f>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f>$B7*'Time Series Scaling Factors'!AG8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="29">
+        <f>'Start Year Data'!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>$B8*'Time Series Scaling Factors'!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>$B8*'Time Series Scaling Factors'!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>$B8*'Time Series Scaling Factors'!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>$B8*'Time Series Scaling Factors'!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>$B8*'Time Series Scaling Factors'!G9</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>$B8*'Time Series Scaling Factors'!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>$B8*'Time Series Scaling Factors'!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>$B8*'Time Series Scaling Factors'!J9</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>$B8*'Time Series Scaling Factors'!K9</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>$B8*'Time Series Scaling Factors'!L9</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>$B8*'Time Series Scaling Factors'!M9</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>$B8*'Time Series Scaling Factors'!N9</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>$B8*'Time Series Scaling Factors'!O9</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>$B8*'Time Series Scaling Factors'!P9</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>$B8*'Time Series Scaling Factors'!Q9</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>$B8*'Time Series Scaling Factors'!R9</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>$B8*'Time Series Scaling Factors'!S9</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>$B8*'Time Series Scaling Factors'!T9</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>$B8*'Time Series Scaling Factors'!U9</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>$B8*'Time Series Scaling Factors'!V9</f>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f>$B8*'Time Series Scaling Factors'!W9</f>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f>$B8*'Time Series Scaling Factors'!X9</f>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f>$B8*'Time Series Scaling Factors'!Y9</f>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f>$B8*'Time Series Scaling Factors'!Z9</f>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f>$B8*'Time Series Scaling Factors'!AA9</f>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f>$B8*'Time Series Scaling Factors'!AB9</f>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f>$B8*'Time Series Scaling Factors'!AC9</f>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f>$B8*'Time Series Scaling Factors'!AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f>$B8*'Time Series Scaling Factors'!AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f>$B8*'Time Series Scaling Factors'!AF9</f>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f>$B8*'Time Series Scaling Factors'!AG9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="29">
+        <f>'Start Year Data'!B33</f>
+        <v>123408653368000</v>
+      </c>
+      <c r="C9">
+        <f>$B9*'Time Series Scaling Factors'!C10</f>
+        <v>121916730377165.38</v>
+      </c>
+      <c r="D9">
+        <f>$B9*'Time Series Scaling Factors'!D10</f>
+        <v>123445738522830.2</v>
+      </c>
+      <c r="E9">
+        <f>$B9*'Time Series Scaling Factors'!E10</f>
+        <v>125097792654624.8</v>
+      </c>
+      <c r="F9">
+        <f>$B9*'Time Series Scaling Factors'!F10</f>
+        <v>125801055070049.69</v>
+      </c>
+      <c r="G9">
+        <f>$B9*'Time Series Scaling Factors'!G10</f>
+        <v>126604166067858.83</v>
+      </c>
+      <c r="H9">
+        <f>$B9*'Time Series Scaling Factors'!H10</f>
+        <v>127372186836407.89</v>
+      </c>
+      <c r="I9">
+        <f>$B9*'Time Series Scaling Factors'!I10</f>
+        <v>128070717697595.84</v>
+      </c>
+      <c r="J9">
+        <f>$B9*'Time Series Scaling Factors'!J10</f>
+        <v>129006082030320.11</v>
+      </c>
+      <c r="K9">
+        <f>$B9*'Time Series Scaling Factors'!K10</f>
+        <v>129940909267698.56</v>
+      </c>
+      <c r="L9">
+        <f>$B9*'Time Series Scaling Factors'!L10</f>
+        <v>130600283320579.55</v>
+      </c>
+      <c r="M9">
+        <f>$B9*'Time Series Scaling Factors'!M10</f>
+        <v>131166407391039.25</v>
+      </c>
+      <c r="N9">
+        <f>$B9*'Time Series Scaling Factors'!N10</f>
+        <v>131582553980171.83</v>
+      </c>
+      <c r="O9">
+        <f>$B9*'Time Series Scaling Factors'!O10</f>
+        <v>131770639655083.09</v>
+      </c>
+      <c r="P9">
+        <f>$B9*'Time Series Scaling Factors'!P10</f>
+        <v>132151286799454.08</v>
+      </c>
+      <c r="Q9">
+        <f>$B9*'Time Series Scaling Factors'!Q10</f>
+        <v>132331316044178.06</v>
+      </c>
+      <c r="R9">
+        <f>$B9*'Time Series Scaling Factors'!R10</f>
+        <v>132723574678406.22</v>
+      </c>
+      <c r="S9">
+        <f>$B9*'Time Series Scaling Factors'!S10</f>
+        <v>133099106629007.5</v>
+      </c>
+      <c r="T9">
+        <f>$B9*'Time Series Scaling Factors'!T10</f>
+        <v>133349444212095.8</v>
+      </c>
+      <c r="U9">
+        <f>$B9*'Time Series Scaling Factors'!U10</f>
+        <v>133710858227892.77</v>
+      </c>
+      <c r="V9">
+        <f>$B9*'Time Series Scaling Factors'!V10</f>
+        <v>134015749352534.73</v>
+      </c>
+      <c r="W9">
+        <f>$B9*'Time Series Scaling Factors'!W10</f>
+        <v>134472203668572.41</v>
+      </c>
+      <c r="X9">
+        <f>$B9*'Time Series Scaling Factors'!X10</f>
+        <v>135120426599035.55</v>
+      </c>
+      <c r="Y9">
+        <f>$B9*'Time Series Scaling Factors'!Y10</f>
+        <v>135444192788687.59</v>
+      </c>
+      <c r="Z9">
+        <f>$B9*'Time Series Scaling Factors'!Z10</f>
+        <v>136046532431036.67</v>
+      </c>
+      <c r="AA9">
+        <f>$B9*'Time Series Scaling Factors'!AA10</f>
+        <v>136854119223394.25</v>
+      </c>
+      <c r="AB9">
+        <f>$B9*'Time Series Scaling Factors'!AB10</f>
+        <v>137562010889180.72</v>
+      </c>
+      <c r="AC9">
+        <f>$B9*'Time Series Scaling Factors'!AC10</f>
+        <v>138728249492699.64</v>
+      </c>
+      <c r="AD9">
+        <f>$B9*'Time Series Scaling Factors'!AD10</f>
+        <v>139699727093437.86</v>
+      </c>
+      <c r="AE9">
+        <f>$B9*'Time Series Scaling Factors'!AE10</f>
+        <v>140693379059167.67</v>
+      </c>
+      <c r="AF9">
+        <f>$B9*'Time Series Scaling Factors'!AF10</f>
+        <v>141846241430978.88</v>
+      </c>
+      <c r="AG9">
+        <f>$B9*'Time Series Scaling Factors'!AG10</f>
+        <v>143192406975346.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="29">
+        <f>'Start Year Data'!B34</f>
+        <v>1.8365288407359E+16</v>
+      </c>
+      <c r="C10">
+        <f>$B10*'Time Series Scaling Factors'!C11</f>
+        <v>2.081311701707924E+16</v>
+      </c>
+      <c r="D10">
+        <f>$B10*'Time Series Scaling Factors'!D11</f>
+        <v>2.3057666630590116E+16</v>
+      </c>
+      <c r="E10">
+        <f>$B10*'Time Series Scaling Factors'!E11</f>
+        <v>2.4431765838112752E+16</v>
+      </c>
+      <c r="F10">
+        <f>$B10*'Time Series Scaling Factors'!F11</f>
+        <v>2.5060870393468948E+16</v>
+      </c>
+      <c r="G10">
+        <f>$B10*'Time Series Scaling Factors'!G11</f>
+        <v>2.566304567735818E+16</v>
+      </c>
+      <c r="H10">
+        <f>$B10*'Time Series Scaling Factors'!H11</f>
+        <v>2.6003268681780608E+16</v>
+      </c>
+      <c r="I10">
+        <f>$B10*'Time Series Scaling Factors'!I11</f>
+        <v>2.6381043648824656E+16</v>
+      </c>
+      <c r="J10">
+        <f>$B10*'Time Series Scaling Factors'!J11</f>
+        <v>2.6568281398936748E+16</v>
+      </c>
+      <c r="K10">
+        <f>$B10*'Time Series Scaling Factors'!K11</f>
+        <v>2.6745211273354708E+16</v>
+      </c>
+      <c r="L10">
+        <f>$B10*'Time Series Scaling Factors'!L11</f>
+        <v>2.687636382448514E+16</v>
+      </c>
+      <c r="M10">
+        <f>$B10*'Time Series Scaling Factors'!M11</f>
+        <v>2.7055599955215348E+16</v>
+      </c>
+      <c r="N10">
+        <f>$B10*'Time Series Scaling Factors'!N11</f>
+        <v>2.7366543687569052E+16</v>
+      </c>
+      <c r="O10">
+        <f>$B10*'Time Series Scaling Factors'!O11</f>
+        <v>2.756264790318012E+16</v>
+      </c>
+      <c r="P10">
+        <f>$B10*'Time Series Scaling Factors'!P11</f>
+        <v>2.7830648368510596E+16</v>
+      </c>
+      <c r="Q10">
+        <f>$B10*'Time Series Scaling Factors'!Q11</f>
+        <v>2.7566748392481572E+16</v>
+      </c>
+      <c r="R10">
+        <f>$B10*'Time Series Scaling Factors'!R11</f>
+        <v>2.7685243067316104E+16</v>
+      </c>
+      <c r="S10">
+        <f>$B10*'Time Series Scaling Factors'!S11</f>
+        <v>2.7659662697628788E+16</v>
+      </c>
+      <c r="T10">
+        <f>$B10*'Time Series Scaling Factors'!T11</f>
+        <v>2.7616183025219508E+16</v>
+      </c>
+      <c r="U10">
+        <f>$B10*'Time Series Scaling Factors'!U11</f>
+        <v>2.7457860967589596E+16</v>
+      </c>
+      <c r="V10">
+        <f>$B10*'Time Series Scaling Factors'!V11</f>
+        <v>2.742120397010406E+16</v>
+      </c>
+      <c r="W10">
+        <f>$B10*'Time Series Scaling Factors'!W11</f>
+        <v>2.7423094297106272E+16</v>
+      </c>
+      <c r="X10">
+        <f>$B10*'Time Series Scaling Factors'!X11</f>
+        <v>2.7420358486213468E+16</v>
+      </c>
+      <c r="Y10">
+        <f>$B10*'Time Series Scaling Factors'!Y11</f>
+        <v>2.7446666732193364E+16</v>
+      </c>
+      <c r="Z10">
+        <f>$B10*'Time Series Scaling Factors'!Z11</f>
+        <v>2.72505904842428E+16</v>
+      </c>
+      <c r="AA10">
+        <f>$B10*'Time Series Scaling Factors'!AA11</f>
+        <v>2.7236258133914224E+16</v>
+      </c>
+      <c r="AB10">
+        <f>$B10*'Time Series Scaling Factors'!AB11</f>
+        <v>2.7285641134048152E+16</v>
+      </c>
+      <c r="AC10">
+        <f>$B10*'Time Series Scaling Factors'!AC11</f>
+        <v>2.7339893375587624E+16</v>
+      </c>
+      <c r="AD10">
+        <f>$B10*'Time Series Scaling Factors'!AD11</f>
+        <v>2.7517893192299696E+16</v>
+      </c>
+      <c r="AE10">
+        <f>$B10*'Time Series Scaling Factors'!AE11</f>
+        <v>2.7792415859483392E+16</v>
+      </c>
+      <c r="AF10">
+        <f>$B10*'Time Series Scaling Factors'!AF11</f>
+        <v>2.8141849546764828E+16</v>
+      </c>
+      <c r="AG10">
+        <f>$B10*'Time Series Scaling Factors'!AG11</f>
+        <v>2.8371133447405544E+16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="29">
+        <f>'Start Year Data'!B35</f>
+        <v>1.0682345175E+16</v>
+      </c>
+      <c r="C11">
+        <f>$B11*'Time Series Scaling Factors'!C12</f>
+        <v>1.210614803386467E+16</v>
+      </c>
+      <c r="D11">
+        <f>$B11*'Time Series Scaling Factors'!D12</f>
+        <v>1.3411711725656648E+16</v>
+      </c>
+      <c r="E11">
+        <f>$B11*'Time Series Scaling Factors'!E12</f>
+        <v>1.4210969636224992E+16</v>
+      </c>
+      <c r="F11">
+        <f>$B11*'Time Series Scaling Factors'!F12</f>
+        <v>1.4576894301409502E+16</v>
+      </c>
+      <c r="G11">
+        <f>$B11*'Time Series Scaling Factors'!G12</f>
+        <v>1.492715529898691E+16</v>
+      </c>
+      <c r="H11">
+        <f>$B11*'Time Series Scaling Factors'!H12</f>
+        <v>1.5125049254644018E+16</v>
+      </c>
+      <c r="I11">
+        <f>$B11*'Time Series Scaling Factors'!I12</f>
+        <v>1.5344785667540302E+16</v>
+      </c>
+      <c r="J11">
+        <f>$B11*'Time Series Scaling Factors'!J12</f>
+        <v>1.5453694290814976E+16</v>
+      </c>
+      <c r="K11">
+        <f>$B11*'Time Series Scaling Factors'!K12</f>
+        <v>1.5556607239872978E+16</v>
+      </c>
+      <c r="L11">
+        <f>$B11*'Time Series Scaling Factors'!L12</f>
+        <v>1.5632893372204866E+16</v>
+      </c>
+      <c r="M11">
+        <f>$B11*'Time Series Scaling Factors'!M12</f>
+        <v>1.5737147777244556E+16</v>
+      </c>
+      <c r="N11">
+        <f>$B11*'Time Series Scaling Factors'!N12</f>
+        <v>1.591801116502964E+16</v>
+      </c>
+      <c r="O11">
+        <f>$B11*'Time Series Scaling Factors'!O12</f>
+        <v>1.6032077052532428E+16</v>
+      </c>
+      <c r="P11">
+        <f>$B11*'Time Series Scaling Factors'!P12</f>
+        <v>1.6187962079449488E+16</v>
+      </c>
+      <c r="Q11">
+        <f>$B11*'Time Series Scaling Factors'!Q12</f>
+        <v>1.6034462141246142E+16</v>
+      </c>
+      <c r="R11">
+        <f>$B11*'Time Series Scaling Factors'!R12</f>
+        <v>1.6103385699096432E+16</v>
+      </c>
+      <c r="S11">
+        <f>$B11*'Time Series Scaling Factors'!S12</f>
+        <v>1.6088506633075638E+16</v>
+      </c>
+      <c r="T11">
+        <f>$B11*'Time Series Scaling Factors'!T12</f>
+        <v>1.6063216266898444E+16</v>
+      </c>
+      <c r="U11">
+        <f>$B11*'Time Series Scaling Factors'!U12</f>
+        <v>1.5971126731961368E+16</v>
+      </c>
+      <c r="V11">
+        <f>$B11*'Time Series Scaling Factors'!V12</f>
+        <v>1.5949804839730006E+16</v>
+      </c>
+      <c r="W11">
+        <f>$B11*'Time Series Scaling Factors'!W12</f>
+        <v>1.5950904366461268E+16</v>
+      </c>
+      <c r="X11">
+        <f>$B11*'Time Series Scaling Factors'!X12</f>
+        <v>1.5949313055960598E+16</v>
+      </c>
+      <c r="Y11">
+        <f>$B11*'Time Series Scaling Factors'!Y12</f>
+        <v>1.5964615498169646E+16</v>
+      </c>
+      <c r="Z11">
+        <f>$B11*'Time Series Scaling Factors'!Z12</f>
+        <v>1.5850565878323352E+16</v>
+      </c>
+      <c r="AA11">
+        <f>$B11*'Time Series Scaling Factors'!AA12</f>
+        <v>1.584222933004908E+16</v>
+      </c>
+      <c r="AB11">
+        <f>$B11*'Time Series Scaling Factors'!AB12</f>
+        <v>1.5870953423104776E+16</v>
+      </c>
+      <c r="AC11">
+        <f>$B11*'Time Series Scaling Factors'!AC12</f>
+        <v>1.590250975686809E+16</v>
+      </c>
+      <c r="AD11">
+        <f>$B11*'Time Series Scaling Factors'!AD12</f>
+        <v>1.6006045048066848E+16</v>
+      </c>
+      <c r="AE11">
+        <f>$B11*'Time Series Scaling Factors'!AE12</f>
+        <v>1.616572377590228E+16</v>
+      </c>
+      <c r="AF11">
+        <f>$B11*'Time Series Scaling Factors'!AF12</f>
+        <v>1.6368975213098202E+16</v>
+      </c>
+      <c r="AG11">
+        <f>$B11*'Time Series Scaling Factors'!AG12</f>
+        <v>1.650234038087488E+16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="29">
+        <f>'Start Year Data'!B36</f>
+        <v>1515620096655000</v>
+      </c>
+      <c r="C12">
+        <f>$B12*'Time Series Scaling Factors'!C13</f>
+        <v>1497297325877915</v>
+      </c>
+      <c r="D12">
+        <f>$B12*'Time Series Scaling Factors'!D13</f>
+        <v>1516075550988340.8</v>
+      </c>
+      <c r="E12">
+        <f>$B12*'Time Series Scaling Factors'!E13</f>
+        <v>1536364942166148.5</v>
+      </c>
+      <c r="F12">
+        <f>$B12*'Time Series Scaling Factors'!F13</f>
+        <v>1545001926858475.5</v>
+      </c>
+      <c r="G12">
+        <f>$B12*'Time Series Scaling Factors'!G13</f>
+        <v>1554865183080018.5</v>
+      </c>
+      <c r="H12">
+        <f>$B12*'Time Series Scaling Factors'!H13</f>
+        <v>1564297485270289.5</v>
+      </c>
+      <c r="I12">
+        <f>$B12*'Time Series Scaling Factors'!I13</f>
+        <v>1572876360271811.3</v>
+      </c>
+      <c r="J12">
+        <f>$B12*'Time Series Scaling Factors'!J13</f>
+        <v>1584363860877978.5</v>
+      </c>
+      <c r="K12">
+        <f>$B12*'Time Series Scaling Factors'!K13</f>
+        <v>1595844765248973.3</v>
+      </c>
+      <c r="L12">
+        <f>$B12*'Time Series Scaling Factors'!L13</f>
+        <v>1603942743295773.8</v>
+      </c>
+      <c r="M12">
+        <f>$B12*'Time Series Scaling Factors'!M13</f>
+        <v>1610895489274050</v>
+      </c>
+      <c r="N12">
+        <f>$B12*'Time Series Scaling Factors'!N13</f>
+        <v>1616006315107008.5</v>
+      </c>
+      <c r="O12">
+        <f>$B12*'Time Series Scaling Factors'!O13</f>
+        <v>1618316253843138.8</v>
+      </c>
+      <c r="P12">
+        <f>$B12*'Time Series Scaling Factors'!P13</f>
+        <v>1622991099941837</v>
+      </c>
+      <c r="Q12">
+        <f>$B12*'Time Series Scaling Factors'!Q13</f>
+        <v>1625202095150379.3</v>
+      </c>
+      <c r="R12">
+        <f>$B12*'Time Series Scaling Factors'!R13</f>
+        <v>1630019545571378.5</v>
+      </c>
+      <c r="S12">
+        <f>$B12*'Time Series Scaling Factors'!S13</f>
+        <v>1634631570382719.3</v>
+      </c>
+      <c r="T12">
+        <f>$B12*'Time Series Scaling Factors'!T13</f>
+        <v>1637706044185988.8</v>
+      </c>
+      <c r="U12">
+        <f>$B12*'Time Series Scaling Factors'!U13</f>
+        <v>1642144682244223</v>
+      </c>
+      <c r="V12">
+        <f>$B12*'Time Series Scaling Factors'!V13</f>
+        <v>1645889145077158.8</v>
+      </c>
+      <c r="W12">
+        <f>$B12*'Time Series Scaling Factors'!W13</f>
+        <v>1651495002654493</v>
+      </c>
+      <c r="X12">
+        <f>$B12*'Time Series Scaling Factors'!X13</f>
+        <v>1659456030294855</v>
+      </c>
+      <c r="Y12">
+        <f>$B12*'Time Series Scaling Factors'!Y13</f>
+        <v>1663432303678138.8</v>
+      </c>
+      <c r="Z12">
+        <f>$B12*'Time Series Scaling Factors'!Z13</f>
+        <v>1670829824370905.5</v>
+      </c>
+      <c r="AA12">
+        <f>$B12*'Time Series Scaling Factors'!AA13</f>
+        <v>1680748049218885.8</v>
+      </c>
+      <c r="AB12">
+        <f>$B12*'Time Series Scaling Factors'!AB13</f>
+        <v>1689441887176271.5</v>
+      </c>
+      <c r="AC12">
+        <f>$B12*'Time Series Scaling Factors'!AC13</f>
+        <v>1703764826587313.3</v>
+      </c>
+      <c r="AD12">
+        <f>$B12*'Time Series Scaling Factors'!AD13</f>
+        <v>1715695845482223.5</v>
+      </c>
+      <c r="AE12">
+        <f>$B12*'Time Series Scaling Factors'!AE13</f>
+        <v>1727899194657828</v>
+      </c>
+      <c r="AF12">
+        <f>$B12*'Time Series Scaling Factors'!AF13</f>
+        <v>1742057856402430.8</v>
+      </c>
+      <c r="AG12">
+        <f>$B12*'Time Series Scaling Factors'!AG13</f>
+        <v>1758590534596268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="29">
+        <f>'Start Year Data'!B37</f>
+        <v>203604487000000</v>
+      </c>
+      <c r="C13">
+        <f>$B13*'Time Series Scaling Factors'!C14</f>
+        <v>201143053324951.44</v>
+      </c>
+      <c r="D13">
+        <f>$B13*'Time Series Scaling Factors'!D14</f>
+        <v>203665671558120.09</v>
+      </c>
+      <c r="E13">
+        <f>$B13*'Time Series Scaling Factors'!E14</f>
+        <v>206391295935506.66</v>
+      </c>
+      <c r="F13">
+        <f>$B13*'Time Series Scaling Factors'!F14</f>
+        <v>207551566138698.88</v>
+      </c>
+      <c r="G13">
+        <f>$B13*'Time Series Scaling Factors'!G14</f>
+        <v>208876570490098.66</v>
+      </c>
+      <c r="H13">
+        <f>$B13*'Time Series Scaling Factors'!H14</f>
+        <v>210143681590642.63</v>
+      </c>
+      <c r="I13">
+        <f>$B13*'Time Series Scaling Factors'!I14</f>
+        <v>211296145488143.72</v>
+      </c>
+      <c r="J13">
+        <f>$B13*'Time Series Scaling Factors'!J14</f>
+        <v>212839346632673.84</v>
+      </c>
+      <c r="K13">
+        <f>$B13*'Time Series Scaling Factors'!K14</f>
+        <v>214381661656017.41</v>
+      </c>
+      <c r="L13">
+        <f>$B13*'Time Series Scaling Factors'!L14</f>
+        <v>215469523099392.97</v>
+      </c>
+      <c r="M13">
+        <f>$B13*'Time Series Scaling Factors'!M14</f>
+        <v>216403537026281.72</v>
+      </c>
+      <c r="N13">
+        <f>$B13*'Time Series Scaling Factors'!N14</f>
+        <v>217090112160883.34</v>
+      </c>
+      <c r="O13">
+        <f>$B13*'Time Series Scaling Factors'!O14</f>
+        <v>217400423361169.78</v>
+      </c>
+      <c r="P13">
+        <f>$B13*'Time Series Scaling Factors'!P14</f>
+        <v>218028430104964</v>
+      </c>
+      <c r="Q13">
+        <f>$B13*'Time Series Scaling Factors'!Q14</f>
+        <v>218325449487451.91</v>
+      </c>
+      <c r="R13">
+        <f>$B13*'Time Series Scaling Factors'!R14</f>
+        <v>218972613327374.75</v>
+      </c>
+      <c r="S13">
+        <f>$B13*'Time Series Scaling Factors'!S14</f>
+        <v>219592180821773.09</v>
+      </c>
+      <c r="T13">
+        <f>$B13*'Time Series Scaling Factors'!T14</f>
+        <v>220005197687207.34</v>
+      </c>
+      <c r="U13">
+        <f>$B13*'Time Series Scaling Factors'!U14</f>
+        <v>220601472853273.03</v>
+      </c>
+      <c r="V13">
+        <f>$B13*'Time Series Scaling Factors'!V14</f>
+        <v>221104494313514.34</v>
+      </c>
+      <c r="W13">
+        <f>$B13*'Time Series Scaling Factors'!W14</f>
+        <v>221857570733355.44</v>
+      </c>
+      <c r="X13">
+        <f>$B13*'Time Series Scaling Factors'!X14</f>
+        <v>222927034613048.06</v>
+      </c>
+      <c r="Y13">
+        <f>$B13*'Time Series Scaling Factors'!Y14</f>
+        <v>223461196903560.06</v>
+      </c>
+      <c r="Z13">
+        <f>$B13*'Time Series Scaling Factors'!Z14</f>
+        <v>224454960716171.66</v>
+      </c>
+      <c r="AA13">
+        <f>$B13*'Time Series Scaling Factors'!AA14</f>
+        <v>225787349410792.75</v>
+      </c>
+      <c r="AB13">
+        <f>$B13*'Time Series Scaling Factors'!AB14</f>
+        <v>226955257134688.28</v>
+      </c>
+      <c r="AC13">
+        <f>$B13*'Time Series Scaling Factors'!AC14</f>
+        <v>228879363800701.34</v>
+      </c>
+      <c r="AD13">
+        <f>$B13*'Time Series Scaling Factors'!AD14</f>
+        <v>230482146045966.38</v>
+      </c>
+      <c r="AE13">
+        <f>$B13*'Time Series Scaling Factors'!AE14</f>
+        <v>232121512437362.56</v>
+      </c>
+      <c r="AF13">
+        <f>$B13*'Time Series Scaling Factors'!AF14</f>
+        <v>234023550466205.44</v>
+      </c>
+      <c r="AG13">
+        <f>$B13*'Time Series Scaling Factors'!AG14</f>
+        <v>236244507729718.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="29">
+        <f>'Start Year Data'!B38</f>
+        <v>3537592380000000</v>
+      </c>
+      <c r="C14">
+        <f>$B14*'Time Series Scaling Factors'!C15</f>
+        <v>4009102527034906.5</v>
+      </c>
+      <c r="D14">
+        <f>$B14*'Time Series Scaling Factors'!D15</f>
+        <v>4441456293181390.5</v>
+      </c>
+      <c r="E14">
+        <f>$B14*'Time Series Scaling Factors'!E15</f>
+        <v>4706140559394618</v>
+      </c>
+      <c r="F14">
+        <f>$B14*'Time Series Scaling Factors'!F15</f>
+        <v>4827321094754989</v>
+      </c>
+      <c r="G14">
+        <f>$B14*'Time Series Scaling Factors'!G15</f>
+        <v>4943314410430733</v>
+      </c>
+      <c r="H14">
+        <f>$B14*'Time Series Scaling Factors'!H15</f>
+        <v>5008849472077966</v>
+      </c>
+      <c r="I14">
+        <f>$B14*'Time Series Scaling Factors'!I15</f>
+        <v>5081617936973637</v>
+      </c>
+      <c r="J14">
+        <f>$B14*'Time Series Scaling Factors'!J15</f>
+        <v>5117684391436692</v>
+      </c>
+      <c r="K14">
+        <f>$B14*'Time Series Scaling Factors'!K15</f>
+        <v>5151765303298906</v>
+      </c>
+      <c r="L14">
+        <f>$B14*'Time Series Scaling Factors'!L15</f>
+        <v>5177028411353918</v>
+      </c>
+      <c r="M14">
+        <f>$B14*'Time Series Scaling Factors'!M15</f>
+        <v>5211553563163557</v>
+      </c>
+      <c r="N14">
+        <f>$B14*'Time Series Scaling Factors'!N15</f>
+        <v>5271448738985705</v>
+      </c>
+      <c r="O14">
+        <f>$B14*'Time Series Scaling Factors'!O15</f>
+        <v>5309223086082460</v>
+      </c>
+      <c r="P14">
+        <f>$B14*'Time Series Scaling Factors'!P15</f>
+        <v>5360846364898470</v>
+      </c>
+      <c r="Q14">
+        <f>$B14*'Time Series Scaling Factors'!Q15</f>
+        <v>5310012938078537</v>
+      </c>
+      <c r="R14">
+        <f>$B14*'Time Series Scaling Factors'!R15</f>
+        <v>5332837837392247</v>
+      </c>
+      <c r="S14">
+        <f>$B14*'Time Series Scaling Factors'!S15</f>
+        <v>5327910448348514</v>
+      </c>
+      <c r="T14">
+        <f>$B14*'Time Series Scaling Factors'!T15</f>
+        <v>5319535226876994</v>
+      </c>
+      <c r="U14">
+        <f>$B14*'Time Series Scaling Factors'!U15</f>
+        <v>5289038624142834</v>
+      </c>
+      <c r="V14">
+        <f>$B14*'Time Series Scaling Factors'!V15</f>
+        <v>5281977612515783</v>
+      </c>
+      <c r="W14">
+        <f>$B14*'Time Series Scaling Factors'!W15</f>
+        <v>5282341734562243</v>
+      </c>
+      <c r="X14">
+        <f>$B14*'Time Series Scaling Factors'!X15</f>
+        <v>5281814752161922</v>
+      </c>
+      <c r="Y14">
+        <f>$B14*'Time Series Scaling Factors'!Y15</f>
+        <v>5286882347532347</v>
+      </c>
+      <c r="Z14">
+        <f>$B14*'Time Series Scaling Factors'!Z15</f>
+        <v>5249113387673760</v>
+      </c>
+      <c r="AA14">
+        <f>$B14*'Time Series Scaling Factors'!AA15</f>
+        <v>5246352635313915</v>
+      </c>
+      <c r="AB14">
+        <f>$B14*'Time Series Scaling Factors'!AB15</f>
+        <v>5255864978441906</v>
+      </c>
+      <c r="AC14">
+        <f>$B14*'Time Series Scaling Factors'!AC15</f>
+        <v>5266315253548452</v>
+      </c>
+      <c r="AD14">
+        <f>$B14*'Time Series Scaling Factors'!AD15</f>
+        <v>5300602261804184</v>
+      </c>
+      <c r="AE14">
+        <f>$B14*'Time Series Scaling Factors'!AE15</f>
+        <v>5353481872187933</v>
+      </c>
+      <c r="AF14">
+        <f>$B14*'Time Series Scaling Factors'!AF15</f>
+        <v>5420791130938631</v>
+      </c>
+      <c r="AG14">
+        <f>$B14*'Time Series Scaling Factors'!AG15</f>
+        <v>5464956676383496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="29">
+        <f>'Start Year Data'!B39</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>$B15*'Time Series Scaling Factors'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>$B15*'Time Series Scaling Factors'!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>$B15*'Time Series Scaling Factors'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>$B15*'Time Series Scaling Factors'!F16</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>$B15*'Time Series Scaling Factors'!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>$B15*'Time Series Scaling Factors'!H16</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>$B15*'Time Series Scaling Factors'!I16</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>$B15*'Time Series Scaling Factors'!J16</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>$B15*'Time Series Scaling Factors'!K16</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>$B15*'Time Series Scaling Factors'!L16</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>$B15*'Time Series Scaling Factors'!M16</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>$B15*'Time Series Scaling Factors'!N16</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>$B15*'Time Series Scaling Factors'!O16</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>$B15*'Time Series Scaling Factors'!P16</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>$B15*'Time Series Scaling Factors'!Q16</f>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f>$B15*'Time Series Scaling Factors'!R16</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>$B15*'Time Series Scaling Factors'!S16</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>$B15*'Time Series Scaling Factors'!T16</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>$B15*'Time Series Scaling Factors'!U16</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>$B15*'Time Series Scaling Factors'!V16</f>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f>$B15*'Time Series Scaling Factors'!W16</f>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f>$B15*'Time Series Scaling Factors'!X16</f>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f>$B15*'Time Series Scaling Factors'!Y16</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>$B15*'Time Series Scaling Factors'!Z16</f>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f>$B15*'Time Series Scaling Factors'!AA16</f>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f>$B15*'Time Series Scaling Factors'!AB16</f>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f>$B15*'Time Series Scaling Factors'!AC16</f>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f>$B15*'Time Series Scaling Factors'!AD16</f>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f>$B15*'Time Series Scaling Factors'!AE16</f>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f>$B15*'Time Series Scaling Factors'!AF16</f>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f>$B15*'Time Series Scaling Factors'!AG16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="29">
+        <f>'Start Year Data'!B40</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>$B16*'Time Series Scaling Factors'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>$B16*'Time Series Scaling Factors'!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>$B16*'Time Series Scaling Factors'!E17</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>$B16*'Time Series Scaling Factors'!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>$B16*'Time Series Scaling Factors'!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>$B16*'Time Series Scaling Factors'!H17</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>$B16*'Time Series Scaling Factors'!I17</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>$B16*'Time Series Scaling Factors'!J17</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>$B16*'Time Series Scaling Factors'!K17</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>$B16*'Time Series Scaling Factors'!L17</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>$B16*'Time Series Scaling Factors'!M17</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>$B16*'Time Series Scaling Factors'!N17</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>$B16*'Time Series Scaling Factors'!O17</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>$B16*'Time Series Scaling Factors'!P17</f>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>$B16*'Time Series Scaling Factors'!Q17</f>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f>$B16*'Time Series Scaling Factors'!R17</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f>$B16*'Time Series Scaling Factors'!S17</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>$B16*'Time Series Scaling Factors'!T17</f>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>$B16*'Time Series Scaling Factors'!U17</f>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>$B16*'Time Series Scaling Factors'!V17</f>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f>$B16*'Time Series Scaling Factors'!W17</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f>$B16*'Time Series Scaling Factors'!X17</f>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f>$B16*'Time Series Scaling Factors'!Y17</f>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f>$B16*'Time Series Scaling Factors'!Z17</f>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f>$B16*'Time Series Scaling Factors'!AA17</f>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f>$B16*'Time Series Scaling Factors'!AB17</f>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f>$B16*'Time Series Scaling Factors'!AC17</f>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f>$B16*'Time Series Scaling Factors'!AD17</f>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f>$B16*'Time Series Scaling Factors'!AE17</f>
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <f>$B16*'Time Series Scaling Factors'!AF17</f>
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f>$B16*'Time Series Scaling Factors'!AG17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="29">
+        <f>'Start Year Data'!B41</f>
+        <v>906213062527442.13</v>
+      </c>
+      <c r="C17">
+        <f>$B17*'Time Series Scaling Factors'!C18</f>
+        <v>822950355844056.13</v>
+      </c>
+      <c r="D17">
+        <f>$B17*'Time Series Scaling Factors'!D18</f>
+        <v>774407333196149.25</v>
+      </c>
+      <c r="E17">
+        <f>$B17*'Time Series Scaling Factors'!E18</f>
+        <v>761145537247038</v>
+      </c>
+      <c r="F17">
+        <f>$B17*'Time Series Scaling Factors'!F18</f>
+        <v>720261037650919.38</v>
+      </c>
+      <c r="G17">
+        <f>$B17*'Time Series Scaling Factors'!G18</f>
+        <v>698853634313447.88</v>
+      </c>
+      <c r="H17">
+        <f>$B17*'Time Series Scaling Factors'!H18</f>
+        <v>629602515590556.5</v>
+      </c>
+      <c r="I17">
+        <f>$B17*'Time Series Scaling Factors'!I18</f>
+        <v>641822763089227.38</v>
+      </c>
+      <c r="J17">
+        <f>$B17*'Time Series Scaling Factors'!J18</f>
+        <v>638763427373383.25</v>
+      </c>
+      <c r="K17">
+        <f>$B17*'Time Series Scaling Factors'!K18</f>
+        <v>630953650411211.63</v>
+      </c>
+      <c r="L17">
+        <f>$B17*'Time Series Scaling Factors'!L18</f>
+        <v>619881062825938.63</v>
+      </c>
+      <c r="M17">
+        <f>$B17*'Time Series Scaling Factors'!M18</f>
+        <v>608925738757942.75</v>
+      </c>
+      <c r="N17">
+        <f>$B17*'Time Series Scaling Factors'!N18</f>
+        <v>603068973655845.13</v>
+      </c>
+      <c r="O17">
+        <f>$B17*'Time Series Scaling Factors'!O18</f>
+        <v>601558104021222.5</v>
+      </c>
+      <c r="P17">
+        <f>$B17*'Time Series Scaling Factors'!P18</f>
+        <v>600689779695962.75</v>
+      </c>
+      <c r="Q17">
+        <f>$B17*'Time Series Scaling Factors'!Q18</f>
+        <v>600401829646703.38</v>
+      </c>
+      <c r="R17">
+        <f>$B17*'Time Series Scaling Factors'!R18</f>
+        <v>593000538410719</v>
+      </c>
+      <c r="S17">
+        <f>$B17*'Time Series Scaling Factors'!S18</f>
+        <v>592481667380397.75</v>
+      </c>
+      <c r="T17">
+        <f>$B17*'Time Series Scaling Factors'!T18</f>
+        <v>592030777136288.38</v>
+      </c>
+      <c r="U17">
+        <f>$B17*'Time Series Scaling Factors'!U18</f>
+        <v>589286236534593</v>
+      </c>
+      <c r="V17">
+        <f>$B17*'Time Series Scaling Factors'!V18</f>
+        <v>586480192687218.25</v>
+      </c>
+      <c r="W17">
+        <f>$B17*'Time Series Scaling Factors'!W18</f>
+        <v>580593310360580.88</v>
+      </c>
+      <c r="X17">
+        <f>$B17*'Time Series Scaling Factors'!X18</f>
+        <v>576318333945126.88</v>
+      </c>
+      <c r="Y17">
+        <f>$B17*'Time Series Scaling Factors'!Y18</f>
+        <v>574171262984137.13</v>
+      </c>
+      <c r="Z17">
+        <f>$B17*'Time Series Scaling Factors'!Z18</f>
+        <v>572913885554289.13</v>
+      </c>
+      <c r="AA17">
+        <f>$B17*'Time Series Scaling Factors'!AA18</f>
+        <v>570498363944407.38</v>
+      </c>
+      <c r="AB17">
+        <f>$B17*'Time Series Scaling Factors'!AB18</f>
+        <v>567815326588390.88</v>
+      </c>
+      <c r="AC17">
+        <f>$B17*'Time Series Scaling Factors'!AC18</f>
+        <v>568020871637468</v>
+      </c>
+      <c r="AD17">
+        <f>$B17*'Time Series Scaling Factors'!AD18</f>
+        <v>566422855710107.88</v>
+      </c>
+      <c r="AE17">
+        <f>$B17*'Time Series Scaling Factors'!AE18</f>
+        <v>564526338688084.13</v>
+      </c>
+      <c r="AF17">
+        <f>$B17*'Time Series Scaling Factors'!AF18</f>
+        <v>564891818887434</v>
+      </c>
+      <c r="AG17">
+        <f>$B17*'Time Series Scaling Factors'!AG18</f>
+        <v>563104218036639.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="29">
+        <f>'Start Year Data'!B42</f>
+        <v>1.9460537227008E+16</v>
+      </c>
+      <c r="C18">
+        <f>$B18*'Time Series Scaling Factors'!C19</f>
+        <v>2.2054346740269336E+16</v>
+      </c>
+      <c r="D18">
+        <f>$B18*'Time Series Scaling Factors'!D19</f>
+        <v>2.44327543286899E+16</v>
+      </c>
+      <c r="E18">
+        <f>$B18*'Time Series Scaling Factors'!E19</f>
+        <v>2.5888800549607476E+16</v>
+      </c>
+      <c r="F18">
+        <f>$B18*'Time Series Scaling Factors'!F19</f>
+        <v>2.6555422948757164E+16</v>
+      </c>
+      <c r="G18">
+        <f>$B18*'Time Series Scaling Factors'!G19</f>
+        <v>2.7193510098241556E+16</v>
+      </c>
+      <c r="H18">
+        <f>$B18*'Time Series Scaling Factors'!H19</f>
+        <v>2.7554022947056616E+16</v>
+      </c>
+      <c r="I18">
+        <f>$B18*'Time Series Scaling Factors'!I19</f>
+        <v>2.7954327241033648E+16</v>
+      </c>
+      <c r="J18">
+        <f>$B18*'Time Series Scaling Factors'!J19</f>
+        <v>2.8152731269630204E+16</v>
+      </c>
+      <c r="K18">
+        <f>$B18*'Time Series Scaling Factors'!K19</f>
+        <v>2.83402126928079E+16</v>
+      </c>
+      <c r="L18">
+        <f>$B18*'Time Series Scaling Factors'!L19</f>
+        <v>2.8479186775167976E+16</v>
+      </c>
+      <c r="M18">
+        <f>$B18*'Time Series Scaling Factors'!M19</f>
+        <v>2.8669111992628892E+16</v>
+      </c>
+      <c r="N18">
+        <f>$B18*'Time Series Scaling Factors'!N19</f>
+        <v>2.8998599444432228E+16</v>
+      </c>
+      <c r="O18">
+        <f>$B18*'Time Series Scaling Factors'!O19</f>
+        <v>2.9206398707020624E+16</v>
+      </c>
+      <c r="P18">
+        <f>$B18*'Time Series Scaling Factors'!P19</f>
+        <v>2.9490381888593168E+16</v>
+      </c>
+      <c r="Q18">
+        <f>$B18*'Time Series Scaling Factors'!Q19</f>
+        <v>2.9210743736781652E+16</v>
+      </c>
+      <c r="R18">
+        <f>$B18*'Time Series Scaling Factors'!R19</f>
+        <v>2.9336305066376432E+16</v>
+      </c>
+      <c r="S18">
+        <f>$B18*'Time Series Scaling Factors'!S19</f>
+        <v>2.9309199162807768E+16</v>
+      </c>
+      <c r="T18">
+        <f>$B18*'Time Series Scaling Factors'!T19</f>
+        <v>2.9263126497637972E+16</v>
+      </c>
+      <c r="U18">
+        <f>$B18*'Time Series Scaling Factors'!U19</f>
+        <v>2.9095362603708116E+16</v>
+      </c>
+      <c r="V18">
+        <f>$B18*'Time Series Scaling Factors'!V19</f>
+        <v>2.9056519496626184E+16</v>
+      </c>
+      <c r="W18">
+        <f>$B18*'Time Series Scaling Factors'!W19</f>
+        <v>2.9058522556865792E+16</v>
+      </c>
+      <c r="X18">
+        <f>$B18*'Time Series Scaling Factors'!X19</f>
+        <v>2.9055623590699592E+16</v>
+      </c>
+      <c r="Y18">
+        <f>$B18*'Time Series Scaling Factors'!Y19</f>
+        <v>2.9083500778844588E+16</v>
+      </c>
+      <c r="Z18">
+        <f>$B18*'Time Series Scaling Factors'!Z19</f>
+        <v>2.8875731151821196E+16</v>
+      </c>
+      <c r="AA18">
+        <f>$B18*'Time Series Scaling Factors'!AA19</f>
+        <v>2.8860544064587216E+16</v>
+      </c>
+      <c r="AB18">
+        <f>$B18*'Time Series Scaling Factors'!AB19</f>
+        <v>2.8912872113631224E+16</v>
+      </c>
+      <c r="AC18">
+        <f>$B18*'Time Series Scaling Factors'!AC19</f>
+        <v>2.8970359790530676E+16</v>
+      </c>
+      <c r="AD18">
+        <f>$B18*'Time Series Scaling Factors'!AD19</f>
+        <v>2.915897496404126E+16</v>
+      </c>
+      <c r="AE18">
+        <f>$B18*'Time Series Scaling Factors'!AE19</f>
+        <v>2.9449869311349476E+16</v>
+      </c>
+      <c r="AF18">
+        <f>$B18*'Time Series Scaling Factors'!AF19</f>
+        <v>2.982014213957178E+16</v>
+      </c>
+      <c r="AG18">
+        <f>$B18*'Time Series Scaling Factors'!AG19</f>
+        <v>3.0063099820660212E+16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="29">
+        <f>'Start Year Data'!B43</f>
+        <v>979835237000000</v>
+      </c>
+      <c r="C19">
+        <f>$B19*'Time Series Scaling Factors'!C20</f>
+        <v>1110433171142953</v>
+      </c>
+      <c r="D19">
+        <f>$B19*'Time Series Scaling Factors'!D20</f>
+        <v>1230185649499428.5</v>
+      </c>
+      <c r="E19">
+        <f>$B19*'Time Series Scaling Factors'!E20</f>
+        <v>1303497366299092.5</v>
+      </c>
+      <c r="F19">
+        <f>$B19*'Time Series Scaling Factors'!F20</f>
+        <v>1337061707757962.3</v>
+      </c>
+      <c r="G19">
+        <f>$B19*'Time Series Scaling Factors'!G20</f>
+        <v>1369189303520015</v>
+      </c>
+      <c r="H19">
+        <f>$B19*'Time Series Scaling Factors'!H20</f>
+        <v>1387341073357592</v>
+      </c>
+      <c r="I19">
+        <f>$B19*'Time Series Scaling Factors'!I20</f>
+        <v>1407496336708531.5</v>
+      </c>
+      <c r="J19">
+        <f>$B19*'Time Series Scaling Factors'!J20</f>
+        <v>1417485950875598.8</v>
+      </c>
+      <c r="K19">
+        <f>$B19*'Time Series Scaling Factors'!K20</f>
+        <v>1426925613438329.5</v>
+      </c>
+      <c r="L19">
+        <f>$B19*'Time Series Scaling Factors'!L20</f>
+        <v>1433922938401031.8</v>
+      </c>
+      <c r="M19">
+        <f>$B19*'Time Series Scaling Factors'!M20</f>
+        <v>1443485645652752.8</v>
+      </c>
+      <c r="N19">
+        <f>$B19*'Time Series Scaling Factors'!N20</f>
+        <v>1460075291234489</v>
+      </c>
+      <c r="O19">
+        <f>$B19*'Time Series Scaling Factors'!O20</f>
+        <v>1470537954075273.8</v>
+      </c>
+      <c r="P19">
+        <f>$B19*'Time Series Scaling Factors'!P20</f>
+        <v>1484836466227033.5</v>
+      </c>
+      <c r="Q19">
+        <f>$B19*'Time Series Scaling Factors'!Q20</f>
+        <v>1470756725695810.5</v>
+      </c>
+      <c r="R19">
+        <f>$B19*'Time Series Scaling Factors'!R20</f>
+        <v>1477078720495152.3</v>
+      </c>
+      <c r="S19">
+        <f>$B19*'Time Series Scaling Factors'!S20</f>
+        <v>1475713942167735.5</v>
+      </c>
+      <c r="T19">
+        <f>$B19*'Time Series Scaling Factors'!T20</f>
+        <v>1473394190134723.3</v>
+      </c>
+      <c r="U19">
+        <f>$B19*'Time Series Scaling Factors'!U20</f>
+        <v>1464947302320101.5</v>
+      </c>
+      <c r="V19">
+        <f>$B19*'Time Series Scaling Factors'!V20</f>
+        <v>1462991557492018.3</v>
+      </c>
+      <c r="W19">
+        <f>$B19*'Time Series Scaling Factors'!W20</f>
+        <v>1463092411285606.3</v>
+      </c>
+      <c r="X19">
+        <f>$B19*'Time Series Scaling Factors'!X20</f>
+        <v>1462946448758088</v>
+      </c>
+      <c r="Y19">
+        <f>$B19*'Time Series Scaling Factors'!Y20</f>
+        <v>1464350061152459.3</v>
+      </c>
+      <c r="Z19">
+        <f>$B19*'Time Series Scaling Factors'!Z20</f>
+        <v>1453888890458089.5</v>
+      </c>
+      <c r="AA19">
+        <f>$B19*'Time Series Scaling Factors'!AA20</f>
+        <v>1453124222810651.8</v>
+      </c>
+      <c r="AB19">
+        <f>$B19*'Time Series Scaling Factors'!AB20</f>
+        <v>1455758932517721.3</v>
+      </c>
+      <c r="AC19">
+        <f>$B19*'Time Series Scaling Factors'!AC20</f>
+        <v>1458653428741658</v>
+      </c>
+      <c r="AD19">
+        <f>$B19*'Time Series Scaling Factors'!AD20</f>
+        <v>1468150175469803.3</v>
+      </c>
+      <c r="AE19">
+        <f>$B19*'Time Series Scaling Factors'!AE20</f>
+        <v>1482796663817572.8</v>
+      </c>
+      <c r="AF19">
+        <f>$B19*'Time Series Scaling Factors'!AF20</f>
+        <v>1501439847207820.8</v>
+      </c>
+      <c r="AG19">
+        <f>$B19*'Time Series Scaling Factors'!AG20</f>
+        <v>1513672731339090.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="29">
+        <f>'Start Year Data'!B44</f>
+        <v>3148621106400000</v>
+      </c>
+      <c r="C20">
+        <f>$B20*'Time Series Scaling Factors'!C21</f>
+        <v>3666235964583507</v>
+      </c>
+      <c r="D20">
+        <f>$B20*'Time Series Scaling Factors'!D21</f>
+        <v>3943606321556241</v>
+      </c>
+      <c r="E20">
+        <f>$B20*'Time Series Scaling Factors'!E21</f>
+        <v>4333178851495609</v>
+      </c>
+      <c r="F20">
+        <f>$B20*'Time Series Scaling Factors'!F21</f>
+        <v>4365784399193854</v>
+      </c>
+      <c r="G20">
+        <f>$B20*'Time Series Scaling Factors'!G21</f>
+        <v>4426106045522060.5</v>
+      </c>
+      <c r="H20">
+        <f>$B20*'Time Series Scaling Factors'!H21</f>
+        <v>4474999105425828.5</v>
+      </c>
+      <c r="I20">
+        <f>$B20*'Time Series Scaling Factors'!I21</f>
+        <v>4594208280510221</v>
+      </c>
+      <c r="J20">
+        <f>$B20*'Time Series Scaling Factors'!J21</f>
+        <v>4716183628497076</v>
+      </c>
+      <c r="K20">
+        <f>$B20*'Time Series Scaling Factors'!K21</f>
+        <v>4778032393037987</v>
+      </c>
+      <c r="L20">
+        <f>$B20*'Time Series Scaling Factors'!L21</f>
+        <v>4821148920839232</v>
+      </c>
+      <c r="M20">
+        <f>$B20*'Time Series Scaling Factors'!M21</f>
+        <v>4802790117441398</v>
+      </c>
+      <c r="N20">
+        <f>$B20*'Time Series Scaling Factors'!N21</f>
+        <v>4811756333056280</v>
+      </c>
+      <c r="O20">
+        <f>$B20*'Time Series Scaling Factors'!O21</f>
+        <v>4828755419394643</v>
+      </c>
+      <c r="P20">
+        <f>$B20*'Time Series Scaling Factors'!P21</f>
+        <v>4854861891551188</v>
+      </c>
+      <c r="Q20">
+        <f>$B20*'Time Series Scaling Factors'!Q21</f>
+        <v>4849004758893402</v>
+      </c>
+      <c r="R20">
+        <f>$B20*'Time Series Scaling Factors'!R21</f>
+        <v>4865139654662927</v>
+      </c>
+      <c r="S20">
+        <f>$B20*'Time Series Scaling Factors'!S21</f>
+        <v>4867478978470958</v>
+      </c>
+      <c r="T20">
+        <f>$B20*'Time Series Scaling Factors'!T21</f>
+        <v>4853805499658263</v>
+      </c>
+      <c r="U20">
+        <f>$B20*'Time Series Scaling Factors'!U21</f>
+        <v>4879220905515554</v>
+      </c>
+      <c r="V20">
+        <f>$B20*'Time Series Scaling Factors'!V21</f>
+        <v>4878925211170808</v>
+      </c>
+      <c r="W20">
+        <f>$B20*'Time Series Scaling Factors'!W21</f>
+        <v>4876122791864795</v>
+      </c>
+      <c r="X20">
+        <f>$B20*'Time Series Scaling Factors'!X21</f>
+        <v>4856359440329418</v>
+      </c>
+      <c r="Y20">
+        <f>$B20*'Time Series Scaling Factors'!Y21</f>
+        <v>4867240992216074</v>
+      </c>
+      <c r="Z20">
+        <f>$B20*'Time Series Scaling Factors'!Z21</f>
+        <v>4865482564717560</v>
+      </c>
+      <c r="AA20">
+        <f>$B20*'Time Series Scaling Factors'!AA21</f>
+        <v>4848455339723809</v>
+      </c>
+      <c r="AB20">
+        <f>$B20*'Time Series Scaling Factors'!AB21</f>
+        <v>4862421174396712</v>
+      </c>
+      <c r="AC20">
+        <f>$B20*'Time Series Scaling Factors'!AC21</f>
+        <v>4880430390770838</v>
+      </c>
+      <c r="AD20">
+        <f>$B20*'Time Series Scaling Factors'!AD21</f>
+        <v>4906993758382650</v>
+      </c>
+      <c r="AE20">
+        <f>$B20*'Time Series Scaling Factors'!AE21</f>
+        <v>4945705394299903</v>
+      </c>
+      <c r="AF20">
+        <f>$B20*'Time Series Scaling Factors'!AF21</f>
+        <v>4995956740484053</v>
+      </c>
+      <c r="AG20">
+        <f>$B20*'Time Series Scaling Factors'!AG21</f>
+        <v>5033287674581887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="29">
+        <f>'Start Year Data'!B45</f>
+        <v>3564295858911020.5</v>
+      </c>
+      <c r="C21">
+        <f>$B21*'Time Series Scaling Factors'!C22</f>
+        <v>1936597953138398.8</v>
+      </c>
+      <c r="D21">
+        <f>$B21*'Time Series Scaling Factors'!D22</f>
+        <v>1849843067598722</v>
+      </c>
+      <c r="E21">
+        <f>$B21*'Time Series Scaling Factors'!E22</f>
+        <v>1941973972570115.5</v>
+      </c>
+      <c r="F21">
+        <f>$B21*'Time Series Scaling Factors'!F22</f>
+        <v>2147551448343798.8</v>
+      </c>
+      <c r="G21">
+        <f>$B21*'Time Series Scaling Factors'!G22</f>
+        <v>2214364818813864.3</v>
+      </c>
+      <c r="H21">
+        <f>$B21*'Time Series Scaling Factors'!H22</f>
+        <v>2049135122522799.8</v>
+      </c>
+      <c r="I21">
+        <f>$B21*'Time Series Scaling Factors'!I22</f>
+        <v>1670987422991006.8</v>
+      </c>
+      <c r="J21">
+        <f>$B21*'Time Series Scaling Factors'!J22</f>
+        <v>1563924247224228</v>
+      </c>
+      <c r="K21">
+        <f>$B21*'Time Series Scaling Factors'!K22</f>
+        <v>1601028829937525.8</v>
+      </c>
+      <c r="L21">
+        <f>$B21*'Time Series Scaling Factors'!L22</f>
+        <v>1578316403917828.8</v>
+      </c>
+      <c r="M21">
+        <f>$B21*'Time Series Scaling Factors'!M22</f>
+        <v>1469137990598944.3</v>
+      </c>
+      <c r="N21">
+        <f>$B21*'Time Series Scaling Factors'!N22</f>
+        <v>1452866739262855.5</v>
+      </c>
+      <c r="O21">
+        <f>$B21*'Time Series Scaling Factors'!O22</f>
+        <v>1478925360555004.5</v>
+      </c>
+      <c r="P21">
+        <f>$B21*'Time Series Scaling Factors'!P22</f>
+        <v>1424577321122405.8</v>
+      </c>
+      <c r="Q21">
+        <f>$B21*'Time Series Scaling Factors'!Q22</f>
+        <v>1458054346798601</v>
+      </c>
+      <c r="R21">
+        <f>$B21*'Time Series Scaling Factors'!R22</f>
+        <v>1452972249924599.8</v>
+      </c>
+      <c r="S21">
+        <f>$B21*'Time Series Scaling Factors'!S22</f>
+        <v>1438057564239505</v>
+      </c>
+      <c r="T21">
+        <f>$B21*'Time Series Scaling Factors'!T22</f>
+        <v>1495163953829124.8</v>
+      </c>
+      <c r="U21">
+        <f>$B21*'Time Series Scaling Factors'!U22</f>
+        <v>1494995639202057</v>
+      </c>
+      <c r="V21">
+        <f>$B21*'Time Series Scaling Factors'!V22</f>
+        <v>1496495397893989.3</v>
+      </c>
+      <c r="W21">
+        <f>$B21*'Time Series Scaling Factors'!W22</f>
+        <v>1483118153280021</v>
+      </c>
+      <c r="X21">
+        <f>$B21*'Time Series Scaling Factors'!X22</f>
+        <v>1509573695633016</v>
+      </c>
+      <c r="Y21">
+        <f>$B21*'Time Series Scaling Factors'!Y22</f>
+        <v>1501102696790142.8</v>
+      </c>
+      <c r="Z21">
+        <f>$B21*'Time Series Scaling Factors'!Z22</f>
+        <v>1510292172996320.5</v>
+      </c>
+      <c r="AA21">
+        <f>$B21*'Time Series Scaling Factors'!AA22</f>
+        <v>1515768678772555.3</v>
+      </c>
+      <c r="AB21">
+        <f>$B21*'Time Series Scaling Factors'!AB22</f>
+        <v>1526799567242026.5</v>
+      </c>
+      <c r="AC21">
+        <f>$B21*'Time Series Scaling Factors'!AC22</f>
+        <v>1527967720997049.3</v>
+      </c>
+      <c r="AD21">
+        <f>$B21*'Time Series Scaling Factors'!AD22</f>
+        <v>1538875513694485.8</v>
+      </c>
+      <c r="AE21">
+        <f>$B21*'Time Series Scaling Factors'!AE22</f>
+        <v>1543045696991985.5</v>
+      </c>
+      <c r="AF21">
+        <f>$B21*'Time Series Scaling Factors'!AF22</f>
+        <v>1551280552925241.5</v>
+      </c>
+      <c r="AG21">
+        <f>$B21*'Time Series Scaling Factors'!AG22</f>
+        <v>1539352823830946.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="29">
+        <f>'Start Year Data'!B46</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="C22">
+        <f>$B22*'Time Series Scaling Factors'!C23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="D22">
+        <f>$B22*'Time Series Scaling Factors'!D23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="E22">
+        <f>$B22*'Time Series Scaling Factors'!E23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="F22">
+        <f>$B22*'Time Series Scaling Factors'!F23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="G22">
+        <f>$B22*'Time Series Scaling Factors'!G23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="H22">
+        <f>$B22*'Time Series Scaling Factors'!H23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="I22">
+        <f>$B22*'Time Series Scaling Factors'!I23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="J22">
+        <f>$B22*'Time Series Scaling Factors'!J23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="K22">
+        <f>$B22*'Time Series Scaling Factors'!K23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="L22">
+        <f>$B22*'Time Series Scaling Factors'!L23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="M22">
+        <f>$B22*'Time Series Scaling Factors'!M23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="N22">
+        <f>$B22*'Time Series Scaling Factors'!N23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="O22">
+        <f>$B22*'Time Series Scaling Factors'!O23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="P22">
+        <f>$B22*'Time Series Scaling Factors'!P23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="Q22">
+        <f>$B22*'Time Series Scaling Factors'!Q23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="R22">
+        <f>$B22*'Time Series Scaling Factors'!R23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="S22">
+        <f>$B22*'Time Series Scaling Factors'!S23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="T22">
+        <f>$B22*'Time Series Scaling Factors'!T23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="U22">
+        <f>$B22*'Time Series Scaling Factors'!U23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="V22">
+        <f>$B22*'Time Series Scaling Factors'!V23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="W22">
+        <f>$B22*'Time Series Scaling Factors'!W23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="X22">
+        <f>$B22*'Time Series Scaling Factors'!X23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="Y22">
+        <f>$B22*'Time Series Scaling Factors'!Y23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="Z22">
+        <f>$B22*'Time Series Scaling Factors'!Z23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AA22">
+        <f>$B22*'Time Series Scaling Factors'!AA23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AB22">
+        <f>$B22*'Time Series Scaling Factors'!AB23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AC22">
+        <f>$B22*'Time Series Scaling Factors'!AC23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AD22">
+        <f>$B22*'Time Series Scaling Factors'!AD23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AE22">
+        <f>$B22*'Time Series Scaling Factors'!AE23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AF22">
+        <f>$B22*'Time Series Scaling Factors'!AF23</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="AG22">
+        <f>$B22*'Time Series Scaling Factors'!AG23</f>
+        <v>8746500000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -5298,7 +8220,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B1" s="235">
         <v>2019</v>
@@ -8201,7 +11123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -8221,7 +11143,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B1" s="235">
         <v>2019</v>
@@ -11113,2928 +14035,6 @@
       <c r="AG22">
         <f>$B22*'Time Series Scaling Factors'!AG73</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:AI23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="35" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="B1" s="234">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="234">
-        <v>2021</v>
-      </c>
-      <c r="E1" s="5">
-        <v>2022</v>
-      </c>
-      <c r="F1" s="234">
-        <v>2023</v>
-      </c>
-      <c r="G1" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H1" s="234">
-        <v>2025</v>
-      </c>
-      <c r="I1" s="5">
-        <v>2026</v>
-      </c>
-      <c r="J1" s="234">
-        <v>2027</v>
-      </c>
-      <c r="K1" s="5">
-        <v>2028</v>
-      </c>
-      <c r="L1" s="234">
-        <v>2029</v>
-      </c>
-      <c r="M1" s="5">
-        <v>2030</v>
-      </c>
-      <c r="N1" s="234">
-        <v>2031</v>
-      </c>
-      <c r="O1" s="5">
-        <v>2032</v>
-      </c>
-      <c r="P1" s="234">
-        <v>2033</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>2034</v>
-      </c>
-      <c r="R1" s="234">
-        <v>2035</v>
-      </c>
-      <c r="S1" s="5">
-        <v>2036</v>
-      </c>
-      <c r="T1" s="234">
-        <v>2037</v>
-      </c>
-      <c r="U1" s="5">
-        <v>2038</v>
-      </c>
-      <c r="V1" s="234">
-        <v>2039</v>
-      </c>
-      <c r="W1" s="5">
-        <v>2040</v>
-      </c>
-      <c r="X1" s="234">
-        <v>2041</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>2042</v>
-      </c>
-      <c r="Z1" s="234">
-        <v>2043</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>2044</v>
-      </c>
-      <c r="AB1" s="234">
-        <v>2045</v>
-      </c>
-      <c r="AC1" s="5">
-        <v>2046</v>
-      </c>
-      <c r="AD1" s="234">
-        <v>2047</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>2048</v>
-      </c>
-      <c r="AF1" s="234">
-        <v>2049</v>
-      </c>
-      <c r="AG1" s="5">
-        <v>2050</v>
-      </c>
-      <c r="AH1" s="234"/>
-      <c r="AI1" s="5"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="29">
-        <f>'Start Year Data'!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>$B2*'Time Series Scaling Factors'!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>$B2*'Time Series Scaling Factors'!D3</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>$B2*'Time Series Scaling Factors'!E3</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>$B2*'Time Series Scaling Factors'!F3</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>$B2*'Time Series Scaling Factors'!G3</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>$B2*'Time Series Scaling Factors'!H3</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>$B2*'Time Series Scaling Factors'!I3</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>$B2*'Time Series Scaling Factors'!J3</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>$B2*'Time Series Scaling Factors'!K3</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>$B2*'Time Series Scaling Factors'!L3</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <f>$B2*'Time Series Scaling Factors'!M3</f>
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>$B2*'Time Series Scaling Factors'!N3</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>$B2*'Time Series Scaling Factors'!O3</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>$B2*'Time Series Scaling Factors'!P3</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>$B2*'Time Series Scaling Factors'!Q3</f>
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f>$B2*'Time Series Scaling Factors'!R3</f>
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f>$B2*'Time Series Scaling Factors'!S3</f>
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <f>$B2*'Time Series Scaling Factors'!T3</f>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f>$B2*'Time Series Scaling Factors'!U3</f>
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <f>$B2*'Time Series Scaling Factors'!V3</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f>$B2*'Time Series Scaling Factors'!W3</f>
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <f>$B2*'Time Series Scaling Factors'!X3</f>
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <f>$B2*'Time Series Scaling Factors'!Y3</f>
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <f>$B2*'Time Series Scaling Factors'!Z3</f>
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <f>$B2*'Time Series Scaling Factors'!AA3</f>
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <f>$B2*'Time Series Scaling Factors'!AB3</f>
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <f>$B2*'Time Series Scaling Factors'!AC3</f>
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <f>$B2*'Time Series Scaling Factors'!AD3</f>
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <f>$B2*'Time Series Scaling Factors'!AE3</f>
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <f>$B2*'Time Series Scaling Factors'!AF3</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>$B2*'Time Series Scaling Factors'!AG3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="29">
-        <f>'Start Year Data'!B27</f>
-        <v>1.372785698375E+16</v>
-      </c>
-      <c r="C3">
-        <f>$B3*'Time Series Scaling Factors'!C4</f>
-        <v>1.2466543748823158E+16</v>
-      </c>
-      <c r="D3">
-        <f>$B3*'Time Series Scaling Factors'!D4</f>
-        <v>1.173118503460332E+16</v>
-      </c>
-      <c r="E3">
-        <f>$B3*'Time Series Scaling Factors'!E4</f>
-        <v>1.1530287424907296E+16</v>
-      </c>
-      <c r="F3">
-        <f>$B3*'Time Series Scaling Factors'!F4</f>
-        <v>1.0910944594268388E+16</v>
-      </c>
-      <c r="G3">
-        <f>$B3*'Time Series Scaling Factors'!G4</f>
-        <v>1.0586652456401128E+16</v>
-      </c>
-      <c r="H3">
-        <f>$B3*'Time Series Scaling Factors'!H4</f>
-        <v>9537595128601070</v>
-      </c>
-      <c r="I3">
-        <f>$B3*'Time Series Scaling Factors'!I4</f>
-        <v>9722714739986834</v>
-      </c>
-      <c r="J3">
-        <f>$B3*'Time Series Scaling Factors'!J4</f>
-        <v>9676370094440396</v>
-      </c>
-      <c r="K3">
-        <f>$B3*'Time Series Scaling Factors'!K4</f>
-        <v>9558062926242374</v>
-      </c>
-      <c r="L3">
-        <f>$B3*'Time Series Scaling Factors'!L4</f>
-        <v>9390328753015236</v>
-      </c>
-      <c r="M3">
-        <f>$B3*'Time Series Scaling Factors'!M4</f>
-        <v>9224370957619270</v>
-      </c>
-      <c r="N3">
-        <f>$B3*'Time Series Scaling Factors'!N4</f>
-        <v>9135649180110596</v>
-      </c>
-      <c r="O3">
-        <f>$B3*'Time Series Scaling Factors'!O4</f>
-        <v>9112761624056898</v>
-      </c>
-      <c r="P3">
-        <f>$B3*'Time Series Scaling Factors'!P4</f>
-        <v>9099607728305902</v>
-      </c>
-      <c r="Q3">
-        <f>$B3*'Time Series Scaling Factors'!Q4</f>
-        <v>9095245688893590</v>
-      </c>
-      <c r="R3">
-        <f>$B3*'Time Series Scaling Factors'!R4</f>
-        <v>8983126506568739</v>
-      </c>
-      <c r="S3">
-        <f>$B3*'Time Series Scaling Factors'!S4</f>
-        <v>8975266338147203</v>
-      </c>
-      <c r="T3">
-        <f>$B3*'Time Series Scaling Factors'!T4</f>
-        <v>8968435983297497</v>
-      </c>
-      <c r="U3">
-        <f>$B3*'Time Series Scaling Factors'!U4</f>
-        <v>8926860042247729</v>
-      </c>
-      <c r="V3">
-        <f>$B3*'Time Series Scaling Factors'!V4</f>
-        <v>8884352413280811</v>
-      </c>
-      <c r="W3">
-        <f>$B3*'Time Series Scaling Factors'!W4</f>
-        <v>8795174402058096</v>
-      </c>
-      <c r="X3">
-        <f>$B3*'Time Series Scaling Factors'!X4</f>
-        <v>8730414504781202</v>
-      </c>
-      <c r="Y3">
-        <f>$B3*'Time Series Scaling Factors'!Y4</f>
-        <v>8697889390870105</v>
-      </c>
-      <c r="Z3">
-        <f>$B3*'Time Series Scaling Factors'!Z4</f>
-        <v>8678841886209989</v>
-      </c>
-      <c r="AA3">
-        <f>$B3*'Time Series Scaling Factors'!AA4</f>
-        <v>8642250121455318</v>
-      </c>
-      <c r="AB3">
-        <f>$B3*'Time Series Scaling Factors'!AB4</f>
-        <v>8601605868322697</v>
-      </c>
-      <c r="AC3">
-        <f>$B3*'Time Series Scaling Factors'!AC4</f>
-        <v>8604719587550687</v>
-      </c>
-      <c r="AD3">
-        <f>$B3*'Time Series Scaling Factors'!AD4</f>
-        <v>8580511887379857</v>
-      </c>
-      <c r="AE3">
-        <f>$B3*'Time Series Scaling Factors'!AE4</f>
-        <v>8551782314256096</v>
-      </c>
-      <c r="AF3">
-        <f>$B3*'Time Series Scaling Factors'!AF4</f>
-        <v>8557318826710544</v>
-      </c>
-      <c r="AG3">
-        <f>$B3*'Time Series Scaling Factors'!AG4</f>
-        <v>8530239180832026</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="29">
-        <f>'Start Year Data'!B28</f>
-        <v>3.5698853E+16</v>
-      </c>
-      <c r="C4">
-        <f>$B4*'Time Series Scaling Factors'!C5</f>
-        <v>3.6461613E+16</v>
-      </c>
-      <c r="D4">
-        <f>$B4*'Time Series Scaling Factors'!D5</f>
-        <v>3.8399319E+16</v>
-      </c>
-      <c r="E4">
-        <f>$B4*'Time Series Scaling Factors'!E5</f>
-        <v>3.9064152E+16</v>
-      </c>
-      <c r="F4">
-        <f>$B4*'Time Series Scaling Factors'!F5</f>
-        <v>3.9540782999999992E+16</v>
-      </c>
-      <c r="G4">
-        <f>$B4*'Time Series Scaling Factors'!G5</f>
-        <v>4.0186932E+16</v>
-      </c>
-      <c r="H4">
-        <f>$B4*'Time Series Scaling Factors'!H5</f>
-        <v>4.1594856E+16</v>
-      </c>
-      <c r="I4">
-        <f>$B4*'Time Series Scaling Factors'!I5</f>
-        <v>4.2991825E+16</v>
-      </c>
-      <c r="J4">
-        <f>$B4*'Time Series Scaling Factors'!J5</f>
-        <v>4.3837154E+16</v>
-      </c>
-      <c r="K4">
-        <f>$B4*'Time Series Scaling Factors'!K5</f>
-        <v>4.4673091999999992E+16</v>
-      </c>
-      <c r="L4">
-        <f>$B4*'Time Series Scaling Factors'!L5</f>
-        <v>4.5265652E+16</v>
-      </c>
-      <c r="M4">
-        <f>$B4*'Time Series Scaling Factors'!M5</f>
-        <v>4.5577869E+16</v>
-      </c>
-      <c r="N4">
-        <f>$B4*'Time Series Scaling Factors'!N5</f>
-        <v>4.6066223E+16</v>
-      </c>
-      <c r="O4">
-        <f>$B4*'Time Series Scaling Factors'!O5</f>
-        <v>4.6707607E+16</v>
-      </c>
-      <c r="P4">
-        <f>$B4*'Time Series Scaling Factors'!P5</f>
-        <v>4.7376926E+16</v>
-      </c>
-      <c r="Q4">
-        <f>$B4*'Time Series Scaling Factors'!Q5</f>
-        <v>4.7925549E+16</v>
-      </c>
-      <c r="R4">
-        <f>$B4*'Time Series Scaling Factors'!R5</f>
-        <v>4.8427116E+16</v>
-      </c>
-      <c r="S4">
-        <f>$B4*'Time Series Scaling Factors'!S5</f>
-        <v>4.9248726E+16</v>
-      </c>
-      <c r="T4">
-        <f>$B4*'Time Series Scaling Factors'!T5</f>
-        <v>4.9617588E+16</v>
-      </c>
-      <c r="U4">
-        <f>$B4*'Time Series Scaling Factors'!U5</f>
-        <v>5.0274464E+16</v>
-      </c>
-      <c r="V4">
-        <f>$B4*'Time Series Scaling Factors'!V5</f>
-        <v>5.0788734E+16</v>
-      </c>
-      <c r="W4">
-        <f>$B4*'Time Series Scaling Factors'!W5</f>
-        <v>5.1329384E+16</v>
-      </c>
-      <c r="X4">
-        <f>$B4*'Time Series Scaling Factors'!X5</f>
-        <v>5.1800266E+16</v>
-      </c>
-      <c r="Y4">
-        <f>$B4*'Time Series Scaling Factors'!Y5</f>
-        <v>5.2295409999999992E+16</v>
-      </c>
-      <c r="Z4">
-        <f>$B4*'Time Series Scaling Factors'!Z5</f>
-        <v>5.2754333E+16</v>
-      </c>
-      <c r="AA4">
-        <f>$B4*'Time Series Scaling Factors'!AA5</f>
-        <v>5.3282814E+16</v>
-      </c>
-      <c r="AB4">
-        <f>$B4*'Time Series Scaling Factors'!AB5</f>
-        <v>5.371896E+16</v>
-      </c>
-      <c r="AC4">
-        <f>$B4*'Time Series Scaling Factors'!AC5</f>
-        <v>5.4344379E+16</v>
-      </c>
-      <c r="AD4">
-        <f>$B4*'Time Series Scaling Factors'!AD5</f>
-        <v>5.4812981000000008E+16</v>
-      </c>
-      <c r="AE4">
-        <f>$B4*'Time Series Scaling Factors'!AE5</f>
-        <v>5.5301308E+16</v>
-      </c>
-      <c r="AF4">
-        <f>$B4*'Time Series Scaling Factors'!AF5</f>
-        <v>5.5799816E+16</v>
-      </c>
-      <c r="AG4">
-        <f>$B4*'Time Series Scaling Factors'!AG5</f>
-        <v>5.6345497000000008E+16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="29">
-        <f>'Start Year Data'!B29</f>
-        <v>540000000000000</v>
-      </c>
-      <c r="C5">
-        <f>$B5*'Time Series Scaling Factors'!C6</f>
-        <v>530350229609255.75</v>
-      </c>
-      <c r="D5">
-        <f>$B5*'Time Series Scaling Factors'!D6</f>
-        <v>521586332440665.06</v>
-      </c>
-      <c r="E5">
-        <f>$B5*'Time Series Scaling Factors'!E6</f>
-        <v>511861167223607.38</v>
-      </c>
-      <c r="F5">
-        <f>$B5*'Time Series Scaling Factors'!F6</f>
-        <v>513379807033013.56</v>
-      </c>
-      <c r="G5">
-        <f>$B5*'Time Series Scaling Factors'!G6</f>
-        <v>515362006720236.25</v>
-      </c>
-      <c r="H5">
-        <f>$B5*'Time Series Scaling Factors'!H6</f>
-        <v>505881379090814.13</v>
-      </c>
-      <c r="I5">
-        <f>$B5*'Time Series Scaling Factors'!I6</f>
-        <v>420681196625529.13</v>
-      </c>
-      <c r="J5">
-        <f>$B5*'Time Series Scaling Factors'!J6</f>
-        <v>390752456140475.56</v>
-      </c>
-      <c r="K5">
-        <f>$B5*'Time Series Scaling Factors'!K6</f>
-        <v>391031653605856.5</v>
-      </c>
-      <c r="L5">
-        <f>$B5*'Time Series Scaling Factors'!L6</f>
-        <v>391305415481554.19</v>
-      </c>
-      <c r="M5">
-        <f>$B5*'Time Series Scaling Factors'!M6</f>
-        <v>379508011632872.5</v>
-      </c>
-      <c r="N5">
-        <f>$B5*'Time Series Scaling Factors'!N6</f>
-        <v>373627279128543.5</v>
-      </c>
-      <c r="O5">
-        <f>$B5*'Time Series Scaling Factors'!O6</f>
-        <v>369358870420515.75</v>
-      </c>
-      <c r="P5">
-        <f>$B5*'Time Series Scaling Factors'!P6</f>
-        <v>359207810764741.31</v>
-      </c>
-      <c r="Q5">
-        <f>$B5*'Time Series Scaling Factors'!Q6</f>
-        <v>342949642281356.13</v>
-      </c>
-      <c r="R5">
-        <f>$B5*'Time Series Scaling Factors'!R6</f>
-        <v>343889551659773.31</v>
-      </c>
-      <c r="S5">
-        <f>$B5*'Time Series Scaling Factors'!S6</f>
-        <v>312263564283131</v>
-      </c>
-      <c r="T5">
-        <f>$B5*'Time Series Scaling Factors'!T6</f>
-        <v>312404825666783.44</v>
-      </c>
-      <c r="U5">
-        <f>$B5*'Time Series Scaling Factors'!U6</f>
-        <v>288459646253244.5</v>
-      </c>
-      <c r="V5">
-        <f>$B5*'Time Series Scaling Factors'!V6</f>
-        <v>276956915313512.72</v>
-      </c>
-      <c r="W5">
-        <f>$B5*'Time Series Scaling Factors'!W6</f>
-        <v>277187576160427.38</v>
-      </c>
-      <c r="X5">
-        <f>$B5*'Time Series Scaling Factors'!X6</f>
-        <v>278025168556570.28</v>
-      </c>
-      <c r="Y5">
-        <f>$B5*'Time Series Scaling Factors'!Y6</f>
-        <v>273312000716218.88</v>
-      </c>
-      <c r="Z5">
-        <f>$B5*'Time Series Scaling Factors'!Z6</f>
-        <v>268599280512664.91</v>
-      </c>
-      <c r="AA5">
-        <f>$B5*'Time Series Scaling Factors'!AA6</f>
-        <v>258883963305151.19</v>
-      </c>
-      <c r="AB5">
-        <f>$B5*'Time Series Scaling Factors'!AB6</f>
-        <v>254831187637266.41</v>
-      </c>
-      <c r="AC5">
-        <f>$B5*'Time Series Scaling Factors'!AC6</f>
-        <v>250575760396364.66</v>
-      </c>
-      <c r="AD5">
-        <f>$B5*'Time Series Scaling Factors'!AD6</f>
-        <v>250860841088226.38</v>
-      </c>
-      <c r="AE5">
-        <f>$B5*'Time Series Scaling Factors'!AE6</f>
-        <v>251038297104358.38</v>
-      </c>
-      <c r="AF5">
-        <f>$B5*'Time Series Scaling Factors'!AF6</f>
-        <v>251252715130336.94</v>
-      </c>
-      <c r="AG5">
-        <f>$B5*'Time Series Scaling Factors'!AG6</f>
-        <v>251562735586628.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="29">
-        <f>'Start Year Data'!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f>$B6*'Time Series Scaling Factors'!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f>$B6*'Time Series Scaling Factors'!D7</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>$B6*'Time Series Scaling Factors'!E7</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>$B6*'Time Series Scaling Factors'!F7</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f>$B6*'Time Series Scaling Factors'!G7</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>$B6*'Time Series Scaling Factors'!H7</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f>$B6*'Time Series Scaling Factors'!I7</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>$B6*'Time Series Scaling Factors'!J7</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f>$B6*'Time Series Scaling Factors'!K7</f>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f>$B6*'Time Series Scaling Factors'!L7</f>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f>$B6*'Time Series Scaling Factors'!M7</f>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f>$B6*'Time Series Scaling Factors'!N7</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f>$B6*'Time Series Scaling Factors'!O7</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f>$B6*'Time Series Scaling Factors'!P7</f>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f>$B6*'Time Series Scaling Factors'!Q7</f>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f>$B6*'Time Series Scaling Factors'!R7</f>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f>$B6*'Time Series Scaling Factors'!S7</f>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f>$B6*'Time Series Scaling Factors'!T7</f>
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f>$B6*'Time Series Scaling Factors'!U7</f>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f>$B6*'Time Series Scaling Factors'!V7</f>
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <f>$B6*'Time Series Scaling Factors'!W7</f>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f>$B6*'Time Series Scaling Factors'!X7</f>
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f>$B6*'Time Series Scaling Factors'!Y7</f>
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <f>$B6*'Time Series Scaling Factors'!Z7</f>
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <f>$B6*'Time Series Scaling Factors'!AA7</f>
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <f>$B6*'Time Series Scaling Factors'!AB7</f>
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <f>$B6*'Time Series Scaling Factors'!AC7</f>
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <f>$B6*'Time Series Scaling Factors'!AD7</f>
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <f>$B6*'Time Series Scaling Factors'!AE7</f>
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <f>$B6*'Time Series Scaling Factors'!AF7</f>
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <f>$B6*'Time Series Scaling Factors'!AG7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="29">
-        <f>'Start Year Data'!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f>$B7*'Time Series Scaling Factors'!C8</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f>$B7*'Time Series Scaling Factors'!D8</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f>$B7*'Time Series Scaling Factors'!E8</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>$B7*'Time Series Scaling Factors'!F8</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>$B7*'Time Series Scaling Factors'!G8</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f>$B7*'Time Series Scaling Factors'!H8</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f>$B7*'Time Series Scaling Factors'!I8</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>$B7*'Time Series Scaling Factors'!J8</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f>$B7*'Time Series Scaling Factors'!K8</f>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f>$B7*'Time Series Scaling Factors'!L8</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>$B7*'Time Series Scaling Factors'!M8</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f>$B7*'Time Series Scaling Factors'!N8</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>$B7*'Time Series Scaling Factors'!O8</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f>$B7*'Time Series Scaling Factors'!P8</f>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f>$B7*'Time Series Scaling Factors'!Q8</f>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f>$B7*'Time Series Scaling Factors'!R8</f>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f>$B7*'Time Series Scaling Factors'!S8</f>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f>$B7*'Time Series Scaling Factors'!T8</f>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f>$B7*'Time Series Scaling Factors'!U8</f>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f>$B7*'Time Series Scaling Factors'!V8</f>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f>$B7*'Time Series Scaling Factors'!W8</f>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f>$B7*'Time Series Scaling Factors'!X8</f>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f>$B7*'Time Series Scaling Factors'!Y8</f>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f>$B7*'Time Series Scaling Factors'!Z8</f>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f>$B7*'Time Series Scaling Factors'!AA8</f>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f>$B7*'Time Series Scaling Factors'!AB8</f>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f>$B7*'Time Series Scaling Factors'!AC8</f>
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <f>$B7*'Time Series Scaling Factors'!AD8</f>
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <f>$B7*'Time Series Scaling Factors'!AE8</f>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f>$B7*'Time Series Scaling Factors'!AF8</f>
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <f>$B7*'Time Series Scaling Factors'!AG8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="29">
-        <f>'Start Year Data'!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f>$B8*'Time Series Scaling Factors'!C9</f>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f>$B8*'Time Series Scaling Factors'!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f>$B8*'Time Series Scaling Factors'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>$B8*'Time Series Scaling Factors'!F9</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>$B8*'Time Series Scaling Factors'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f>$B8*'Time Series Scaling Factors'!H9</f>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f>$B8*'Time Series Scaling Factors'!I9</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>$B8*'Time Series Scaling Factors'!J9</f>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f>$B8*'Time Series Scaling Factors'!K9</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>$B8*'Time Series Scaling Factors'!L9</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>$B8*'Time Series Scaling Factors'!M9</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f>$B8*'Time Series Scaling Factors'!N9</f>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f>$B8*'Time Series Scaling Factors'!O9</f>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f>$B8*'Time Series Scaling Factors'!P9</f>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f>$B8*'Time Series Scaling Factors'!Q9</f>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f>$B8*'Time Series Scaling Factors'!R9</f>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f>$B8*'Time Series Scaling Factors'!S9</f>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f>$B8*'Time Series Scaling Factors'!T9</f>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f>$B8*'Time Series Scaling Factors'!U9</f>
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f>$B8*'Time Series Scaling Factors'!V9</f>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f>$B8*'Time Series Scaling Factors'!W9</f>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f>$B8*'Time Series Scaling Factors'!X9</f>
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <f>$B8*'Time Series Scaling Factors'!Y9</f>
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <f>$B8*'Time Series Scaling Factors'!Z9</f>
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <f>$B8*'Time Series Scaling Factors'!AA9</f>
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <f>$B8*'Time Series Scaling Factors'!AB9</f>
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f>$B8*'Time Series Scaling Factors'!AC9</f>
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <f>$B8*'Time Series Scaling Factors'!AD9</f>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f>$B8*'Time Series Scaling Factors'!AE9</f>
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <f>$B8*'Time Series Scaling Factors'!AF9</f>
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <f>$B8*'Time Series Scaling Factors'!AG9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" s="29">
-        <f>'Start Year Data'!B33</f>
-        <v>123408653368000</v>
-      </c>
-      <c r="C9">
-        <f>$B9*'Time Series Scaling Factors'!C10</f>
-        <v>121916730377165.38</v>
-      </c>
-      <c r="D9">
-        <f>$B9*'Time Series Scaling Factors'!D10</f>
-        <v>123445738522830.2</v>
-      </c>
-      <c r="E9">
-        <f>$B9*'Time Series Scaling Factors'!E10</f>
-        <v>125097792654624.8</v>
-      </c>
-      <c r="F9">
-        <f>$B9*'Time Series Scaling Factors'!F10</f>
-        <v>125801055070049.69</v>
-      </c>
-      <c r="G9">
-        <f>$B9*'Time Series Scaling Factors'!G10</f>
-        <v>126604166067858.83</v>
-      </c>
-      <c r="H9">
-        <f>$B9*'Time Series Scaling Factors'!H10</f>
-        <v>127372186836407.89</v>
-      </c>
-      <c r="I9">
-        <f>$B9*'Time Series Scaling Factors'!I10</f>
-        <v>128070717697595.84</v>
-      </c>
-      <c r="J9">
-        <f>$B9*'Time Series Scaling Factors'!J10</f>
-        <v>129006082030320.11</v>
-      </c>
-      <c r="K9">
-        <f>$B9*'Time Series Scaling Factors'!K10</f>
-        <v>129940909267698.56</v>
-      </c>
-      <c r="L9">
-        <f>$B9*'Time Series Scaling Factors'!L10</f>
-        <v>130600283320579.55</v>
-      </c>
-      <c r="M9">
-        <f>$B9*'Time Series Scaling Factors'!M10</f>
-        <v>131166407391039.25</v>
-      </c>
-      <c r="N9">
-        <f>$B9*'Time Series Scaling Factors'!N10</f>
-        <v>131582553980171.83</v>
-      </c>
-      <c r="O9">
-        <f>$B9*'Time Series Scaling Factors'!O10</f>
-        <v>131770639655083.09</v>
-      </c>
-      <c r="P9">
-        <f>$B9*'Time Series Scaling Factors'!P10</f>
-        <v>132151286799454.08</v>
-      </c>
-      <c r="Q9">
-        <f>$B9*'Time Series Scaling Factors'!Q10</f>
-        <v>132331316044178.06</v>
-      </c>
-      <c r="R9">
-        <f>$B9*'Time Series Scaling Factors'!R10</f>
-        <v>132723574678406.22</v>
-      </c>
-      <c r="S9">
-        <f>$B9*'Time Series Scaling Factors'!S10</f>
-        <v>133099106629007.5</v>
-      </c>
-      <c r="T9">
-        <f>$B9*'Time Series Scaling Factors'!T10</f>
-        <v>133349444212095.8</v>
-      </c>
-      <c r="U9">
-        <f>$B9*'Time Series Scaling Factors'!U10</f>
-        <v>133710858227892.77</v>
-      </c>
-      <c r="V9">
-        <f>$B9*'Time Series Scaling Factors'!V10</f>
-        <v>134015749352534.73</v>
-      </c>
-      <c r="W9">
-        <f>$B9*'Time Series Scaling Factors'!W10</f>
-        <v>134472203668572.41</v>
-      </c>
-      <c r="X9">
-        <f>$B9*'Time Series Scaling Factors'!X10</f>
-        <v>135120426599035.55</v>
-      </c>
-      <c r="Y9">
-        <f>$B9*'Time Series Scaling Factors'!Y10</f>
-        <v>135444192788687.59</v>
-      </c>
-      <c r="Z9">
-        <f>$B9*'Time Series Scaling Factors'!Z10</f>
-        <v>136046532431036.67</v>
-      </c>
-      <c r="AA9">
-        <f>$B9*'Time Series Scaling Factors'!AA10</f>
-        <v>136854119223394.25</v>
-      </c>
-      <c r="AB9">
-        <f>$B9*'Time Series Scaling Factors'!AB10</f>
-        <v>137562010889180.72</v>
-      </c>
-      <c r="AC9">
-        <f>$B9*'Time Series Scaling Factors'!AC10</f>
-        <v>138728249492699.64</v>
-      </c>
-      <c r="AD9">
-        <f>$B9*'Time Series Scaling Factors'!AD10</f>
-        <v>139699727093437.86</v>
-      </c>
-      <c r="AE9">
-        <f>$B9*'Time Series Scaling Factors'!AE10</f>
-        <v>140693379059167.67</v>
-      </c>
-      <c r="AF9">
-        <f>$B9*'Time Series Scaling Factors'!AF10</f>
-        <v>141846241430978.88</v>
-      </c>
-      <c r="AG9">
-        <f>$B9*'Time Series Scaling Factors'!AG10</f>
-        <v>143192406975346.41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" s="29">
-        <f>'Start Year Data'!B34</f>
-        <v>1.8365288407359E+16</v>
-      </c>
-      <c r="C10">
-        <f>$B10*'Time Series Scaling Factors'!C11</f>
-        <v>2.081311701707924E+16</v>
-      </c>
-      <c r="D10">
-        <f>$B10*'Time Series Scaling Factors'!D11</f>
-        <v>2.3057666630590116E+16</v>
-      </c>
-      <c r="E10">
-        <f>$B10*'Time Series Scaling Factors'!E11</f>
-        <v>2.4431765838112752E+16</v>
-      </c>
-      <c r="F10">
-        <f>$B10*'Time Series Scaling Factors'!F11</f>
-        <v>2.5060870393468948E+16</v>
-      </c>
-      <c r="G10">
-        <f>$B10*'Time Series Scaling Factors'!G11</f>
-        <v>2.566304567735818E+16</v>
-      </c>
-      <c r="H10">
-        <f>$B10*'Time Series Scaling Factors'!H11</f>
-        <v>2.6003268681780608E+16</v>
-      </c>
-      <c r="I10">
-        <f>$B10*'Time Series Scaling Factors'!I11</f>
-        <v>2.6381043648824656E+16</v>
-      </c>
-      <c r="J10">
-        <f>$B10*'Time Series Scaling Factors'!J11</f>
-        <v>2.6568281398936748E+16</v>
-      </c>
-      <c r="K10">
-        <f>$B10*'Time Series Scaling Factors'!K11</f>
-        <v>2.6745211273354708E+16</v>
-      </c>
-      <c r="L10">
-        <f>$B10*'Time Series Scaling Factors'!L11</f>
-        <v>2.687636382448514E+16</v>
-      </c>
-      <c r="M10">
-        <f>$B10*'Time Series Scaling Factors'!M11</f>
-        <v>2.7055599955215348E+16</v>
-      </c>
-      <c r="N10">
-        <f>$B10*'Time Series Scaling Factors'!N11</f>
-        <v>2.7366543687569052E+16</v>
-      </c>
-      <c r="O10">
-        <f>$B10*'Time Series Scaling Factors'!O11</f>
-        <v>2.756264790318012E+16</v>
-      </c>
-      <c r="P10">
-        <f>$B10*'Time Series Scaling Factors'!P11</f>
-        <v>2.7830648368510596E+16</v>
-      </c>
-      <c r="Q10">
-        <f>$B10*'Time Series Scaling Factors'!Q11</f>
-        <v>2.7566748392481572E+16</v>
-      </c>
-      <c r="R10">
-        <f>$B10*'Time Series Scaling Factors'!R11</f>
-        <v>2.7685243067316104E+16</v>
-      </c>
-      <c r="S10">
-        <f>$B10*'Time Series Scaling Factors'!S11</f>
-        <v>2.7659662697628788E+16</v>
-      </c>
-      <c r="T10">
-        <f>$B10*'Time Series Scaling Factors'!T11</f>
-        <v>2.7616183025219508E+16</v>
-      </c>
-      <c r="U10">
-        <f>$B10*'Time Series Scaling Factors'!U11</f>
-        <v>2.7457860967589596E+16</v>
-      </c>
-      <c r="V10">
-        <f>$B10*'Time Series Scaling Factors'!V11</f>
-        <v>2.742120397010406E+16</v>
-      </c>
-      <c r="W10">
-        <f>$B10*'Time Series Scaling Factors'!W11</f>
-        <v>2.7423094297106272E+16</v>
-      </c>
-      <c r="X10">
-        <f>$B10*'Time Series Scaling Factors'!X11</f>
-        <v>2.7420358486213468E+16</v>
-      </c>
-      <c r="Y10">
-        <f>$B10*'Time Series Scaling Factors'!Y11</f>
-        <v>2.7446666732193364E+16</v>
-      </c>
-      <c r="Z10">
-        <f>$B10*'Time Series Scaling Factors'!Z11</f>
-        <v>2.72505904842428E+16</v>
-      </c>
-      <c r="AA10">
-        <f>$B10*'Time Series Scaling Factors'!AA11</f>
-        <v>2.7236258133914224E+16</v>
-      </c>
-      <c r="AB10">
-        <f>$B10*'Time Series Scaling Factors'!AB11</f>
-        <v>2.7285641134048152E+16</v>
-      </c>
-      <c r="AC10">
-        <f>$B10*'Time Series Scaling Factors'!AC11</f>
-        <v>2.7339893375587624E+16</v>
-      </c>
-      <c r="AD10">
-        <f>$B10*'Time Series Scaling Factors'!AD11</f>
-        <v>2.7517893192299696E+16</v>
-      </c>
-      <c r="AE10">
-        <f>$B10*'Time Series Scaling Factors'!AE11</f>
-        <v>2.7792415859483392E+16</v>
-      </c>
-      <c r="AF10">
-        <f>$B10*'Time Series Scaling Factors'!AF11</f>
-        <v>2.8141849546764828E+16</v>
-      </c>
-      <c r="AG10">
-        <f>$B10*'Time Series Scaling Factors'!AG11</f>
-        <v>2.8371133447405544E+16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="B11" s="29">
-        <f>'Start Year Data'!B35</f>
-        <v>1.0682345175E+16</v>
-      </c>
-      <c r="C11">
-        <f>$B11*'Time Series Scaling Factors'!C12</f>
-        <v>1.210614803386467E+16</v>
-      </c>
-      <c r="D11">
-        <f>$B11*'Time Series Scaling Factors'!D12</f>
-        <v>1.3411711725656648E+16</v>
-      </c>
-      <c r="E11">
-        <f>$B11*'Time Series Scaling Factors'!E12</f>
-        <v>1.4210969636224992E+16</v>
-      </c>
-      <c r="F11">
-        <f>$B11*'Time Series Scaling Factors'!F12</f>
-        <v>1.4576894301409502E+16</v>
-      </c>
-      <c r="G11">
-        <f>$B11*'Time Series Scaling Factors'!G12</f>
-        <v>1.492715529898691E+16</v>
-      </c>
-      <c r="H11">
-        <f>$B11*'Time Series Scaling Factors'!H12</f>
-        <v>1.5125049254644018E+16</v>
-      </c>
-      <c r="I11">
-        <f>$B11*'Time Series Scaling Factors'!I12</f>
-        <v>1.5344785667540302E+16</v>
-      </c>
-      <c r="J11">
-        <f>$B11*'Time Series Scaling Factors'!J12</f>
-        <v>1.5453694290814976E+16</v>
-      </c>
-      <c r="K11">
-        <f>$B11*'Time Series Scaling Factors'!K12</f>
-        <v>1.5556607239872978E+16</v>
-      </c>
-      <c r="L11">
-        <f>$B11*'Time Series Scaling Factors'!L12</f>
-        <v>1.5632893372204866E+16</v>
-      </c>
-      <c r="M11">
-        <f>$B11*'Time Series Scaling Factors'!M12</f>
-        <v>1.5737147777244556E+16</v>
-      </c>
-      <c r="N11">
-        <f>$B11*'Time Series Scaling Factors'!N12</f>
-        <v>1.591801116502964E+16</v>
-      </c>
-      <c r="O11">
-        <f>$B11*'Time Series Scaling Factors'!O12</f>
-        <v>1.6032077052532428E+16</v>
-      </c>
-      <c r="P11">
-        <f>$B11*'Time Series Scaling Factors'!P12</f>
-        <v>1.6187962079449488E+16</v>
-      </c>
-      <c r="Q11">
-        <f>$B11*'Time Series Scaling Factors'!Q12</f>
-        <v>1.6034462141246142E+16</v>
-      </c>
-      <c r="R11">
-        <f>$B11*'Time Series Scaling Factors'!R12</f>
-        <v>1.6103385699096432E+16</v>
-      </c>
-      <c r="S11">
-        <f>$B11*'Time Series Scaling Factors'!S12</f>
-        <v>1.6088506633075638E+16</v>
-      </c>
-      <c r="T11">
-        <f>$B11*'Time Series Scaling Factors'!T12</f>
-        <v>1.6063216266898444E+16</v>
-      </c>
-      <c r="U11">
-        <f>$B11*'Time Series Scaling Factors'!U12</f>
-        <v>1.5971126731961368E+16</v>
-      </c>
-      <c r="V11">
-        <f>$B11*'Time Series Scaling Factors'!V12</f>
-        <v>1.5949804839730006E+16</v>
-      </c>
-      <c r="W11">
-        <f>$B11*'Time Series Scaling Factors'!W12</f>
-        <v>1.5950904366461268E+16</v>
-      </c>
-      <c r="X11">
-        <f>$B11*'Time Series Scaling Factors'!X12</f>
-        <v>1.5949313055960598E+16</v>
-      </c>
-      <c r="Y11">
-        <f>$B11*'Time Series Scaling Factors'!Y12</f>
-        <v>1.5964615498169646E+16</v>
-      </c>
-      <c r="Z11">
-        <f>$B11*'Time Series Scaling Factors'!Z12</f>
-        <v>1.5850565878323352E+16</v>
-      </c>
-      <c r="AA11">
-        <f>$B11*'Time Series Scaling Factors'!AA12</f>
-        <v>1.584222933004908E+16</v>
-      </c>
-      <c r="AB11">
-        <f>$B11*'Time Series Scaling Factors'!AB12</f>
-        <v>1.5870953423104776E+16</v>
-      </c>
-      <c r="AC11">
-        <f>$B11*'Time Series Scaling Factors'!AC12</f>
-        <v>1.590250975686809E+16</v>
-      </c>
-      <c r="AD11">
-        <f>$B11*'Time Series Scaling Factors'!AD12</f>
-        <v>1.6006045048066848E+16</v>
-      </c>
-      <c r="AE11">
-        <f>$B11*'Time Series Scaling Factors'!AE12</f>
-        <v>1.616572377590228E+16</v>
-      </c>
-      <c r="AF11">
-        <f>$B11*'Time Series Scaling Factors'!AF12</f>
-        <v>1.6368975213098202E+16</v>
-      </c>
-      <c r="AG11">
-        <f>$B11*'Time Series Scaling Factors'!AG12</f>
-        <v>1.650234038087488E+16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="29">
-        <f>'Start Year Data'!B36</f>
-        <v>1515620096655000</v>
-      </c>
-      <c r="C12">
-        <f>$B12*'Time Series Scaling Factors'!C13</f>
-        <v>1497297325877915</v>
-      </c>
-      <c r="D12">
-        <f>$B12*'Time Series Scaling Factors'!D13</f>
-        <v>1516075550988340.8</v>
-      </c>
-      <c r="E12">
-        <f>$B12*'Time Series Scaling Factors'!E13</f>
-        <v>1536364942166148.5</v>
-      </c>
-      <c r="F12">
-        <f>$B12*'Time Series Scaling Factors'!F13</f>
-        <v>1545001926858475.5</v>
-      </c>
-      <c r="G12">
-        <f>$B12*'Time Series Scaling Factors'!G13</f>
-        <v>1554865183080018.5</v>
-      </c>
-      <c r="H12">
-        <f>$B12*'Time Series Scaling Factors'!H13</f>
-        <v>1564297485270289.5</v>
-      </c>
-      <c r="I12">
-        <f>$B12*'Time Series Scaling Factors'!I13</f>
-        <v>1572876360271811.3</v>
-      </c>
-      <c r="J12">
-        <f>$B12*'Time Series Scaling Factors'!J13</f>
-        <v>1584363860877978.5</v>
-      </c>
-      <c r="K12">
-        <f>$B12*'Time Series Scaling Factors'!K13</f>
-        <v>1595844765248973.3</v>
-      </c>
-      <c r="L12">
-        <f>$B12*'Time Series Scaling Factors'!L13</f>
-        <v>1603942743295773.8</v>
-      </c>
-      <c r="M12">
-        <f>$B12*'Time Series Scaling Factors'!M13</f>
-        <v>1610895489274050</v>
-      </c>
-      <c r="N12">
-        <f>$B12*'Time Series Scaling Factors'!N13</f>
-        <v>1616006315107008.5</v>
-      </c>
-      <c r="O12">
-        <f>$B12*'Time Series Scaling Factors'!O13</f>
-        <v>1618316253843138.8</v>
-      </c>
-      <c r="P12">
-        <f>$B12*'Time Series Scaling Factors'!P13</f>
-        <v>1622991099941837</v>
-      </c>
-      <c r="Q12">
-        <f>$B12*'Time Series Scaling Factors'!Q13</f>
-        <v>1625202095150379.3</v>
-      </c>
-      <c r="R12">
-        <f>$B12*'Time Series Scaling Factors'!R13</f>
-        <v>1630019545571378.5</v>
-      </c>
-      <c r="S12">
-        <f>$B12*'Time Series Scaling Factors'!S13</f>
-        <v>1634631570382719.3</v>
-      </c>
-      <c r="T12">
-        <f>$B12*'Time Series Scaling Factors'!T13</f>
-        <v>1637706044185988.8</v>
-      </c>
-      <c r="U12">
-        <f>$B12*'Time Series Scaling Factors'!U13</f>
-        <v>1642144682244223</v>
-      </c>
-      <c r="V12">
-        <f>$B12*'Time Series Scaling Factors'!V13</f>
-        <v>1645889145077158.8</v>
-      </c>
-      <c r="W12">
-        <f>$B12*'Time Series Scaling Factors'!W13</f>
-        <v>1651495002654493</v>
-      </c>
-      <c r="X12">
-        <f>$B12*'Time Series Scaling Factors'!X13</f>
-        <v>1659456030294855</v>
-      </c>
-      <c r="Y12">
-        <f>$B12*'Time Series Scaling Factors'!Y13</f>
-        <v>1663432303678138.8</v>
-      </c>
-      <c r="Z12">
-        <f>$B12*'Time Series Scaling Factors'!Z13</f>
-        <v>1670829824370905.5</v>
-      </c>
-      <c r="AA12">
-        <f>$B12*'Time Series Scaling Factors'!AA13</f>
-        <v>1680748049218885.8</v>
-      </c>
-      <c r="AB12">
-        <f>$B12*'Time Series Scaling Factors'!AB13</f>
-        <v>1689441887176271.5</v>
-      </c>
-      <c r="AC12">
-        <f>$B12*'Time Series Scaling Factors'!AC13</f>
-        <v>1703764826587313.3</v>
-      </c>
-      <c r="AD12">
-        <f>$B12*'Time Series Scaling Factors'!AD13</f>
-        <v>1715695845482223.5</v>
-      </c>
-      <c r="AE12">
-        <f>$B12*'Time Series Scaling Factors'!AE13</f>
-        <v>1727899194657828</v>
-      </c>
-      <c r="AF12">
-        <f>$B12*'Time Series Scaling Factors'!AF13</f>
-        <v>1742057856402430.8</v>
-      </c>
-      <c r="AG12">
-        <f>$B12*'Time Series Scaling Factors'!AG13</f>
-        <v>1758590534596268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="29">
-        <f>'Start Year Data'!B37</f>
-        <v>203604487000000</v>
-      </c>
-      <c r="C13">
-        <f>$B13*'Time Series Scaling Factors'!C14</f>
-        <v>201143053324951.44</v>
-      </c>
-      <c r="D13">
-        <f>$B13*'Time Series Scaling Factors'!D14</f>
-        <v>203665671558120.09</v>
-      </c>
-      <c r="E13">
-        <f>$B13*'Time Series Scaling Factors'!E14</f>
-        <v>206391295935506.66</v>
-      </c>
-      <c r="F13">
-        <f>$B13*'Time Series Scaling Factors'!F14</f>
-        <v>207551566138698.88</v>
-      </c>
-      <c r="G13">
-        <f>$B13*'Time Series Scaling Factors'!G14</f>
-        <v>208876570490098.66</v>
-      </c>
-      <c r="H13">
-        <f>$B13*'Time Series Scaling Factors'!H14</f>
-        <v>210143681590642.63</v>
-      </c>
-      <c r="I13">
-        <f>$B13*'Time Series Scaling Factors'!I14</f>
-        <v>211296145488143.72</v>
-      </c>
-      <c r="J13">
-        <f>$B13*'Time Series Scaling Factors'!J14</f>
-        <v>212839346632673.84</v>
-      </c>
-      <c r="K13">
-        <f>$B13*'Time Series Scaling Factors'!K14</f>
-        <v>214381661656017.41</v>
-      </c>
-      <c r="L13">
-        <f>$B13*'Time Series Scaling Factors'!L14</f>
-        <v>215469523099392.97</v>
-      </c>
-      <c r="M13">
-        <f>$B13*'Time Series Scaling Factors'!M14</f>
-        <v>216403537026281.72</v>
-      </c>
-      <c r="N13">
-        <f>$B13*'Time Series Scaling Factors'!N14</f>
-        <v>217090112160883.34</v>
-      </c>
-      <c r="O13">
-        <f>$B13*'Time Series Scaling Factors'!O14</f>
-        <v>217400423361169.78</v>
-      </c>
-      <c r="P13">
-        <f>$B13*'Time Series Scaling Factors'!P14</f>
-        <v>218028430104964</v>
-      </c>
-      <c r="Q13">
-        <f>$B13*'Time Series Scaling Factors'!Q14</f>
-        <v>218325449487451.91</v>
-      </c>
-      <c r="R13">
-        <f>$B13*'Time Series Scaling Factors'!R14</f>
-        <v>218972613327374.75</v>
-      </c>
-      <c r="S13">
-        <f>$B13*'Time Series Scaling Factors'!S14</f>
-        <v>219592180821773.09</v>
-      </c>
-      <c r="T13">
-        <f>$B13*'Time Series Scaling Factors'!T14</f>
-        <v>220005197687207.34</v>
-      </c>
-      <c r="U13">
-        <f>$B13*'Time Series Scaling Factors'!U14</f>
-        <v>220601472853273.03</v>
-      </c>
-      <c r="V13">
-        <f>$B13*'Time Series Scaling Factors'!V14</f>
-        <v>221104494313514.34</v>
-      </c>
-      <c r="W13">
-        <f>$B13*'Time Series Scaling Factors'!W14</f>
-        <v>221857570733355.44</v>
-      </c>
-      <c r="X13">
-        <f>$B13*'Time Series Scaling Factors'!X14</f>
-        <v>222927034613048.06</v>
-      </c>
-      <c r="Y13">
-        <f>$B13*'Time Series Scaling Factors'!Y14</f>
-        <v>223461196903560.06</v>
-      </c>
-      <c r="Z13">
-        <f>$B13*'Time Series Scaling Factors'!Z14</f>
-        <v>224454960716171.66</v>
-      </c>
-      <c r="AA13">
-        <f>$B13*'Time Series Scaling Factors'!AA14</f>
-        <v>225787349410792.75</v>
-      </c>
-      <c r="AB13">
-        <f>$B13*'Time Series Scaling Factors'!AB14</f>
-        <v>226955257134688.28</v>
-      </c>
-      <c r="AC13">
-        <f>$B13*'Time Series Scaling Factors'!AC14</f>
-        <v>228879363800701.34</v>
-      </c>
-      <c r="AD13">
-        <f>$B13*'Time Series Scaling Factors'!AD14</f>
-        <v>230482146045966.38</v>
-      </c>
-      <c r="AE13">
-        <f>$B13*'Time Series Scaling Factors'!AE14</f>
-        <v>232121512437362.56</v>
-      </c>
-      <c r="AF13">
-        <f>$B13*'Time Series Scaling Factors'!AF14</f>
-        <v>234023550466205.44</v>
-      </c>
-      <c r="AG13">
-        <f>$B13*'Time Series Scaling Factors'!AG14</f>
-        <v>236244507729718.53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="29">
-        <f>'Start Year Data'!B38</f>
-        <v>3537592380000000</v>
-      </c>
-      <c r="C14">
-        <f>$B14*'Time Series Scaling Factors'!C15</f>
-        <v>4009102527034906.5</v>
-      </c>
-      <c r="D14">
-        <f>$B14*'Time Series Scaling Factors'!D15</f>
-        <v>4441456293181390.5</v>
-      </c>
-      <c r="E14">
-        <f>$B14*'Time Series Scaling Factors'!E15</f>
-        <v>4706140559394618</v>
-      </c>
-      <c r="F14">
-        <f>$B14*'Time Series Scaling Factors'!F15</f>
-        <v>4827321094754989</v>
-      </c>
-      <c r="G14">
-        <f>$B14*'Time Series Scaling Factors'!G15</f>
-        <v>4943314410430733</v>
-      </c>
-      <c r="H14">
-        <f>$B14*'Time Series Scaling Factors'!H15</f>
-        <v>5008849472077966</v>
-      </c>
-      <c r="I14">
-        <f>$B14*'Time Series Scaling Factors'!I15</f>
-        <v>5081617936973637</v>
-      </c>
-      <c r="J14">
-        <f>$B14*'Time Series Scaling Factors'!J15</f>
-        <v>5117684391436692</v>
-      </c>
-      <c r="K14">
-        <f>$B14*'Time Series Scaling Factors'!K15</f>
-        <v>5151765303298906</v>
-      </c>
-      <c r="L14">
-        <f>$B14*'Time Series Scaling Factors'!L15</f>
-        <v>5177028411353918</v>
-      </c>
-      <c r="M14">
-        <f>$B14*'Time Series Scaling Factors'!M15</f>
-        <v>5211553563163557</v>
-      </c>
-      <c r="N14">
-        <f>$B14*'Time Series Scaling Factors'!N15</f>
-        <v>5271448738985705</v>
-      </c>
-      <c r="O14">
-        <f>$B14*'Time Series Scaling Factors'!O15</f>
-        <v>5309223086082460</v>
-      </c>
-      <c r="P14">
-        <f>$B14*'Time Series Scaling Factors'!P15</f>
-        <v>5360846364898470</v>
-      </c>
-      <c r="Q14">
-        <f>$B14*'Time Series Scaling Factors'!Q15</f>
-        <v>5310012938078537</v>
-      </c>
-      <c r="R14">
-        <f>$B14*'Time Series Scaling Factors'!R15</f>
-        <v>5332837837392247</v>
-      </c>
-      <c r="S14">
-        <f>$B14*'Time Series Scaling Factors'!S15</f>
-        <v>5327910448348514</v>
-      </c>
-      <c r="T14">
-        <f>$B14*'Time Series Scaling Factors'!T15</f>
-        <v>5319535226876994</v>
-      </c>
-      <c r="U14">
-        <f>$B14*'Time Series Scaling Factors'!U15</f>
-        <v>5289038624142834</v>
-      </c>
-      <c r="V14">
-        <f>$B14*'Time Series Scaling Factors'!V15</f>
-        <v>5281977612515783</v>
-      </c>
-      <c r="W14">
-        <f>$B14*'Time Series Scaling Factors'!W15</f>
-        <v>5282341734562243</v>
-      </c>
-      <c r="X14">
-        <f>$B14*'Time Series Scaling Factors'!X15</f>
-        <v>5281814752161922</v>
-      </c>
-      <c r="Y14">
-        <f>$B14*'Time Series Scaling Factors'!Y15</f>
-        <v>5286882347532347</v>
-      </c>
-      <c r="Z14">
-        <f>$B14*'Time Series Scaling Factors'!Z15</f>
-        <v>5249113387673760</v>
-      </c>
-      <c r="AA14">
-        <f>$B14*'Time Series Scaling Factors'!AA15</f>
-        <v>5246352635313915</v>
-      </c>
-      <c r="AB14">
-        <f>$B14*'Time Series Scaling Factors'!AB15</f>
-        <v>5255864978441906</v>
-      </c>
-      <c r="AC14">
-        <f>$B14*'Time Series Scaling Factors'!AC15</f>
-        <v>5266315253548452</v>
-      </c>
-      <c r="AD14">
-        <f>$B14*'Time Series Scaling Factors'!AD15</f>
-        <v>5300602261804184</v>
-      </c>
-      <c r="AE14">
-        <f>$B14*'Time Series Scaling Factors'!AE15</f>
-        <v>5353481872187933</v>
-      </c>
-      <c r="AF14">
-        <f>$B14*'Time Series Scaling Factors'!AF15</f>
-        <v>5420791130938631</v>
-      </c>
-      <c r="AG14">
-        <f>$B14*'Time Series Scaling Factors'!AG15</f>
-        <v>5464956676383496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="29">
-        <f>'Start Year Data'!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f>$B15*'Time Series Scaling Factors'!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f>$B15*'Time Series Scaling Factors'!D16</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>$B15*'Time Series Scaling Factors'!E16</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>$B15*'Time Series Scaling Factors'!F16</f>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f>$B15*'Time Series Scaling Factors'!G16</f>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f>$B15*'Time Series Scaling Factors'!H16</f>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f>$B15*'Time Series Scaling Factors'!I16</f>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f>$B15*'Time Series Scaling Factors'!J16</f>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f>$B15*'Time Series Scaling Factors'!K16</f>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f>$B15*'Time Series Scaling Factors'!L16</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>$B15*'Time Series Scaling Factors'!M16</f>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f>$B15*'Time Series Scaling Factors'!N16</f>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f>$B15*'Time Series Scaling Factors'!O16</f>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f>$B15*'Time Series Scaling Factors'!P16</f>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f>$B15*'Time Series Scaling Factors'!Q16</f>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f>$B15*'Time Series Scaling Factors'!R16</f>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f>$B15*'Time Series Scaling Factors'!S16</f>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f>$B15*'Time Series Scaling Factors'!T16</f>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f>$B15*'Time Series Scaling Factors'!U16</f>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f>$B15*'Time Series Scaling Factors'!V16</f>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f>$B15*'Time Series Scaling Factors'!W16</f>
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <f>$B15*'Time Series Scaling Factors'!X16</f>
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <f>$B15*'Time Series Scaling Factors'!Y16</f>
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <f>$B15*'Time Series Scaling Factors'!Z16</f>
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <f>$B15*'Time Series Scaling Factors'!AA16</f>
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <f>$B15*'Time Series Scaling Factors'!AB16</f>
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <f>$B15*'Time Series Scaling Factors'!AC16</f>
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <f>$B15*'Time Series Scaling Factors'!AD16</f>
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <f>$B15*'Time Series Scaling Factors'!AE16</f>
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <f>$B15*'Time Series Scaling Factors'!AF16</f>
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <f>$B15*'Time Series Scaling Factors'!AG16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="B16" s="29">
-        <f>'Start Year Data'!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f>$B16*'Time Series Scaling Factors'!C17</f>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>$B16*'Time Series Scaling Factors'!D17</f>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f>$B16*'Time Series Scaling Factors'!E17</f>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f>$B16*'Time Series Scaling Factors'!F17</f>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f>$B16*'Time Series Scaling Factors'!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f>$B16*'Time Series Scaling Factors'!H17</f>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f>$B16*'Time Series Scaling Factors'!I17</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>$B16*'Time Series Scaling Factors'!J17</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>$B16*'Time Series Scaling Factors'!K17</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>$B16*'Time Series Scaling Factors'!L17</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>$B16*'Time Series Scaling Factors'!M17</f>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f>$B16*'Time Series Scaling Factors'!N17</f>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f>$B16*'Time Series Scaling Factors'!O17</f>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f>$B16*'Time Series Scaling Factors'!P17</f>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f>$B16*'Time Series Scaling Factors'!Q17</f>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f>$B16*'Time Series Scaling Factors'!R17</f>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f>$B16*'Time Series Scaling Factors'!S17</f>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f>$B16*'Time Series Scaling Factors'!T17</f>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f>$B16*'Time Series Scaling Factors'!U17</f>
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <f>$B16*'Time Series Scaling Factors'!V17</f>
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <f>$B16*'Time Series Scaling Factors'!W17</f>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <f>$B16*'Time Series Scaling Factors'!X17</f>
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <f>$B16*'Time Series Scaling Factors'!Y17</f>
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <f>$B16*'Time Series Scaling Factors'!Z17</f>
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <f>$B16*'Time Series Scaling Factors'!AA17</f>
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <f>$B16*'Time Series Scaling Factors'!AB17</f>
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <f>$B16*'Time Series Scaling Factors'!AC17</f>
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <f>$B16*'Time Series Scaling Factors'!AD17</f>
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <f>$B16*'Time Series Scaling Factors'!AE17</f>
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <f>$B16*'Time Series Scaling Factors'!AF17</f>
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <f>$B16*'Time Series Scaling Factors'!AG17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" s="29">
-        <f>'Start Year Data'!B41</f>
-        <v>906213062527442.13</v>
-      </c>
-      <c r="C17">
-        <f>$B17*'Time Series Scaling Factors'!C18</f>
-        <v>822950355844056.13</v>
-      </c>
-      <c r="D17">
-        <f>$B17*'Time Series Scaling Factors'!D18</f>
-        <v>774407333196149.25</v>
-      </c>
-      <c r="E17">
-        <f>$B17*'Time Series Scaling Factors'!E18</f>
-        <v>761145537247038</v>
-      </c>
-      <c r="F17">
-        <f>$B17*'Time Series Scaling Factors'!F18</f>
-        <v>720261037650919.38</v>
-      </c>
-      <c r="G17">
-        <f>$B17*'Time Series Scaling Factors'!G18</f>
-        <v>698853634313447.88</v>
-      </c>
-      <c r="H17">
-        <f>$B17*'Time Series Scaling Factors'!H18</f>
-        <v>629602515590556.5</v>
-      </c>
-      <c r="I17">
-        <f>$B17*'Time Series Scaling Factors'!I18</f>
-        <v>641822763089227.38</v>
-      </c>
-      <c r="J17">
-        <f>$B17*'Time Series Scaling Factors'!J18</f>
-        <v>638763427373383.25</v>
-      </c>
-      <c r="K17">
-        <f>$B17*'Time Series Scaling Factors'!K18</f>
-        <v>630953650411211.63</v>
-      </c>
-      <c r="L17">
-        <f>$B17*'Time Series Scaling Factors'!L18</f>
-        <v>619881062825938.63</v>
-      </c>
-      <c r="M17">
-        <f>$B17*'Time Series Scaling Factors'!M18</f>
-        <v>608925738757942.75</v>
-      </c>
-      <c r="N17">
-        <f>$B17*'Time Series Scaling Factors'!N18</f>
-        <v>603068973655845.13</v>
-      </c>
-      <c r="O17">
-        <f>$B17*'Time Series Scaling Factors'!O18</f>
-        <v>601558104021222.5</v>
-      </c>
-      <c r="P17">
-        <f>$B17*'Time Series Scaling Factors'!P18</f>
-        <v>600689779695962.75</v>
-      </c>
-      <c r="Q17">
-        <f>$B17*'Time Series Scaling Factors'!Q18</f>
-        <v>600401829646703.38</v>
-      </c>
-      <c r="R17">
-        <f>$B17*'Time Series Scaling Factors'!R18</f>
-        <v>593000538410719</v>
-      </c>
-      <c r="S17">
-        <f>$B17*'Time Series Scaling Factors'!S18</f>
-        <v>592481667380397.75</v>
-      </c>
-      <c r="T17">
-        <f>$B17*'Time Series Scaling Factors'!T18</f>
-        <v>592030777136288.38</v>
-      </c>
-      <c r="U17">
-        <f>$B17*'Time Series Scaling Factors'!U18</f>
-        <v>589286236534593</v>
-      </c>
-      <c r="V17">
-        <f>$B17*'Time Series Scaling Factors'!V18</f>
-        <v>586480192687218.25</v>
-      </c>
-      <c r="W17">
-        <f>$B17*'Time Series Scaling Factors'!W18</f>
-        <v>580593310360580.88</v>
-      </c>
-      <c r="X17">
-        <f>$B17*'Time Series Scaling Factors'!X18</f>
-        <v>576318333945126.88</v>
-      </c>
-      <c r="Y17">
-        <f>$B17*'Time Series Scaling Factors'!Y18</f>
-        <v>574171262984137.13</v>
-      </c>
-      <c r="Z17">
-        <f>$B17*'Time Series Scaling Factors'!Z18</f>
-        <v>572913885554289.13</v>
-      </c>
-      <c r="AA17">
-        <f>$B17*'Time Series Scaling Factors'!AA18</f>
-        <v>570498363944407.38</v>
-      </c>
-      <c r="AB17">
-        <f>$B17*'Time Series Scaling Factors'!AB18</f>
-        <v>567815326588390.88</v>
-      </c>
-      <c r="AC17">
-        <f>$B17*'Time Series Scaling Factors'!AC18</f>
-        <v>568020871637468</v>
-      </c>
-      <c r="AD17">
-        <f>$B17*'Time Series Scaling Factors'!AD18</f>
-        <v>566422855710107.88</v>
-      </c>
-      <c r="AE17">
-        <f>$B17*'Time Series Scaling Factors'!AE18</f>
-        <v>564526338688084.13</v>
-      </c>
-      <c r="AF17">
-        <f>$B17*'Time Series Scaling Factors'!AF18</f>
-        <v>564891818887434</v>
-      </c>
-      <c r="AG17">
-        <f>$B17*'Time Series Scaling Factors'!AG18</f>
-        <v>563104218036639.88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="B18" s="29">
-        <f>'Start Year Data'!B42</f>
-        <v>1.9460537227008E+16</v>
-      </c>
-      <c r="C18">
-        <f>$B18*'Time Series Scaling Factors'!C19</f>
-        <v>2.2054346740269336E+16</v>
-      </c>
-      <c r="D18">
-        <f>$B18*'Time Series Scaling Factors'!D19</f>
-        <v>2.44327543286899E+16</v>
-      </c>
-      <c r="E18">
-        <f>$B18*'Time Series Scaling Factors'!E19</f>
-        <v>2.5888800549607476E+16</v>
-      </c>
-      <c r="F18">
-        <f>$B18*'Time Series Scaling Factors'!F19</f>
-        <v>2.6555422948757164E+16</v>
-      </c>
-      <c r="G18">
-        <f>$B18*'Time Series Scaling Factors'!G19</f>
-        <v>2.7193510098241556E+16</v>
-      </c>
-      <c r="H18">
-        <f>$B18*'Time Series Scaling Factors'!H19</f>
-        <v>2.7554022947056616E+16</v>
-      </c>
-      <c r="I18">
-        <f>$B18*'Time Series Scaling Factors'!I19</f>
-        <v>2.7954327241033648E+16</v>
-      </c>
-      <c r="J18">
-        <f>$B18*'Time Series Scaling Factors'!J19</f>
-        <v>2.8152731269630204E+16</v>
-      </c>
-      <c r="K18">
-        <f>$B18*'Time Series Scaling Factors'!K19</f>
-        <v>2.83402126928079E+16</v>
-      </c>
-      <c r="L18">
-        <f>$B18*'Time Series Scaling Factors'!L19</f>
-        <v>2.8479186775167976E+16</v>
-      </c>
-      <c r="M18">
-        <f>$B18*'Time Series Scaling Factors'!M19</f>
-        <v>2.8669111992628892E+16</v>
-      </c>
-      <c r="N18">
-        <f>$B18*'Time Series Scaling Factors'!N19</f>
-        <v>2.8998599444432228E+16</v>
-      </c>
-      <c r="O18">
-        <f>$B18*'Time Series Scaling Factors'!O19</f>
-        <v>2.9206398707020624E+16</v>
-      </c>
-      <c r="P18">
-        <f>$B18*'Time Series Scaling Factors'!P19</f>
-        <v>2.9490381888593168E+16</v>
-      </c>
-      <c r="Q18">
-        <f>$B18*'Time Series Scaling Factors'!Q19</f>
-        <v>2.9210743736781652E+16</v>
-      </c>
-      <c r="R18">
-        <f>$B18*'Time Series Scaling Factors'!R19</f>
-        <v>2.9336305066376432E+16</v>
-      </c>
-      <c r="S18">
-        <f>$B18*'Time Series Scaling Factors'!S19</f>
-        <v>2.9309199162807768E+16</v>
-      </c>
-      <c r="T18">
-        <f>$B18*'Time Series Scaling Factors'!T19</f>
-        <v>2.9263126497637972E+16</v>
-      </c>
-      <c r="U18">
-        <f>$B18*'Time Series Scaling Factors'!U19</f>
-        <v>2.9095362603708116E+16</v>
-      </c>
-      <c r="V18">
-        <f>$B18*'Time Series Scaling Factors'!V19</f>
-        <v>2.9056519496626184E+16</v>
-      </c>
-      <c r="W18">
-        <f>$B18*'Time Series Scaling Factors'!W19</f>
-        <v>2.9058522556865792E+16</v>
-      </c>
-      <c r="X18">
-        <f>$B18*'Time Series Scaling Factors'!X19</f>
-        <v>2.9055623590699592E+16</v>
-      </c>
-      <c r="Y18">
-        <f>$B18*'Time Series Scaling Factors'!Y19</f>
-        <v>2.9083500778844588E+16</v>
-      </c>
-      <c r="Z18">
-        <f>$B18*'Time Series Scaling Factors'!Z19</f>
-        <v>2.8875731151821196E+16</v>
-      </c>
-      <c r="AA18">
-        <f>$B18*'Time Series Scaling Factors'!AA19</f>
-        <v>2.8860544064587216E+16</v>
-      </c>
-      <c r="AB18">
-        <f>$B18*'Time Series Scaling Factors'!AB19</f>
-        <v>2.8912872113631224E+16</v>
-      </c>
-      <c r="AC18">
-        <f>$B18*'Time Series Scaling Factors'!AC19</f>
-        <v>2.8970359790530676E+16</v>
-      </c>
-      <c r="AD18">
-        <f>$B18*'Time Series Scaling Factors'!AD19</f>
-        <v>2.915897496404126E+16</v>
-      </c>
-      <c r="AE18">
-        <f>$B18*'Time Series Scaling Factors'!AE19</f>
-        <v>2.9449869311349476E+16</v>
-      </c>
-      <c r="AF18">
-        <f>$B18*'Time Series Scaling Factors'!AF19</f>
-        <v>2.982014213957178E+16</v>
-      </c>
-      <c r="AG18">
-        <f>$B18*'Time Series Scaling Factors'!AG19</f>
-        <v>3.0063099820660212E+16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="B19" s="29">
-        <f>'Start Year Data'!B43</f>
-        <v>979835237000000</v>
-      </c>
-      <c r="C19">
-        <f>$B19*'Time Series Scaling Factors'!C20</f>
-        <v>1110433171142953</v>
-      </c>
-      <c r="D19">
-        <f>$B19*'Time Series Scaling Factors'!D20</f>
-        <v>1230185649499428.5</v>
-      </c>
-      <c r="E19">
-        <f>$B19*'Time Series Scaling Factors'!E20</f>
-        <v>1303497366299092.5</v>
-      </c>
-      <c r="F19">
-        <f>$B19*'Time Series Scaling Factors'!F20</f>
-        <v>1337061707757962.3</v>
-      </c>
-      <c r="G19">
-        <f>$B19*'Time Series Scaling Factors'!G20</f>
-        <v>1369189303520015</v>
-      </c>
-      <c r="H19">
-        <f>$B19*'Time Series Scaling Factors'!H20</f>
-        <v>1387341073357592</v>
-      </c>
-      <c r="I19">
-        <f>$B19*'Time Series Scaling Factors'!I20</f>
-        <v>1407496336708531.5</v>
-      </c>
-      <c r="J19">
-        <f>$B19*'Time Series Scaling Factors'!J20</f>
-        <v>1417485950875598.8</v>
-      </c>
-      <c r="K19">
-        <f>$B19*'Time Series Scaling Factors'!K20</f>
-        <v>1426925613438329.5</v>
-      </c>
-      <c r="L19">
-        <f>$B19*'Time Series Scaling Factors'!L20</f>
-        <v>1433922938401031.8</v>
-      </c>
-      <c r="M19">
-        <f>$B19*'Time Series Scaling Factors'!M20</f>
-        <v>1443485645652752.8</v>
-      </c>
-      <c r="N19">
-        <f>$B19*'Time Series Scaling Factors'!N20</f>
-        <v>1460075291234489</v>
-      </c>
-      <c r="O19">
-        <f>$B19*'Time Series Scaling Factors'!O20</f>
-        <v>1470537954075273.8</v>
-      </c>
-      <c r="P19">
-        <f>$B19*'Time Series Scaling Factors'!P20</f>
-        <v>1484836466227033.5</v>
-      </c>
-      <c r="Q19">
-        <f>$B19*'Time Series Scaling Factors'!Q20</f>
-        <v>1470756725695810.5</v>
-      </c>
-      <c r="R19">
-        <f>$B19*'Time Series Scaling Factors'!R20</f>
-        <v>1477078720495152.3</v>
-      </c>
-      <c r="S19">
-        <f>$B19*'Time Series Scaling Factors'!S20</f>
-        <v>1475713942167735.5</v>
-      </c>
-      <c r="T19">
-        <f>$B19*'Time Series Scaling Factors'!T20</f>
-        <v>1473394190134723.3</v>
-      </c>
-      <c r="U19">
-        <f>$B19*'Time Series Scaling Factors'!U20</f>
-        <v>1464947302320101.5</v>
-      </c>
-      <c r="V19">
-        <f>$B19*'Time Series Scaling Factors'!V20</f>
-        <v>1462991557492018.3</v>
-      </c>
-      <c r="W19">
-        <f>$B19*'Time Series Scaling Factors'!W20</f>
-        <v>1463092411285606.3</v>
-      </c>
-      <c r="X19">
-        <f>$B19*'Time Series Scaling Factors'!X20</f>
-        <v>1462946448758088</v>
-      </c>
-      <c r="Y19">
-        <f>$B19*'Time Series Scaling Factors'!Y20</f>
-        <v>1464350061152459.3</v>
-      </c>
-      <c r="Z19">
-        <f>$B19*'Time Series Scaling Factors'!Z20</f>
-        <v>1453888890458089.5</v>
-      </c>
-      <c r="AA19">
-        <f>$B19*'Time Series Scaling Factors'!AA20</f>
-        <v>1453124222810651.8</v>
-      </c>
-      <c r="AB19">
-        <f>$B19*'Time Series Scaling Factors'!AB20</f>
-        <v>1455758932517721.3</v>
-      </c>
-      <c r="AC19">
-        <f>$B19*'Time Series Scaling Factors'!AC20</f>
-        <v>1458653428741658</v>
-      </c>
-      <c r="AD19">
-        <f>$B19*'Time Series Scaling Factors'!AD20</f>
-        <v>1468150175469803.3</v>
-      </c>
-      <c r="AE19">
-        <f>$B19*'Time Series Scaling Factors'!AE20</f>
-        <v>1482796663817572.8</v>
-      </c>
-      <c r="AF19">
-        <f>$B19*'Time Series Scaling Factors'!AF20</f>
-        <v>1501439847207820.8</v>
-      </c>
-      <c r="AG19">
-        <f>$B19*'Time Series Scaling Factors'!AG20</f>
-        <v>1513672731339090.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="B20" s="29">
-        <f>'Start Year Data'!B44</f>
-        <v>3148621106400000</v>
-      </c>
-      <c r="C20">
-        <f>$B20*'Time Series Scaling Factors'!C21</f>
-        <v>3666235964583507</v>
-      </c>
-      <c r="D20">
-        <f>$B20*'Time Series Scaling Factors'!D21</f>
-        <v>3943606321556241</v>
-      </c>
-      <c r="E20">
-        <f>$B20*'Time Series Scaling Factors'!E21</f>
-        <v>4333178851495609</v>
-      </c>
-      <c r="F20">
-        <f>$B20*'Time Series Scaling Factors'!F21</f>
-        <v>4365784399193854</v>
-      </c>
-      <c r="G20">
-        <f>$B20*'Time Series Scaling Factors'!G21</f>
-        <v>4426106045522060.5</v>
-      </c>
-      <c r="H20">
-        <f>$B20*'Time Series Scaling Factors'!H21</f>
-        <v>4474999105425828.5</v>
-      </c>
-      <c r="I20">
-        <f>$B20*'Time Series Scaling Factors'!I21</f>
-        <v>4594208280510221</v>
-      </c>
-      <c r="J20">
-        <f>$B20*'Time Series Scaling Factors'!J21</f>
-        <v>4716183628497076</v>
-      </c>
-      <c r="K20">
-        <f>$B20*'Time Series Scaling Factors'!K21</f>
-        <v>4778032393037987</v>
-      </c>
-      <c r="L20">
-        <f>$B20*'Time Series Scaling Factors'!L21</f>
-        <v>4821148920839232</v>
-      </c>
-      <c r="M20">
-        <f>$B20*'Time Series Scaling Factors'!M21</f>
-        <v>4802790117441398</v>
-      </c>
-      <c r="N20">
-        <f>$B20*'Time Series Scaling Factors'!N21</f>
-        <v>4811756333056280</v>
-      </c>
-      <c r="O20">
-        <f>$B20*'Time Series Scaling Factors'!O21</f>
-        <v>4828755419394643</v>
-      </c>
-      <c r="P20">
-        <f>$B20*'Time Series Scaling Factors'!P21</f>
-        <v>4854861891551188</v>
-      </c>
-      <c r="Q20">
-        <f>$B20*'Time Series Scaling Factors'!Q21</f>
-        <v>4849004758893402</v>
-      </c>
-      <c r="R20">
-        <f>$B20*'Time Series Scaling Factors'!R21</f>
-        <v>4865139654662927</v>
-      </c>
-      <c r="S20">
-        <f>$B20*'Time Series Scaling Factors'!S21</f>
-        <v>4867478978470958</v>
-      </c>
-      <c r="T20">
-        <f>$B20*'Time Series Scaling Factors'!T21</f>
-        <v>4853805499658263</v>
-      </c>
-      <c r="U20">
-        <f>$B20*'Time Series Scaling Factors'!U21</f>
-        <v>4879220905515554</v>
-      </c>
-      <c r="V20">
-        <f>$B20*'Time Series Scaling Factors'!V21</f>
-        <v>4878925211170808</v>
-      </c>
-      <c r="W20">
-        <f>$B20*'Time Series Scaling Factors'!W21</f>
-        <v>4876122791864795</v>
-      </c>
-      <c r="X20">
-        <f>$B20*'Time Series Scaling Factors'!X21</f>
-        <v>4856359440329418</v>
-      </c>
-      <c r="Y20">
-        <f>$B20*'Time Series Scaling Factors'!Y21</f>
-        <v>4867240992216074</v>
-      </c>
-      <c r="Z20">
-        <f>$B20*'Time Series Scaling Factors'!Z21</f>
-        <v>4865482564717560</v>
-      </c>
-      <c r="AA20">
-        <f>$B20*'Time Series Scaling Factors'!AA21</f>
-        <v>4848455339723809</v>
-      </c>
-      <c r="AB20">
-        <f>$B20*'Time Series Scaling Factors'!AB21</f>
-        <v>4862421174396712</v>
-      </c>
-      <c r="AC20">
-        <f>$B20*'Time Series Scaling Factors'!AC21</f>
-        <v>4880430390770838</v>
-      </c>
-      <c r="AD20">
-        <f>$B20*'Time Series Scaling Factors'!AD21</f>
-        <v>4906993758382650</v>
-      </c>
-      <c r="AE20">
-        <f>$B20*'Time Series Scaling Factors'!AE21</f>
-        <v>4945705394299903</v>
-      </c>
-      <c r="AF20">
-        <f>$B20*'Time Series Scaling Factors'!AF21</f>
-        <v>4995956740484053</v>
-      </c>
-      <c r="AG20">
-        <f>$B20*'Time Series Scaling Factors'!AG21</f>
-        <v>5033287674581887</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="B21" s="29">
-        <f>'Start Year Data'!B45</f>
-        <v>3564295858911020.5</v>
-      </c>
-      <c r="C21">
-        <f>$B21*'Time Series Scaling Factors'!C22</f>
-        <v>1936597953138398.8</v>
-      </c>
-      <c r="D21">
-        <f>$B21*'Time Series Scaling Factors'!D22</f>
-        <v>1849843067598722</v>
-      </c>
-      <c r="E21">
-        <f>$B21*'Time Series Scaling Factors'!E22</f>
-        <v>1941973972570115.5</v>
-      </c>
-      <c r="F21">
-        <f>$B21*'Time Series Scaling Factors'!F22</f>
-        <v>2147551448343798.8</v>
-      </c>
-      <c r="G21">
-        <f>$B21*'Time Series Scaling Factors'!G22</f>
-        <v>2214364818813864.3</v>
-      </c>
-      <c r="H21">
-        <f>$B21*'Time Series Scaling Factors'!H22</f>
-        <v>2049135122522799.8</v>
-      </c>
-      <c r="I21">
-        <f>$B21*'Time Series Scaling Factors'!I22</f>
-        <v>1670987422991006.8</v>
-      </c>
-      <c r="J21">
-        <f>$B21*'Time Series Scaling Factors'!J22</f>
-        <v>1563924247224228</v>
-      </c>
-      <c r="K21">
-        <f>$B21*'Time Series Scaling Factors'!K22</f>
-        <v>1601028829937525.8</v>
-      </c>
-      <c r="L21">
-        <f>$B21*'Time Series Scaling Factors'!L22</f>
-        <v>1578316403917828.8</v>
-      </c>
-      <c r="M21">
-        <f>$B21*'Time Series Scaling Factors'!M22</f>
-        <v>1469137990598944.3</v>
-      </c>
-      <c r="N21">
-        <f>$B21*'Time Series Scaling Factors'!N22</f>
-        <v>1452866739262855.5</v>
-      </c>
-      <c r="O21">
-        <f>$B21*'Time Series Scaling Factors'!O22</f>
-        <v>1478925360555004.5</v>
-      </c>
-      <c r="P21">
-        <f>$B21*'Time Series Scaling Factors'!P22</f>
-        <v>1424577321122405.8</v>
-      </c>
-      <c r="Q21">
-        <f>$B21*'Time Series Scaling Factors'!Q22</f>
-        <v>1458054346798601</v>
-      </c>
-      <c r="R21">
-        <f>$B21*'Time Series Scaling Factors'!R22</f>
-        <v>1452972249924599.8</v>
-      </c>
-      <c r="S21">
-        <f>$B21*'Time Series Scaling Factors'!S22</f>
-        <v>1438057564239505</v>
-      </c>
-      <c r="T21">
-        <f>$B21*'Time Series Scaling Factors'!T22</f>
-        <v>1495163953829124.8</v>
-      </c>
-      <c r="U21">
-        <f>$B21*'Time Series Scaling Factors'!U22</f>
-        <v>1494995639202057</v>
-      </c>
-      <c r="V21">
-        <f>$B21*'Time Series Scaling Factors'!V22</f>
-        <v>1496495397893989.3</v>
-      </c>
-      <c r="W21">
-        <f>$B21*'Time Series Scaling Factors'!W22</f>
-        <v>1483118153280021</v>
-      </c>
-      <c r="X21">
-        <f>$B21*'Time Series Scaling Factors'!X22</f>
-        <v>1509573695633016</v>
-      </c>
-      <c r="Y21">
-        <f>$B21*'Time Series Scaling Factors'!Y22</f>
-        <v>1501102696790142.8</v>
-      </c>
-      <c r="Z21">
-        <f>$B21*'Time Series Scaling Factors'!Z22</f>
-        <v>1510292172996320.5</v>
-      </c>
-      <c r="AA21">
-        <f>$B21*'Time Series Scaling Factors'!AA22</f>
-        <v>1515768678772555.3</v>
-      </c>
-      <c r="AB21">
-        <f>$B21*'Time Series Scaling Factors'!AB22</f>
-        <v>1526799567242026.5</v>
-      </c>
-      <c r="AC21">
-        <f>$B21*'Time Series Scaling Factors'!AC22</f>
-        <v>1527967720997049.3</v>
-      </c>
-      <c r="AD21">
-        <f>$B21*'Time Series Scaling Factors'!AD22</f>
-        <v>1538875513694485.8</v>
-      </c>
-      <c r="AE21">
-        <f>$B21*'Time Series Scaling Factors'!AE22</f>
-        <v>1543045696991985.5</v>
-      </c>
-      <c r="AF21">
-        <f>$B21*'Time Series Scaling Factors'!AF22</f>
-        <v>1551280552925241.5</v>
-      </c>
-      <c r="AG21">
-        <f>$B21*'Time Series Scaling Factors'!AG22</f>
-        <v>1539352823830946.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="B22" s="29">
-        <f>'Start Year Data'!B46</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="C22">
-        <f>$B22*'Time Series Scaling Factors'!C23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="D22">
-        <f>$B22*'Time Series Scaling Factors'!D23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="E22">
-        <f>$B22*'Time Series Scaling Factors'!E23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="F22">
-        <f>$B22*'Time Series Scaling Factors'!F23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="G22">
-        <f>$B22*'Time Series Scaling Factors'!G23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="H22">
-        <f>$B22*'Time Series Scaling Factors'!H23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="I22">
-        <f>$B22*'Time Series Scaling Factors'!I23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="J22">
-        <f>$B22*'Time Series Scaling Factors'!J23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="K22">
-        <f>$B22*'Time Series Scaling Factors'!K23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="L22">
-        <f>$B22*'Time Series Scaling Factors'!L23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="M22">
-        <f>$B22*'Time Series Scaling Factors'!M23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="N22">
-        <f>$B22*'Time Series Scaling Factors'!N23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="O22">
-        <f>$B22*'Time Series Scaling Factors'!O23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="P22">
-        <f>$B22*'Time Series Scaling Factors'!P23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="Q22">
-        <f>$B22*'Time Series Scaling Factors'!Q23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="R22">
-        <f>$B22*'Time Series Scaling Factors'!R23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="S22">
-        <f>$B22*'Time Series Scaling Factors'!S23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="T22">
-        <f>$B22*'Time Series Scaling Factors'!T23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="U22">
-        <f>$B22*'Time Series Scaling Factors'!U23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="V22">
-        <f>$B22*'Time Series Scaling Factors'!V23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="W22">
-        <f>$B22*'Time Series Scaling Factors'!W23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="X22">
-        <f>$B22*'Time Series Scaling Factors'!X23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="Y22">
-        <f>$B22*'Time Series Scaling Factors'!Y23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="Z22">
-        <f>$B22*'Time Series Scaling Factors'!Z23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AA22">
-        <f>$B22*'Time Series Scaling Factors'!AA23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AB22">
-        <f>$B22*'Time Series Scaling Factors'!AB23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AC22">
-        <f>$B22*'Time Series Scaling Factors'!AC23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AD22">
-        <f>$B22*'Time Series Scaling Factors'!AD23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AE22">
-        <f>$B22*'Time Series Scaling Factors'!AE23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AF22">
-        <f>$B22*'Time Series Scaling Factors'!AF23</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="AG22">
-        <f>$B22*'Time Series Scaling Factors'!AG23</f>
-        <v>8746500000000000</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -16877,7 +16877,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="237" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C1" s="238">
         <v>2019</v>
@@ -16982,7 +16982,7 @@
         <v>124</v>
       </c>
       <c r="D3" s="256" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E3" s="256"/>
       <c r="F3" s="256"/>
@@ -16993,12 +16993,12 @@
         <v>125</v>
       </c>
       <c r="D4" s="256" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E4" s="256"/>
       <c r="F4" s="256"/>
       <c r="G4" s="256" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17006,7 +17006,7 @@
         <v>127</v>
       </c>
       <c r="D5" s="256" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E5" s="256"/>
       <c r="F5" s="256"/>
@@ -17018,7 +17018,7 @@
       </c>
       <c r="D6" s="256"/>
       <c r="E6" s="256" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F6" s="256"/>
       <c r="G6" s="256"/>
@@ -17137,7 +17137,7 @@
         <v>132</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20370,7 +20370,7 @@
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="245" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22042,17 +22042,17 @@
     </row>
     <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="254" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="254" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="254" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -22084,7 +22084,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="237" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C1" s="238">
         <v>2020</v>
@@ -22186,7 +22186,7 @@
         <v>124</v>
       </c>
       <c r="D3" s="239" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E3" s="240"/>
       <c r="F3" s="240"/>
@@ -22198,7 +22198,7 @@
         <v>125</v>
       </c>
       <c r="D4" s="239" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E4" s="240"/>
       <c r="F4" s="240"/>
@@ -22212,7 +22212,7 @@
         <v>127</v>
       </c>
       <c r="D5" s="239" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E5" s="240"/>
       <c r="F5" s="240"/>
@@ -22225,7 +22225,7 @@
       </c>
       <c r="D6" s="240"/>
       <c r="E6" s="239" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F6" s="240"/>
       <c r="G6" s="240"/>
@@ -22236,10 +22236,10 @@
         <v>301</v>
       </c>
       <c r="B10" s="242" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AH10" s="243" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22247,7 +22247,7 @@
         <v>302</v>
       </c>
       <c r="AH11" s="243" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22284,7 +22284,7 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="243" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22383,7 +22383,7 @@
         <v>2050</v>
       </c>
       <c r="AH13" s="244" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -28029,12 +28029,12 @@
     </row>
     <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="245" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="245" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
@@ -28042,7 +28042,7 @@
         <v>412</v>
       </c>
       <c r="B78" s="246" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C78" s="251">
         <v>3412</v>
@@ -28143,10 +28143,10 @@
     </row>
     <row r="79" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="241" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B79" s="246" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C79" s="251">
         <v>8813.9736329999996</v>
@@ -28246,909 +28246,924 @@
       </c>
     </row>
     <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="261" t="s">
-        <v>663</v>
-      </c>
-      <c r="C80" s="262"/>
-      <c r="D80" s="262"/>
-      <c r="E80" s="262"/>
-      <c r="F80" s="262"/>
-      <c r="G80" s="262"/>
-      <c r="H80" s="262"/>
-      <c r="I80" s="262"/>
-      <c r="J80" s="262"/>
-      <c r="K80" s="262"/>
-      <c r="L80" s="262"/>
-      <c r="M80" s="262"/>
-      <c r="N80" s="262"/>
-      <c r="O80" s="262"/>
-      <c r="P80" s="262"/>
-      <c r="Q80" s="262"/>
-      <c r="R80" s="262"/>
-      <c r="S80" s="262"/>
-      <c r="T80" s="262"/>
-      <c r="U80" s="262"/>
-      <c r="V80" s="262"/>
-      <c r="W80" s="262"/>
-      <c r="X80" s="262"/>
-      <c r="Y80" s="262"/>
-      <c r="Z80" s="262"/>
-      <c r="AA80" s="262"/>
-      <c r="AB80" s="262"/>
-      <c r="AC80" s="262"/>
-      <c r="AD80" s="262"/>
-      <c r="AE80" s="262"/>
-      <c r="AF80" s="262"/>
-      <c r="AG80" s="262"/>
+      <c r="B80" s="262" t="s">
+        <v>664</v>
+      </c>
+      <c r="C80" s="263"/>
+      <c r="D80" s="263"/>
+      <c r="E80" s="263"/>
+      <c r="F80" s="263"/>
+      <c r="G80" s="263"/>
+      <c r="H80" s="263"/>
+      <c r="I80" s="263"/>
+      <c r="J80" s="263"/>
+      <c r="K80" s="263"/>
+      <c r="L80" s="263"/>
+      <c r="M80" s="263"/>
+      <c r="N80" s="263"/>
+      <c r="O80" s="263"/>
+      <c r="P80" s="263"/>
+      <c r="Q80" s="263"/>
+      <c r="R80" s="263"/>
+      <c r="S80" s="263"/>
+      <c r="T80" s="263"/>
+      <c r="U80" s="263"/>
+      <c r="V80" s="263"/>
+      <c r="W80" s="263"/>
+      <c r="X80" s="263"/>
+      <c r="Y80" s="263"/>
+      <c r="Z80" s="263"/>
+      <c r="AA80" s="263"/>
+      <c r="AB80" s="263"/>
+      <c r="AC80" s="263"/>
+      <c r="AD80" s="263"/>
+      <c r="AE80" s="263"/>
+      <c r="AF80" s="263"/>
+      <c r="AG80" s="263"/>
       <c r="AH80" s="253"/>
     </row>
     <row r="81" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="254" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="82" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="254" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="254" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B84" s="254" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="85" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="254" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="88" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="263"/>
-      <c r="C88" s="263"/>
-      <c r="D88" s="263"/>
-      <c r="E88" s="263"/>
-      <c r="F88" s="263"/>
-      <c r="G88" s="263"/>
-      <c r="H88" s="263"/>
-      <c r="I88" s="263"/>
-      <c r="J88" s="263"/>
-      <c r="K88" s="263"/>
-      <c r="L88" s="263"/>
-      <c r="M88" s="263"/>
-      <c r="N88" s="263"/>
-      <c r="O88" s="263"/>
-      <c r="P88" s="263"/>
-      <c r="Q88" s="263"/>
-      <c r="R88" s="263"/>
-      <c r="S88" s="263"/>
-      <c r="T88" s="263"/>
-      <c r="U88" s="263"/>
-      <c r="V88" s="263"/>
-      <c r="W88" s="263"/>
-      <c r="X88" s="263"/>
-      <c r="Y88" s="263"/>
-      <c r="Z88" s="263"/>
-      <c r="AA88" s="263"/>
-      <c r="AB88" s="263"/>
-      <c r="AC88" s="263"/>
-      <c r="AD88" s="263"/>
-      <c r="AE88" s="263"/>
-      <c r="AF88" s="263"/>
-      <c r="AG88" s="263"/>
-      <c r="AH88" s="263"/>
+      <c r="B88" s="261"/>
+      <c r="C88" s="261"/>
+      <c r="D88" s="261"/>
+      <c r="E88" s="261"/>
+      <c r="F88" s="261"/>
+      <c r="G88" s="261"/>
+      <c r="H88" s="261"/>
+      <c r="I88" s="261"/>
+      <c r="J88" s="261"/>
+      <c r="K88" s="261"/>
+      <c r="L88" s="261"/>
+      <c r="M88" s="261"/>
+      <c r="N88" s="261"/>
+      <c r="O88" s="261"/>
+      <c r="P88" s="261"/>
+      <c r="Q88" s="261"/>
+      <c r="R88" s="261"/>
+      <c r="S88" s="261"/>
+      <c r="T88" s="261"/>
+      <c r="U88" s="261"/>
+      <c r="V88" s="261"/>
+      <c r="W88" s="261"/>
+      <c r="X88" s="261"/>
+      <c r="Y88" s="261"/>
+      <c r="Z88" s="261"/>
+      <c r="AA88" s="261"/>
+      <c r="AB88" s="261"/>
+      <c r="AC88" s="261"/>
+      <c r="AD88" s="261"/>
+      <c r="AE88" s="261"/>
+      <c r="AF88" s="261"/>
+      <c r="AG88" s="261"/>
+      <c r="AH88" s="261"/>
     </row>
     <row r="213" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="263"/>
-      <c r="C213" s="263"/>
-      <c r="D213" s="263"/>
-      <c r="E213" s="263"/>
-      <c r="F213" s="263"/>
-      <c r="G213" s="263"/>
-      <c r="H213" s="263"/>
-      <c r="I213" s="263"/>
-      <c r="J213" s="263"/>
-      <c r="K213" s="263"/>
-      <c r="L213" s="263"/>
-      <c r="M213" s="263"/>
-      <c r="N213" s="263"/>
-      <c r="O213" s="263"/>
-      <c r="P213" s="263"/>
-      <c r="Q213" s="263"/>
-      <c r="R213" s="263"/>
-      <c r="S213" s="263"/>
-      <c r="T213" s="263"/>
-      <c r="U213" s="263"/>
-      <c r="V213" s="263"/>
-      <c r="W213" s="263"/>
-      <c r="X213" s="263"/>
-      <c r="Y213" s="263"/>
-      <c r="Z213" s="263"/>
-      <c r="AA213" s="263"/>
-      <c r="AB213" s="263"/>
-      <c r="AC213" s="263"/>
-      <c r="AD213" s="263"/>
-      <c r="AE213" s="263"/>
-      <c r="AF213" s="263"/>
-      <c r="AG213" s="263"/>
-      <c r="AH213" s="263"/>
+      <c r="B213" s="261"/>
+      <c r="C213" s="261"/>
+      <c r="D213" s="261"/>
+      <c r="E213" s="261"/>
+      <c r="F213" s="261"/>
+      <c r="G213" s="261"/>
+      <c r="H213" s="261"/>
+      <c r="I213" s="261"/>
+      <c r="J213" s="261"/>
+      <c r="K213" s="261"/>
+      <c r="L213" s="261"/>
+      <c r="M213" s="261"/>
+      <c r="N213" s="261"/>
+      <c r="O213" s="261"/>
+      <c r="P213" s="261"/>
+      <c r="Q213" s="261"/>
+      <c r="R213" s="261"/>
+      <c r="S213" s="261"/>
+      <c r="T213" s="261"/>
+      <c r="U213" s="261"/>
+      <c r="V213" s="261"/>
+      <c r="W213" s="261"/>
+      <c r="X213" s="261"/>
+      <c r="Y213" s="261"/>
+      <c r="Z213" s="261"/>
+      <c r="AA213" s="261"/>
+      <c r="AB213" s="261"/>
+      <c r="AC213" s="261"/>
+      <c r="AD213" s="261"/>
+      <c r="AE213" s="261"/>
+      <c r="AF213" s="261"/>
+      <c r="AG213" s="261"/>
+      <c r="AH213" s="261"/>
     </row>
     <row r="379" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="263"/>
-      <c r="C379" s="263"/>
-      <c r="D379" s="263"/>
-      <c r="E379" s="263"/>
-      <c r="F379" s="263"/>
-      <c r="G379" s="263"/>
-      <c r="H379" s="263"/>
-      <c r="I379" s="263"/>
-      <c r="J379" s="263"/>
-      <c r="K379" s="263"/>
-      <c r="L379" s="263"/>
-      <c r="M379" s="263"/>
-      <c r="N379" s="263"/>
-      <c r="O379" s="263"/>
-      <c r="P379" s="263"/>
-      <c r="Q379" s="263"/>
-      <c r="R379" s="263"/>
-      <c r="S379" s="263"/>
-      <c r="T379" s="263"/>
-      <c r="U379" s="263"/>
-      <c r="V379" s="263"/>
-      <c r="W379" s="263"/>
-      <c r="X379" s="263"/>
-      <c r="Y379" s="263"/>
-      <c r="Z379" s="263"/>
-      <c r="AA379" s="263"/>
-      <c r="AB379" s="263"/>
-      <c r="AC379" s="263"/>
-      <c r="AD379" s="263"/>
-      <c r="AE379" s="263"/>
-      <c r="AF379" s="263"/>
-      <c r="AG379" s="263"/>
-      <c r="AH379" s="263"/>
+      <c r="B379" s="261"/>
+      <c r="C379" s="261"/>
+      <c r="D379" s="261"/>
+      <c r="E379" s="261"/>
+      <c r="F379" s="261"/>
+      <c r="G379" s="261"/>
+      <c r="H379" s="261"/>
+      <c r="I379" s="261"/>
+      <c r="J379" s="261"/>
+      <c r="K379" s="261"/>
+      <c r="L379" s="261"/>
+      <c r="M379" s="261"/>
+      <c r="N379" s="261"/>
+      <c r="O379" s="261"/>
+      <c r="P379" s="261"/>
+      <c r="Q379" s="261"/>
+      <c r="R379" s="261"/>
+      <c r="S379" s="261"/>
+      <c r="T379" s="261"/>
+      <c r="U379" s="261"/>
+      <c r="V379" s="261"/>
+      <c r="W379" s="261"/>
+      <c r="X379" s="261"/>
+      <c r="Y379" s="261"/>
+      <c r="Z379" s="261"/>
+      <c r="AA379" s="261"/>
+      <c r="AB379" s="261"/>
+      <c r="AC379" s="261"/>
+      <c r="AD379" s="261"/>
+      <c r="AE379" s="261"/>
+      <c r="AF379" s="261"/>
+      <c r="AG379" s="261"/>
+      <c r="AH379" s="261"/>
     </row>
     <row r="496" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B496" s="263"/>
-      <c r="C496" s="263"/>
-      <c r="D496" s="263"/>
-      <c r="E496" s="263"/>
-      <c r="F496" s="263"/>
-      <c r="G496" s="263"/>
-      <c r="H496" s="263"/>
-      <c r="I496" s="263"/>
-      <c r="J496" s="263"/>
-      <c r="K496" s="263"/>
-      <c r="L496" s="263"/>
-      <c r="M496" s="263"/>
-      <c r="N496" s="263"/>
-      <c r="O496" s="263"/>
-      <c r="P496" s="263"/>
-      <c r="Q496" s="263"/>
-      <c r="R496" s="263"/>
-      <c r="S496" s="263"/>
-      <c r="T496" s="263"/>
-      <c r="U496" s="263"/>
-      <c r="V496" s="263"/>
-      <c r="W496" s="263"/>
-      <c r="X496" s="263"/>
-      <c r="Y496" s="263"/>
-      <c r="Z496" s="263"/>
-      <c r="AA496" s="263"/>
-      <c r="AB496" s="263"/>
-      <c r="AC496" s="263"/>
-      <c r="AD496" s="263"/>
-      <c r="AE496" s="263"/>
-      <c r="AF496" s="263"/>
-      <c r="AG496" s="263"/>
-      <c r="AH496" s="263"/>
+      <c r="B496" s="261"/>
+      <c r="C496" s="261"/>
+      <c r="D496" s="261"/>
+      <c r="E496" s="261"/>
+      <c r="F496" s="261"/>
+      <c r="G496" s="261"/>
+      <c r="H496" s="261"/>
+      <c r="I496" s="261"/>
+      <c r="J496" s="261"/>
+      <c r="K496" s="261"/>
+      <c r="L496" s="261"/>
+      <c r="M496" s="261"/>
+      <c r="N496" s="261"/>
+      <c r="O496" s="261"/>
+      <c r="P496" s="261"/>
+      <c r="Q496" s="261"/>
+      <c r="R496" s="261"/>
+      <c r="S496" s="261"/>
+      <c r="T496" s="261"/>
+      <c r="U496" s="261"/>
+      <c r="V496" s="261"/>
+      <c r="W496" s="261"/>
+      <c r="X496" s="261"/>
+      <c r="Y496" s="261"/>
+      <c r="Z496" s="261"/>
+      <c r="AA496" s="261"/>
+      <c r="AB496" s="261"/>
+      <c r="AC496" s="261"/>
+      <c r="AD496" s="261"/>
+      <c r="AE496" s="261"/>
+      <c r="AF496" s="261"/>
+      <c r="AG496" s="261"/>
+      <c r="AH496" s="261"/>
     </row>
     <row r="648" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B648" s="263"/>
-      <c r="C648" s="263"/>
-      <c r="D648" s="263"/>
-      <c r="E648" s="263"/>
-      <c r="F648" s="263"/>
-      <c r="G648" s="263"/>
-      <c r="H648" s="263"/>
-      <c r="I648" s="263"/>
-      <c r="J648" s="263"/>
-      <c r="K648" s="263"/>
-      <c r="L648" s="263"/>
-      <c r="M648" s="263"/>
-      <c r="N648" s="263"/>
-      <c r="O648" s="263"/>
-      <c r="P648" s="263"/>
-      <c r="Q648" s="263"/>
-      <c r="R648" s="263"/>
-      <c r="S648" s="263"/>
-      <c r="T648" s="263"/>
-      <c r="U648" s="263"/>
-      <c r="V648" s="263"/>
-      <c r="W648" s="263"/>
-      <c r="X648" s="263"/>
-      <c r="Y648" s="263"/>
-      <c r="Z648" s="263"/>
-      <c r="AA648" s="263"/>
-      <c r="AB648" s="263"/>
-      <c r="AC648" s="263"/>
-      <c r="AD648" s="263"/>
-      <c r="AE648" s="263"/>
-      <c r="AF648" s="263"/>
-      <c r="AG648" s="263"/>
-      <c r="AH648" s="263"/>
+      <c r="B648" s="261"/>
+      <c r="C648" s="261"/>
+      <c r="D648" s="261"/>
+      <c r="E648" s="261"/>
+      <c r="F648" s="261"/>
+      <c r="G648" s="261"/>
+      <c r="H648" s="261"/>
+      <c r="I648" s="261"/>
+      <c r="J648" s="261"/>
+      <c r="K648" s="261"/>
+      <c r="L648" s="261"/>
+      <c r="M648" s="261"/>
+      <c r="N648" s="261"/>
+      <c r="O648" s="261"/>
+      <c r="P648" s="261"/>
+      <c r="Q648" s="261"/>
+      <c r="R648" s="261"/>
+      <c r="S648" s="261"/>
+      <c r="T648" s="261"/>
+      <c r="U648" s="261"/>
+      <c r="V648" s="261"/>
+      <c r="W648" s="261"/>
+      <c r="X648" s="261"/>
+      <c r="Y648" s="261"/>
+      <c r="Z648" s="261"/>
+      <c r="AA648" s="261"/>
+      <c r="AB648" s="261"/>
+      <c r="AC648" s="261"/>
+      <c r="AD648" s="261"/>
+      <c r="AE648" s="261"/>
+      <c r="AF648" s="261"/>
+      <c r="AG648" s="261"/>
+      <c r="AH648" s="261"/>
     </row>
     <row r="748" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B748" s="263"/>
-      <c r="C748" s="263"/>
-      <c r="D748" s="263"/>
-      <c r="E748" s="263"/>
-      <c r="F748" s="263"/>
-      <c r="G748" s="263"/>
-      <c r="H748" s="263"/>
-      <c r="I748" s="263"/>
-      <c r="J748" s="263"/>
-      <c r="K748" s="263"/>
-      <c r="L748" s="263"/>
-      <c r="M748" s="263"/>
-      <c r="N748" s="263"/>
-      <c r="O748" s="263"/>
-      <c r="P748" s="263"/>
-      <c r="Q748" s="263"/>
-      <c r="R748" s="263"/>
-      <c r="S748" s="263"/>
-      <c r="T748" s="263"/>
-      <c r="U748" s="263"/>
-      <c r="V748" s="263"/>
-      <c r="W748" s="263"/>
-      <c r="X748" s="263"/>
-      <c r="Y748" s="263"/>
-      <c r="Z748" s="263"/>
-      <c r="AA748" s="263"/>
-      <c r="AB748" s="263"/>
-      <c r="AC748" s="263"/>
-      <c r="AD748" s="263"/>
-      <c r="AE748" s="263"/>
-      <c r="AF748" s="263"/>
-      <c r="AG748" s="263"/>
-      <c r="AH748" s="263"/>
+      <c r="B748" s="261"/>
+      <c r="C748" s="261"/>
+      <c r="D748" s="261"/>
+      <c r="E748" s="261"/>
+      <c r="F748" s="261"/>
+      <c r="G748" s="261"/>
+      <c r="H748" s="261"/>
+      <c r="I748" s="261"/>
+      <c r="J748" s="261"/>
+      <c r="K748" s="261"/>
+      <c r="L748" s="261"/>
+      <c r="M748" s="261"/>
+      <c r="N748" s="261"/>
+      <c r="O748" s="261"/>
+      <c r="P748" s="261"/>
+      <c r="Q748" s="261"/>
+      <c r="R748" s="261"/>
+      <c r="S748" s="261"/>
+      <c r="T748" s="261"/>
+      <c r="U748" s="261"/>
+      <c r="V748" s="261"/>
+      <c r="W748" s="261"/>
+      <c r="X748" s="261"/>
+      <c r="Y748" s="261"/>
+      <c r="Z748" s="261"/>
+      <c r="AA748" s="261"/>
+      <c r="AB748" s="261"/>
+      <c r="AC748" s="261"/>
+      <c r="AD748" s="261"/>
+      <c r="AE748" s="261"/>
+      <c r="AF748" s="261"/>
+      <c r="AG748" s="261"/>
+      <c r="AH748" s="261"/>
     </row>
     <row r="839" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B839" s="263"/>
-      <c r="C839" s="263"/>
-      <c r="D839" s="263"/>
-      <c r="E839" s="263"/>
-      <c r="F839" s="263"/>
-      <c r="G839" s="263"/>
-      <c r="H839" s="263"/>
-      <c r="I839" s="263"/>
-      <c r="J839" s="263"/>
-      <c r="K839" s="263"/>
-      <c r="L839" s="263"/>
-      <c r="M839" s="263"/>
-      <c r="N839" s="263"/>
-      <c r="O839" s="263"/>
-      <c r="P839" s="263"/>
-      <c r="Q839" s="263"/>
-      <c r="R839" s="263"/>
-      <c r="S839" s="263"/>
-      <c r="T839" s="263"/>
-      <c r="U839" s="263"/>
-      <c r="V839" s="263"/>
-      <c r="W839" s="263"/>
-      <c r="X839" s="263"/>
-      <c r="Y839" s="263"/>
-      <c r="Z839" s="263"/>
-      <c r="AA839" s="263"/>
-      <c r="AB839" s="263"/>
-      <c r="AC839" s="263"/>
-      <c r="AD839" s="263"/>
-      <c r="AE839" s="263"/>
-      <c r="AF839" s="263"/>
-      <c r="AG839" s="263"/>
-      <c r="AH839" s="263"/>
+      <c r="B839" s="261"/>
+      <c r="C839" s="261"/>
+      <c r="D839" s="261"/>
+      <c r="E839" s="261"/>
+      <c r="F839" s="261"/>
+      <c r="G839" s="261"/>
+      <c r="H839" s="261"/>
+      <c r="I839" s="261"/>
+      <c r="J839" s="261"/>
+      <c r="K839" s="261"/>
+      <c r="L839" s="261"/>
+      <c r="M839" s="261"/>
+      <c r="N839" s="261"/>
+      <c r="O839" s="261"/>
+      <c r="P839" s="261"/>
+      <c r="Q839" s="261"/>
+      <c r="R839" s="261"/>
+      <c r="S839" s="261"/>
+      <c r="T839" s="261"/>
+      <c r="U839" s="261"/>
+      <c r="V839" s="261"/>
+      <c r="W839" s="261"/>
+      <c r="X839" s="261"/>
+      <c r="Y839" s="261"/>
+      <c r="Z839" s="261"/>
+      <c r="AA839" s="261"/>
+      <c r="AB839" s="261"/>
+      <c r="AC839" s="261"/>
+      <c r="AD839" s="261"/>
+      <c r="AE839" s="261"/>
+      <c r="AF839" s="261"/>
+      <c r="AG839" s="261"/>
+      <c r="AH839" s="261"/>
     </row>
     <row r="910" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B910" s="263"/>
-      <c r="C910" s="263"/>
-      <c r="D910" s="263"/>
-      <c r="E910" s="263"/>
-      <c r="F910" s="263"/>
-      <c r="G910" s="263"/>
-      <c r="H910" s="263"/>
-      <c r="I910" s="263"/>
-      <c r="J910" s="263"/>
-      <c r="K910" s="263"/>
-      <c r="L910" s="263"/>
-      <c r="M910" s="263"/>
-      <c r="N910" s="263"/>
-      <c r="O910" s="263"/>
-      <c r="P910" s="263"/>
-      <c r="Q910" s="263"/>
-      <c r="R910" s="263"/>
-      <c r="S910" s="263"/>
-      <c r="T910" s="263"/>
-      <c r="U910" s="263"/>
-      <c r="V910" s="263"/>
-      <c r="W910" s="263"/>
-      <c r="X910" s="263"/>
-      <c r="Y910" s="263"/>
-      <c r="Z910" s="263"/>
-      <c r="AA910" s="263"/>
-      <c r="AB910" s="263"/>
-      <c r="AC910" s="263"/>
-      <c r="AD910" s="263"/>
-      <c r="AE910" s="263"/>
-      <c r="AF910" s="263"/>
-      <c r="AG910" s="263"/>
-      <c r="AH910" s="263"/>
+      <c r="B910" s="261"/>
+      <c r="C910" s="261"/>
+      <c r="D910" s="261"/>
+      <c r="E910" s="261"/>
+      <c r="F910" s="261"/>
+      <c r="G910" s="261"/>
+      <c r="H910" s="261"/>
+      <c r="I910" s="261"/>
+      <c r="J910" s="261"/>
+      <c r="K910" s="261"/>
+      <c r="L910" s="261"/>
+      <c r="M910" s="261"/>
+      <c r="N910" s="261"/>
+      <c r="O910" s="261"/>
+      <c r="P910" s="261"/>
+      <c r="Q910" s="261"/>
+      <c r="R910" s="261"/>
+      <c r="S910" s="261"/>
+      <c r="T910" s="261"/>
+      <c r="U910" s="261"/>
+      <c r="V910" s="261"/>
+      <c r="W910" s="261"/>
+      <c r="X910" s="261"/>
+      <c r="Y910" s="261"/>
+      <c r="Z910" s="261"/>
+      <c r="AA910" s="261"/>
+      <c r="AB910" s="261"/>
+      <c r="AC910" s="261"/>
+      <c r="AD910" s="261"/>
+      <c r="AE910" s="261"/>
+      <c r="AF910" s="261"/>
+      <c r="AG910" s="261"/>
+      <c r="AH910" s="261"/>
     </row>
     <row r="1005" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1005" s="263"/>
-      <c r="C1005" s="263"/>
-      <c r="D1005" s="263"/>
-      <c r="E1005" s="263"/>
-      <c r="F1005" s="263"/>
-      <c r="G1005" s="263"/>
-      <c r="H1005" s="263"/>
-      <c r="I1005" s="263"/>
-      <c r="J1005" s="263"/>
-      <c r="K1005" s="263"/>
-      <c r="L1005" s="263"/>
-      <c r="M1005" s="263"/>
-      <c r="N1005" s="263"/>
-      <c r="O1005" s="263"/>
-      <c r="P1005" s="263"/>
-      <c r="Q1005" s="263"/>
-      <c r="R1005" s="263"/>
-      <c r="S1005" s="263"/>
-      <c r="T1005" s="263"/>
-      <c r="U1005" s="263"/>
-      <c r="V1005" s="263"/>
-      <c r="W1005" s="263"/>
-      <c r="X1005" s="263"/>
-      <c r="Y1005" s="263"/>
-      <c r="Z1005" s="263"/>
-      <c r="AA1005" s="263"/>
-      <c r="AB1005" s="263"/>
-      <c r="AC1005" s="263"/>
-      <c r="AD1005" s="263"/>
-      <c r="AE1005" s="263"/>
-      <c r="AF1005" s="263"/>
-      <c r="AG1005" s="263"/>
-      <c r="AH1005" s="263"/>
+      <c r="B1005" s="261"/>
+      <c r="C1005" s="261"/>
+      <c r="D1005" s="261"/>
+      <c r="E1005" s="261"/>
+      <c r="F1005" s="261"/>
+      <c r="G1005" s="261"/>
+      <c r="H1005" s="261"/>
+      <c r="I1005" s="261"/>
+      <c r="J1005" s="261"/>
+      <c r="K1005" s="261"/>
+      <c r="L1005" s="261"/>
+      <c r="M1005" s="261"/>
+      <c r="N1005" s="261"/>
+      <c r="O1005" s="261"/>
+      <c r="P1005" s="261"/>
+      <c r="Q1005" s="261"/>
+      <c r="R1005" s="261"/>
+      <c r="S1005" s="261"/>
+      <c r="T1005" s="261"/>
+      <c r="U1005" s="261"/>
+      <c r="V1005" s="261"/>
+      <c r="W1005" s="261"/>
+      <c r="X1005" s="261"/>
+      <c r="Y1005" s="261"/>
+      <c r="Z1005" s="261"/>
+      <c r="AA1005" s="261"/>
+      <c r="AB1005" s="261"/>
+      <c r="AC1005" s="261"/>
+      <c r="AD1005" s="261"/>
+      <c r="AE1005" s="261"/>
+      <c r="AF1005" s="261"/>
+      <c r="AG1005" s="261"/>
+      <c r="AH1005" s="261"/>
     </row>
     <row r="1105" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1105" s="263"/>
-      <c r="C1105" s="263"/>
-      <c r="D1105" s="263"/>
-      <c r="E1105" s="263"/>
-      <c r="F1105" s="263"/>
-      <c r="G1105" s="263"/>
-      <c r="H1105" s="263"/>
-      <c r="I1105" s="263"/>
-      <c r="J1105" s="263"/>
-      <c r="K1105" s="263"/>
-      <c r="L1105" s="263"/>
-      <c r="M1105" s="263"/>
-      <c r="N1105" s="263"/>
-      <c r="O1105" s="263"/>
-      <c r="P1105" s="263"/>
-      <c r="Q1105" s="263"/>
-      <c r="R1105" s="263"/>
-      <c r="S1105" s="263"/>
-      <c r="T1105" s="263"/>
-      <c r="U1105" s="263"/>
-      <c r="V1105" s="263"/>
-      <c r="W1105" s="263"/>
-      <c r="X1105" s="263"/>
-      <c r="Y1105" s="263"/>
-      <c r="Z1105" s="263"/>
-      <c r="AA1105" s="263"/>
-      <c r="AB1105" s="263"/>
-      <c r="AC1105" s="263"/>
-      <c r="AD1105" s="263"/>
-      <c r="AE1105" s="263"/>
-      <c r="AF1105" s="263"/>
-      <c r="AG1105" s="263"/>
-      <c r="AH1105" s="263"/>
+      <c r="B1105" s="261"/>
+      <c r="C1105" s="261"/>
+      <c r="D1105" s="261"/>
+      <c r="E1105" s="261"/>
+      <c r="F1105" s="261"/>
+      <c r="G1105" s="261"/>
+      <c r="H1105" s="261"/>
+      <c r="I1105" s="261"/>
+      <c r="J1105" s="261"/>
+      <c r="K1105" s="261"/>
+      <c r="L1105" s="261"/>
+      <c r="M1105" s="261"/>
+      <c r="N1105" s="261"/>
+      <c r="O1105" s="261"/>
+      <c r="P1105" s="261"/>
+      <c r="Q1105" s="261"/>
+      <c r="R1105" s="261"/>
+      <c r="S1105" s="261"/>
+      <c r="T1105" s="261"/>
+      <c r="U1105" s="261"/>
+      <c r="V1105" s="261"/>
+      <c r="W1105" s="261"/>
+      <c r="X1105" s="261"/>
+      <c r="Y1105" s="261"/>
+      <c r="Z1105" s="261"/>
+      <c r="AA1105" s="261"/>
+      <c r="AB1105" s="261"/>
+      <c r="AC1105" s="261"/>
+      <c r="AD1105" s="261"/>
+      <c r="AE1105" s="261"/>
+      <c r="AF1105" s="261"/>
+      <c r="AG1105" s="261"/>
+      <c r="AH1105" s="261"/>
     </row>
     <row r="1180" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1180" s="263"/>
-      <c r="C1180" s="263"/>
-      <c r="D1180" s="263"/>
-      <c r="E1180" s="263"/>
-      <c r="F1180" s="263"/>
-      <c r="G1180" s="263"/>
-      <c r="H1180" s="263"/>
-      <c r="I1180" s="263"/>
-      <c r="J1180" s="263"/>
-      <c r="K1180" s="263"/>
-      <c r="L1180" s="263"/>
-      <c r="M1180" s="263"/>
-      <c r="N1180" s="263"/>
-      <c r="O1180" s="263"/>
-      <c r="P1180" s="263"/>
-      <c r="Q1180" s="263"/>
-      <c r="R1180" s="263"/>
-      <c r="S1180" s="263"/>
-      <c r="T1180" s="263"/>
-      <c r="U1180" s="263"/>
-      <c r="V1180" s="263"/>
-      <c r="W1180" s="263"/>
-      <c r="X1180" s="263"/>
-      <c r="Y1180" s="263"/>
-      <c r="Z1180" s="263"/>
-      <c r="AA1180" s="263"/>
-      <c r="AB1180" s="263"/>
-      <c r="AC1180" s="263"/>
-      <c r="AD1180" s="263"/>
-      <c r="AE1180" s="263"/>
-      <c r="AF1180" s="263"/>
-      <c r="AG1180" s="263"/>
-      <c r="AH1180" s="263"/>
+      <c r="B1180" s="261"/>
+      <c r="C1180" s="261"/>
+      <c r="D1180" s="261"/>
+      <c r="E1180" s="261"/>
+      <c r="F1180" s="261"/>
+      <c r="G1180" s="261"/>
+      <c r="H1180" s="261"/>
+      <c r="I1180" s="261"/>
+      <c r="J1180" s="261"/>
+      <c r="K1180" s="261"/>
+      <c r="L1180" s="261"/>
+      <c r="M1180" s="261"/>
+      <c r="N1180" s="261"/>
+      <c r="O1180" s="261"/>
+      <c r="P1180" s="261"/>
+      <c r="Q1180" s="261"/>
+      <c r="R1180" s="261"/>
+      <c r="S1180" s="261"/>
+      <c r="T1180" s="261"/>
+      <c r="U1180" s="261"/>
+      <c r="V1180" s="261"/>
+      <c r="W1180" s="261"/>
+      <c r="X1180" s="261"/>
+      <c r="Y1180" s="261"/>
+      <c r="Z1180" s="261"/>
+      <c r="AA1180" s="261"/>
+      <c r="AB1180" s="261"/>
+      <c r="AC1180" s="261"/>
+      <c r="AD1180" s="261"/>
+      <c r="AE1180" s="261"/>
+      <c r="AF1180" s="261"/>
+      <c r="AG1180" s="261"/>
+      <c r="AH1180" s="261"/>
     </row>
     <row r="1255" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1255" s="263"/>
-      <c r="C1255" s="263"/>
-      <c r="D1255" s="263"/>
-      <c r="E1255" s="263"/>
-      <c r="F1255" s="263"/>
-      <c r="G1255" s="263"/>
-      <c r="H1255" s="263"/>
-      <c r="I1255" s="263"/>
-      <c r="J1255" s="263"/>
-      <c r="K1255" s="263"/>
-      <c r="L1255" s="263"/>
-      <c r="M1255" s="263"/>
-      <c r="N1255" s="263"/>
-      <c r="O1255" s="263"/>
-      <c r="P1255" s="263"/>
-      <c r="Q1255" s="263"/>
-      <c r="R1255" s="263"/>
-      <c r="S1255" s="263"/>
-      <c r="T1255" s="263"/>
-      <c r="U1255" s="263"/>
-      <c r="V1255" s="263"/>
-      <c r="W1255" s="263"/>
-      <c r="X1255" s="263"/>
-      <c r="Y1255" s="263"/>
-      <c r="Z1255" s="263"/>
-      <c r="AA1255" s="263"/>
-      <c r="AB1255" s="263"/>
-      <c r="AC1255" s="263"/>
-      <c r="AD1255" s="263"/>
-      <c r="AE1255" s="263"/>
-      <c r="AF1255" s="263"/>
-      <c r="AG1255" s="263"/>
-      <c r="AH1255" s="263"/>
+      <c r="B1255" s="261"/>
+      <c r="C1255" s="261"/>
+      <c r="D1255" s="261"/>
+      <c r="E1255" s="261"/>
+      <c r="F1255" s="261"/>
+      <c r="G1255" s="261"/>
+      <c r="H1255" s="261"/>
+      <c r="I1255" s="261"/>
+      <c r="J1255" s="261"/>
+      <c r="K1255" s="261"/>
+      <c r="L1255" s="261"/>
+      <c r="M1255" s="261"/>
+      <c r="N1255" s="261"/>
+      <c r="O1255" s="261"/>
+      <c r="P1255" s="261"/>
+      <c r="Q1255" s="261"/>
+      <c r="R1255" s="261"/>
+      <c r="S1255" s="261"/>
+      <c r="T1255" s="261"/>
+      <c r="U1255" s="261"/>
+      <c r="V1255" s="261"/>
+      <c r="W1255" s="261"/>
+      <c r="X1255" s="261"/>
+      <c r="Y1255" s="261"/>
+      <c r="Z1255" s="261"/>
+      <c r="AA1255" s="261"/>
+      <c r="AB1255" s="261"/>
+      <c r="AC1255" s="261"/>
+      <c r="AD1255" s="261"/>
+      <c r="AE1255" s="261"/>
+      <c r="AF1255" s="261"/>
+      <c r="AG1255" s="261"/>
+      <c r="AH1255" s="261"/>
     </row>
     <row r="1355" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1355" s="263"/>
-      <c r="C1355" s="263"/>
-      <c r="D1355" s="263"/>
-      <c r="E1355" s="263"/>
-      <c r="F1355" s="263"/>
-      <c r="G1355" s="263"/>
-      <c r="H1355" s="263"/>
-      <c r="I1355" s="263"/>
-      <c r="J1355" s="263"/>
-      <c r="K1355" s="263"/>
-      <c r="L1355" s="263"/>
-      <c r="M1355" s="263"/>
-      <c r="N1355" s="263"/>
-      <c r="O1355" s="263"/>
-      <c r="P1355" s="263"/>
-      <c r="Q1355" s="263"/>
-      <c r="R1355" s="263"/>
-      <c r="S1355" s="263"/>
-      <c r="T1355" s="263"/>
-      <c r="U1355" s="263"/>
-      <c r="V1355" s="263"/>
-      <c r="W1355" s="263"/>
-      <c r="X1355" s="263"/>
-      <c r="Y1355" s="263"/>
-      <c r="Z1355" s="263"/>
-      <c r="AA1355" s="263"/>
-      <c r="AB1355" s="263"/>
-      <c r="AC1355" s="263"/>
-      <c r="AD1355" s="263"/>
-      <c r="AE1355" s="263"/>
-      <c r="AF1355" s="263"/>
-      <c r="AG1355" s="263"/>
-      <c r="AH1355" s="263"/>
+      <c r="B1355" s="261"/>
+      <c r="C1355" s="261"/>
+      <c r="D1355" s="261"/>
+      <c r="E1355" s="261"/>
+      <c r="F1355" s="261"/>
+      <c r="G1355" s="261"/>
+      <c r="H1355" s="261"/>
+      <c r="I1355" s="261"/>
+      <c r="J1355" s="261"/>
+      <c r="K1355" s="261"/>
+      <c r="L1355" s="261"/>
+      <c r="M1355" s="261"/>
+      <c r="N1355" s="261"/>
+      <c r="O1355" s="261"/>
+      <c r="P1355" s="261"/>
+      <c r="Q1355" s="261"/>
+      <c r="R1355" s="261"/>
+      <c r="S1355" s="261"/>
+      <c r="T1355" s="261"/>
+      <c r="U1355" s="261"/>
+      <c r="V1355" s="261"/>
+      <c r="W1355" s="261"/>
+      <c r="X1355" s="261"/>
+      <c r="Y1355" s="261"/>
+      <c r="Z1355" s="261"/>
+      <c r="AA1355" s="261"/>
+      <c r="AB1355" s="261"/>
+      <c r="AC1355" s="261"/>
+      <c r="AD1355" s="261"/>
+      <c r="AE1355" s="261"/>
+      <c r="AF1355" s="261"/>
+      <c r="AG1355" s="261"/>
+      <c r="AH1355" s="261"/>
     </row>
     <row r="1527" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1527" s="263"/>
-      <c r="C1527" s="263"/>
-      <c r="D1527" s="263"/>
-      <c r="E1527" s="263"/>
-      <c r="F1527" s="263"/>
-      <c r="G1527" s="263"/>
-      <c r="H1527" s="263"/>
-      <c r="I1527" s="263"/>
-      <c r="J1527" s="263"/>
-      <c r="K1527" s="263"/>
-      <c r="L1527" s="263"/>
-      <c r="M1527" s="263"/>
-      <c r="N1527" s="263"/>
-      <c r="O1527" s="263"/>
-      <c r="P1527" s="263"/>
-      <c r="Q1527" s="263"/>
-      <c r="R1527" s="263"/>
-      <c r="S1527" s="263"/>
-      <c r="T1527" s="263"/>
-      <c r="U1527" s="263"/>
-      <c r="V1527" s="263"/>
-      <c r="W1527" s="263"/>
-      <c r="X1527" s="263"/>
-      <c r="Y1527" s="263"/>
-      <c r="Z1527" s="263"/>
-      <c r="AA1527" s="263"/>
-      <c r="AB1527" s="263"/>
-      <c r="AC1527" s="263"/>
-      <c r="AD1527" s="263"/>
-      <c r="AE1527" s="263"/>
-      <c r="AF1527" s="263"/>
-      <c r="AG1527" s="263"/>
-      <c r="AH1527" s="263"/>
+      <c r="B1527" s="261"/>
+      <c r="C1527" s="261"/>
+      <c r="D1527" s="261"/>
+      <c r="E1527" s="261"/>
+      <c r="F1527" s="261"/>
+      <c r="G1527" s="261"/>
+      <c r="H1527" s="261"/>
+      <c r="I1527" s="261"/>
+      <c r="J1527" s="261"/>
+      <c r="K1527" s="261"/>
+      <c r="L1527" s="261"/>
+      <c r="M1527" s="261"/>
+      <c r="N1527" s="261"/>
+      <c r="O1527" s="261"/>
+      <c r="P1527" s="261"/>
+      <c r="Q1527" s="261"/>
+      <c r="R1527" s="261"/>
+      <c r="S1527" s="261"/>
+      <c r="T1527" s="261"/>
+      <c r="U1527" s="261"/>
+      <c r="V1527" s="261"/>
+      <c r="W1527" s="261"/>
+      <c r="X1527" s="261"/>
+      <c r="Y1527" s="261"/>
+      <c r="Z1527" s="261"/>
+      <c r="AA1527" s="261"/>
+      <c r="AB1527" s="261"/>
+      <c r="AC1527" s="261"/>
+      <c r="AD1527" s="261"/>
+      <c r="AE1527" s="261"/>
+      <c r="AF1527" s="261"/>
+      <c r="AG1527" s="261"/>
+      <c r="AH1527" s="261"/>
     </row>
     <row r="1622" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1622" s="263"/>
-      <c r="C1622" s="263"/>
-      <c r="D1622" s="263"/>
-      <c r="E1622" s="263"/>
-      <c r="F1622" s="263"/>
-      <c r="G1622" s="263"/>
-      <c r="H1622" s="263"/>
-      <c r="I1622" s="263"/>
-      <c r="J1622" s="263"/>
-      <c r="K1622" s="263"/>
-      <c r="L1622" s="263"/>
-      <c r="M1622" s="263"/>
-      <c r="N1622" s="263"/>
-      <c r="O1622" s="263"/>
-      <c r="P1622" s="263"/>
-      <c r="Q1622" s="263"/>
-      <c r="R1622" s="263"/>
-      <c r="S1622" s="263"/>
-      <c r="T1622" s="263"/>
-      <c r="U1622" s="263"/>
-      <c r="V1622" s="263"/>
-      <c r="W1622" s="263"/>
-      <c r="X1622" s="263"/>
-      <c r="Y1622" s="263"/>
-      <c r="Z1622" s="263"/>
-      <c r="AA1622" s="263"/>
-      <c r="AB1622" s="263"/>
-      <c r="AC1622" s="263"/>
-      <c r="AD1622" s="263"/>
-      <c r="AE1622" s="263"/>
-      <c r="AF1622" s="263"/>
-      <c r="AG1622" s="263"/>
-      <c r="AH1622" s="263"/>
+      <c r="B1622" s="261"/>
+      <c r="C1622" s="261"/>
+      <c r="D1622" s="261"/>
+      <c r="E1622" s="261"/>
+      <c r="F1622" s="261"/>
+      <c r="G1622" s="261"/>
+      <c r="H1622" s="261"/>
+      <c r="I1622" s="261"/>
+      <c r="J1622" s="261"/>
+      <c r="K1622" s="261"/>
+      <c r="L1622" s="261"/>
+      <c r="M1622" s="261"/>
+      <c r="N1622" s="261"/>
+      <c r="O1622" s="261"/>
+      <c r="P1622" s="261"/>
+      <c r="Q1622" s="261"/>
+      <c r="R1622" s="261"/>
+      <c r="S1622" s="261"/>
+      <c r="T1622" s="261"/>
+      <c r="U1622" s="261"/>
+      <c r="V1622" s="261"/>
+      <c r="W1622" s="261"/>
+      <c r="X1622" s="261"/>
+      <c r="Y1622" s="261"/>
+      <c r="Z1622" s="261"/>
+      <c r="AA1622" s="261"/>
+      <c r="AB1622" s="261"/>
+      <c r="AC1622" s="261"/>
+      <c r="AD1622" s="261"/>
+      <c r="AE1622" s="261"/>
+      <c r="AF1622" s="261"/>
+      <c r="AG1622" s="261"/>
+      <c r="AH1622" s="261"/>
     </row>
     <row r="1740" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1740" s="263"/>
-      <c r="C1740" s="263"/>
-      <c r="D1740" s="263"/>
-      <c r="E1740" s="263"/>
-      <c r="F1740" s="263"/>
-      <c r="G1740" s="263"/>
-      <c r="H1740" s="263"/>
-      <c r="I1740" s="263"/>
-      <c r="J1740" s="263"/>
-      <c r="K1740" s="263"/>
-      <c r="L1740" s="263"/>
-      <c r="M1740" s="263"/>
-      <c r="N1740" s="263"/>
-      <c r="O1740" s="263"/>
-      <c r="P1740" s="263"/>
-      <c r="Q1740" s="263"/>
-      <c r="R1740" s="263"/>
-      <c r="S1740" s="263"/>
-      <c r="T1740" s="263"/>
-      <c r="U1740" s="263"/>
-      <c r="V1740" s="263"/>
-      <c r="W1740" s="263"/>
-      <c r="X1740" s="263"/>
-      <c r="Y1740" s="263"/>
-      <c r="Z1740" s="263"/>
-      <c r="AA1740" s="263"/>
-      <c r="AB1740" s="263"/>
-      <c r="AC1740" s="263"/>
-      <c r="AD1740" s="263"/>
-      <c r="AE1740" s="263"/>
-      <c r="AF1740" s="263"/>
-      <c r="AG1740" s="263"/>
-      <c r="AH1740" s="263"/>
+      <c r="B1740" s="261"/>
+      <c r="C1740" s="261"/>
+      <c r="D1740" s="261"/>
+      <c r="E1740" s="261"/>
+      <c r="F1740" s="261"/>
+      <c r="G1740" s="261"/>
+      <c r="H1740" s="261"/>
+      <c r="I1740" s="261"/>
+      <c r="J1740" s="261"/>
+      <c r="K1740" s="261"/>
+      <c r="L1740" s="261"/>
+      <c r="M1740" s="261"/>
+      <c r="N1740" s="261"/>
+      <c r="O1740" s="261"/>
+      <c r="P1740" s="261"/>
+      <c r="Q1740" s="261"/>
+      <c r="R1740" s="261"/>
+      <c r="S1740" s="261"/>
+      <c r="T1740" s="261"/>
+      <c r="U1740" s="261"/>
+      <c r="V1740" s="261"/>
+      <c r="W1740" s="261"/>
+      <c r="X1740" s="261"/>
+      <c r="Y1740" s="261"/>
+      <c r="Z1740" s="261"/>
+      <c r="AA1740" s="261"/>
+      <c r="AB1740" s="261"/>
+      <c r="AC1740" s="261"/>
+      <c r="AD1740" s="261"/>
+      <c r="AE1740" s="261"/>
+      <c r="AF1740" s="261"/>
+      <c r="AG1740" s="261"/>
+      <c r="AH1740" s="261"/>
     </row>
     <row r="1840" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1840" s="263"/>
-      <c r="C1840" s="263"/>
-      <c r="D1840" s="263"/>
-      <c r="E1840" s="263"/>
-      <c r="F1840" s="263"/>
-      <c r="G1840" s="263"/>
-      <c r="H1840" s="263"/>
-      <c r="I1840" s="263"/>
-      <c r="J1840" s="263"/>
-      <c r="K1840" s="263"/>
-      <c r="L1840" s="263"/>
-      <c r="M1840" s="263"/>
-      <c r="N1840" s="263"/>
-      <c r="O1840" s="263"/>
-      <c r="P1840" s="263"/>
-      <c r="Q1840" s="263"/>
-      <c r="R1840" s="263"/>
-      <c r="S1840" s="263"/>
-      <c r="T1840" s="263"/>
-      <c r="U1840" s="263"/>
-      <c r="V1840" s="263"/>
-      <c r="W1840" s="263"/>
-      <c r="X1840" s="263"/>
-      <c r="Y1840" s="263"/>
-      <c r="Z1840" s="263"/>
-      <c r="AA1840" s="263"/>
-      <c r="AB1840" s="263"/>
-      <c r="AC1840" s="263"/>
-      <c r="AD1840" s="263"/>
-      <c r="AE1840" s="263"/>
-      <c r="AF1840" s="263"/>
-      <c r="AG1840" s="263"/>
-      <c r="AH1840" s="263"/>
+      <c r="B1840" s="261"/>
+      <c r="C1840" s="261"/>
+      <c r="D1840" s="261"/>
+      <c r="E1840" s="261"/>
+      <c r="F1840" s="261"/>
+      <c r="G1840" s="261"/>
+      <c r="H1840" s="261"/>
+      <c r="I1840" s="261"/>
+      <c r="J1840" s="261"/>
+      <c r="K1840" s="261"/>
+      <c r="L1840" s="261"/>
+      <c r="M1840" s="261"/>
+      <c r="N1840" s="261"/>
+      <c r="O1840" s="261"/>
+      <c r="P1840" s="261"/>
+      <c r="Q1840" s="261"/>
+      <c r="R1840" s="261"/>
+      <c r="S1840" s="261"/>
+      <c r="T1840" s="261"/>
+      <c r="U1840" s="261"/>
+      <c r="V1840" s="261"/>
+      <c r="W1840" s="261"/>
+      <c r="X1840" s="261"/>
+      <c r="Y1840" s="261"/>
+      <c r="Z1840" s="261"/>
+      <c r="AA1840" s="261"/>
+      <c r="AB1840" s="261"/>
+      <c r="AC1840" s="261"/>
+      <c r="AD1840" s="261"/>
+      <c r="AE1840" s="261"/>
+      <c r="AF1840" s="261"/>
+      <c r="AG1840" s="261"/>
+      <c r="AH1840" s="261"/>
     </row>
     <row r="1940" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1940" s="263"/>
-      <c r="C1940" s="263"/>
-      <c r="D1940" s="263"/>
-      <c r="E1940" s="263"/>
-      <c r="F1940" s="263"/>
-      <c r="G1940" s="263"/>
-      <c r="H1940" s="263"/>
-      <c r="I1940" s="263"/>
-      <c r="J1940" s="263"/>
-      <c r="K1940" s="263"/>
-      <c r="L1940" s="263"/>
-      <c r="M1940" s="263"/>
-      <c r="N1940" s="263"/>
-      <c r="O1940" s="263"/>
-      <c r="P1940" s="263"/>
-      <c r="Q1940" s="263"/>
-      <c r="R1940" s="263"/>
-      <c r="S1940" s="263"/>
-      <c r="T1940" s="263"/>
-      <c r="U1940" s="263"/>
-      <c r="V1940" s="263"/>
-      <c r="W1940" s="263"/>
-      <c r="X1940" s="263"/>
-      <c r="Y1940" s="263"/>
-      <c r="Z1940" s="263"/>
-      <c r="AA1940" s="263"/>
-      <c r="AB1940" s="263"/>
-      <c r="AC1940" s="263"/>
-      <c r="AD1940" s="263"/>
-      <c r="AE1940" s="263"/>
-      <c r="AF1940" s="263"/>
-      <c r="AG1940" s="263"/>
-      <c r="AH1940" s="263"/>
+      <c r="B1940" s="261"/>
+      <c r="C1940" s="261"/>
+      <c r="D1940" s="261"/>
+      <c r="E1940" s="261"/>
+      <c r="F1940" s="261"/>
+      <c r="G1940" s="261"/>
+      <c r="H1940" s="261"/>
+      <c r="I1940" s="261"/>
+      <c r="J1940" s="261"/>
+      <c r="K1940" s="261"/>
+      <c r="L1940" s="261"/>
+      <c r="M1940" s="261"/>
+      <c r="N1940" s="261"/>
+      <c r="O1940" s="261"/>
+      <c r="P1940" s="261"/>
+      <c r="Q1940" s="261"/>
+      <c r="R1940" s="261"/>
+      <c r="S1940" s="261"/>
+      <c r="T1940" s="261"/>
+      <c r="U1940" s="261"/>
+      <c r="V1940" s="261"/>
+      <c r="W1940" s="261"/>
+      <c r="X1940" s="261"/>
+      <c r="Y1940" s="261"/>
+      <c r="Z1940" s="261"/>
+      <c r="AA1940" s="261"/>
+      <c r="AB1940" s="261"/>
+      <c r="AC1940" s="261"/>
+      <c r="AD1940" s="261"/>
+      <c r="AE1940" s="261"/>
+      <c r="AF1940" s="261"/>
+      <c r="AG1940" s="261"/>
+      <c r="AH1940" s="261"/>
     </row>
     <row r="2040" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2040" s="263"/>
-      <c r="C2040" s="263"/>
-      <c r="D2040" s="263"/>
-      <c r="E2040" s="263"/>
-      <c r="F2040" s="263"/>
-      <c r="G2040" s="263"/>
-      <c r="H2040" s="263"/>
-      <c r="I2040" s="263"/>
-      <c r="J2040" s="263"/>
-      <c r="K2040" s="263"/>
-      <c r="L2040" s="263"/>
-      <c r="M2040" s="263"/>
-      <c r="N2040" s="263"/>
-      <c r="O2040" s="263"/>
-      <c r="P2040" s="263"/>
-      <c r="Q2040" s="263"/>
-      <c r="R2040" s="263"/>
-      <c r="S2040" s="263"/>
-      <c r="T2040" s="263"/>
-      <c r="U2040" s="263"/>
-      <c r="V2040" s="263"/>
-      <c r="W2040" s="263"/>
-      <c r="X2040" s="263"/>
-      <c r="Y2040" s="263"/>
-      <c r="Z2040" s="263"/>
-      <c r="AA2040" s="263"/>
-      <c r="AB2040" s="263"/>
-      <c r="AC2040" s="263"/>
-      <c r="AD2040" s="263"/>
-      <c r="AE2040" s="263"/>
-      <c r="AF2040" s="263"/>
-      <c r="AG2040" s="263"/>
-      <c r="AH2040" s="263"/>
+      <c r="B2040" s="261"/>
+      <c r="C2040" s="261"/>
+      <c r="D2040" s="261"/>
+      <c r="E2040" s="261"/>
+      <c r="F2040" s="261"/>
+      <c r="G2040" s="261"/>
+      <c r="H2040" s="261"/>
+      <c r="I2040" s="261"/>
+      <c r="J2040" s="261"/>
+      <c r="K2040" s="261"/>
+      <c r="L2040" s="261"/>
+      <c r="M2040" s="261"/>
+      <c r="N2040" s="261"/>
+      <c r="O2040" s="261"/>
+      <c r="P2040" s="261"/>
+      <c r="Q2040" s="261"/>
+      <c r="R2040" s="261"/>
+      <c r="S2040" s="261"/>
+      <c r="T2040" s="261"/>
+      <c r="U2040" s="261"/>
+      <c r="V2040" s="261"/>
+      <c r="W2040" s="261"/>
+      <c r="X2040" s="261"/>
+      <c r="Y2040" s="261"/>
+      <c r="Z2040" s="261"/>
+      <c r="AA2040" s="261"/>
+      <c r="AB2040" s="261"/>
+      <c r="AC2040" s="261"/>
+      <c r="AD2040" s="261"/>
+      <c r="AE2040" s="261"/>
+      <c r="AF2040" s="261"/>
+      <c r="AG2040" s="261"/>
+      <c r="AH2040" s="261"/>
     </row>
     <row r="2140" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2140" s="263"/>
-      <c r="C2140" s="263"/>
-      <c r="D2140" s="263"/>
-      <c r="E2140" s="263"/>
-      <c r="F2140" s="263"/>
-      <c r="G2140" s="263"/>
-      <c r="H2140" s="263"/>
-      <c r="I2140" s="263"/>
-      <c r="J2140" s="263"/>
-      <c r="K2140" s="263"/>
-      <c r="L2140" s="263"/>
-      <c r="M2140" s="263"/>
-      <c r="N2140" s="263"/>
-      <c r="O2140" s="263"/>
-      <c r="P2140" s="263"/>
-      <c r="Q2140" s="263"/>
-      <c r="R2140" s="263"/>
-      <c r="S2140" s="263"/>
-      <c r="T2140" s="263"/>
-      <c r="U2140" s="263"/>
-      <c r="V2140" s="263"/>
-      <c r="W2140" s="263"/>
-      <c r="X2140" s="263"/>
-      <c r="Y2140" s="263"/>
-      <c r="Z2140" s="263"/>
-      <c r="AA2140" s="263"/>
-      <c r="AB2140" s="263"/>
-      <c r="AC2140" s="263"/>
-      <c r="AD2140" s="263"/>
-      <c r="AE2140" s="263"/>
-      <c r="AF2140" s="263"/>
-      <c r="AG2140" s="263"/>
-      <c r="AH2140" s="263"/>
+      <c r="B2140" s="261"/>
+      <c r="C2140" s="261"/>
+      <c r="D2140" s="261"/>
+      <c r="E2140" s="261"/>
+      <c r="F2140" s="261"/>
+      <c r="G2140" s="261"/>
+      <c r="H2140" s="261"/>
+      <c r="I2140" s="261"/>
+      <c r="J2140" s="261"/>
+      <c r="K2140" s="261"/>
+      <c r="L2140" s="261"/>
+      <c r="M2140" s="261"/>
+      <c r="N2140" s="261"/>
+      <c r="O2140" s="261"/>
+      <c r="P2140" s="261"/>
+      <c r="Q2140" s="261"/>
+      <c r="R2140" s="261"/>
+      <c r="S2140" s="261"/>
+      <c r="T2140" s="261"/>
+      <c r="U2140" s="261"/>
+      <c r="V2140" s="261"/>
+      <c r="W2140" s="261"/>
+      <c r="X2140" s="261"/>
+      <c r="Y2140" s="261"/>
+      <c r="Z2140" s="261"/>
+      <c r="AA2140" s="261"/>
+      <c r="AB2140" s="261"/>
+      <c r="AC2140" s="261"/>
+      <c r="AD2140" s="261"/>
+      <c r="AE2140" s="261"/>
+      <c r="AF2140" s="261"/>
+      <c r="AG2140" s="261"/>
+      <c r="AH2140" s="261"/>
     </row>
     <row r="2240" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2240" s="263"/>
-      <c r="C2240" s="263"/>
-      <c r="D2240" s="263"/>
-      <c r="E2240" s="263"/>
-      <c r="F2240" s="263"/>
-      <c r="G2240" s="263"/>
-      <c r="H2240" s="263"/>
-      <c r="I2240" s="263"/>
-      <c r="J2240" s="263"/>
-      <c r="K2240" s="263"/>
-      <c r="L2240" s="263"/>
-      <c r="M2240" s="263"/>
-      <c r="N2240" s="263"/>
-      <c r="O2240" s="263"/>
-      <c r="P2240" s="263"/>
-      <c r="Q2240" s="263"/>
-      <c r="R2240" s="263"/>
-      <c r="S2240" s="263"/>
-      <c r="T2240" s="263"/>
-      <c r="U2240" s="263"/>
-      <c r="V2240" s="263"/>
-      <c r="W2240" s="263"/>
-      <c r="X2240" s="263"/>
-      <c r="Y2240" s="263"/>
-      <c r="Z2240" s="263"/>
-      <c r="AA2240" s="263"/>
-      <c r="AB2240" s="263"/>
-      <c r="AC2240" s="263"/>
-      <c r="AD2240" s="263"/>
-      <c r="AE2240" s="263"/>
-      <c r="AF2240" s="263"/>
-      <c r="AG2240" s="263"/>
-      <c r="AH2240" s="263"/>
+      <c r="B2240" s="261"/>
+      <c r="C2240" s="261"/>
+      <c r="D2240" s="261"/>
+      <c r="E2240" s="261"/>
+      <c r="F2240" s="261"/>
+      <c r="G2240" s="261"/>
+      <c r="H2240" s="261"/>
+      <c r="I2240" s="261"/>
+      <c r="J2240" s="261"/>
+      <c r="K2240" s="261"/>
+      <c r="L2240" s="261"/>
+      <c r="M2240" s="261"/>
+      <c r="N2240" s="261"/>
+      <c r="O2240" s="261"/>
+      <c r="P2240" s="261"/>
+      <c r="Q2240" s="261"/>
+      <c r="R2240" s="261"/>
+      <c r="S2240" s="261"/>
+      <c r="T2240" s="261"/>
+      <c r="U2240" s="261"/>
+      <c r="V2240" s="261"/>
+      <c r="W2240" s="261"/>
+      <c r="X2240" s="261"/>
+      <c r="Y2240" s="261"/>
+      <c r="Z2240" s="261"/>
+      <c r="AA2240" s="261"/>
+      <c r="AB2240" s="261"/>
+      <c r="AC2240" s="261"/>
+      <c r="AD2240" s="261"/>
+      <c r="AE2240" s="261"/>
+      <c r="AF2240" s="261"/>
+      <c r="AG2240" s="261"/>
+      <c r="AH2240" s="261"/>
     </row>
     <row r="2340" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2340" s="263"/>
-      <c r="C2340" s="263"/>
-      <c r="D2340" s="263"/>
-      <c r="E2340" s="263"/>
-      <c r="F2340" s="263"/>
-      <c r="G2340" s="263"/>
-      <c r="H2340" s="263"/>
-      <c r="I2340" s="263"/>
-      <c r="J2340" s="263"/>
-      <c r="K2340" s="263"/>
-      <c r="L2340" s="263"/>
-      <c r="M2340" s="263"/>
-      <c r="N2340" s="263"/>
-      <c r="O2340" s="263"/>
-      <c r="P2340" s="263"/>
-      <c r="Q2340" s="263"/>
-      <c r="R2340" s="263"/>
-      <c r="S2340" s="263"/>
-      <c r="T2340" s="263"/>
-      <c r="U2340" s="263"/>
-      <c r="V2340" s="263"/>
-      <c r="W2340" s="263"/>
-      <c r="X2340" s="263"/>
-      <c r="Y2340" s="263"/>
-      <c r="Z2340" s="263"/>
-      <c r="AA2340" s="263"/>
-      <c r="AB2340" s="263"/>
-      <c r="AC2340" s="263"/>
-      <c r="AD2340" s="263"/>
-      <c r="AE2340" s="263"/>
-      <c r="AF2340" s="263"/>
-      <c r="AG2340" s="263"/>
-      <c r="AH2340" s="263"/>
+      <c r="B2340" s="261"/>
+      <c r="C2340" s="261"/>
+      <c r="D2340" s="261"/>
+      <c r="E2340" s="261"/>
+      <c r="F2340" s="261"/>
+      <c r="G2340" s="261"/>
+      <c r="H2340" s="261"/>
+      <c r="I2340" s="261"/>
+      <c r="J2340" s="261"/>
+      <c r="K2340" s="261"/>
+      <c r="L2340" s="261"/>
+      <c r="M2340" s="261"/>
+      <c r="N2340" s="261"/>
+      <c r="O2340" s="261"/>
+      <c r="P2340" s="261"/>
+      <c r="Q2340" s="261"/>
+      <c r="R2340" s="261"/>
+      <c r="S2340" s="261"/>
+      <c r="T2340" s="261"/>
+      <c r="U2340" s="261"/>
+      <c r="V2340" s="261"/>
+      <c r="W2340" s="261"/>
+      <c r="X2340" s="261"/>
+      <c r="Y2340" s="261"/>
+      <c r="Z2340" s="261"/>
+      <c r="AA2340" s="261"/>
+      <c r="AB2340" s="261"/>
+      <c r="AC2340" s="261"/>
+      <c r="AD2340" s="261"/>
+      <c r="AE2340" s="261"/>
+      <c r="AF2340" s="261"/>
+      <c r="AG2340" s="261"/>
+      <c r="AH2340" s="261"/>
     </row>
     <row r="2440" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2440" s="263"/>
-      <c r="C2440" s="263"/>
-      <c r="D2440" s="263"/>
-      <c r="E2440" s="263"/>
-      <c r="F2440" s="263"/>
-      <c r="G2440" s="263"/>
-      <c r="H2440" s="263"/>
-      <c r="I2440" s="263"/>
-      <c r="J2440" s="263"/>
-      <c r="K2440" s="263"/>
-      <c r="L2440" s="263"/>
-      <c r="M2440" s="263"/>
-      <c r="N2440" s="263"/>
-      <c r="O2440" s="263"/>
-      <c r="P2440" s="263"/>
-      <c r="Q2440" s="263"/>
-      <c r="R2440" s="263"/>
-      <c r="S2440" s="263"/>
-      <c r="T2440" s="263"/>
-      <c r="U2440" s="263"/>
-      <c r="V2440" s="263"/>
-      <c r="W2440" s="263"/>
-      <c r="X2440" s="263"/>
-      <c r="Y2440" s="263"/>
-      <c r="Z2440" s="263"/>
-      <c r="AA2440" s="263"/>
-      <c r="AB2440" s="263"/>
-      <c r="AC2440" s="263"/>
-      <c r="AD2440" s="263"/>
-      <c r="AE2440" s="263"/>
-      <c r="AF2440" s="263"/>
-      <c r="AG2440" s="263"/>
-      <c r="AH2440" s="263"/>
+      <c r="B2440" s="261"/>
+      <c r="C2440" s="261"/>
+      <c r="D2440" s="261"/>
+      <c r="E2440" s="261"/>
+      <c r="F2440" s="261"/>
+      <c r="G2440" s="261"/>
+      <c r="H2440" s="261"/>
+      <c r="I2440" s="261"/>
+      <c r="J2440" s="261"/>
+      <c r="K2440" s="261"/>
+      <c r="L2440" s="261"/>
+      <c r="M2440" s="261"/>
+      <c r="N2440" s="261"/>
+      <c r="O2440" s="261"/>
+      <c r="P2440" s="261"/>
+      <c r="Q2440" s="261"/>
+      <c r="R2440" s="261"/>
+      <c r="S2440" s="261"/>
+      <c r="T2440" s="261"/>
+      <c r="U2440" s="261"/>
+      <c r="V2440" s="261"/>
+      <c r="W2440" s="261"/>
+      <c r="X2440" s="261"/>
+      <c r="Y2440" s="261"/>
+      <c r="Z2440" s="261"/>
+      <c r="AA2440" s="261"/>
+      <c r="AB2440" s="261"/>
+      <c r="AC2440" s="261"/>
+      <c r="AD2440" s="261"/>
+      <c r="AE2440" s="261"/>
+      <c r="AF2440" s="261"/>
+      <c r="AG2440" s="261"/>
+      <c r="AH2440" s="261"/>
     </row>
     <row r="2540" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2540" s="263"/>
-      <c r="C2540" s="263"/>
-      <c r="D2540" s="263"/>
-      <c r="E2540" s="263"/>
-      <c r="F2540" s="263"/>
-      <c r="G2540" s="263"/>
-      <c r="H2540" s="263"/>
-      <c r="I2540" s="263"/>
-      <c r="J2540" s="263"/>
-      <c r="K2540" s="263"/>
-      <c r="L2540" s="263"/>
-      <c r="M2540" s="263"/>
-      <c r="N2540" s="263"/>
-      <c r="O2540" s="263"/>
-      <c r="P2540" s="263"/>
-      <c r="Q2540" s="263"/>
-      <c r="R2540" s="263"/>
-      <c r="S2540" s="263"/>
-      <c r="T2540" s="263"/>
-      <c r="U2540" s="263"/>
-      <c r="V2540" s="263"/>
-      <c r="W2540" s="263"/>
-      <c r="X2540" s="263"/>
-      <c r="Y2540" s="263"/>
-      <c r="Z2540" s="263"/>
-      <c r="AA2540" s="263"/>
-      <c r="AB2540" s="263"/>
-      <c r="AC2540" s="263"/>
-      <c r="AD2540" s="263"/>
-      <c r="AE2540" s="263"/>
-      <c r="AF2540" s="263"/>
-      <c r="AG2540" s="263"/>
-      <c r="AH2540" s="263"/>
+      <c r="B2540" s="261"/>
+      <c r="C2540" s="261"/>
+      <c r="D2540" s="261"/>
+      <c r="E2540" s="261"/>
+      <c r="F2540" s="261"/>
+      <c r="G2540" s="261"/>
+      <c r="H2540" s="261"/>
+      <c r="I2540" s="261"/>
+      <c r="J2540" s="261"/>
+      <c r="K2540" s="261"/>
+      <c r="L2540" s="261"/>
+      <c r="M2540" s="261"/>
+      <c r="N2540" s="261"/>
+      <c r="O2540" s="261"/>
+      <c r="P2540" s="261"/>
+      <c r="Q2540" s="261"/>
+      <c r="R2540" s="261"/>
+      <c r="S2540" s="261"/>
+      <c r="T2540" s="261"/>
+      <c r="U2540" s="261"/>
+      <c r="V2540" s="261"/>
+      <c r="W2540" s="261"/>
+      <c r="X2540" s="261"/>
+      <c r="Y2540" s="261"/>
+      <c r="Z2540" s="261"/>
+      <c r="AA2540" s="261"/>
+      <c r="AB2540" s="261"/>
+      <c r="AC2540" s="261"/>
+      <c r="AD2540" s="261"/>
+      <c r="AE2540" s="261"/>
+      <c r="AF2540" s="261"/>
+      <c r="AG2540" s="261"/>
+      <c r="AH2540" s="261"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B80:AG80"/>
+    <mergeCell ref="B88:AH88"/>
+    <mergeCell ref="B213:AH213"/>
+    <mergeCell ref="B379:AH379"/>
+    <mergeCell ref="B496:AH496"/>
+    <mergeCell ref="B648:AH648"/>
+    <mergeCell ref="B748:AH748"/>
+    <mergeCell ref="B839:AH839"/>
+    <mergeCell ref="B910:AH910"/>
+    <mergeCell ref="B1005:AH1005"/>
+    <mergeCell ref="B1105:AH1105"/>
+    <mergeCell ref="B1180:AH1180"/>
+    <mergeCell ref="B1255:AH1255"/>
+    <mergeCell ref="B1355:AH1355"/>
+    <mergeCell ref="B1527:AH1527"/>
     <mergeCell ref="B1622:AH1622"/>
     <mergeCell ref="B1740:AH1740"/>
     <mergeCell ref="B1840:AH1840"/>
@@ -29159,21 +29174,6 @@
     <mergeCell ref="B2240:AH2240"/>
     <mergeCell ref="B2340:AH2340"/>
     <mergeCell ref="B2440:AH2440"/>
-    <mergeCell ref="B1105:AH1105"/>
-    <mergeCell ref="B1180:AH1180"/>
-    <mergeCell ref="B1255:AH1255"/>
-    <mergeCell ref="B1355:AH1355"/>
-    <mergeCell ref="B1527:AH1527"/>
-    <mergeCell ref="B648:AH648"/>
-    <mergeCell ref="B748:AH748"/>
-    <mergeCell ref="B839:AH839"/>
-    <mergeCell ref="B910:AH910"/>
-    <mergeCell ref="B1005:AH1005"/>
-    <mergeCell ref="B80:AG80"/>
-    <mergeCell ref="B88:AH88"/>
-    <mergeCell ref="B213:AH213"/>
-    <mergeCell ref="B379:AH379"/>
-    <mergeCell ref="B496:AH496"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29800,7 +29800,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B21" s="76">
         <v>129487.84757606639</v>
@@ -29914,7 +29914,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B25" s="76">
         <v>118237.434842673</v>
@@ -30568,7 +30568,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="75" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B47" s="76">
         <v>112060.7</v>
@@ -31355,7 +31355,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="75" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B75" s="76">
         <v>28385750.368920002</v>
@@ -31548,7 +31548,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="98" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B82" s="76">
         <v>15929000</v>
@@ -31806,7 +31806,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="145" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B92" s="146">
         <v>152370.90134048002</v>
@@ -33528,27 +33528,27 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="49" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B158" s="49" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C158" s="49" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D158" s="49" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E158" s="49" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F158" s="49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="49" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B159" s="49">
         <v>1</v>
@@ -33568,7 +33568,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="49" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B160" s="49">
         <v>1E-3</v>
@@ -33588,7 +33588,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="49" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B161" s="49">
         <v>9.9999999999999995E-7</v>
@@ -33608,7 +33608,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="49" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B162" s="49">
         <v>3.2808398950131233E-3</v>
@@ -33628,7 +33628,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B163" s="49">
         <v>6.2137273664980671E-7</v>
@@ -34750,7 +34750,7 @@
   <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37482,7 +37482,7 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="232" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B26" s="232"/>
       <c r="C26" s="233"/>
